--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="472">
   <si>
     <t>Hash</t>
   </si>
@@ -109,591 +109,594 @@
     <t>Apache MD5</t>
   </si>
   <si>
+    <t>^\$apr1\$[a-z0-9\/\.]{0,8}\$[a-z0-9\/\.]{22}$</t>
+  </si>
+  <si>
+    <t>$apr1$2apDSb1n$VBnEoNgWg47PB5hZyt8kr/</t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.apr_md5_crypt.html</t>
+  </si>
+  <si>
+    <t>regex changed</t>
+  </si>
+  <si>
+    <t>BCrypt(SHA256)</t>
+  </si>
+  <si>
+    <t>^\$bcrypt-sha256\$.{5}\$[a-z0-9\/\.]{22}\$[a-z0-9\/\.]{31}$</t>
+  </si>
+  <si>
+    <t>$bcrypt-sha256$2a,12$LrmaIX5x4TRtAwEfwJZa1.$2ehnw6LvuIUTM0iz4iz9hTxv21B6KFO</t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.bcrypt_sha256.html</t>
+  </si>
+  <si>
+    <t>Blowfish(Eggdrop)</t>
+  </si>
+  <si>
+    <t>^\+[a-z0-9\/\.]{12}$</t>
+  </si>
+  <si>
+    <t>+3nynz1ThEqm.</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Blowfish%28Eggdrop%29</t>
+  </si>
+  <si>
+    <t>Blowfish(OpenBSD)</t>
+  </si>
+  <si>
+    <t>^(\$2a|\$2y|\$2)\$[0-9]{0,2}?\$[a-z0-9\/\.]{53}$</t>
+  </si>
+  <si>
+    <t>$2a$12$GhvMmNVjRW29ulnudl.LbuAnUtN/LRfe1JsBm1Xu6LE3059z5Tr8m</t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.bcrypt.html</t>
+  </si>
+  <si>
+    <t>BSDi Crypt</t>
+  </si>
+  <si>
+    <t>^_[a-z0-9\/\.]{19}$</t>
+  </si>
+  <si>
+    <t>_EQ0.jzhSVeUyoSqLupI</t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.bsdi_crypt.html</t>
+  </si>
+  <si>
+    <t>Cisco-IOS(MD5)</t>
+  </si>
+  <si>
+    <t>^\$1\$[a-z0-9\/\.]{0,8}\$[a-z0-9\/\.]{22}$</t>
+  </si>
+  <si>
+    <t>dRRVnUmUHXOTt9nk</t>
+  </si>
+  <si>
+    <t>Cisco-IOS(SHA256)</t>
+  </si>
+  <si>
+    <t>^[a-z0-9]{43}$</t>
+  </si>
+  <si>
+    <t>2btjjy78REtmYkkW0csHUbJZOstRXoWdX1mGrmmfeHI</t>
+  </si>
+  <si>
+    <t>Cisco-PIX(MD5)</t>
+  </si>
+  <si>
+    <t>^[a-z0-9\/\.]{16}$</t>
+  </si>
+  <si>
+    <t>Itn9sO/yhumXJ7Jv</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/MD5%28Cisco_PIX%29</t>
+  </si>
+  <si>
+    <t>Citrix Netscaler</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{49}$</t>
+  </si>
+  <si>
+    <t>14dfca1e6c0f5f3d96526c3ce70849992b7fad3e324cf6b0f</t>
+  </si>
+  <si>
+    <t>http://www.openwall.com/lists/john-users/2013/11/05/1</t>
+  </si>
+  <si>
+    <t>CRC-16</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{4}$</t>
+  </si>
+  <si>
+    <t>e268</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/CRC-16</t>
+  </si>
+  <si>
+    <t>CRC-16-CCITT</t>
+  </si>
+  <si>
+    <t>d309</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/CRC-16-CCITT</t>
+  </si>
+  <si>
+    <t>CRC-32</t>
+  </si>
+  <si>
+    <t>8423d781</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/CRC-32</t>
+  </si>
+  <si>
+    <t>CRC-32B</t>
+  </si>
+  <si>
+    <t>3099922c</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/CRC-32B</t>
+  </si>
+  <si>
+    <t>CRC-64</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{16}$</t>
+  </si>
+  <si>
+    <t>07022f35f1bd9d09</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/CRC-64</t>
+  </si>
+  <si>
+    <t>CRC-96(ZIP)</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{24}$</t>
+  </si>
+  <si>
+    <t>42ef4ac38d167254428e6d93</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/CRC-96%28ZIP%29</t>
+  </si>
+  <si>
+    <t>Crypt16</t>
+  </si>
+  <si>
+    <t>^[a-z0-9\/\.]{24}$</t>
+  </si>
+  <si>
+    <t>aaX/UmCcBrceQ0kQGGWKTbuE</t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.crypt16.html</t>
+  </si>
+  <si>
+    <t>CryptoCurrency(Adress)</t>
+  </si>
+  <si>
+    <t>^[a-z0-9]{34}$</t>
+  </si>
+  <si>
+    <t>1DmdmYMET7dnwg9x9eoKxW7xaeVsoNa8X9</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Cryptocurrency</t>
+  </si>
+  <si>
+    <t>CryptoCurrency(PrivateKey)</t>
+  </si>
+  <si>
+    <t>^[a-z0-9]{51}$</t>
+  </si>
+  <si>
+    <t>5Jk1pUzwVUoRPxtihTnE4hA2MLfYbCXRdXxHqPx9qUboRYoUKJT</t>
+  </si>
+  <si>
+    <t>DES(Oracle)</t>
+  </si>
+  <si>
+    <t>01E7789E37CB2C95</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/DES%28Oracle%29</t>
+  </si>
+  <si>
+    <t>DES(Unix)</t>
+  </si>
+  <si>
+    <t>^[a-z0-9\/\.]{13}$</t>
+  </si>
+  <si>
+    <t>G8n0KRCTGO8SY</t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.des_crypt.html</t>
+  </si>
+  <si>
+    <t>Domain Cached Credentials</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{32}$</t>
+  </si>
+  <si>
+    <t>25fd08fa89795ed54207e6e8442a6ca0</t>
+  </si>
+  <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.msdcc.html</t>
+  </si>
+  <si>
+    <t>Domain Cached Credentials v2</t>
+  </si>
+  <si>
+    <t>4c253e4b65c007a8cd683ea57bc43c76</t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.msdcc2.html</t>
+  </si>
+  <si>
+    <t>Drupal7</t>
+  </si>
+  <si>
+    <t>^\$S\$[a-z0-9\/\.]{52}$</t>
+  </si>
+  <si>
+    <t>$S$C12345678DZ5MRSrL1r2lsmcx47tViKr9s/gaIJN5ruRSS.X6BRk</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/SHA-512%28Drupal%29</t>
+  </si>
+  <si>
+    <t>ELF-32</t>
+  </si>
+  <si>
+    <t>00067894</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/ELF-32</t>
+  </si>
+  <si>
+    <t>EPiServer 6.x &lt; v4</t>
+  </si>
+  <si>
+    <t>^\$episerver\$\*0\*[a-z0-9=\*+]{52}$</t>
+  </si>
+  <si>
+    <t>$episerver$*0*bEtiVGhPNlZpcUN4a3ExTg==*utkfN0EOgljbv5FoZ6+AcZD5iLk</t>
+  </si>
+  <si>
+    <t>EPiServer 6.x &gt; v4</t>
+  </si>
+  <si>
+    <t>^\$episerver\$\*1\*[a-z0-9=\*+]{68}$</t>
+  </si>
+  <si>
+    <t>$episerver$*1*MDEyMzQ1Njc4OWFiY2RlZg==*lRjiU46qHA7S6ZE7RfKUcYhB85ofArj1j7TrCtu3u6Y</t>
+  </si>
+  <si>
+    <t>FCS-16</t>
+  </si>
+  <si>
+    <t>a36b</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/FCS-16</t>
+  </si>
+  <si>
+    <t>FCS-32</t>
+  </si>
+  <si>
+    <t>11cd82ed</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/FCS-32</t>
+  </si>
+  <si>
+    <t>Fletcher-32</t>
+  </si>
+  <si>
+    <t>8a01d403</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Fletcher-32</t>
+  </si>
+  <si>
+    <t>FNV-132</t>
+  </si>
+  <si>
+    <t>b9de7375</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/FNV-32</t>
+  </si>
+  <si>
+    <t>FNV-164</t>
+  </si>
+  <si>
+    <t>8d0b972bd2e4ce16</t>
+  </si>
+  <si>
+    <t>http://www.isthe.com/chongo/tech/comp/fnv/</t>
+  </si>
+  <si>
+    <t>Fortigate(FortiOS)</t>
+  </si>
+  <si>
+    <t>^[a-z0-9]{47}$</t>
+  </si>
+  <si>
+    <t>AK1AAECAwQFBgcICRARNGqgeC3is8gv2xWWRony9NJnDgEA</t>
+  </si>
+  <si>
+    <t>FreeBSD MD5</t>
+  </si>
+  <si>
+    <t>GHash-32-3</t>
+  </si>
+  <si>
+    <t>0001371a</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/GHash-32-3</t>
+  </si>
+  <si>
+    <t>GHash-32-5</t>
+  </si>
+  <si>
+    <t>0036deca</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/GHash-32-5</t>
+  </si>
+  <si>
+    <t>GOST R 34.11-94</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{64}$</t>
+  </si>
+  <si>
+    <t>ce85b99cc46752fffee35cab9a7b0278abb4c2d2055cff685af4912c49490f8d</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/GOST_R_34.11-94</t>
+  </si>
+  <si>
+    <t>GRUB 2</t>
+  </si>
+  <si>
+    <t>^grub\.pbkdf2\.sha512\..+$</t>
+  </si>
+  <si>
+    <t>grub.pbkdf2.sha512.10000.7d391ef48645f626b427b1fae06a7219b5b54f4f02b2621f86b5e36e83ae492bd1db60871e45bc07925cecb46ff8ba3db31c723c0c6acbd4f06f60c5b246ecbf.26d59c52b50df90d043f070bd9cbcd92a74424da42b3666fdeb08f1a54b8f1d2f4f56cf436f9382419c26798dc2c209a86003982b1e5a9fcef905f4dfaa4c524</t>
+  </si>
+  <si>
+    <t>Half MD5</t>
+  </si>
+  <si>
+    <t>8743b52063cd8409</t>
+  </si>
+  <si>
+    <t>HAS-160</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{40}$</t>
+  </si>
+  <si>
+    <t>6746df56b6210ed660ab01b8d8886a8237389bd5</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/HAS-160</t>
+  </si>
+  <si>
+    <t>Haval-128</t>
+  </si>
+  <si>
+    <t>c68f39913f901f3ddf44c707357a7d70</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/HAVAL</t>
+  </si>
+  <si>
+    <t>Haval-160</t>
+  </si>
+  <si>
+    <t>d353c3ae22a25401d257643836d7231a9a95f953</t>
+  </si>
+  <si>
+    <t>Haval-192</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{48}$</t>
+  </si>
+  <si>
+    <t>e9c48d7903eaf2a91c5b350151efcb175c0fc82de2289a4e</t>
+  </si>
+  <si>
+    <t>Haval-224</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{56}$</t>
+  </si>
+  <si>
+    <t>c5aae9d47bffcaaf84a8c6e7ccacd60a0dd1932be7b1a192b9214b6d</t>
+  </si>
+  <si>
+    <t>Haval-256</t>
+  </si>
+  <si>
+    <t>4f6938531f0bc8991f62da7bbd6f7de3fad44562b8c6f4ebf146d5b4e46f7c17</t>
+  </si>
+  <si>
+    <t>IP.Board v2+</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{32}:.{5}$</t>
+  </si>
+  <si>
+    <t>iSCSI CHAP Authentication</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{32}:[0-9]{32}:[0-9]{2}$</t>
+  </si>
+  <si>
+    <t>afd09efdd6f8ca9f18ec77c5869788c3:01020304050607080910111213141516:01</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Challenge-Handshake_Authentication_Protocol</t>
+  </si>
+  <si>
+    <t>Joaat</t>
+  </si>
+  <si>
+    <t>0e34a138</t>
+  </si>
+  <si>
+    <t>Joomla</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{32}:[a-z0-9]{32}$</t>
+  </si>
+  <si>
+    <t>4e9e4bcc5752d6f939aedb42408fd3aa:0vURRbyY8Ea0tlvnTFn7xcKpjTFyn0YT</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/10428126/joomla-password-encryption</t>
+  </si>
+  <si>
+    <t>Keccak-224</t>
+  </si>
+  <si>
+    <t>ab01e6fda4206a97d3a6abf24dfa5359693628f545c234ffb4ac653d</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/SHA-3</t>
+  </si>
+  <si>
+    <t>Keccak-256</t>
+  </si>
+  <si>
+    <t>bc8a27e5be2d4c2ea01f7ff6bc6ae4731d28c993ccf1da2e8bda8f88cffe8f45</t>
+  </si>
+  <si>
+    <t>Keccak-384</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{96}$</t>
+  </si>
+  <si>
+    <t>f6f9bed0343f511cf1f635b81fdee2b23eba5aa49b764cf8842fc02a55368a760b74d80418f37aa9b680d4ce11fc96e1</t>
+  </si>
+  <si>
+    <t>Keccak-512</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{128}$</t>
+  </si>
+  <si>
+    <t>2d7421aeb3bae997944090ba7e1c1df448dd92af995af28fa58737d2cc0b0ecc955a9c747cd701e70edfe41e8e3d76740700df60926886c540a80cfa76854da5</t>
+  </si>
+  <si>
+    <t>Kerberos 5 AS-REQ Pre-Auth</t>
+  </si>
+  <si>
+    <t>^\$krb5pa\$.+$</t>
+  </si>
+  <si>
+    <t>$krb5pa$23$user$realm$salt$4e751db65422b2117f7eac7b721932dc8aa0d9966785ecd958f971f622bf5c42dc0c70b532363138363631363132333238383835</t>
+  </si>
+  <si>
+    <t>LDAP(SSHA512)</t>
+  </si>
+  <si>
+    <t>^{SSHA512}[a-z0-9\+\/]{96}={0,2}$</t>
+  </si>
+  <si>
+    <t>{SSHA512}SCMmLlStPIxVtJc8Y6REiGTMsgSEFF7xVQFoYZYg39H0nEeDuK/fWxxNZ CdSYlRgJK3U3q0lYTka3Nre2CjXzeNUjbvHabYP</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/6713521/how-to-securely-generate-ssha256-or-ssha512-hashes-in-php</t>
+  </si>
+  <si>
+    <t>Lineage II C4</t>
+  </si>
+  <si>
+    <t>^0x[a-f0-9]{32}$</t>
+  </si>
+  <si>
+    <t>0x35a28484c552747441d8fefe33a98f8f</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Lineage_II_C4</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>16bafcac2a2558b7aad3b435b51404ee</t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.lmhash.html</t>
+  </si>
+  <si>
+    <t>Lotus Domino</t>
+  </si>
+  <si>
+    <t>^\([a-z0-9\+\/]{20}\)$</t>
+  </si>
+  <si>
+    <t>(Gv0GtxzT8DYnLKAKDNsB)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/IBM_Lotus_Domino</t>
+  </si>
+  <si>
+    <t>MD2</t>
+  </si>
+  <si>
+    <t>8350e5a3e24c153df2275c9f80692773</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/MD2_%28cryptography%29</t>
+  </si>
+  <si>
+    <t>MD4</t>
+  </si>
+  <si>
+    <t>31d6cfe0d16ae931b73c59d7e0c089c0</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/MD4</t>
+  </si>
+  <si>
+    <t>MD5</t>
+  </si>
+  <si>
+    <t>d41d8cd98f00b204e9800998ecf8427e</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/MD5</t>
+  </si>
+  <si>
+    <t>MD5(APR)</t>
+  </si>
+  <si>
     <t>^\$apr1\$.{0,8}\$[a-z0-9\/\.]{22}$</t>
   </si>
   <si>
-    <t>$apr1$2apDSb1n$VBnEoNgWg47PB5hZyt8kr/</t>
-  </si>
-  <si>
-    <t>http://pythonhosted.org/passlib/lib/passlib.hash.apr_md5_crypt.html</t>
-  </si>
-  <si>
-    <t>redo regex!</t>
-  </si>
-  <si>
-    <t>BCrypt(SHA256)</t>
-  </si>
-  <si>
-    <t>^\$bcrypt-sha256\$.{5}\$[a-z0-9\/\.]{22}\$[a-z0-9\/\.]{31}$</t>
-  </si>
-  <si>
-    <t>$bcrypt-sha256$2a,12$LrmaIX5x4TRtAwEfwJZa1.$2ehnw6LvuIUTM0iz4iz9hTxv21B6KFO</t>
-  </si>
-  <si>
-    <t>http://pythonhosted.org/passlib/lib/passlib.hash.bcrypt_sha256.html</t>
-  </si>
-  <si>
-    <t>Blowfish(Eggdrop)</t>
-  </si>
-  <si>
-    <t>^\+[a-z0-9\/\.]{12}$</t>
-  </si>
-  <si>
-    <t>+3nynz1ThEqm.</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Blowfish%28Eggdrop%29</t>
-  </si>
-  <si>
-    <t>Blowfish(OpenBSD)</t>
-  </si>
-  <si>
-    <t>^(\$2a|\$2y|\$2)\$[0-9]{0,2}?\$[a-z0-9\/\.]{53}$</t>
-  </si>
-  <si>
-    <t>$2a$12$GhvMmNVjRW29ulnudl.LbuAnUtN/LRfe1JsBm1Xu6LE3059z5Tr8m</t>
-  </si>
-  <si>
-    <t>http://pythonhosted.org/passlib/lib/passlib.hash.bcrypt.html</t>
-  </si>
-  <si>
-    <t>BSDi Crypt</t>
-  </si>
-  <si>
-    <t>^_[a-z0-9\/\.]{19}$</t>
-  </si>
-  <si>
-    <t>_EQ0.jzhSVeUyoSqLupI</t>
-  </si>
-  <si>
-    <t>http://pythonhosted.org/passlib/lib/passlib.hash.bsdi_crypt.html</t>
-  </si>
-  <si>
-    <t>Cisco-IOS(MD5)</t>
-  </si>
-  <si>
-    <t>^\$1\$[a-z0-9\/\.]{0,8}\$[a-z0-9\/\.]{22}$</t>
-  </si>
-  <si>
-    <t>dRRVnUmUHXOTt9nk</t>
-  </si>
-  <si>
-    <t>Cisco-IOS(SHA256)</t>
-  </si>
-  <si>
-    <t>^[a-z0-9]{43}$</t>
-  </si>
-  <si>
-    <t>2btjjy78REtmYkkW0csHUbJZOstRXoWdX1mGrmmfeHI</t>
-  </si>
-  <si>
-    <t>Cisco-PIX(MD5)</t>
-  </si>
-  <si>
-    <t>^[a-z0-9\/\.]{16}$</t>
-  </si>
-  <si>
-    <t>Itn9sO/yhumXJ7Jv</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/MD5%28Cisco_PIX%29</t>
-  </si>
-  <si>
-    <t>Citrix Netscaler</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{49}$</t>
-  </si>
-  <si>
-    <t>14dfca1e6c0f5f3d96526c3ce70849992b7fad3e324cf6b0f</t>
-  </si>
-  <si>
-    <t>http://www.openwall.com/lists/john-users/2013/11/05/1</t>
-  </si>
-  <si>
-    <t>CRC-16</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{4}$</t>
-  </si>
-  <si>
-    <t>e268</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/CRC-16</t>
-  </si>
-  <si>
-    <t>CRC-16-CCITT</t>
-  </si>
-  <si>
-    <t>d309</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/CRC-16-CCITT</t>
-  </si>
-  <si>
-    <t>CRC-32</t>
-  </si>
-  <si>
-    <t>8423d781</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/CRC-32</t>
-  </si>
-  <si>
-    <t>CRC-32B</t>
-  </si>
-  <si>
-    <t>3099922c</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/CRC-32B</t>
-  </si>
-  <si>
-    <t>CRC-64</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{16}$</t>
-  </si>
-  <si>
-    <t>07022f35f1bd9d09</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/CRC-64</t>
-  </si>
-  <si>
-    <t>CRC-96(ZIP)</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{24}$</t>
-  </si>
-  <si>
-    <t>42ef4ac38d167254428e6d93</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/CRC-96%28ZIP%29</t>
-  </si>
-  <si>
-    <t>Crypt16</t>
-  </si>
-  <si>
-    <t>^[a-z0-9\/\.]{24}$</t>
-  </si>
-  <si>
-    <t>aaX/UmCcBrceQ0kQGGWKTbuE</t>
-  </si>
-  <si>
-    <t>http://pythonhosted.org/passlib/lib/passlib.hash.crypt16.html</t>
-  </si>
-  <si>
-    <t>CryptoCurrency(Adress)</t>
-  </si>
-  <si>
-    <t>^[a-z0-9]{34}$</t>
-  </si>
-  <si>
-    <t>1DmdmYMET7dnwg9x9eoKxW7xaeVsoNa8X9</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Cryptocurrency</t>
-  </si>
-  <si>
-    <t>CryptoCurrency(PrivateKey)</t>
-  </si>
-  <si>
-    <t>^[a-z0-9]{51}$</t>
-  </si>
-  <si>
-    <t>5Jk1pUzwVUoRPxtihTnE4hA2MLfYbCXRdXxHqPx9qUboRYoUKJT</t>
-  </si>
-  <si>
-    <t>DES(Oracle)</t>
-  </si>
-  <si>
-    <t>01E7789E37CB2C95</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/DES%28Oracle%29</t>
-  </si>
-  <si>
-    <t>DES(Unix)</t>
-  </si>
-  <si>
-    <t>^[a-z0-9\/\.]{13}$</t>
-  </si>
-  <si>
-    <t>G8n0KRCTGO8SY</t>
-  </si>
-  <si>
-    <t>http://pythonhosted.org/passlib/lib/passlib.hash.des_crypt.html</t>
-  </si>
-  <si>
-    <t>Domain Cached Credentials</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{32}$</t>
-  </si>
-  <si>
-    <t>25fd08fa89795ed54207e6e8442a6ca0</t>
-  </si>
-  <si>
-    <t>https://pythonhosted.org/passlib/lib/passlib.hash.msdcc.html</t>
-  </si>
-  <si>
-    <t>Domain Cached Credentials v2</t>
-  </si>
-  <si>
-    <t>4c253e4b65c007a8cd683ea57bc43c76</t>
-  </si>
-  <si>
-    <t>http://pythonhosted.org/passlib/lib/passlib.hash.msdcc2.html</t>
-  </si>
-  <si>
-    <t>Drupal7</t>
-  </si>
-  <si>
-    <t>^\$S\$[a-z0-9\/\.]{52}$</t>
-  </si>
-  <si>
-    <t>$S$C12345678DZ5MRSrL1r2lsmcx47tViKr9s/gaIJN5ruRSS.X6BRk</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-512%28Drupal%29</t>
-  </si>
-  <si>
-    <t>ELF-32</t>
-  </si>
-  <si>
-    <t>00067894</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/ELF-32</t>
-  </si>
-  <si>
-    <t>EPiServer 6.x &lt; v4</t>
-  </si>
-  <si>
-    <t>^\$episerver\$\*0\*[a-z0-9=\*+]{52}$</t>
-  </si>
-  <si>
-    <t>$episerver$*0*bEtiVGhPNlZpcUN4a3ExTg==*utkfN0EOgljbv5FoZ6+AcZD5iLk</t>
-  </si>
-  <si>
-    <t>EPiServer 6.x &gt; v4</t>
-  </si>
-  <si>
-    <t>^\$episerver\$\*1\*[a-z0-9=\*+]{68}$</t>
-  </si>
-  <si>
-    <t>$episerver$*1*MDEyMzQ1Njc4OWFiY2RlZg==*lRjiU46qHA7S6ZE7RfKUcYhB85ofArj1j7TrCtu3u6Y</t>
-  </si>
-  <si>
-    <t>FCS-16</t>
-  </si>
-  <si>
-    <t>a36b</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/FCS-16</t>
-  </si>
-  <si>
-    <t>FCS-32</t>
-  </si>
-  <si>
-    <t>11cd82ed</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/FCS-32</t>
-  </si>
-  <si>
-    <t>Fletcher-32</t>
-  </si>
-  <si>
-    <t>8a01d403</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Fletcher-32</t>
-  </si>
-  <si>
-    <t>FNV-132</t>
-  </si>
-  <si>
-    <t>b9de7375</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/FNV-32</t>
-  </si>
-  <si>
-    <t>FNV-164</t>
-  </si>
-  <si>
-    <t>8d0b972bd2e4ce16</t>
-  </si>
-  <si>
-    <t>http://www.isthe.com/chongo/tech/comp/fnv/</t>
-  </si>
-  <si>
-    <t>Fortigate(FortiOS)</t>
-  </si>
-  <si>
-    <t>^[a-z0-9]{47}$</t>
-  </si>
-  <si>
-    <t>AK1AAECAwQFBgcICRARNGqgeC3is8gv2xWWRony9NJnDgEA</t>
-  </si>
-  <si>
-    <t>FreeBSD MD5</t>
-  </si>
-  <si>
-    <t>GHash-32-3</t>
-  </si>
-  <si>
-    <t>0001371a</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/GHash-32-3</t>
-  </si>
-  <si>
-    <t>GHash-32-5</t>
-  </si>
-  <si>
-    <t>0036deca</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/GHash-32-5</t>
-  </si>
-  <si>
-    <t>GOST R 34.11-94</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{64}$</t>
-  </si>
-  <si>
-    <t>ce85b99cc46752fffee35cab9a7b0278abb4c2d2055cff685af4912c49490f8d</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/GOST_R_34.11-94</t>
-  </si>
-  <si>
-    <t>GRUB 2</t>
-  </si>
-  <si>
-    <t>^grub\.pbkdf2\.sha512\..+$</t>
-  </si>
-  <si>
-    <t>grub.pbkdf2.sha512.10000.7d391ef48645f626b427b1fae06a7219b5b54f4f02b2621f86b5e36e83ae492bd1db60871e45bc07925cecb46ff8ba3db31c723c0c6acbd4f06f60c5b246ecbf.26d59c52b50df90d043f070bd9cbcd92a74424da42b3666fdeb08f1a54b8f1d2f4f56cf436f9382419c26798dc2c209a86003982b1e5a9fcef905f4dfaa4c524</t>
-  </si>
-  <si>
-    <t>Half MD5</t>
-  </si>
-  <si>
-    <t>8743b52063cd8409</t>
-  </si>
-  <si>
-    <t>HAS-160</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{40}$</t>
-  </si>
-  <si>
-    <t>6746df56b6210ed660ab01b8d8886a8237389bd5</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/HAS-160</t>
-  </si>
-  <si>
-    <t>Haval-128</t>
-  </si>
-  <si>
-    <t>c68f39913f901f3ddf44c707357a7d70</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/HAVAL</t>
-  </si>
-  <si>
-    <t>Haval-160</t>
-  </si>
-  <si>
-    <t>d353c3ae22a25401d257643836d7231a9a95f953</t>
-  </si>
-  <si>
-    <t>Haval-192</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{48}$</t>
-  </si>
-  <si>
-    <t>e9c48d7903eaf2a91c5b350151efcb175c0fc82de2289a4e</t>
-  </si>
-  <si>
-    <t>Haval-224</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{56}$</t>
-  </si>
-  <si>
-    <t>c5aae9d47bffcaaf84a8c6e7ccacd60a0dd1932be7b1a192b9214b6d</t>
-  </si>
-  <si>
-    <t>Haval-256</t>
-  </si>
-  <si>
-    <t>4f6938531f0bc8991f62da7bbd6f7de3fad44562b8c6f4ebf146d5b4e46f7c17</t>
-  </si>
-  <si>
-    <t>IP.Board v2+</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{32}:.{5}$</t>
-  </si>
-  <si>
-    <t>iSCSI CHAP Authentication</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{32}:[0-9]{32}:[0-9]{2}$</t>
-  </si>
-  <si>
-    <t>afd09efdd6f8ca9f18ec77c5869788c3:01020304050607080910111213141516:01</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Challenge-Handshake_Authentication_Protocol</t>
-  </si>
-  <si>
-    <t>Joaat</t>
-  </si>
-  <si>
-    <t>0e34a138</t>
-  </si>
-  <si>
-    <t>Joomla</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{32}:[a-z0-9]{32}$</t>
-  </si>
-  <si>
-    <t>4e9e4bcc5752d6f939aedb42408fd3aa:0vURRbyY8Ea0tlvnTFn7xcKpjTFyn0YT</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/10428126/joomla-password-encryption</t>
-  </si>
-  <si>
-    <t>Keccak-224</t>
-  </si>
-  <si>
-    <t>ab01e6fda4206a97d3a6abf24dfa5359693628f545c234ffb4ac653d</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/SHA-3</t>
-  </si>
-  <si>
-    <t>Keccak-256</t>
-  </si>
-  <si>
-    <t>bc8a27e5be2d4c2ea01f7ff6bc6ae4731d28c993ccf1da2e8bda8f88cffe8f45</t>
-  </si>
-  <si>
-    <t>Keccak-384</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{96}$</t>
-  </si>
-  <si>
-    <t>f6f9bed0343f511cf1f635b81fdee2b23eba5aa49b764cf8842fc02a55368a760b74d80418f37aa9b680d4ce11fc96e1</t>
-  </si>
-  <si>
-    <t>Keccak-512</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{128}$</t>
-  </si>
-  <si>
-    <t>2d7421aeb3bae997944090ba7e1c1df448dd92af995af28fa58737d2cc0b0ecc955a9c747cd701e70edfe41e8e3d76740700df60926886c540a80cfa76854da5</t>
-  </si>
-  <si>
-    <t>Kerberos 5 AS-REQ Pre-Auth</t>
-  </si>
-  <si>
-    <t>^\$krb5pa\$.+$</t>
-  </si>
-  <si>
-    <t>$krb5pa$23$user$realm$salt$4e751db65422b2117f7eac7b721932dc8aa0d9966785ecd958f971f622bf5c42dc0c70b532363138363631363132333238383835</t>
-  </si>
-  <si>
-    <t>LDAP(SSHA512)</t>
-  </si>
-  <si>
-    <t>^{SSHA512}[a-z0-9\+\/]{96}={0,2}$</t>
-  </si>
-  <si>
-    <t>{SSHA512}SCMmLlStPIxVtJc8Y6REiGTMsgSEFF7xVQFoYZYg39H0nEeDuK/fWxxNZ CdSYlRgJK3U3q0lYTka3Nre2CjXzeNUjbvHabYP</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/6713521/how-to-securely-generate-ssha256-or-ssha512-hashes-in-php</t>
-  </si>
-  <si>
-    <t>Lineage II C4</t>
-  </si>
-  <si>
-    <t>^0x[a-f0-9]{32}$</t>
-  </si>
-  <si>
-    <t>0x35a28484c552747441d8fefe33a98f8f</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Lineage_II_C4</t>
-  </si>
-  <si>
-    <t>LM</t>
-  </si>
-  <si>
-    <t>16bafcac2a2558b7aad3b435b51404ee</t>
-  </si>
-  <si>
-    <t>http://pythonhosted.org/passlib/lib/passlib.hash.lmhash.html</t>
-  </si>
-  <si>
-    <t>Lotus Domino</t>
-  </si>
-  <si>
-    <t>^\([a-z0-9\+\/]{20}\)$</t>
-  </si>
-  <si>
-    <t>(Gv0GtxzT8DYnLKAKDNsB)</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/IBM_Lotus_Domino</t>
-  </si>
-  <si>
-    <t>MD2</t>
-  </si>
-  <si>
-    <t>8350e5a3e24c153df2275c9f80692773</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/MD2_%28cryptography%29</t>
-  </si>
-  <si>
-    <t>MD4</t>
-  </si>
-  <si>
-    <t>31d6cfe0d16ae931b73c59d7e0c089c0</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/MD4</t>
-  </si>
-  <si>
-    <t>MD5</t>
-  </si>
-  <si>
-    <t>d41d8cd98f00b204e9800998ecf8427e</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/MD5</t>
-  </si>
-  <si>
-    <t>MD5(APR)</t>
-  </si>
-  <si>
     <t>MD5(Chap)</t>
   </si>
   <si>
@@ -808,7 +811,7 @@
     <t>^\*[a-f0-9]{40}$</t>
   </si>
   <si>
-    <t>*85ADE5DDF71E348162894C71D73324C043838751 </t>
+    <t>*85ADE5DDF71E348162894C71D73324C043838751</t>
   </si>
   <si>
     <t>MySQL5.x</t>
@@ -1087,288 +1090,291 @@
     <t>http://wiki.insidepro.com/index.php/SHA-1%28Oracle%29</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>SHA-224</t>
+  </si>
+  <si>
+    <t>26dea9e65b4701c84168d390bfa7c8ab68cd907186a32dfc2e74e875</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/SHA-224</t>
+  </si>
+  <si>
+    <t>SHA-256</t>
+  </si>
+  <si>
+    <t>bd37a3ba003471fe95071cb7a3e8570f4cc5417195a691d525e17e14672e70f7</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/SHA-256</t>
+  </si>
+  <si>
+    <t>SHA-256(Django)</t>
+  </si>
+  <si>
+    <t>^sha256\$[a-z0-9\/\.]{1,12}\$[a-f0-9]{64}$</t>
+  </si>
+  <si>
+    <t>sha256$12345678$9171fc5e7cd440fac61adc27cbebb78ff028a19a1abeaa041807a5ea936fbd94</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/SHA-256%28Django%29</t>
+  </si>
+  <si>
+    <t>SHA-256(Unix)</t>
+  </si>
+  <si>
+    <t>^\$5\$(rounds=[0-9]+\$)?[a-z0-9\/\.]{0,16}\$[a-z0-9\/\.]{43}$</t>
+  </si>
+  <si>
+    <t>$5$12345678$.HyoD5rKr323EFaYphs1fdfWCCzEk7P6k0DJaT/MJg2</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/SHA-256%28Unix%29</t>
+  </si>
+  <si>
+    <t>SHA-384</t>
+  </si>
+  <si>
+    <t>38b060a751ac96384cd9327eb1b1e36a21fdb71114be07434c0cc7bf63f6e1da274edebfe76f65fbd51ad2f14898b95b</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/SHA-384</t>
+  </si>
+  <si>
+    <t>SHA-384(Django)</t>
+  </si>
+  <si>
+    <t>^sha384\$[a-z0-9\/\.]{1,12}\$[a-f0-9]{96}$</t>
+  </si>
+  <si>
+    <t>sha384$12345678$fe014d8b5dc1733a9727330fb8b4695f82c7e833382a27c513b258f46f29ababb9d9963ddaa13db306b2bbd1459b95e6</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/SHA-384%28Django%29</t>
+  </si>
+  <si>
+    <t>SHA-512</t>
+  </si>
+  <si>
+    <t>cf83e1357eefb8bdf1542850d66d8007d620e4050b5715dc83f4a921d36ce9ce47d0d13c5d85f2b0ff8318d2877eec2f63b931bd47417a81a538327af927da3e</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/SHA-512</t>
+  </si>
+  <si>
+    <t>SHA-512(Unix)</t>
+  </si>
+  <si>
+    <t>^\$6\$.{0,22}\$[a-z0-9\/\.]{86}$</t>
+  </si>
+  <si>
+    <t>$6$12345678$QVQOdGAbBeNuQxcdIGKZUFvrf5FWFHOxEqGdQYM6Wzv6h05r45/gcV9xuGJH763.lCwMenMyTVmmXx2j6AZTB0</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/SHA-512%28Unix%29</t>
+  </si>
+  <si>
+    <t>Skein-1024</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{256}$</t>
+  </si>
+  <si>
+    <t>62b6c4521a646a099850699ea262d3f5a73290959fd34734b4015097eb7b2700e964236f0b213193f0a15b82eb08a0bf330d60421fc81e9a9383df72172ce9787fde19ea0813a566cb62c55d042d0d9a0f86d87ae40de85a9b247225968aea29ba878cf0c30c44a181f3ef8e47975da80ca21f244b81504ebfb446924dcd7061</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-1024</t>
+  </si>
+  <si>
+    <t>Skein-1024(384)</t>
+  </si>
+  <si>
+    <t>9e5c86653868f1d2a4a208eae807a031371dcaac17ce3ef74845a0602b9ac16ee52e95afc58c993161ea3223c63a486b</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-1024%28384%29</t>
+  </si>
+  <si>
+    <t>Skein-1024(512)</t>
+  </si>
+  <si>
+    <t>b132215e3fd6aebcdff044cf3824eee6de27de9e994dac41a65d28279c08cbd7e69b21bef892475265d7958e2e6ef59012e9a8ec4de38e774b17bbb9fce2f94a</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-1024%28512%29</t>
+  </si>
+  <si>
+    <t>Skein-256</t>
+  </si>
+  <si>
+    <t>31947ae23c6b0022d6e69280675dd57c385441887c422892c0ba805298408c1d</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-256</t>
+  </si>
+  <si>
+    <t>Skein-256(128)</t>
+  </si>
+  <si>
+    <t>8a33fdcc414954540140569b9ca04969</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-256%28128%29</t>
+  </si>
+  <si>
+    <t>Skein-256(160)</t>
+  </si>
+  <si>
+    <t>4be29115203aaf1705dd2e645077b7380d2bf17f</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-256%28160%29</t>
+  </si>
+  <si>
+    <t>Skein-256(224)</t>
+  </si>
+  <si>
+    <t>9ac0082bb1b2f3004fffa45300a74f2855f2308426fd5e9f0e4c39ec</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-256%28224%29</t>
+  </si>
+  <si>
+    <t>Skein-512</t>
+  </si>
+  <si>
+    <t>6a7f3568a6dfc8d74f478d787e10617787ea35557a909152c13cdc9ef3e8cce28560269748e0f2d58ea76cad67f70583e821d73220982fa5c9c68809edd43568</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-512</t>
+  </si>
+  <si>
+    <t>Skein-512(128)</t>
+  </si>
+  <si>
+    <t>e88eba6045f6a00672c398e2e2ce4959</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-512%28128%29</t>
+  </si>
+  <si>
+    <t>Skein-512(160)</t>
+  </si>
+  <si>
+    <t>4721295b14d704a452a56e948e52ca4ea296ca75</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-512%28160%29</t>
+  </si>
+  <si>
+    <t>Skein-512(224)</t>
+  </si>
+  <si>
+    <t>bf3e58d8cb9a2dd31215fb3b825896ae8d22514747cda7796f3e8c25</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-512%28224%29</t>
+  </si>
+  <si>
+    <t>Skein-512(256)</t>
+  </si>
+  <si>
+    <t>2fee3ce07ffef3d2f78a6f7b38a8f294b70e902f9d0f8f514e34d48d93b55f31</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-512%28256%29</t>
+  </si>
+  <si>
+    <t>Skein-512(384)</t>
+  </si>
+  <si>
+    <t>15f969b2d608f69b5e0873b0d10f195c57db84c45f35b535585a1452a9919888711b9de7717f9e47786319a102a74554</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-512%28384%29</t>
+  </si>
+  <si>
+    <t>Snefru-128</t>
+  </si>
+  <si>
+    <t>1dc9a09e23a3f8184b8e40f3ad872842</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Snefru-128</t>
+  </si>
+  <si>
+    <t>Snefru-256</t>
+  </si>
+  <si>
+    <t>cce3b171a7ede4c0a2d1a2db832035547226fade66980c7a62bd86c3ec1e82d1</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Snefru-256</t>
+  </si>
+  <si>
+    <t>SSHA-1(Base64)</t>
+  </si>
+  <si>
+    <t>SSHA-512(Base64)</t>
+  </si>
+  <si>
+    <t>Sybase ASE</t>
+  </si>
+  <si>
+    <t>^0x[a-f0-9]{4}[a-f0-9]{16}[a-f0-9]{64}$</t>
+  </si>
+  <si>
+    <t>0xc00778168388631428230545ed2c976790af96768afa0806fe6c0da3b28f3e132137eac56f9bad027ea2</t>
+  </si>
+  <si>
+    <t>http://marcellmajor.com/sybase_sha256.html</t>
+  </si>
+  <si>
+    <t>Tiger-128</t>
+  </si>
+  <si>
+    <t>9123dc36b0b67ce3e79d0142820f3dc7</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Tiger-128</t>
+  </si>
+  <si>
+    <t>Tiger-160</t>
+  </si>
+  <si>
+    <t>9123dc36b0b67ce3e79d0142820f3dc7b3945967</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Tiger-160</t>
+  </si>
+  <si>
+    <t>Tiger-192</t>
+  </si>
+  <si>
+    <t>9123dc36b0b67ce3e79d0142820f3dc7b3945967b4e7196c</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Tiger-192</t>
+  </si>
+  <si>
+    <t>Traditional DES</t>
+  </si>
+  <si>
+    <t>JQMuyS6H.AGMo</t>
+  </si>
+  <si>
+    <t>vBulletin &lt; v3.8.5</t>
+  </si>
+  <si>
+    <t>16780ba78d2d5f02f3202901c1b6d975:568</t>
+  </si>
+  <si>
     <t>regex needed</t>
   </si>
   <si>
-    <t>SHA-224</t>
-  </si>
-  <si>
-    <t>26dea9e65b4701c84168d390bfa7c8ab68cd907186a32dfc2e74e875</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-224</t>
-  </si>
-  <si>
-    <t>SHA-256</t>
-  </si>
-  <si>
-    <t>bd37a3ba003471fe95071cb7a3e8570f4cc5417195a691d525e17e14672e70f7</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-256</t>
-  </si>
-  <si>
-    <t>SHA-256(Django)</t>
-  </si>
-  <si>
-    <t>^sha256\$[a-z0-9\/\.]{1,12}\$[a-f0-9]{64}$</t>
-  </si>
-  <si>
-    <t>sha256$12345678$9171fc5e7cd440fac61adc27cbebb78ff028a19a1abeaa041807a5ea936fbd94</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-256%28Django%29</t>
-  </si>
-  <si>
-    <t>SHA-256(Unix)</t>
-  </si>
-  <si>
-    <t>^\$5\$(rounds=[0-9]+\$)?[a-z0-9\/\.]{0,16}\$[a-z0-9\/\.]{43}$</t>
-  </si>
-  <si>
-    <t>$5$12345678$.HyoD5rKr323EFaYphs1fdfWCCzEk7P6k0DJaT/MJg2</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-256%28Unix%29</t>
-  </si>
-  <si>
-    <t>SHA-384</t>
-  </si>
-  <si>
-    <t>38b060a751ac96384cd9327eb1b1e36a21fdb71114be07434c0cc7bf63f6e1da274edebfe76f65fbd51ad2f14898b95b</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-384</t>
-  </si>
-  <si>
-    <t>SHA-384(Django)</t>
-  </si>
-  <si>
-    <t>^sha384\$[a-z0-9\/\.]{1,12}\$[a-f0-9]{96}$</t>
-  </si>
-  <si>
-    <t>sha384$12345678$fe014d8b5dc1733a9727330fb8b4695f82c7e833382a27c513b258f46f29ababb9d9963ddaa13db306b2bbd1459b95e6</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-384%28Django%29</t>
-  </si>
-  <si>
-    <t>SHA-512</t>
-  </si>
-  <si>
-    <t>cf83e1357eefb8bdf1542850d66d8007d620e4050b5715dc83f4a921d36ce9ce47d0d13c5d85f2b0ff8318d2877eec2f63b931bd47417a81a538327af927da3e</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-512</t>
-  </si>
-  <si>
-    <t>SHA-512(Unix)</t>
-  </si>
-  <si>
-    <t>^\$6\$.{0,22}\$[a-z0-9\/\.]{86}$</t>
-  </si>
-  <si>
-    <t>$6$12345678$QVQOdGAbBeNuQxcdIGKZUFvrf5FWFHOxEqGdQYM6Wzv6h05r45/gcV9xuGJH763.lCwMenMyTVmmXx2j6AZTB0</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-512%28Unix%29</t>
-  </si>
-  <si>
-    <t>Skein-1024</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{256}$</t>
-  </si>
-  <si>
-    <t>62b6c4521a646a099850699ea262d3f5a73290959fd34734b4015097eb7b2700e964236f0b213193f0a15b82eb08a0bf330d60421fc81e9a9383df72172ce9787fde19ea0813a566cb62c55d042d0d9a0f86d87ae40de85a9b247225968aea29ba878cf0c30c44a181f3ef8e47975da80ca21f244b81504ebfb446924dcd7061</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-1024</t>
-  </si>
-  <si>
-    <t>Skein-1024(384)</t>
-  </si>
-  <si>
-    <t>9e5c86653868f1d2a4a208eae807a031371dcaac17ce3ef74845a0602b9ac16ee52e95afc58c993161ea3223c63a486b</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-1024%28384%29</t>
-  </si>
-  <si>
-    <t>Skein-1024(512)</t>
-  </si>
-  <si>
-    <t>b132215e3fd6aebcdff044cf3824eee6de27de9e994dac41a65d28279c08cbd7e69b21bef892475265d7958e2e6ef59012e9a8ec4de38e774b17bbb9fce2f94a</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-1024%28512%29</t>
-  </si>
-  <si>
-    <t>Skein-256</t>
-  </si>
-  <si>
-    <t>31947ae23c6b0022d6e69280675dd57c385441887c422892c0ba805298408c1d</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-256</t>
-  </si>
-  <si>
-    <t>Skein-256(128)</t>
-  </si>
-  <si>
-    <t>8a33fdcc414954540140569b9ca04969</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-256%28128%29</t>
-  </si>
-  <si>
-    <t>Skein-256(160)</t>
-  </si>
-  <si>
-    <t>4be29115203aaf1705dd2e645077b7380d2bf17f</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-256%28160%29</t>
-  </si>
-  <si>
-    <t>Skein-256(224)</t>
-  </si>
-  <si>
-    <t>9ac0082bb1b2f3004fffa45300a74f2855f2308426fd5e9f0e4c39ec</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-256%28224%29</t>
-  </si>
-  <si>
-    <t>Skein-512</t>
-  </si>
-  <si>
-    <t>6a7f3568a6dfc8d74f478d787e10617787ea35557a909152c13cdc9ef3e8cce28560269748e0f2d58ea76cad67f70583e821d73220982fa5c9c68809edd43568</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-512</t>
-  </si>
-  <si>
-    <t>Skein-512(128)</t>
-  </si>
-  <si>
-    <t>e88eba6045f6a00672c398e2e2ce4959</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-512%28128%29</t>
-  </si>
-  <si>
-    <t>Skein-512(160)</t>
-  </si>
-  <si>
-    <t>4721295b14d704a452a56e948e52ca4ea296ca75</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-512%28160%29</t>
-  </si>
-  <si>
-    <t>Skein-512(224)</t>
-  </si>
-  <si>
-    <t>bf3e58d8cb9a2dd31215fb3b825896ae8d22514747cda7796f3e8c25</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-512%28224%29</t>
-  </si>
-  <si>
-    <t>Skein-512(256)</t>
-  </si>
-  <si>
-    <t>2fee3ce07ffef3d2f78a6f7b38a8f294b70e902f9d0f8f514e34d48d93b55f31</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-512%28256%29</t>
-  </si>
-  <si>
-    <t>Skein-512(384)</t>
-  </si>
-  <si>
-    <t>15f969b2d608f69b5e0873b0d10f195c57db84c45f35b535585a1452a9919888711b9de7717f9e47786319a102a74554</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-512%28384%29</t>
-  </si>
-  <si>
-    <t>Snefru-128</t>
-  </si>
-  <si>
-    <t>1dc9a09e23a3f8184b8e40f3ad872842</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Snefru-128</t>
-  </si>
-  <si>
-    <t>Snefru-256</t>
-  </si>
-  <si>
-    <t>cce3b171a7ede4c0a2d1a2db832035547226fade66980c7a62bd86c3ec1e82d1</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Snefru-256</t>
-  </si>
-  <si>
-    <t>SSHA-1(Base64)</t>
-  </si>
-  <si>
-    <t>SSHA-512(Base64)</t>
-  </si>
-  <si>
-    <t>Sybase ASE</t>
-  </si>
-  <si>
-    <t>^0x[a-f0-9]{4}[a-f0-9]{16}[a-f0-9]{64}$</t>
-  </si>
-  <si>
-    <t>0xc00778168388631428230545ed2c976790af96768afa0806fe6c0da3b28f3e132137eac56f9bad027ea2</t>
-  </si>
-  <si>
-    <t>http://marcellmajor.com/sybase_sha256.html</t>
-  </si>
-  <si>
-    <t>Tiger-128</t>
-  </si>
-  <si>
-    <t>9123dc36b0b67ce3e79d0142820f3dc7</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Tiger-128</t>
-  </si>
-  <si>
-    <t>Tiger-160</t>
-  </si>
-  <si>
-    <t>9123dc36b0b67ce3e79d0142820f3dc7b3945967</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Tiger-160</t>
-  </si>
-  <si>
-    <t>Tiger-192</t>
-  </si>
-  <si>
-    <t>9123dc36b0b67ce3e79d0142820f3dc7b3945967b4e7196c</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Tiger-192</t>
-  </si>
-  <si>
-    <t>Traditional DES</t>
-  </si>
-  <si>
-    <t>JQMuyS6H.AGMo</t>
-  </si>
-  <si>
-    <t>vBulletin &lt; v3.8.5</t>
-  </si>
-  <si>
-    <t>16780ba78d2d5f02f3202901c1b6d975:568</t>
-  </si>
-  <si>
     <t>vBulletin &gt; v3.8.5</t>
   </si>
   <si>
@@ -1417,13 +1423,37 @@
     <t>http://wiki.insidepro.com/index.php/Ventrilo</t>
   </si>
   <si>
-    <t>hashes marked with „regex needed“ will be included in the next version</t>
-  </si>
-  <si>
-    <t>hashes marked with „redo regex?“ will receive a closer look in the next version and may be updated </t>
+    <t>Microsoft MSTSC (RDP-File) </t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{1329}$ </t>
+  </si>
+  <si>
+    <t>Cisco VPN Client (PCF-File) </t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{112}$ </t>
+  </si>
+  <si>
+    <t>Clavister Secure Gateway </t>
+  </si>
+  <si>
+    <t>^crypt1:[a-z0-9\+\=]{12}:[a-z0-9\+\=]{12}$ </t>
+  </si>
+  <si>
+    <t>hashes marked with „regex needed“ require more information to be included</t>
+  </si>
+  <si>
+    <t>hashes marked with „redo regex?“ will receive a closer look in the next version and may be updated</t>
   </si>
   <si>
     <t>hashes marked with „redo regex!“ will receive an update in the next version</t>
+  </si>
+  <si>
+    <t>hashes marked with „new“ got included in the latest version</t>
+  </si>
+  <si>
+    <t>hashes marked with „regex changed“ got theire regex changed in the last update</t>
   </si>
 </sst>
 </file>
@@ -1458,36 +1488,36 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <name val=""/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <name val=""/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <name val=""/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <name val=""/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="20"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <name val=""/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1533,7 +1563,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1574,28 +1604,12 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0">
@@ -1623,19 +1637,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A137" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C161" activeCellId="0" pane="topLeft" sqref="C161"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A138" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C173" activeCellId="0" pane="topLeft" sqref="C173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.5408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="65.4438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="66.1479591836735"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="3" width="98.3112244897959"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="4" width="53.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="1">
@@ -1668,7 +1683,6 @@
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="3">
       <c r="A3" s="9" t="s">
@@ -1677,13 +1691,13 @@
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1694,13 +1708,12 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="5">
       <c r="A5" s="9" t="s">
@@ -1709,13 +1722,12 @@
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="6">
       <c r="A6" s="9" t="s">
@@ -1724,13 +1736,12 @@
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="7">
       <c r="A7" s="9" t="s">
@@ -1756,13 +1767,12 @@
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="9">
       <c r="A9" s="9" t="s">
@@ -1771,13 +1781,12 @@
       <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="10">
       <c r="A10" s="9" t="s">
@@ -1786,28 +1795,26 @@
       <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="11">
-      <c r="A11" s="12" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="11">
+      <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="12">
       <c r="A12" s="9" t="s">
@@ -1816,11 +1823,9 @@
       <c r="B12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="13">
       <c r="A13" s="9" t="s">
@@ -1829,11 +1834,9 @@
       <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="14">
       <c r="A14" s="9" t="s">
@@ -1842,13 +1845,12 @@
       <c r="B14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="15">
       <c r="A15" s="9" t="s">
@@ -1857,13 +1859,12 @@
       <c r="B15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="16">
       <c r="A16" s="9" t="s">
@@ -1872,13 +1873,12 @@
       <c r="B16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="17">
       <c r="A17" s="9" t="s">
@@ -1887,13 +1887,12 @@
       <c r="B17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E17" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="18">
       <c r="A18" s="9" t="s">
@@ -1908,7 +1907,6 @@
       <c r="D18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="19">
       <c r="A19" s="9" t="s">
@@ -1923,7 +1921,6 @@
       <c r="D19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="20">
       <c r="A20" s="9" t="s">
@@ -1932,13 +1929,12 @@
       <c r="B20" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="21">
       <c r="A21" s="9" t="s">
@@ -1947,13 +1943,12 @@
       <c r="B21" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="22">
       <c r="A22" s="9" t="s">
@@ -1962,13 +1957,12 @@
       <c r="B22" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="2" t="s">
         <v>80</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="23">
       <c r="A23" s="9" t="s">
@@ -1980,10 +1974,9 @@
       <c r="C23" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="24">
       <c r="A24" s="9" t="s">
@@ -1992,13 +1985,12 @@
       <c r="B24" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="25">
       <c r="A25" s="9" t="s">
@@ -2007,16 +1999,15 @@
       <c r="B25" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E25" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="26">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="11" t="s">
         <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2025,10 +2016,9 @@
       <c r="C26" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="27">
       <c r="A27" s="9" t="s">
@@ -2037,13 +2027,12 @@
       <c r="B27" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="28">
       <c r="A28" s="9" t="s">
@@ -2052,13 +2041,12 @@
       <c r="B28" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="29">
       <c r="A29" s="9" t="s">
@@ -2067,13 +2055,12 @@
       <c r="B29" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E29" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="30">
       <c r="A30" s="9" t="s">
@@ -2082,13 +2069,12 @@
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="2" t="s">
         <v>108</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="31">
       <c r="A31" s="9" t="s">
@@ -2097,11 +2083,9 @@
       <c r="B31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="32">
       <c r="A32" s="9" t="s">
@@ -2110,11 +2094,9 @@
       <c r="B32" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="10"/>
-      <c r="E32" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="33">
       <c r="A33" s="9" t="s">
@@ -2123,13 +2105,12 @@
       <c r="B33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" s="2" t="s">
         <v>117</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E33" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="34">
       <c r="A34" s="9" t="s">
@@ -2138,13 +2119,12 @@
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="35">
       <c r="A35" s="9" t="s">
@@ -2153,13 +2133,12 @@
       <c r="B35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="2" t="s">
         <v>123</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="36">
       <c r="A36" s="9" t="s">
@@ -2168,13 +2147,12 @@
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="2" t="s">
         <v>126</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E36" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="37">
       <c r="A37" s="9" t="s">
@@ -2183,13 +2161,12 @@
       <c r="B37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="38">
       <c r="A38" s="9" t="s">
@@ -2198,11 +2175,9 @@
       <c r="B38" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D38" s="10"/>
-      <c r="E38" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="39">
       <c r="A39" s="9" t="s">
@@ -2211,9 +2186,7 @@
       <c r="B39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="0"/>
+      <c r="C39" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="40">
       <c r="A40" s="9" t="s">
@@ -2222,13 +2195,12 @@
       <c r="B40" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E40" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="41">
       <c r="A41" s="9" t="s">
@@ -2237,13 +2209,12 @@
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E41" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="42">
       <c r="A42" s="9" t="s">
@@ -2258,7 +2229,6 @@
       <c r="D42" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E42" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="43">
       <c r="A43" s="9" t="s">
@@ -2267,11 +2237,10 @@
       <c r="B43" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="0" t="s">
+      <c r="E43" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2282,11 +2251,9 @@
       <c r="B44" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="45">
       <c r="A45" s="9" t="s">
@@ -2295,13 +2262,12 @@
       <c r="B45" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C45" s="4" t="s">
         <v>152</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E45" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="46">
       <c r="A46" s="9" t="s">
@@ -2313,10 +2279,9 @@
       <c r="C46" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E46" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="47">
       <c r="A47" s="9" t="s">
@@ -2328,10 +2293,9 @@
       <c r="C47" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="48">
       <c r="A48" s="9" t="s">
@@ -2343,10 +2307,9 @@
       <c r="C48" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E48" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="49">
       <c r="A49" s="9" t="s">
@@ -2358,10 +2321,9 @@
       <c r="C49" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E49" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="50">
       <c r="A50" s="9" t="s">
@@ -2373,21 +2335,18 @@
       <c r="C50" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E50" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="51">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="11" t="s">
         <v>167</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="0"/>
+      <c r="C51" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="52">
       <c r="A52" s="9" t="s">
@@ -2396,13 +2355,12 @@
       <c r="B52" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E52" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="53">
       <c r="A53" s="9" t="s">
@@ -2411,11 +2369,9 @@
       <c r="B53" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D53" s="10"/>
-      <c r="E53" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="54">
       <c r="A54" s="9" t="s">
@@ -2424,13 +2380,12 @@
       <c r="B54" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E54" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="55">
       <c r="A55" s="9" t="s">
@@ -2439,13 +2394,12 @@
       <c r="B55" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E55" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="56">
       <c r="A56" s="9" t="s">
@@ -2454,13 +2408,12 @@
       <c r="B56" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E56" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="57">
       <c r="A57" s="9" t="s">
@@ -2469,13 +2422,12 @@
       <c r="B57" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E57" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="58">
       <c r="A58" s="9" t="s">
@@ -2484,13 +2436,12 @@
       <c r="B58" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E58" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="59">
       <c r="A59" s="9" t="s">
@@ -2499,11 +2450,10 @@
       <c r="B59" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D59" s="10"/>
-      <c r="E59" s="0" t="s">
+      <c r="E59" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2514,13 +2464,12 @@
       <c r="B60" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E60" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="61">
       <c r="A61" s="9" t="s">
@@ -2535,7 +2484,6 @@
       <c r="D61" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E61" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="62">
       <c r="A62" s="9" t="s">
@@ -2544,13 +2492,12 @@
       <c r="B62" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E62" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="63">
       <c r="A63" s="9" t="s">
@@ -2559,13 +2506,12 @@
       <c r="B63" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E63" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="64">
       <c r="A64" s="9" t="s">
@@ -2577,10 +2523,9 @@
       <c r="C64" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E64" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="65">
       <c r="A65" s="9" t="s">
@@ -2592,10 +2537,9 @@
       <c r="C65" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E65" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="66">
       <c r="A66" s="9" t="s">
@@ -2607,17 +2551,16 @@
       <c r="C66" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E66" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="67">
       <c r="A67" s="9" t="s">
         <v>217</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>23</v>
+        <v>218</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>24</v>
@@ -2625,274 +2568,245 @@
       <c r="D67" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="68">
       <c r="A68" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C68" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E68" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="69">
       <c r="A69" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E69" s="0"/>
+        <v>223</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="70">
       <c r="A70" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C70" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D70" s="10"/>
-      <c r="E70" s="0"/>
+      <c r="C70" s="4" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="71">
       <c r="A71" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D71" s="10"/>
-      <c r="E71" s="0"/>
+        <v>228</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="72">
       <c r="A72" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C72" s="11" t="s">
         <v>230</v>
       </c>
+      <c r="C72" s="2" t="s">
+        <v>231</v>
+      </c>
       <c r="D72" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E72" s="0"/>
+        <v>232</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="73">
       <c r="A73" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C73" s="10" t="s">
-        <v>233</v>
+      <c r="C73" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E73" s="0"/>
+        <v>235</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="74">
       <c r="A74" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C74" s="11" t="s">
         <v>237</v>
       </c>
+      <c r="C74" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="D74" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E74" s="0"/>
+        <v>239</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="75">
       <c r="A75" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C75" s="11" t="s">
         <v>241</v>
       </c>
+      <c r="C75" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="D75" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E75" s="0"/>
+        <v>243</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="76">
       <c r="A76" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C76" s="11" t="s">
         <v>245</v>
       </c>
+      <c r="C76" s="2" t="s">
+        <v>246</v>
+      </c>
       <c r="D76" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E76" s="0"/>
+        <v>247</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="77">
       <c r="A77" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="0"/>
+        <v>245</v>
+      </c>
+      <c r="C77" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="78">
       <c r="A78" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C78" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="D78" s="10"/>
-      <c r="E78" s="0"/>
+      <c r="C78" s="4" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="79">
       <c r="A79" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="0"/>
+      <c r="C79" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="80">
       <c r="A80" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="D80" s="10"/>
-      <c r="E80" s="0"/>
+      <c r="C80" s="2" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="81">
-      <c r="A81" s="13" t="s">
-        <v>254</v>
+      <c r="A81" s="11" t="s">
+        <v>255</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C81" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="D81" s="10"/>
-      <c r="E81" s="0"/>
+      <c r="C81" s="4" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="82">
       <c r="A82" s="9" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="D82" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E82" s="0"/>
+      <c r="D82" s="4" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="83">
       <c r="A83" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C83" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D83" s="10"/>
-      <c r="E83" s="0"/>
+      <c r="C83" s="4" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="84">
       <c r="A84" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C84" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D84" s="10"/>
-      <c r="E84" s="0"/>
+      <c r="C84" s="4" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="85">
       <c r="A85" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C85" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D85" s="10"/>
+      <c r="C85" s="4" t="s">
+        <v>269</v>
+      </c>
       <c r="E85" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="86">
       <c r="A86" s="9" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C86" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D86" s="10"/>
+      <c r="C86" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="E86" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="87">
       <c r="A87" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>97</v>
@@ -2900,934 +2814,922 @@
       <c r="C87" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D87" s="10"/>
-      <c r="E87" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="88">
       <c r="A88" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C88" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="D88" s="10"/>
-      <c r="E88" s="0"/>
+      <c r="C88" s="4" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="89">
       <c r="A89" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="D89" s="10" t="s">
+      <c r="C89" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="E89" s="0"/>
+      <c r="D89" s="4" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="90">
       <c r="A90" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="0"/>
+        <v>281</v>
+      </c>
+      <c r="C90" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="91">
       <c r="A91" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D91" s="10"/>
-      <c r="E91" s="0"/>
+      <c r="C91" s="4" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="92">
       <c r="A92" s="9" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C92" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D92" s="10"/>
-      <c r="E92" s="0"/>
+      <c r="C92" s="4" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="93">
       <c r="A93" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C93" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="D93" s="10"/>
+      <c r="C93" s="4" t="s">
+        <v>289</v>
+      </c>
       <c r="E93" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="94">
       <c r="A94" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D94" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="E94" s="0"/>
+      <c r="D94" s="4" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="95">
       <c r="A95" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>294</v>
+        <v>221</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="E95" s="0"/>
+        <v>232</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="96">
       <c r="A96" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="E96" s="0"/>
+        <v>298</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="97">
       <c r="A97" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D97" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="E97" s="0"/>
+      <c r="D97" s="4" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="98">
       <c r="A98" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D98" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="E98" s="0"/>
+      <c r="D98" s="4" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="99">
       <c r="A99" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="D99" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="E99" s="0"/>
+      <c r="D99" s="4" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="100">
       <c r="A100" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D100" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="E100" s="0"/>
+      <c r="D100" s="4" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="101">
       <c r="A101" s="9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C101" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D101" s="10" t="s">
+      <c r="C101" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="E101" s="0"/>
+      <c r="D101" s="4" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="102">
       <c r="A102" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="D102" s="10" t="s">
+      <c r="C102" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="E102" s="0"/>
+      <c r="D102" s="4" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="103">
       <c r="A103" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C103" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="C103" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E103" s="0"/>
+      <c r="D103" s="4" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="104">
       <c r="A104" s="9" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C104" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="D104" s="10" t="s">
+      <c r="C104" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="E104" s="0"/>
+      <c r="D104" s="4" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="105">
       <c r="A105" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C105" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="D105" s="10" t="s">
+      <c r="C105" s="4" t="s">
         <v>328</v>
       </c>
+      <c r="D105" s="4" t="s">
+        <v>329</v>
+      </c>
       <c r="E105" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="106">
       <c r="A106" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C106" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="D106" s="10" t="s">
+      <c r="C106" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="E106" s="0"/>
+      <c r="D106" s="4" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="107">
       <c r="A107" s="9" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C107" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D107" s="10"/>
-      <c r="E107" s="0"/>
+      <c r="C107" s="4" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="108">
       <c r="A108" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C108" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="D108" s="10" t="s">
+      <c r="C108" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="E108" s="0"/>
+      <c r="D108" s="4" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="109">
       <c r="A109" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C109" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="D109" s="10" t="s">
+      <c r="C109" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="E109" s="0"/>
+      <c r="D109" s="4" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="110">
       <c r="A110" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C110" s="10" t="s">
-        <v>341</v>
+      <c r="C110" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="E110" s="0"/>
+        <v>343</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="111">
       <c r="A111" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C111" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="D111" s="10" t="s">
+      <c r="C111" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="E111" s="0"/>
+      <c r="D111" s="4" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="112">
       <c r="A112" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="11" t="s">
         <v>347</v>
       </c>
+      <c r="B112" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>348</v>
+      </c>
       <c r="D112" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="E112" s="0" t="s">
         <v>349</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="113">
       <c r="A113" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C113" s="10" t="s">
-        <v>351</v>
-      </c>
-      <c r="D113" s="10" t="s">
+      <c r="C113" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="E113" s="0"/>
+      <c r="D113" s="4" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="114">
       <c r="A114" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C114" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="D114" s="10" t="s">
+      <c r="C114" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="E114" s="0"/>
+      <c r="D114" s="4" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C115" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="C115" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="E115" s="0"/>
+      <c r="D115" s="4" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C116" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D116" s="10" t="s">
+      <c r="C116" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="E116" s="0"/>
+      <c r="D116" s="4" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="117">
       <c r="A117" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="D117" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="E117" s="0"/>
+      <c r="D117" s="4" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="118">
       <c r="A118" s="9" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C118" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="D118" s="10" t="s">
+      <c r="C118" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="E118" s="0"/>
+      <c r="D118" s="4" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="119">
       <c r="A119" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="D119" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="E119" s="0"/>
+      <c r="D119" s="4" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C120" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="D120" s="10" t="s">
+      <c r="C120" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="E120" s="0"/>
+      <c r="D120" s="4" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="121">
       <c r="A121" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C121" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="D121" s="10" t="s">
+      <c r="C121" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="E121" s="0"/>
+      <c r="D121" s="4" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="122">
       <c r="A122" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C122" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="D122" s="10" t="s">
+      <c r="C122" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="E122" s="0"/>
+      <c r="D122" s="4" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="123">
       <c r="A123" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="D123" s="10" t="s">
+      <c r="C123" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="E123" s="0"/>
+      <c r="D123" s="4" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="124">
       <c r="A124" s="9" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C124" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="D124" s="10" t="s">
+      <c r="C124" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="E124" s="0"/>
+      <c r="D124" s="4" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="125">
       <c r="A125" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C125" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="D125" s="10" t="s">
+      <c r="C125" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="E125" s="0"/>
+      <c r="D125" s="4" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="126">
       <c r="A126" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C126" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="D126" s="10" t="s">
+      <c r="C126" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="E126" s="0"/>
+      <c r="D126" s="4" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="127">
       <c r="A127" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C127" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="D127" s="10" t="s">
+      <c r="C127" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="E127" s="0"/>
+      <c r="D127" s="4" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="128">
       <c r="A128" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C128" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="D128" s="10" t="s">
+      <c r="C128" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="E128" s="0"/>
+      <c r="D128" s="4" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="129">
       <c r="A129" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C129" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="D129" s="10" t="s">
+      <c r="C129" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="E129" s="0"/>
+      <c r="D129" s="4" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="130">
       <c r="A130" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C130" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="D130" s="10" t="s">
+      <c r="C130" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="E130" s="0"/>
+      <c r="D130" s="4" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="131">
       <c r="A131" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C131" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="D131" s="10" t="s">
+      <c r="C131" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="E131" s="0"/>
+      <c r="D131" s="4" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="132">
       <c r="A132" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C132" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="D132" s="10" t="s">
+      <c r="C132" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="E132" s="0"/>
+      <c r="D132" s="4" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="133">
       <c r="A133" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C133" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="D133" s="10" t="s">
+      <c r="C133" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="E133" s="0"/>
+      <c r="D133" s="4" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="134">
       <c r="A134" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C134" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="D134" s="10" t="s">
+      <c r="C134" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="E134" s="0"/>
+      <c r="D134" s="4" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="135">
       <c r="A135" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C135" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="D135" s="10" t="s">
+      <c r="C135" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="E135" s="0"/>
+      <c r="D135" s="4" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="136">
       <c r="A136" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C136" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D136" s="10"/>
-      <c r="E136" s="0"/>
+      <c r="C136" s="4" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="137">
       <c r="A137" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="0"/>
+      <c r="C137" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="138">
       <c r="A138" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C138" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="D138" s="10" t="s">
+      <c r="C138" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="E138" s="0"/>
+      <c r="D138" s="4" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="139">
       <c r="A139" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C139" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="D139" s="10" t="s">
+      <c r="C139" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="E139" s="0"/>
+      <c r="D139" s="4" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="140">
       <c r="A140" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C140" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="D140" s="10" t="s">
+      <c r="C140" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="E140" s="0"/>
+      <c r="D140" s="4" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="141">
       <c r="A141" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C141" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="D141" s="10" t="s">
+      <c r="C141" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="E141" s="0"/>
+      <c r="D141" s="4" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="142">
       <c r="A142" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C142" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="D142" s="10" t="s">
+      <c r="C142" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="D142" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E142" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="143">
       <c r="A143" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="B143" s="14"/>
-      <c r="C143" s="10" t="s">
         <v>442</v>
       </c>
-      <c r="D143" s="10"/>
+      <c r="C143" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="E143" s="1" t="s">
-        <v>349</v>
+        <v>444</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="144">
       <c r="A144" s="9" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="C144" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="D144" s="10"/>
-      <c r="E144" s="0"/>
+        <v>446</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="145">
       <c r="A145" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="0"/>
+      <c r="C145" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="146">
       <c r="A146" s="9" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="D146" s="10"/>
-      <c r="E146" s="0"/>
+        <v>450</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="147">
       <c r="A147" s="9" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D147" s="10"/>
-      <c r="E147" s="0"/>
+        <v>453</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="148">
       <c r="A148" s="9" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C148" s="11" t="s">
-        <v>453</v>
+      <c r="C148" s="2" t="s">
+        <v>455</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E148" s="0"/>
+        <v>456</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="149">
       <c r="A149" s="9" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C149" s="15"/>
-      <c r="D149" s="15"/>
-      <c r="E149" s="0"/>
+        <v>281</v>
+      </c>
+      <c r="C149" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="150">
       <c r="A150" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>459</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="155">
-      <c r="C155" s="16" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="156">
-      <c r="C156" s="17" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="157">
-      <c r="C157" s="17" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="151">
+      <c r="A151" s="1" t="s">
         <v>461</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C151" s="4"/>
+      <c r="E151" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="152">
+      <c r="A152" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C152" s="4"/>
+      <c r="E152" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="153">
+      <c r="A153" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C153" s="4"/>
+      <c r="E153" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="154">
+      <c r="C154" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="155">
+      <c r="C155" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="156">
+      <c r="C156" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="157">
+      <c r="C157" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="158">
+      <c r="C158" s="12" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="159">
+      <c r="C159" s="12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="160">
+      <c r="C160" s="12" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="161">
+      <c r="C161" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="162">
+      <c r="C162" s="13" t="s">
+        <v>471</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="497">
   <si>
     <t>Hash</t>
   </si>
@@ -46,6 +46,9 @@
     <t>Regular Expression</t>
   </si>
   <si>
+    <t>Hashcat Mode</t>
+  </si>
+  <si>
     <t>Example Hash</t>
   </si>
   <si>
@@ -67,7 +70,7 @@
     <t>AIX(smd5)</t>
   </si>
   <si>
-    <t>^{smd5}.{31}$</t>
+    <t>^{smd5}[a-z0-9\.\$]{31}$</t>
   </si>
   <si>
     <t>{smd5}01234567$yOImZPvBC8dg1HjGYfH7j.</t>
@@ -76,9 +79,6 @@
     <t>http://hashcat.net/forum/thread-2247-post-13532.html#pid13532</t>
   </si>
   <si>
-    <t>redo regex?</t>
-  </si>
-  <si>
     <t>AIX(ssha1)</t>
   </si>
   <si>
@@ -118,9 +118,6 @@
     <t>http://pythonhosted.org/passlib/lib/passlib.hash.apr_md5_crypt.html</t>
   </si>
   <si>
-    <t>regex changed</t>
-  </si>
-  <si>
     <t>BCrypt(SHA256)</t>
   </si>
   <si>
@@ -169,6 +166,21 @@
     <t>http://pythonhosted.org/passlib/lib/passlib.hash.bsdi_crypt.html</t>
   </si>
   <si>
+    <t>Cisco VPN Client (PCF-File)</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{112}$</t>
+  </si>
+  <si>
+    <t>Cisco-ASA MD5 </t>
+  </si>
+  <si>
+    <t>02dMBMYkTdC5Ziyp:36 </t>
+  </si>
+  <si>
+    <t>regex needed</t>
+  </si>
+  <si>
     <t>Cisco-IOS(MD5)</t>
   </si>
   <si>
@@ -211,6 +223,12 @@
     <t>http://www.openwall.com/lists/john-users/2013/11/05/1</t>
   </si>
   <si>
+    <t>Clavister Secure Gateway</t>
+  </si>
+  <si>
+    <t>^crypt1:[a-z0-9\+\=]{12}:[a-z0-9\+\=]{12}$</t>
+  </si>
+  <si>
     <t>CRC-16</t>
   </si>
   <si>
@@ -370,6 +388,15 @@
     <t>http://wiki.insidepro.com/index.php/ELF-32</t>
   </si>
   <si>
+    <t>EPi</t>
+  </si>
+  <si>
+    <t>^0x[a-f0-9]{60}\s0x[a-f0-9]{40}$</t>
+  </si>
+  <si>
+    <t>0x326C6D7B4E4F794B79474E36704F35723958397163735263516265456E31 0xAFC55E260B8F45C0C6512BCE776C1AD8312B56E6 </t>
+  </si>
+  <si>
     <t>EPiServer 6.x &lt; v4</t>
   </si>
   <si>
@@ -445,6 +472,9 @@
     <t>FreeBSD MD5</t>
   </si>
   <si>
+    <t>$1$28772684$iEwNOgGugqO9.bIz5sk8k/ </t>
+  </si>
+  <si>
     <t>GHash-32-3</t>
   </si>
   <si>
@@ -484,6 +514,9 @@
     <t>grub.pbkdf2.sha512.10000.7d391ef48645f626b427b1fae06a7219b5b54f4f02b2621f86b5e36e83ae492bd1db60871e45bc07925cecb46ff8ba3db31c723c0c6acbd4f06f60c5b246ecbf.26d59c52b50df90d043f070bd9cbcd92a74424da42b3666fdeb08f1a54b8f1d2f4f56cf436f9382419c26798dc2c209a86003982b1e5a9fcef905f4dfaa4c524</t>
   </si>
   <si>
+    <t>correct regex?</t>
+  </si>
+  <si>
     <t>Half MD5</t>
   </si>
   <si>
@@ -577,6 +610,15 @@
     <t>https://stackoverflow.com/questions/10428126/joomla-password-encryption</t>
   </si>
   <si>
+    <t>Juniper Netscreen/SSG (ScreenOS) </t>
+  </si>
+  <si>
+    <t>^[a-z0-9\/\.]{30}(:.+)?</t>
+  </si>
+  <si>
+    <t>nNxKL2rOEkbBc9BFLsVGG6OtOUO/8n:user </t>
+  </si>
+  <si>
     <t>Keccak-224</t>
   </si>
   <si>
@@ -619,6 +661,12 @@
     <t>$krb5pa$23$user$realm$salt$4e751db65422b2117f7eac7b721932dc8aa0d9966785ecd958f971f622bf5c42dc0c70b532363138363631363132333238383835</t>
   </si>
   <si>
+    <t>Lastpass </t>
+  </si>
+  <si>
+    <t>a2d1f7b7a1862d0d4a52644e72d59df5:500:lp@trash-mail.com </t>
+  </si>
+  <si>
     <t>LDAP(SSHA512)</t>
   </si>
   <si>
@@ -685,6 +733,9 @@
     <t>MD5</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>d41d8cd98f00b204e9800998ecf8427e</t>
   </si>
   <si>
@@ -748,6 +799,12 @@
     <t>http://wiki.insidepro.com/index.php/MD5%28ZipMonster%29</t>
   </si>
   <si>
+    <t>Microsoft MSTSC (RDP-File)</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{1329}$</t>
+  </si>
+  <si>
     <t>Minecraft(AuthMe Reloaded)</t>
   </si>
   <si>
@@ -853,7 +910,7 @@
     <t>Netscape LDAP SSHA</t>
   </si>
   <si>
-    <t>^{SSHA}[a-z0-9\+\/]{38}={0,2}$</t>
+    <t>^{SSHA}([a-z0-9\+\/]{40}|[a-z0-9\+\/]{38}==)$</t>
   </si>
   <si>
     <t>{SSHA}AZKja92fbuuB9SpRlHqaoXxbTc43Mzc2MDM1Ng==</t>
@@ -886,6 +943,12 @@
     <t>^[a-f0-9]{32}:[a-z0-9]{2}$</t>
   </si>
   <si>
+    <t>14b6e86da0542055584abbd2df978c01:d7</t>
+  </si>
+  <si>
+    <t>http://www.oscommercecustomsolutions.com/os-commerce/modules/2008/ive-lost-my-oscommerce-password-i-cant-login-to-oscommerce/</t>
+  </si>
+  <si>
     <t>OSX v10.4-10.6</t>
   </si>
   <si>
@@ -937,6 +1000,18 @@
     <t>http://wiki.insidepro.com/index.php/RAdmin_v2.x</t>
   </si>
   <si>
+    <t>Redmine Project Management Web App </t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{40}:[a-f0-9]{0,32}$</t>
+  </si>
+  <si>
+    <t>536befdaffc3e2215e481aded7e32134906a673b:1234 </t>
+  </si>
+  <si>
+    <t>http://www.redmine.org/boards/2/topics/31915</t>
+  </si>
+  <si>
     <t>RIPEMD-128</t>
   </si>
   <si>
@@ -1018,10 +1093,31 @@
     <t>http://hashcat.net/forum/thread-2202.html</t>
   </si>
   <si>
+    <t>SAP CODVN B (BCODE) </t>
+  </si>
+  <si>
+    <t>^[0-9]{12}\$[a-f0-9]{16}$</t>
+  </si>
+  <si>
+    <t>435748802305$70AE4FF6C945B78F </t>
+  </si>
+  <si>
+    <t>http://www.openwall.com/lists/john-dev/2014/02/21/1</t>
+  </si>
+  <si>
+    <t>SAP CODVN F/G (PASSCODE) </t>
+  </si>
+  <si>
+    <t>^[0-9]{12}\$[a-f0-9]{40}$</t>
+  </si>
+  <si>
+    <t>034488234401$3F9CB8B0EFC58A8536DC0121794F672A626D78FB </t>
+  </si>
+  <si>
     <t>SCRAM Hash</t>
   </si>
   <si>
-    <t>^\$scram\$.+$</t>
+    <t>^\$scram\$[0-9]+\$[a-z0-9\/\.]{16}\$sha-1=[a-z0-9\/\.]{27},sha-256=[a-z0-9\/\.]{43},sha-512=[a-z0-9\/\.]{86}$</t>
   </si>
   <si>
     <t>$scram$6400$.Z/znnNOKWUsBaCU$sha-1=cRseQyJpnuPGn3e6d6u6JdJWk.0,sha-256=5GcjEbRaUIIci1r6NAMdI9OPZbxl9S5CFR6la9CHXYc,sha-512=.DHbIm82ajXbFR196Y.9TtbsgzvGjbMeuWCtKve8TPjRMNoZK9EGyHQ6y0lW9OtWdHZrDZbBUhB9ou./VI2mlw</t>
@@ -1090,9 +1186,6 @@
     <t>http://wiki.insidepro.com/index.php/SHA-1%28Oracle%29</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>SHA-224</t>
   </si>
   <si>
@@ -1297,6 +1390,15 @@
     <t>http://wiki.insidepro.com/index.php/Skein-512%28384%29</t>
   </si>
   <si>
+    <t>SMF &gt;= v1.1 </t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{40}:[^*]{1,25}$</t>
+  </si>
+  <si>
+    <t>ecf076ce9d6ed3624a9332112b1cd67b236fdd11:17782686 </t>
+  </si>
+  <si>
     <t>Snefru-128</t>
   </si>
   <si>
@@ -1369,13 +1471,13 @@
     <t>vBulletin &lt; v3.8.5</t>
   </si>
   <si>
+    <t>^[a-f0-9]{32}:[0-9]{3}$</t>
+  </si>
+  <si>
     <t>16780ba78d2d5f02f3202901c1b6d975:568</t>
   </si>
   <si>
-    <t>regex needed</t>
-  </si>
-  <si>
-    <t>vBulletin &gt; v3.8.5</t>
+    <t>VBulletin &gt;= v3.8.5</t>
   </si>
   <si>
     <t>^[a-f0-9]{32}:[a-z0-9]{30}$</t>
@@ -1384,16 +1486,28 @@
     <t>bf366348c53ddcfbd16e63edfdd1eee6:181264250056774603641874043270</t>
   </si>
   <si>
+    <t>Ventrilo</t>
+  </si>
+  <si>
+    <t>1621a36cbd1ce49c5810c9b69468cc9c8eb16089cd7ed3493143f92c2d8064fe</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Ventrilo</t>
+  </si>
+  <si>
     <t>VNC</t>
   </si>
   <si>
     <t>WebEdition CMS</t>
   </si>
   <si>
-    <t>^[a-f0-9]{32}:[0-9]{4}$</t>
-  </si>
-  <si>
-    <t>fa01af9f0de5f377ae8befb03865178e:5678</t>
+    <t>^[a-f0-9]{32}:[a-f0-9]{32}$</t>
+  </si>
+  <si>
+    <t>f473e920be74df4a5ce9c5a9b332ab45:7425755ff6e2d03b5549bda4924d9f49 </t>
+  </si>
+  <si>
+    <t>https://hashcat.net/forum/thread-1766.html</t>
   </si>
   <si>
     <t>Whirlpool</t>
@@ -1414,57 +1528,19 @@
     <t>xt:Commerce</t>
   </si>
   <si>
-    <t>Ventrilo</t>
-  </si>
-  <si>
-    <t>1621a36cbd1ce49c5810c9b69468cc9c8eb16089cd7ed3493143f92c2d8064fe</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Ventrilo</t>
-  </si>
-  <si>
-    <t>Microsoft MSTSC (RDP-File) </t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{1329}$ </t>
-  </si>
-  <si>
-    <t>Cisco VPN Client (PCF-File) </t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{112}$ </t>
-  </si>
-  <si>
-    <t>Clavister Secure Gateway </t>
-  </si>
-  <si>
-    <t>^crypt1:[a-z0-9\+\=]{12}:[a-z0-9\+\=]{12}$ </t>
-  </si>
-  <si>
-    <t>hashes marked with „regex needed“ require more information to be included</t>
-  </si>
-  <si>
-    <t>hashes marked with „redo regex?“ will receive a closer look in the next version and may be updated</t>
-  </si>
-  <si>
-    <t>hashes marked with „redo regex!“ will receive an update in the next version</t>
-  </si>
-  <si>
-    <t>hashes marked with „new“ got included in the latest version</t>
-  </si>
-  <si>
-    <t>hashes marked with „regex changed“ got theire regex changed in the last update</t>
+    <t>a79e5074f495ec733eeec0ee6b83b106:26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="@" numFmtId="165"/>
+    <numFmt formatCode="@" numFmtId="166"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1488,36 +1564,29 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val=""/>
-      <family val="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val=""/>
-      <family val="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <name val=""/>
-      <family val="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val=""/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="20"/>
-      <name val=""/>
-      <family val="0"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1563,17 +1632,17 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
@@ -1584,12 +1653,20 @@
       <alignment horizontal="general" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
+      <alignment horizontal="left" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
@@ -1600,24 +1677,20 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
@@ -1637,824 +1710,889 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A138" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C173" activeCellId="0" pane="topLeft" sqref="C173"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A118" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B147" activeCellId="0" pane="topLeft" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.5408163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="66.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="98.3112244897959"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="4" width="53.4591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="65.8673469387755"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="17.2091836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="98.3112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="4" width="53.4591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="14.9744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="5" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.25" outlineLevel="0" r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="10" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="2">
-      <c r="A2" s="9" t="s">
-        <v>5</v>
+      <c r="A2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="n">
         <v>8950272</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="3">
-      <c r="A3" s="9" t="s">
-        <v>8</v>
+      <c r="A3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="11" t="n">
+        <v>6300</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="4">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="11" t="n">
+        <v>6700</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="5">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="11" t="n">
+        <v>6400</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="6">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="11" t="n">
+        <v>6500</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="7">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="11" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="8">
+      <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="8">
-      <c r="A8" s="9" t="s">
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="9">
+      <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="9">
-      <c r="A9" s="9" t="s">
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="10">
+      <c r="A10" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="10">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="11" t="n">
+        <v>3200</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="11">
+      <c r="A11" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="11">
-      <c r="A11" s="10" t="s">
+      <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="12">
+      <c r="A12" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="12">
-      <c r="A12" s="9" t="s">
+      <c r="B12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="13">
+      <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="11" t="n">
+        <v>2410</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="13">
-      <c r="A13" s="9" t="s">
+      <c r="F13" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="14">
+      <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="14">
-      <c r="A14" s="9" t="s">
+      <c r="C14" s="11" t="n">
+        <v>500</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="15">
+      <c r="A15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="C15" s="11" t="n">
+        <v>5700</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="15">
-      <c r="A15" s="9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="16">
+      <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="11" t="n">
+        <v>2400</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="16">
-      <c r="A16" s="9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="17">
+      <c r="A17" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="17">
-      <c r="A17" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="11" t="n">
+        <v>8100</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="18">
+      <c r="A18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D18" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="19">
+      <c r="A19" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="18">
-      <c r="A18" s="9" t="s">
+      <c r="B19" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3" t="s">
+      <c r="D19" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="19">
-      <c r="A19" s="9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="20">
+      <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="20">
-      <c r="A20" s="9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="21">
+      <c r="A21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="22">
+      <c r="A22" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="21">
-      <c r="A21" s="9" t="s">
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="23">
+      <c r="A23" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="22">
-      <c r="A22" s="9" t="s">
+      <c r="D23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="24">
+      <c r="A24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="23">
-      <c r="A23" s="9" t="s">
+      <c r="D24" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="E24" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="25">
+      <c r="A25" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="24">
-      <c r="A24" s="9" t="s">
+      <c r="D25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="E25" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="26">
+      <c r="A26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="25">
-      <c r="A25" s="9" t="s">
+      <c r="B26" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="26">
-      <c r="A26" s="11" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="27">
+      <c r="A27" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E27" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="28">
+      <c r="A28" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="27">
-      <c r="A27" s="9" t="s">
+      <c r="B28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="11" t="n">
+        <v>3100</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C27" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="29">
+      <c r="A29" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="28">
-      <c r="A28" s="9" t="s">
+      <c r="C29" s="11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D28" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="30">
+      <c r="A30" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="29">
-      <c r="A29" s="9" t="s">
+      <c r="B30" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C30" s="11" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D29" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="31">
+      <c r="A31" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="30">
-      <c r="A30" s="9" t="s">
+      <c r="B31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="11" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="E31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="32">
+      <c r="A32" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="31">
-      <c r="A31" s="9" t="s">
+      <c r="B32" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C32" s="11" t="n">
+        <v>7900</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="32">
-      <c r="A32" s="9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="33">
+      <c r="A33" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="33">
-      <c r="A33" s="9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="34">
+      <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="B34" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="C34" s="11" t="n">
+        <v>123</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="34">
-      <c r="A34" s="9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="35">
+      <c r="A35" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="C35" s="11" t="n">
+        <v>141</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>121</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="35">
-      <c r="A35" s="9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="36">
+      <c r="A36" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="B36" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="C36" s="11" t="n">
+        <v>1441</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>124</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="36">
-      <c r="A36" s="9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="37">
+      <c r="A37" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="B37" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="37">
-      <c r="A37" s="9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="38">
+      <c r="A38" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="B38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="38">
-      <c r="A38" s="9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="39">
+      <c r="A39" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="39">
-      <c r="A39" s="9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="40">
+      <c r="A40" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="40">
-      <c r="A40" s="9" t="s">
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D40" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="41">
+      <c r="A41" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="41">
-      <c r="A41" s="9" t="s">
+      <c r="B41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D41" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="42">
+      <c r="A42" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="42">
-      <c r="A42" s="9" t="s">
+      <c r="B42" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="11" t="n">
+        <v>7000</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="43">
+      <c r="A43" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="B43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="11" t="n">
+        <v>500</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="43">
-      <c r="A43" s="9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="44">
+      <c r="A44" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="44">
-      <c r="A44" s="9" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="45">
+      <c r="A45" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="4" t="s">
+      <c r="B45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="45">
-      <c r="A45" s="9" t="s">
+      <c r="E45" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B45" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="46">
+      <c r="A46" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="C46" s="11" t="n">
+        <v>6900</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="46">
-      <c r="A46" s="9" t="s">
+      <c r="E46" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="47">
+      <c r="A47" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="B47" s="2" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="47">
-      <c r="A47" s="9" t="s">
+      <c r="C47" s="11" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C47" s="3" t="s">
+      <c r="F47" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="D47" s="4" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="48">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C48" s="11" t="n">
+        <v>5100</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C48" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="49">
+      <c r="A49" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="49">
-      <c r="A49" s="9" t="s">
+      <c r="B49" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="D49" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="E49" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="50">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C50" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>156</v>
+      <c r="E50" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="51">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C51" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="52">
-      <c r="A52" s="9" t="s">
-        <v>169</v>
+      <c r="A52" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C52" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="E52" s="4" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="53">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="4" t="s">
         <v>174</v>
       </c>
+      <c r="D53" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="54">
-      <c r="A54" s="9" t="s">
-        <v>175</v>
+      <c r="A54" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C54" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="E54" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="55">
+      <c r="A55" s="14" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="55">
-      <c r="A55" s="9" t="s">
+      <c r="B55" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="11" t="n">
+        <v>2811</v>
+      </c>
+      <c r="D55" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="56">
+      <c r="A56" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="56">
-      <c r="A56" s="9" t="s">
+      <c r="C56" s="11" t="n">
+        <v>4800</v>
+      </c>
+      <c r="D56" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C56" s="4" t="s">
+      <c r="E56" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="57">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="C57" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="58">
+      <c r="A58" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D57" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="58">
-      <c r="A58" s="9" t="s">
+      <c r="B58" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="E58" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>181</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="59">
-      <c r="A59" s="9" t="s">
+      <c r="A59" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>192</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="60">
@@ -2462,1274 +2600,1507 @@
         <v>193</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D60" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="61">
+      <c r="A61" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="61">
-      <c r="A61" s="9" t="s">
+      <c r="B61" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D61" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="E61" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="62">
+      <c r="A62" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D62" s="11" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="62">
-      <c r="A62" s="9" t="s">
+      <c r="E62" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="63">
+      <c r="A63" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D63" s="11" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="63">
-      <c r="A63" s="9" t="s">
+      <c r="E63" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="64">
+      <c r="A64" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C64" s="11" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D64" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="F64" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="65">
+      <c r="A65" s="1" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="64">
-      <c r="A64" s="9" t="s">
+      <c r="C65" s="11" t="n">
+        <v>6800</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C64" s="3" t="s">
+      <c r="F65" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="66">
+      <c r="A66" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="B66" s="2" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="65">
-      <c r="A65" s="9" t="s">
+      <c r="C66" s="11" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D66" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C65" s="3" t="s">
+      <c r="E66" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D65" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="67">
+      <c r="A67" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="66">
-      <c r="A66" s="9" t="s">
+      <c r="B67" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C66" s="3" t="s">
+      <c r="D67" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="E67" s="4" t="s">
         <v>216</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="67">
-      <c r="A67" s="9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="68">
+      <c r="A68" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="11" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="68">
-      <c r="A68" s="9" t="s">
+      <c r="E68" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>172</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="69">
-      <c r="A69" s="9" t="s">
+      <c r="A69" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="D69" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="E69" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="70">
-      <c r="A70" s="9" t="s">
+      <c r="A70" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="E70" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="71">
-      <c r="A71" s="9" t="s">
+      <c r="A71" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C71" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="11" t="n">
+        <v>900</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>228</v>
       </c>
+      <c r="E71" s="4" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="72">
-      <c r="A72" s="9" t="s">
-        <v>229</v>
+      <c r="A72" s="1" t="s">
+        <v>230</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C72" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="2" t="s">
         <v>232</v>
       </c>
+      <c r="E72" s="4" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="73">
-      <c r="A73" s="9" t="s">
-        <v>233</v>
+      <c r="A73" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D73" s="4" t="s">
         <v>235</v>
       </c>
+      <c r="C73" s="11" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="74">
-      <c r="A74" s="9" t="s">
+      <c r="A74" s="1" t="s">
         <v>236</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C74" s="11" t="n">
+        <v>4800</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="75">
+      <c r="A75" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D74" s="4" t="s">
+      <c r="C75" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="75">
-      <c r="A75" s="9" t="s">
+      <c r="E75" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B75" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="76">
+      <c r="A76" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="B76" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="C76" s="11" t="n">
+        <v>3300</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>243</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="76">
-      <c r="A76" s="9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="77">
+      <c r="A77" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="11" t="n">
+        <v>500</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C76" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="78">
+      <c r="A78" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="B78" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="77">
-      <c r="A77" s="9" t="s">
+      <c r="C78" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="C77" s="4"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="78">
-      <c r="A78" s="9" t="s">
+      <c r="E78" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B78" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="79">
+      <c r="A79" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="B79" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" s="11" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="79">
-      <c r="A79" s="9" t="s">
+      <c r="E79" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C79" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="80">
-      <c r="A80" s="9" t="s">
+      <c r="A80" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="B80" s="13" t="s">
         <v>254</v>
       </c>
+      <c r="D80" s="11"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="81">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="D81" s="2" t="s">
         <v>257</v>
       </c>
+      <c r="E81" s="4" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="82">
-      <c r="A82" s="9" t="s">
-        <v>258</v>
+      <c r="A82" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="D82" s="4" t="s">
         <v>260</v>
       </c>
+      <c r="C82" s="11" t="n">
+        <v>131</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="83">
-      <c r="A83" s="9" t="s">
-        <v>261</v>
+      <c r="A83" s="1" t="s">
+        <v>263</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="C83" s="11" t="n">
+        <v>132</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>266</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="84">
-      <c r="A84" s="9" t="s">
+      <c r="A84" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>266</v>
-      </c>
+      <c r="D84" s="11"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="85">
-      <c r="A85" s="9" t="s">
-        <v>267</v>
+      <c r="A85" s="1" t="s">
+        <v>268</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C85" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>12</v>
+      <c r="C85" s="11" t="n">
+        <v>1731</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>270</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="86">
-      <c r="A86" s="9" t="s">
-        <v>270</v>
+      <c r="A86" s="1" t="s">
+        <v>271</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C86" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C86" s="11" t="n">
+        <v>2811</v>
+      </c>
+      <c r="D86" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="87">
+      <c r="A87" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E86" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="87">
-      <c r="A87" s="9" t="s">
+      <c r="B87" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>212</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="88">
-      <c r="A88" s="9" t="s">
+      <c r="A88" s="14" t="s">
         <v>274</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C88" s="11" t="n">
+        <v>300</v>
+      </c>
+      <c r="D88" s="11" t="s">
         <v>276</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="89">
-      <c r="A89" s="9" t="s">
+      <c r="A89" s="1" t="s">
         <v>277</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C89" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C89" s="11" t="n">
+        <v>300</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D89" s="4" t="s">
+      <c r="E89" s="4" t="s">
         <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="90">
-      <c r="A90" s="9" t="s">
+      <c r="A90" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C90" s="4"/>
+      <c r="C90" s="11" t="n">
+        <v>5500</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="91">
-      <c r="A91" s="9" t="s">
-        <v>282</v>
+      <c r="A91" s="1" t="s">
+        <v>283</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="C91" s="11" t="n">
+        <v>5600</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>285</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="92">
-      <c r="A92" s="9" t="s">
-        <v>284</v>
+      <c r="A92" s="1" t="s">
+        <v>286</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
+      </c>
+      <c r="C92" s="11" t="n">
+        <v>101</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>288</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="93">
-      <c r="A93" s="9" t="s">
-        <v>287</v>
+      <c r="A93" s="1" t="s">
+        <v>289</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>12</v>
+        <v>290</v>
+      </c>
+      <c r="C93" s="11" t="n">
+        <v>111</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="94">
-      <c r="A94" s="9" t="s">
-        <v>290</v>
+      <c r="A94" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D94" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="95">
+      <c r="A95" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="95">
-      <c r="A95" s="9" t="s">
+      <c r="B95" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="11" t="n">
+        <v>112</v>
+      </c>
+      <c r="D95" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="D95" s="4" t="s">
-        <v>232</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="96">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="1" t="s">
         <v>296</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C96" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96" s="11" t="n">
+        <v>3100</v>
+      </c>
+      <c r="D96" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="E96" s="4" t="s">
         <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="97">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="1" t="s">
         <v>299</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C97" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="D97" s="4" t="s">
+      <c r="C97" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="D97" s="11" t="s">
         <v>301</v>
       </c>
+      <c r="E97" s="4" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="98">
-      <c r="A98" s="9" t="s">
-        <v>302</v>
+      <c r="A98" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D98" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" s="11" t="n">
+        <v>122</v>
+      </c>
+      <c r="D98" s="11" t="s">
         <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="99">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="1" t="s">
         <v>305</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C99" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="C99" s="11" t="n">
+        <v>1722</v>
+      </c>
+      <c r="D99" s="11" t="s">
         <v>307</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="100">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="1" t="s">
         <v>308</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="11" t="n">
+        <v>7100</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="D100" s="4" t="s">
+      <c r="F100" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="101">
+      <c r="A101" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="101">
-      <c r="A101" s="9" t="s">
+      <c r="B101" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C101" s="4" t="s">
+      <c r="D101" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>314</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="102">
-      <c r="A102" s="9" t="s">
+      <c r="A102" s="1" t="s">
         <v>315</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C102" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C102" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="E102" s="4" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="103">
+      <c r="A103" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="103">
-      <c r="A103" s="9" t="s">
+      <c r="B103" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="E103" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="C103" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="104">
+      <c r="A104" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="B104" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="104">
-      <c r="A104" s="9" t="s">
+      <c r="C104" s="11" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="E104" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="C104" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="105">
+      <c r="A105" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="B105" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="105">
-      <c r="A105" s="9" t="s">
+      <c r="E105" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="B105" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="106">
+      <c r="A106" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="B106" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C106" s="11" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="E106" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="106">
-      <c r="A106" s="9" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="107">
+      <c r="A107" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C106" s="4" t="s">
+      <c r="B107" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="E107" s="4" t="s">
         <v>332</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="107">
-      <c r="A107" s="9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="108">
+      <c r="A108" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="108">
-      <c r="A108" s="9" t="s">
+      <c r="B108" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="D108" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="E108" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="D108" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="109">
+      <c r="A109" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="109">
-      <c r="A109" s="9" t="s">
+      <c r="B109" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D109" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C109" s="4" t="s">
+      <c r="E109" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D109" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="110">
+      <c r="A110" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="110">
-      <c r="A110" s="9" t="s">
+      <c r="B110" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D110" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C110" s="4" t="s">
+      <c r="E110" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="D110" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="111">
+      <c r="A111" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="111">
-      <c r="A111" s="9" t="s">
+      <c r="B111" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C111" s="4" t="s">
+      <c r="D111" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D111" s="4" t="s">
+      <c r="E111" s="4" t="s">
         <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="112">
-      <c r="A112" s="9" t="s">
+      <c r="A112" s="1" t="s">
         <v>347</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C112" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D112" s="4" t="s">
+      <c r="C112" s="11" t="n">
+        <v>5800</v>
+      </c>
+      <c r="D112" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="4" t="s">
         <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="113">
-      <c r="A113" s="9" t="s">
+      <c r="A113" s="1" t="s">
         <v>351</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C113" s="4" t="s">
         <v>352</v>
+      </c>
+      <c r="C113" s="11" t="n">
+        <v>7700</v>
       </c>
       <c r="D113" s="4" t="s">
         <v>353</v>
       </c>
+      <c r="E113" s="4" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="114">
-      <c r="A114" s="9" t="s">
+      <c r="A114" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C114" s="11" t="n">
+        <v>7800</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E114" s="4" t="s">
         <v>354</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>356</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C115" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="11" t="s">
         <v>360</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>361</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C116" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C116" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="D116" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="D116" s="4" t="s">
+      <c r="E116" s="4" t="s">
         <v>364</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="117">
-      <c r="A117" s="9" t="s">
+      <c r="A117" s="1" t="s">
         <v>365</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C117" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C117" s="11" t="n">
+        <v>101</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="118">
+      <c r="A118" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D117" s="4" t="s">
+      <c r="B118" s="2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="118">
-      <c r="A118" s="9" t="s">
+      <c r="C118" s="11" t="n">
+        <v>800</v>
+      </c>
+      <c r="D118" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="E118" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="C118" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="119">
+      <c r="A119" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="B119" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C119" s="11" t="n">
+        <v>190</v>
+      </c>
+      <c r="D119" s="11" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="119">
-      <c r="A119" s="9" t="s">
+      <c r="E119" s="4" t="s">
         <v>372</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>374</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="E120" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="B120" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="121">
+      <c r="A121" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="B121" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D121" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="E121" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="121">
-      <c r="A121" s="9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="122">
+      <c r="A122" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B122" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="E122" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="D121" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="123">
+      <c r="A123" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="122">
-      <c r="A122" s="9" t="s">
+      <c r="B123" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D123" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C122" s="4" t="s">
+      <c r="E123" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="D122" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="124">
+      <c r="A124" s="1" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="123">
-      <c r="A123" s="9" t="s">
+      <c r="B124" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C124" s="11" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D124" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C123" s="4" t="s">
+      <c r="E124" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="D123" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="125">
+      <c r="A125" s="1" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="124">
-      <c r="A124" s="9" t="s">
+      <c r="B125" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C124" s="4" t="s">
+      <c r="D125" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="E125" s="4" t="s">
         <v>391</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="125">
-      <c r="A125" s="9" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="126">
+      <c r="A126" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C125" s="4" t="s">
+      <c r="B126" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="D125" s="4" t="s">
+      <c r="C126" s="11" t="n">
+        <v>7400</v>
+      </c>
+      <c r="D126" s="11" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="126">
-      <c r="A126" s="9" t="s">
+      <c r="E126" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C126" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="127">
+      <c r="A127" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="D126" s="4" t="s">
+      <c r="B127" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="127">
-      <c r="A127" s="9" t="s">
+      <c r="E127" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C127" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="128">
+      <c r="A128" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D127" s="4" t="s">
+      <c r="B128" s="2" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="128">
-      <c r="A128" s="9" t="s">
+      <c r="D128" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C128" s="4" t="s">
+      <c r="E128" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="D128" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="129">
+      <c r="A129" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="129">
-      <c r="A129" s="9" t="s">
+      <c r="B129" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C129" s="11" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B129" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C129" s="4" t="s">
+      <c r="E129" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="D129" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="130">
+      <c r="A130" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="130">
-      <c r="A130" s="9" t="s">
+      <c r="B130" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C130" s="4" t="s">
+      <c r="C130" s="11" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D130" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="D130" s="4" t="s">
+      <c r="E130" s="4" t="s">
         <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="131">
-      <c r="A131" s="9" t="s">
+      <c r="A131" s="1" t="s">
         <v>410</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C131" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="D131" s="11" t="s">
         <v>412</v>
       </c>
+      <c r="E131" s="4" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="132">
-      <c r="A132" s="9" t="s">
-        <v>413</v>
+      <c r="A132" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>414</v>
-      </c>
-      <c r="D132" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D132" s="11" t="s">
         <v>415</v>
       </c>
+      <c r="E132" s="4" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="133">
-      <c r="A133" s="9" t="s">
-        <v>416</v>
+      <c r="A133" s="1" t="s">
+        <v>417</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D133" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D133" s="11" t="s">
         <v>418</v>
       </c>
+      <c r="E133" s="4" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="134">
-      <c r="A134" s="9" t="s">
-        <v>419</v>
+      <c r="A134" s="1" t="s">
+        <v>420</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>420</v>
-      </c>
-      <c r="D134" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D134" s="11" t="s">
         <v>421</v>
       </c>
+      <c r="E134" s="4" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="135">
-      <c r="A135" s="9" t="s">
-        <v>422</v>
+      <c r="A135" s="1" t="s">
+        <v>423</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="D135" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D135" s="11" t="s">
         <v>424</v>
       </c>
+      <c r="E135" s="4" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="136">
-      <c r="A136" s="9" t="s">
-        <v>425</v>
+      <c r="A136" s="1" t="s">
+        <v>426</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>272</v>
+        <v>162</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>427</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="137">
-      <c r="A137" s="9" t="s">
-        <v>426</v>
+      <c r="A137" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C137" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="138">
-      <c r="A138" s="9" t="s">
-        <v>427</v>
+      <c r="A138" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>430</v>
+        <v>202</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>434</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="139">
-      <c r="A139" s="9" t="s">
-        <v>431</v>
+      <c r="A139" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>433</v>
+        <v>103</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>437</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="140">
-      <c r="A140" s="9" t="s">
-        <v>434</v>
+      <c r="A140" s="1" t="s">
+        <v>438</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>436</v>
+        <v>162</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="141">
-      <c r="A141" s="9" t="s">
-        <v>437</v>
+      <c r="A141" s="1" t="s">
+        <v>441</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>439</v>
+        <v>174</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>443</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="142">
-      <c r="A142" s="9" t="s">
-        <v>440</v>
+      <c r="A142" s="1" t="s">
+        <v>444</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>95</v>
+        <v>152</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>446</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="143">
-      <c r="A143" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>444</v>
+      <c r="A143" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>449</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="144">
-      <c r="A144" s="9" t="s">
-        <v>445</v>
+      <c r="A144" s="1" t="s">
+        <v>450</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>447</v>
+        <v>451</v>
+      </c>
+      <c r="C144" s="11" t="n">
+        <v>121</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="145">
       <c r="A145" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C145" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="146">
-      <c r="A146" s="9" t="s">
-        <v>449</v>
+      <c r="A146" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>451</v>
+        <v>152</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>458</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="147">
-      <c r="A147" s="9" t="s">
-        <v>452</v>
+      <c r="A147" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>453</v>
+        <v>290</v>
+      </c>
+      <c r="C147" s="11" t="n">
+        <v>111</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="148">
-      <c r="A148" s="9" t="s">
-        <v>454</v>
+      <c r="A148" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>456</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C148" s="11" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D148" s="11"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="149">
-      <c r="A149" s="9" t="s">
-        <v>457</v>
+      <c r="A149" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C149" s="4"/>
+        <v>462</v>
+      </c>
+      <c r="C149" s="11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="150">
       <c r="A150" s="1" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>350</v>
+        <v>103</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>467</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="151">
       <c r="A151" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="C151" s="4"/>
-      <c r="E151" s="1" t="s">
-        <v>350</v>
+        <v>468</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>470</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="152">
       <c r="A152" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="C152" s="4"/>
-      <c r="E152" s="1" t="s">
-        <v>350</v>
+        <v>471</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>473</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="153">
       <c r="A153" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C153" s="4"/>
-      <c r="E153" s="1" t="s">
-        <v>350</v>
+        <v>474</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C153" s="11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="154">
-      <c r="C154" s="1"/>
+      <c r="A154" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B154" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="C154" s="11" t="n">
+        <v>2611</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="155">
-      <c r="C155" s="1"/>
+      <c r="A155" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C155" s="11" t="n">
+        <v>2711</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="156">
-      <c r="C156" s="1"/>
+      <c r="A156" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="157">
-      <c r="C157" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="158">
-      <c r="C158" s="12" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="159">
-      <c r="C159" s="12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="160">
-      <c r="C160" s="12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="161">
-      <c r="C161" s="12" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.85" outlineLevel="0" r="162">
-      <c r="C162" s="13" t="s">
-        <v>471</v>
+      <c r="A157" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D157" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="158">
+      <c r="A158" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="C158" s="11" t="n">
+        <v>3721</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="159">
+      <c r="A159" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C159" s="11" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="160">
+      <c r="A160" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="161">
+      <c r="A161" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C161" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="141" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="140" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="532">
   <si>
     <t>Hash</t>
   </si>
@@ -410,6 +410,21 @@
     <t>http://pythonhosted.org/passlib/lib/passlib.hash.msdcc2.html</t>
   </si>
   <si>
+    <t>Double MD5</t>
+  </si>
+  <si>
+    <t>a936af92b0ae20b1ff6c3347a72e5fbe</t>
+  </si>
+  <si>
+    <t>Double SHA1</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{40}$/i</t>
+  </si>
+  <si>
+    <t>3db9184f5da4e463832b086211af8d2314919951</t>
+  </si>
+  <si>
     <t>Drupal7</t>
   </si>
   <si>
@@ -566,9 +581,6 @@
     <t>HAS-160</t>
   </si>
   <si>
-    <t>^[a-f0-9]{40}$/i</t>
-  </si>
-  <si>
     <t>6746df56b6210ed660ab01b8d8886a8237389bd5</t>
   </si>
   <si>
@@ -959,6 +971,9 @@
     <t>ac5f1e62d21fd0529428b84d42e8955b04966703:38445748184477378130</t>
   </si>
   <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.oracle11.html</t>
+  </si>
+  <si>
     <t>Oracle 7-10g</t>
   </si>
   <si>
@@ -1035,6 +1050,21 @@
   </si>
   <si>
     <t>http://wiki.insidepro.com/index.php/MD5%28phpBB3%29</t>
+  </si>
+  <si>
+    <t>RACF</t>
+  </si>
+  <si>
+    <t>^(user-.+:)?\$racf\$\*.+\*[a-f0-9]{16}$/i</t>
+  </si>
+  <si>
+    <t>8500</t>
+  </si>
+  <si>
+    <t>$racf$*AAAAAAAA*3c44ee7f409c9a9b</t>
+  </si>
+  <si>
+    <t>http://openwall.info/wiki/_media/john/racf-hashkit-python.tar</t>
   </si>
   <si>
     <t>RAdmin v2.x</t>
@@ -1676,7 +1706,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1703,10 +1733,6 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
@@ -1750,10 +1776,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A133" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D174" activeCellId="0" pane="topLeft" sqref="D174"/>
+      <selection activeCell="B157" activeCellId="0" pane="topLeft" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -1774,16 +1800,16 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1794,7 +1820,7 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1809,10 +1835,10 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="11" t="n">
+      <c r="C3" s="10" t="n">
         <v>6300</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1826,10 +1852,10 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="11" t="n">
+      <c r="C4" s="10" t="n">
         <v>6700</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1843,10 +1869,10 @@
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11" t="n">
+      <c r="C5" s="10" t="n">
         <v>6400</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1860,10 +1886,10 @@
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="10" t="n">
         <v>6500</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1880,7 +1906,7 @@
       <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="10" t="n">
         <v>1600</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1897,8 +1923,8 @@
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1912,7 +1938,7 @@
       <c r="B9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1927,7 +1953,7 @@
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="11" t="n">
+      <c r="C10" s="10" t="n">
         <v>3200</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1938,13 +1964,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="11">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="9"/>
       <c r="D11" s="2" t="s">
         <v>42</v>
       </c>
@@ -1952,13 +1978,16 @@
         <v>43</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="12" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="12">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="C12" s="9" t="n">
+        <v>8400</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>46</v>
       </c>
@@ -1966,24 +1995,24 @@
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="13" s="4">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="14">
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="14" s="4">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="10" t="n">
         <v>2410</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1993,31 +2022,31 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="15" s="4">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="10" t="n">
         <v>500</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="16" s="4">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="10" t="n">
         <v>5700</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2028,10 +2057,10 @@
       <c r="B17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="10" t="n">
         <v>2400</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -2045,7 +2074,7 @@
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="10" t="n">
         <v>8100</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2055,15 +2084,15 @@
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="19" s="4">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="20">
       <c r="A20" s="1" t="s">
@@ -2072,7 +2101,7 @@
       <c r="B20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="9"/>
       <c r="D20" s="2" t="s">
         <v>71</v>
       </c>
@@ -2087,7 +2116,7 @@
       <c r="B21" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="9"/>
       <c r="D21" s="2" t="s">
         <v>74</v>
       </c>
@@ -2102,7 +2131,7 @@
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="9"/>
       <c r="D22" s="2" t="s">
         <v>77</v>
       </c>
@@ -2117,7 +2146,7 @@
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="10"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="2" t="s">
         <v>80</v>
       </c>
@@ -2132,7 +2161,7 @@
       <c r="B24" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="2" t="s">
         <v>84</v>
       </c>
@@ -2147,7 +2176,7 @@
       <c r="B25" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="9"/>
       <c r="D25" s="2" t="s">
         <v>88</v>
       </c>
@@ -2162,7 +2191,7 @@
       <c r="B26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C26" s="10"/>
+      <c r="C26" s="9"/>
       <c r="D26" s="2" t="s">
         <v>92</v>
       </c>
@@ -2177,7 +2206,7 @@
       <c r="B27" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C27" s="10"/>
+      <c r="C27" s="9"/>
       <c r="D27" s="2" t="s">
         <v>96</v>
       </c>
@@ -2192,7 +2221,7 @@
       <c r="B28" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="9"/>
       <c r="D28" s="2" t="s">
         <v>100</v>
       </c>
@@ -2207,10 +2236,10 @@
       <c r="B29" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="11" t="n">
+      <c r="C29" s="10" t="n">
         <v>3100</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>102</v>
       </c>
       <c r="E29" s="3" t="s">
@@ -2218,13 +2247,13 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="30">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="11" t="n">
+      <c r="C30" s="10" t="n">
         <v>1500</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2241,10 +2270,10 @@
       <c r="B31" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="11" t="n">
+      <c r="C31" s="10" t="n">
         <v>800</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>110</v>
       </c>
       <c r="E31" s="3" t="s">
@@ -2258,8 +2287,8 @@
       <c r="B32" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="10" t="s">
         <v>114</v>
       </c>
       <c r="E32" s="3" t="s">
@@ -2273,8 +2302,8 @@
       <c r="B33" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11" t="s">
+      <c r="C33" s="9"/>
+      <c r="D33" s="10" t="s">
         <v>118</v>
       </c>
       <c r="E33" s="3" t="s">
@@ -2288,7 +2317,7 @@
       <c r="B34" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="10" t="n">
+      <c r="C34" s="9" t="n">
         <v>8300</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -2305,10 +2334,10 @@
       <c r="B35" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="11" t="n">
+      <c r="C35" s="10" t="n">
         <v>1100</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>126</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -2322,1103 +2351,1104 @@
       <c r="B36" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="11" t="n">
+      <c r="C36" s="10" t="n">
         <v>2100</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>129</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="37">
-      <c r="A37" s="1" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="37" s="4">
+      <c r="A37" s="4" t="s">
         <v>131</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="9" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C37" s="11" t="n">
-        <v>7900</v>
-      </c>
-      <c r="D37" s="11" t="s">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="38" s="4">
+      <c r="A38" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="38">
-      <c r="A38" s="1" t="s">
+      <c r="C38" s="9" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="10" t="n">
+        <v>7900</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C39" s="11" t="n">
-        <v>123</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="40">
       <c r="A40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="E40" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="11" t="n">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="41" s="4">
+      <c r="A41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="10" t="n">
+        <v>123</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="42" s="4">
+      <c r="A42" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="10" t="n">
         <v>141</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="41">
-      <c r="A41" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" s="11" t="n">
+      <c r="D42" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="43" s="4">
+      <c r="A43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="10" t="n">
         <v>1441</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="42">
-      <c r="A42" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="43">
-      <c r="A43" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="10" t="s">
         <v>151</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="44">
       <c r="A44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="2" t="s">
+      <c r="E44" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="45">
       <c r="A45" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="10"/>
+      <c r="C45" s="9"/>
       <c r="D45" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="46">
       <c r="A46" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="2" t="s">
+      <c r="E46" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="47">
       <c r="A47" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="E47" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C47" s="11" t="n">
-        <v>7000</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>164</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="48">
       <c r="A48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="11" t="n">
-        <v>500</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="49">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="49" s="4">
       <c r="A49" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="C49" s="10" t="n">
+        <v>7000</v>
+      </c>
+      <c r="D49" s="10" t="s">
         <v>169</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="50">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="50" s="4">
       <c r="A50" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="10" t="n">
+        <v>500</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="51">
       <c r="A51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="E51" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C51" s="11" t="n">
-        <v>6900</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="52">
       <c r="A52" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C52" s="11" t="n">
-        <v>7200</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="53">
       <c r="A53" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="10" t="n">
+        <v>6900</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="11" t="n">
-        <v>5100</v>
-      </c>
-      <c r="D53" s="11" t="s">
+      <c r="E53" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="54">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="54" s="4">
       <c r="A54" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C54" s="10"/>
-      <c r="D54" s="11" t="s">
+      <c r="C54" s="10" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D54" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="F54" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="55" s="4">
+      <c r="A55" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="55">
-      <c r="A55" s="1" t="s">
+      <c r="B55" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C55" s="10" t="n">
+        <v>5100</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>186</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" s="10"/>
-      <c r="D55" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="56">
       <c r="A56" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C56" s="10"/>
-      <c r="D56" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="57">
       <c r="A57" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="E57" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="E58" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="59">
       <c r="A59" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="2" t="s">
+      <c r="E59" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="60">
+      <c r="A60" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="60">
-      <c r="A60" s="13" t="s">
+      <c r="B60" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="C60" s="9"/>
+      <c r="D60" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C60" s="11" t="n">
+      <c r="E60" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="61">
+      <c r="A61" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="62" s="4">
+      <c r="A62" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" s="10" t="n">
         <v>2811</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="61">
-      <c r="A61" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="62">
-      <c r="A62" s="1" t="s">
+      <c r="D62" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B62" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="63" s="4">
+      <c r="A63" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C62" s="11" t="n">
-        <v>4800</v>
-      </c>
-      <c r="D62" s="11" t="s">
+      <c r="B63" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="C63" s="9"/>
+      <c r="D63" s="3" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="63">
-      <c r="A63" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="11" t="s">
-        <v>210</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="64">
       <c r="A64" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="10" t="n">
+        <v>4800</v>
+      </c>
+      <c r="D64" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="E64" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C64" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="D64" s="11" t="s">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="65" s="4">
+      <c r="A65" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="B65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="10" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="65">
-      <c r="A65" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C65" s="11" t="n">
-        <v>22</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="66">
       <c r="A66" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B66" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="67" s="4">
+      <c r="A67" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C66" s="11" t="n">
+      <c r="B67" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="68" s="4">
+      <c r="A68" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C68" s="10" t="n">
         <v>7500</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="F66" s="4" t="s">
+      <c r="D68" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="67">
-      <c r="A67" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C67" s="11" t="n">
-        <v>6800</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="68">
-      <c r="A68" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C68" s="11" t="n">
-        <v>1711</v>
-      </c>
-      <c r="D68" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="69">
       <c r="A69" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C69" s="10"/>
-      <c r="D69" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C69" s="10" t="n">
+        <v>6800</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>227</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="70">
       <c r="A70" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C70" s="11" t="n">
-        <v>190</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>234</v>
+        <v>230</v>
+      </c>
+      <c r="C70" s="10" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="71">
       <c r="A71" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C71" s="11" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>238</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="72">
       <c r="A72" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="10" t="n">
+        <v>190</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>242</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="73">
       <c r="A73" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C73" s="10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="74">
+      <c r="A74" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="11" t="s">
+      <c r="B74" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="C74" s="9"/>
+      <c r="D74" s="10" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="74">
-      <c r="A74" s="4" t="s">
+      <c r="E74" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="75">
       <c r="A75" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="76">
+      <c r="A76" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="B76" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="10" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="76">
-      <c r="A76" s="1" t="s">
+      <c r="E76" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C76" s="11" t="n">
-        <v>900</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>254</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="77">
       <c r="A77" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>256</v>
-      </c>
+      <c r="C77" s="9"/>
       <c r="D77" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="78">
       <c r="A78" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C78" s="11" t="n">
-        <v>1600</v>
+        <v>125</v>
+      </c>
+      <c r="C78" s="10" t="n">
+        <v>900</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>26</v>
+        <v>257</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>27</v>
+        <v>258</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="79">
       <c r="A79" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C79" s="11" t="n">
-        <v>4800</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>207</v>
-      </c>
       <c r="E79" s="3" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="80">
       <c r="A80" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C80" s="11" t="n">
-        <v>3300</v>
-      </c>
-      <c r="D80" s="11" t="s">
         <v>264</v>
       </c>
+      <c r="C80" s="10" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="E80" s="3" t="s">
-        <v>265</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="81">
       <c r="A81" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C81" s="11" t="n">
-        <v>500</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>267</v>
+        <v>210</v>
+      </c>
+      <c r="C81" s="10" t="n">
+        <v>4800</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="82">
       <c r="A82" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C82" s="10" t="n">
+        <v>3300</v>
+      </c>
+      <c r="D82" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B82" s="10" t="s">
+      <c r="E82" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="83">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="83" s="4">
       <c r="A83" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B83" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="10" t="n">
+        <v>500</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="84" s="4">
+      <c r="A84" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E83" s="3" t="s">
+      <c r="B84" s="9" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="84">
-      <c r="A84" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C84" s="11" t="n">
-        <v>131</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>277</v>
-      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="85">
       <c r="A85" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C85" s="11" t="n">
-        <v>132</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="C85" s="9"/>
       <c r="D85" s="2" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="86">
       <c r="A86" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="11"/>
+      <c r="C86" s="10" t="n">
+        <v>131</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="87">
       <c r="A87" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="10" t="n">
+        <v>132</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C87" s="11" t="n">
-        <v>1731</v>
-      </c>
-      <c r="D87" s="11" t="s">
+      <c r="E87" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="88">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="88" s="4">
       <c r="A88" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B88" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="10"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="89" s="4">
+      <c r="A89" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C88" s="11" t="n">
+      <c r="B89" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C89" s="10" t="n">
+        <v>1731</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="90">
+      <c r="A90" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="C90" s="10" t="n">
         <v>2811</v>
       </c>
-      <c r="D88" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="89">
-      <c r="A89" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B89" s="2" t="s">
+      <c r="D90" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="91" s="4">
+      <c r="A91" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C89" s="11" t="n">
+      <c r="C91" s="10" t="n">
         <v>200</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="90">
-      <c r="A90" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C90" s="11" t="n">
+      <c r="D91" s="2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="92" s="4">
+      <c r="A92" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C92" s="10" t="n">
         <v>300</v>
       </c>
-      <c r="D90" s="11" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="91">
-      <c r="A91" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C91" s="11" t="n">
-        <v>300</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="92">
-      <c r="A92" s="1" t="s">
+      <c r="D92" s="10" t="s">
         <v>298</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C92" s="11" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>300</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="93">
       <c r="A93" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C93" s="10" t="n">
+        <v>300</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E93" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B93" s="2" t="s">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="94" s="4">
+      <c r="A94" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C93" s="11" t="n">
+      <c r="B94" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C94" s="10" t="n">
+        <v>5500</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="95" s="4">
+      <c r="A95" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C95" s="10" t="n">
         <v>5600</v>
       </c>
-      <c r="D93" s="11" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="94">
-      <c r="A94" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C94" s="11" t="n">
+      <c r="D95" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="96" s="4">
+      <c r="A96" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="C96" s="10" t="n">
         <v>101</v>
       </c>
-      <c r="D94" s="11" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="95">
-      <c r="A95" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C95" s="11" t="n">
-        <v>111</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="96">
-      <c r="A96" s="1" t="s">
+      <c r="D96" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C96" s="11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="97">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="97" s="4">
       <c r="A97" s="1" t="s">
         <v>311</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C97" s="11" t="n">
-        <v>112</v>
-      </c>
-      <c r="D97" s="11" t="s">
+      <c r="C97" s="10" t="n">
+        <v>111</v>
+      </c>
+      <c r="D97" s="10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="98">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="98" s="4">
       <c r="A98" s="1" t="s">
         <v>314</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C98" s="11" t="n">
-        <v>3100</v>
-      </c>
-      <c r="D98" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>316</v>
+        <v>125</v>
+      </c>
+      <c r="C98" s="10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="99">
       <c r="A99" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C99" s="10" t="n">
+        <v>112</v>
+      </c>
+      <c r="D99" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="E99" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="C99" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="100">
       <c r="A100" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C100" s="10" t="n">
+        <v>3100</v>
+      </c>
+      <c r="D100" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C100" s="11" t="n">
-        <v>122</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>322</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="101">
       <c r="A101" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="C101" s="10" t="n">
+        <v>21</v>
+      </c>
+      <c r="D101" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="C101" s="11" t="n">
-        <v>1722</v>
-      </c>
-      <c r="D101" s="11" t="s">
+      <c r="E101" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="102">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="102" s="4">
       <c r="A102" s="1" t="s">
         <v>326</v>
       </c>
       <c r="B102" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C102" s="10" t="n">
+        <v>122</v>
+      </c>
+      <c r="D102" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="C102" s="11" t="n">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="103" s="4">
+      <c r="A103" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C103" s="10" t="n">
+        <v>1722</v>
+      </c>
+      <c r="D103" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="104" s="4">
+      <c r="A104" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C104" s="10" t="n">
         <v>7100</v>
       </c>
-      <c r="D102" s="11" t="s">
-        <v>328</v>
-      </c>
-      <c r="F102" s="4" t="s">
+      <c r="D104" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F104" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="103">
-      <c r="A103" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="104">
-      <c r="A104" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B104" s="2" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="105">
+      <c r="A105" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C104" s="11" t="n">
-        <v>400</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="B105" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="C105" s="9"/>
+      <c r="D105" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="105">
-      <c r="A105" s="4" t="s">
+      <c r="E105" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C105" s="11" t="n">
-        <v>400</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>339</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="106">
       <c r="A106" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C106" s="10" t="n">
+        <v>400</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C106" s="10"/>
-      <c r="D106" s="2" t="s">
+      <c r="E106" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="E106" s="3" t="s">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="107">
+      <c r="A107" s="4" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="107">
-      <c r="A107" s="1" t="s">
+      <c r="B107" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C107" s="10" t="n">
+        <v>400</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="E107" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="C107" s="11" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="108">
       <c r="A108" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C108" s="10"/>
       <c r="D108" s="2" t="s">
         <v>348</v>
       </c>
@@ -3431,11 +3461,9 @@
         <v>350</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C109" s="11" t="n">
-        <v>6000</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="C109" s="9"/>
       <c r="D109" s="2" t="s">
         <v>351</v>
       </c>
@@ -3448,24 +3476,26 @@
         <v>353</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="2" t="s">
         <v>354</v>
       </c>
+      <c r="C110" s="10" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>355</v>
+      </c>
       <c r="E110" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="111">
       <c r="A111" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C111" s="10"/>
+        <v>125</v>
+      </c>
+      <c r="C111" s="9"/>
       <c r="D111" s="2" t="s">
         <v>358</v>
       </c>
@@ -3478,123 +3508,121 @@
         <v>360</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C112" s="10" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="11" t="s">
+      <c r="E112" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>363</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="113">
       <c r="A113" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B113" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="11" t="s">
+      <c r="E113" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>366</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="114">
       <c r="A114" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="C114" s="9"/>
+      <c r="D114" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>370</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="C115" s="9"/>
+      <c r="D115" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C115" s="11" t="n">
-        <v>5800</v>
-      </c>
-      <c r="D115" s="11" t="s">
+      <c r="E115" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="E116" s="3" t="s">
         <v>376</v>
-      </c>
-      <c r="C116" s="11" t="n">
-        <v>7700</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>378</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="E117" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="C117" s="11" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>378</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C118" s="10" t="n">
+        <v>5800</v>
+      </c>
+      <c r="D118" s="10" t="s">
         <v>383</v>
       </c>
-      <c r="C118" s="10"/>
-      <c r="D118" s="11" t="s">
+      <c r="E118" s="3" t="s">
         <v>384</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>385</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="C119" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D119" s="11" t="s">
+        <v>7700</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>387</v>
       </c>
       <c r="E119" s="3" t="s">
@@ -3606,73 +3634,73 @@
         <v>389</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C120" s="11" t="n">
-        <v>101</v>
-      </c>
-      <c r="D120" s="11" t="s">
-        <v>306</v>
+        <v>390</v>
+      </c>
+      <c r="C120" s="10" t="n">
+        <v>7800</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>388</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="10" t="s">
+        <v>394</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C122" s="10"/>
-      <c r="D122" s="11" t="s">
-        <v>394</v>
+        <v>134</v>
+      </c>
+      <c r="C122" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>397</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="123">
+        <v>398</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="123" s="4">
       <c r="A123" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C123" s="11" t="n">
-        <v>1400</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>397</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>398</v>
+        <v>309</v>
+      </c>
+      <c r="C123" s="10" t="n">
+        <v>101</v>
+      </c>
+      <c r="D123" s="10" t="s">
+        <v>310</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C124" s="11" t="n">
-        <v>7400</v>
-      </c>
-      <c r="D124" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="2" t="s">
         <v>401</v>
       </c>
       <c r="E124" s="3" t="s">
@@ -3684,61 +3712,59 @@
         <v>403</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C125" s="9"/>
+      <c r="D125" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C125" s="10"/>
-      <c r="D125" s="2" t="s">
+      <c r="E125" s="3" t="s">
         <v>405</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>406</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C126" s="10" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D126" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C126" s="11" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="E126" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="C127" s="10" t="n">
+        <v>7400</v>
+      </c>
+      <c r="D127" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="C127" s="11" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D127" s="11" t="s">
+      <c r="E127" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>413</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="128">
       <c r="A128" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C128" s="11" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D128" s="11" t="s">
+      <c r="C128" s="9"/>
+      <c r="D128" s="2" t="s">
         <v>415</v>
       </c>
       <c r="E128" s="3" t="s">
@@ -3750,56 +3776,62 @@
         <v>417</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C129" s="10"/>
-      <c r="D129" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C129" s="10" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>418</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C130" s="10"/>
-      <c r="D130" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
+      </c>
+      <c r="C130" s="10" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>422</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C131" s="10"/>
-      <c r="D131" s="11" t="s">
-        <v>422</v>
+        <v>199</v>
+      </c>
+      <c r="C131" s="10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D131" s="10" t="s">
+        <v>425</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C132" s="10"/>
-      <c r="D132" s="11" t="s">
-        <v>425</v>
+        <v>179</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="10" t="s">
+        <v>428</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>426</v>
@@ -3807,32 +3839,32 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="11" t="s">
-        <v>428</v>
+        <v>414</v>
+      </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="10" t="s">
+        <v>430</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C134" s="10"/>
-      <c r="D134" s="11" t="s">
-        <v>431</v>
+        <v>371</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="135">
@@ -3840,269 +3872,267 @@
         <v>433</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="11" t="s">
         <v>434</v>
       </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="10" t="s">
+        <v>435</v>
+      </c>
       <c r="E135" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C136" s="10"/>
-      <c r="D136" s="11" t="s">
-        <v>437</v>
+        <v>414</v>
+      </c>
+      <c r="C136" s="9"/>
+      <c r="D136" s="10" t="s">
+        <v>438</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C137" s="10"/>
-      <c r="D137" s="11" t="s">
-        <v>440</v>
+        <v>371</v>
+      </c>
+      <c r="C137" s="9"/>
+      <c r="D137" s="10" t="s">
+        <v>441</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C138" s="10"/>
-      <c r="D138" s="11" t="s">
-        <v>443</v>
+        <v>179</v>
+      </c>
+      <c r="C138" s="9"/>
+      <c r="D138" s="10" t="s">
+        <v>444</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C139" s="10"/>
-      <c r="D139" s="11" t="s">
-        <v>446</v>
+        <v>125</v>
+      </c>
+      <c r="C139" s="9"/>
+      <c r="D139" s="10" t="s">
+        <v>447</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C140" s="10"/>
-      <c r="D140" s="11" t="s">
-        <v>449</v>
+        <v>134</v>
+      </c>
+      <c r="C140" s="9"/>
+      <c r="D140" s="10" t="s">
+        <v>450</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="141">
       <c r="A141" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="11" t="s">
-        <v>452</v>
+        <v>199</v>
+      </c>
+      <c r="C141" s="9"/>
+      <c r="D141" s="10" t="s">
+        <v>453</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="142">
       <c r="A142" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="C142" s="10"/>
-      <c r="D142" s="11" t="s">
-        <v>455</v>
+        <v>371</v>
+      </c>
+      <c r="C142" s="9"/>
+      <c r="D142" s="10" t="s">
+        <v>456</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="143">
       <c r="A143" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C143" s="10"/>
-      <c r="D143" s="11" t="s">
-        <v>458</v>
+        <v>125</v>
+      </c>
+      <c r="C143" s="9"/>
+      <c r="D143" s="10" t="s">
+        <v>459</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="144">
       <c r="A144" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C144" s="10"/>
-      <c r="D144" s="11" t="s">
-        <v>461</v>
+        <v>134</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="10" t="s">
+        <v>462</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="145">
       <c r="A145" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="C145" s="11" t="n">
-        <v>121</v>
-      </c>
-      <c r="D145" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="10" t="s">
         <v>465</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>466</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="146">
       <c r="A146" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C146" s="10"/>
-      <c r="D146" s="11" t="s">
-        <v>467</v>
+        <v>179</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="10" t="s">
+        <v>468</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="147">
       <c r="A147" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C147" s="10"/>
-      <c r="D147" s="11" t="s">
-        <v>470</v>
+        <v>414</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="10" t="s">
+        <v>471</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="148">
+        <v>472</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="148" s="4">
       <c r="A148" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C148" s="11" t="n">
-        <v>111</v>
-      </c>
-      <c r="D148" s="11" t="s">
-        <v>309</v>
+        <v>474</v>
+      </c>
+      <c r="C148" s="10" t="n">
+        <v>121</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="149">
       <c r="A149" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C149" s="11" t="n">
-        <v>1711</v>
-      </c>
-      <c r="D149" s="11"/>
+        <v>125</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="10" t="s">
+        <v>477</v>
+      </c>
       <c r="E149" s="3" t="s">
-        <v>228</v>
+        <v>478</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="150">
       <c r="A150" s="1" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="C150" s="11" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D150" s="11" t="s">
-        <v>476</v>
+        <v>179</v>
+      </c>
+      <c r="C150" s="9"/>
+      <c r="D150" s="10" t="s">
+        <v>480</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="151">
+        <v>481</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="151" s="4">
       <c r="A151" s="1" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>480</v>
+        <v>312</v>
+      </c>
+      <c r="C151" s="10" t="n">
+        <v>111</v>
+      </c>
+      <c r="D151" s="10" t="s">
+        <v>313</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="152">
       <c r="A152" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C152" s="10"/>
-      <c r="D152" s="11" t="s">
-        <v>482</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C152" s="10" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D152" s="10"/>
       <c r="E152" s="3" t="s">
-        <v>483</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="153">
@@ -4110,136 +4140,135 @@
         <v>484</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C153" s="10"/>
-      <c r="D153" s="11" t="s">
         <v>485</v>
       </c>
+      <c r="C153" s="10" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D153" s="10" t="s">
+        <v>486</v>
+      </c>
       <c r="E153" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="154">
       <c r="A154" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C154" s="11" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>488</v>
+        <v>125</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="D154" s="10" t="s">
+        <v>489</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>107</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="155">
       <c r="A155" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="B155" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="C155" s="11" t="n">
-        <v>2611</v>
-      </c>
-      <c r="D155" s="11" t="s">
         <v>491</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="156">
       <c r="A156" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C156" s="11" t="n">
-        <v>2711</v>
-      </c>
-      <c r="D156" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="F156" s="4" t="s">
-        <v>23</v>
+        <v>196</v>
+      </c>
+      <c r="C156" s="9"/>
+      <c r="D156" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="157">
       <c r="A157" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C157" s="10"/>
-      <c r="D157" s="11" t="s">
-        <v>496</v>
+        <v>105</v>
+      </c>
+      <c r="C157" s="10" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D157" s="10" t="s">
+        <v>498</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="158">
+        <v>107</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="158" s="4">
       <c r="A158" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="B158" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C158" s="10"/>
-      <c r="D158" s="4" t="s">
+      <c r="B158" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="C158" s="10" t="n">
+        <v>2611</v>
+      </c>
+      <c r="D158" s="10" t="s">
         <v>501</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="159">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="159" s="4">
       <c r="A159" s="1" t="s">
         <v>502</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C159" s="11" t="n">
-        <v>3721</v>
-      </c>
-      <c r="D159" s="3" t="s">
+      <c r="C159" s="10" t="n">
+        <v>2711</v>
+      </c>
+      <c r="D159" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="E159" s="3" t="s">
-        <v>505</v>
+      <c r="F159" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="160">
       <c r="A160" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C160" s="9"/>
+      <c r="D160" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C160" s="11" t="n">
-        <v>6100</v>
-      </c>
-      <c r="D160" s="2" t="s">
+      <c r="E160" s="3" t="s">
         <v>507</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="161">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="1" t="s">
         <v>508</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="C161" s="11" t="n">
-        <v>400</v>
-      </c>
-      <c r="D161" s="2" t="s">
+      <c r="C161" s="9"/>
+      <c r="D161" s="4" t="s">
         <v>510</v>
       </c>
       <c r="E161" s="3" t="s">
@@ -4247,61 +4276,109 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="162">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="1" t="s">
         <v>512</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C162" s="11"/>
+        <v>513</v>
+      </c>
+      <c r="C162" s="10" t="n">
+        <v>3721</v>
+      </c>
       <c r="D162" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E162" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="163" s="4">
+      <c r="A163" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C163" s="10" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="164">
+      <c r="A164" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C164" s="10" t="n">
+        <v>400</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="165">
+      <c r="A165" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="163">
-      <c r="A163" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B163" s="2" t="s">
+      <c r="C165" s="10"/>
+      <c r="D165" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="166">
+      <c r="A166" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C163" s="10"/>
-      <c r="D163" s="2" t="s">
-        <v>515</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="164">
-      <c r="A164" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C164" s="11" t="n">
+      <c r="C166" s="9"/>
+      <c r="D166" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="167" s="4">
+      <c r="A167" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C167" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="D164" s="11" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="165" s="4">
-      <c r="A165" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="B165" s="2" t="s">
+      <c r="D167" s="10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="168">
+      <c r="A168" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D165" s="11" t="s">
-        <v>520</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>521</v>
+      <c r="D168" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>531</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="538">
   <si>
     <t>Hash</t>
   </si>
@@ -392,27 +392,33 @@
     <t>Domain Cached Credentials</t>
   </si>
   <si>
+    <t>^[a-f0-9]{32}(:[^\\\/\:\*\?\"\&lt;\&gt;\|]{1,20})?$/i</t>
+  </si>
+  <si>
+    <t>25fd08fa89795ed54207e6e8442a6ca0</t>
+  </si>
+  <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.msdcc.html</t>
+  </si>
+  <si>
+    <t>Domain Cached Credentials v2</t>
+  </si>
+  <si>
+    <t>^(\$DCC2\$10240#[^\\\/\:\*\?\"\&lt;\&gt;\|]{1,20}#)?[a-f0-9]{32}$/i</t>
+  </si>
+  <si>
+    <t>4c253e4b65c007a8cd683ea57bc43c76</t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.msdcc2.html</t>
+  </si>
+  <si>
+    <t>Double MD5</t>
+  </si>
+  <si>
     <t>^[a-f0-9]{32}$/i</t>
   </si>
   <si>
-    <t>25fd08fa89795ed54207e6e8442a6ca0</t>
-  </si>
-  <si>
-    <t>https://pythonhosted.org/passlib/lib/passlib.hash.msdcc.html</t>
-  </si>
-  <si>
-    <t>Domain Cached Credentials v2</t>
-  </si>
-  <si>
-    <t>4c253e4b65c007a8cd683ea57bc43c76</t>
-  </si>
-  <si>
-    <t>http://pythonhosted.org/passlib/lib/passlib.hash.msdcc2.html</t>
-  </si>
-  <si>
-    <t>Double MD5</t>
-  </si>
-  <si>
     <t>a936af92b0ae20b1ff6c3347a72e5fbe</t>
   </si>
   <si>
@@ -926,7 +932,7 @@
     <t>NetNTLMv1-VANILLA / NetNTLMv1+ESS</t>
   </si>
   <si>
-    <t>^[^\\\/:*?\"\&lt;\&gt;\|]{1,15}::[^\\\/:*?\"\&lt;\&gt;\|]{1,15}:[a-f0-9]{48}:[a-f0-9]{48}:[a-f0-9]{16}$/i</t>
+    <t>^[^\\\/:*?\"\&lt;\&gt;\|]{1,20}::[^\\\/:*?\"\&lt;\&gt;\|]{1,20}:[a-f0-9]{48}:[a-f0-9]{48}:[a-f0-9]{16}$/i</t>
   </si>
   <si>
     <t>u4-netntlm::kNS:338d08f8e26de93300000000000000000000000000000000:9526fb8c23a90751cdd619b6cea564742e1e4bf33006ba41:cb8086049ec4736c</t>
@@ -935,7 +941,7 @@
     <t>NetNTLMv2</t>
   </si>
   <si>
-    <t>^[^\\\/:*?\"\&lt;\&gt;\|]{1,15}::[^\\\/:*?\"\&lt;\&gt;\|]{1,15}:[a-f0-9]{16}:[a-f0-9]{32}:[a-f0-9]+$/i</t>
+    <t>^[^\\\/:*?\"\&lt;\&gt;\|]{1,20}::[^\\\/:*?\"\&lt;\&gt;\|]{1,20}:[a-f0-9]{16}:[a-f0-9]{32}:[a-f0-9]+$/i</t>
   </si>
   <si>
     <t>admin::N46iSNekpT:08ca45b7d7ea58ee:88dcbe4446168966a153a0064958dac6:5c7830315c7830310000000000000b45c67103d07d7b95acd12ffa11230e0000000052920b85f78d013c31cdb3b92f5d765c783030</t>
@@ -957,6 +963,18 @@
   </si>
   <si>
     <t>{SSHA}AZKja92fbuuB9SpRlHqaoXxbTc43Mzc2MDM1Ng==</t>
+  </si>
+  <si>
+    <t>NTHash(FreeBSD Variant)</t>
+  </si>
+  <si>
+    <t>^\$3\$\$[a-f0-9]{32}$/i</t>
+  </si>
+  <si>
+    <t>$3$$8846f7eaee8fb117ad06bdd830b7586c</t>
+  </si>
+  <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.nthash.html</t>
   </si>
   <si>
     <t>NTLM</t>
@@ -1776,10 +1794,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:F169"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A133" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B157" activeCellId="0" pane="topLeft" sqref="B157"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A77" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B90" activeCellId="0" pane="topLeft" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -2349,212 +2367,212 @@
         <v>128</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C36" s="10" t="n">
         <v>2100</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="37" s="4">
       <c r="A37" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C37" s="9" t="n">
         <v>2600</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="38" s="4">
       <c r="A38" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C38" s="9" t="n">
         <v>4500</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C39" s="10" t="n">
         <v>7900</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="40">
       <c r="A40" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="41" s="4">
       <c r="A41" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C41" s="10" t="n">
         <v>123</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="42" s="4">
       <c r="A42" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C42" s="10" t="n">
         <v>141</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="43" s="4">
       <c r="A43" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C43" s="10" t="n">
         <v>1441</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="44">
       <c r="A44" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="45">
       <c r="A45" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="46">
       <c r="A46" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="47">
       <c r="A47" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="48">
       <c r="A48" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="49" s="4">
       <c r="A49" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C49" s="10" t="n">
         <v>7000</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="50" s="4">
       <c r="A50" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>54</v>
@@ -2563,68 +2581,68 @@
         <v>500</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="51">
       <c r="A51" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="52">
       <c r="A52" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="53">
       <c r="A53" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C53" s="10" t="n">
         <v>6900</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="54" s="4">
       <c r="A54" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C54" s="10" t="n">
         <v>7200</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>23</v>
@@ -2632,7 +2650,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="55" s="4">
       <c r="A55" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>83</v>
@@ -2641,197 +2659,197 @@
         <v>5100</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="56">
       <c r="A56" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="57">
       <c r="A57" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="59">
       <c r="A59" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="60">
       <c r="A60" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="62" s="4">
       <c r="A62" s="12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C62" s="10" t="n">
         <v>2811</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="63" s="4">
       <c r="A63" s="4" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="64">
       <c r="A64" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C64" s="10" t="n">
         <v>4800</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="65" s="4">
       <c r="A65" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="66">
       <c r="A66" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C66" s="10" t="n">
         <v>11</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="67" s="4">
       <c r="A67" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C67" s="10" t="n">
         <v>22</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="68" s="4">
       <c r="A68" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C68" s="10" t="n">
         <v>7500</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>23</v>
@@ -2839,187 +2857,187 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="69">
       <c r="A69" s="1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C69" s="10" t="n">
         <v>6800</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="70">
       <c r="A70" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C70" s="10" t="n">
         <v>1711</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="71">
       <c r="A71" s="1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="72">
       <c r="A72" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C72" s="10" t="n">
         <v>190</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="73">
       <c r="A73" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C73" s="10" t="n">
         <v>3000</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="74">
       <c r="A74" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="10" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="75">
       <c r="A75" s="1" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="76">
       <c r="A76" s="4" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="77">
       <c r="A77" s="1" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="2" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="78">
       <c r="A78" s="1" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C78" s="10" t="n">
         <v>900</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="79">
       <c r="A79" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="80">
       <c r="A80" s="1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C80" s="10" t="n">
         <v>1600</v>
@@ -3033,41 +3051,41 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="81">
       <c r="A81" s="1" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C81" s="10" t="n">
         <v>4800</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="82">
       <c r="A82" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C82" s="10" t="n">
         <v>3300</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="83" s="4">
       <c r="A83" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>54</v>
@@ -3076,112 +3094,112 @@
         <v>500</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="84" s="4">
       <c r="A84" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C84" s="9"/>
       <c r="D84" s="10"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="85">
       <c r="A85" s="1" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="86">
       <c r="A86" s="1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C86" s="10" t="n">
         <v>131</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="87">
       <c r="A87" s="1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C87" s="10" t="n">
         <v>132</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="88" s="4">
       <c r="A88" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C88" s="9"/>
       <c r="D88" s="10"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="89" s="4">
       <c r="A89" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C89" s="10" t="n">
         <v>1731</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="90">
       <c r="A90" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C90" s="10" t="n">
         <v>2811</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="91" s="4">
       <c r="A91" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>83</v>
@@ -3190,1195 +3208,1209 @@
         <v>200</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="92" s="4">
       <c r="A92" s="12" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C92" s="10" t="n">
         <v>300</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="93">
       <c r="A93" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="C93" s="10" t="n">
         <v>300</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="94" s="4">
       <c r="A94" s="1" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C94" s="10" t="n">
         <v>5500</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="95" s="4">
       <c r="A95" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C95" s="10" t="n">
         <v>5600</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="96" s="4">
       <c r="A96" s="1" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C96" s="10" t="n">
         <v>101</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="97" s="4">
       <c r="A97" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C97" s="10" t="n">
         <v>111</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="98" s="4">
       <c r="A98" s="1" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C98" s="10" t="n">
+        <v>317</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="99" s="4">
+      <c r="A99" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="10" t="n">
         <v>1000</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="99">
-      <c r="A99" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C99" s="10" t="n">
-        <v>112</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>318</v>
+      <c r="D99" s="2" t="s">
+        <v>259</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="100">
       <c r="A100" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>83</v>
+        <v>322</v>
       </c>
       <c r="C100" s="10" t="n">
-        <v>3100</v>
+        <v>112</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="101">
       <c r="A101" s="1" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>323</v>
+        <v>83</v>
       </c>
       <c r="C101" s="10" t="n">
+        <v>3100</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="102">
+      <c r="A102" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C102" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="D101" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="102" s="4">
-      <c r="A102" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C102" s="10" t="n">
-        <v>122</v>
-      </c>
       <c r="D102" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>331</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="103" s="4">
       <c r="A103" s="1" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>329</v>
+        <v>198</v>
       </c>
       <c r="C103" s="10" t="n">
-        <v>1722</v>
+        <v>122</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="104" s="4">
       <c r="A104" s="1" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="C104" s="10" t="n">
+        <v>1722</v>
+      </c>
+      <c r="D104" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="105" s="4">
+      <c r="A105" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C105" s="10" t="n">
         <v>7100</v>
       </c>
-      <c r="D104" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="F104" s="4" t="s">
+      <c r="D105" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="F105" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="105">
-      <c r="A105" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>337</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="106">
       <c r="A106" s="1" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C106" s="10" t="n">
-        <v>400</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="C106" s="9"/>
       <c r="D106" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="107">
-      <c r="A107" s="4" t="s">
-        <v>342</v>
+      <c r="A107" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="C107" s="10" t="n">
         <v>400</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>347</v>
+      <c r="C108" s="10" t="n">
+        <v>400</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="109">
       <c r="A109" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C109" s="9"/>
+        <v>352</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="D109" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="110">
       <c r="A110" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C110" s="10" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>355</v>
+        <v>133</v>
+      </c>
+      <c r="C110" s="9"/>
+      <c r="D110" s="2" t="s">
+        <v>357</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="111">
       <c r="A111" s="1" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="2" t="s">
-        <v>358</v>
+        <v>360</v>
+      </c>
+      <c r="C111" s="10" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>361</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="112">
       <c r="A112" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C112" s="10" t="n">
-        <v>6000</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C112" s="9"/>
       <c r="D112" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="113">
       <c r="A113" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C113" s="9"/>
+        <v>136</v>
+      </c>
+      <c r="C113" s="10" t="n">
+        <v>6000</v>
+      </c>
       <c r="D113" s="2" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="114">
       <c r="A114" s="1" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>367</v>
+        <v>181</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="2" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C115" s="9"/>
-      <c r="D115" s="10" t="s">
-        <v>372</v>
+      <c r="D115" s="2" t="s">
+        <v>374</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="10" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="C117" s="9"/>
-      <c r="D117" s="2" t="s">
-        <v>379</v>
+      <c r="D117" s="10" t="s">
+        <v>381</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="C118" s="10" t="n">
-        <v>5800</v>
-      </c>
-      <c r="D118" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="2" t="s">
+        <v>385</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C119" s="10" t="n">
-        <v>7700</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>387</v>
+        <v>5800</v>
+      </c>
+      <c r="D119" s="10" t="s">
+        <v>389</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C120" s="10" t="n">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C121" s="10" t="n">
+        <v>7800</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E121" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>395</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C122" s="9" t="n">
+        <v>399</v>
+      </c>
+      <c r="C122" s="9"/>
+      <c r="D122" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="123">
+      <c r="A123" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C123" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="D122" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="123" s="4">
-      <c r="A123" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C123" s="10" t="n">
+      <c r="D123" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="124" s="4">
+      <c r="A124" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C124" s="10" t="n">
         <v>101</v>
       </c>
-      <c r="D123" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="124">
-      <c r="A124" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>402</v>
+      <c r="D124" s="10" t="s">
+        <v>312</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C125" s="9"/>
-      <c r="D125" s="10" t="s">
-        <v>404</v>
+      <c r="D125" s="2" t="s">
+        <v>407</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C126" s="10" t="n">
-        <v>1400</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C126" s="9"/>
       <c r="D126" s="10" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>410</v>
+        <v>181</v>
       </c>
       <c r="C127" s="10" t="n">
-        <v>7400</v>
+        <v>1400</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="128">
       <c r="A128" s="1" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
+      </c>
+      <c r="C128" s="10" t="n">
+        <v>7400</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>417</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C129" s="10" t="n">
-        <v>1700</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C129" s="9"/>
       <c r="D129" s="2" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="C130" s="10" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>422</v>
+        <v>1700</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>424</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>199</v>
+        <v>427</v>
       </c>
       <c r="C131" s="10" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C132" s="9"/>
+        <v>201</v>
+      </c>
+      <c r="C132" s="10" t="n">
+        <v>5000</v>
+      </c>
       <c r="D132" s="10" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>414</v>
+        <v>181</v>
       </c>
       <c r="C133" s="9"/>
       <c r="D133" s="10" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="E134" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>426</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>434</v>
+        <v>377</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="10" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="10" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>371</v>
+        <v>420</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="10" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>179</v>
+        <v>377</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="10" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>125</v>
+        <v>181</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="10" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="10" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="141">
       <c r="A141" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="10" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="142">
       <c r="A142" s="1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>371</v>
+        <v>201</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="10" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="143">
       <c r="A143" s="1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>125</v>
+        <v>377</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="10" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="144">
       <c r="A144" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="10" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="145">
       <c r="A145" s="1" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>199</v>
+        <v>136</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="10" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="146">
       <c r="A146" s="1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="10" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="147">
       <c r="A147" s="1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>414</v>
+        <v>181</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="10" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="148" s="4">
+        <v>475</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="148">
       <c r="A148" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="C148" s="10" t="n">
+        <v>420</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="149" s="4">
+      <c r="A149" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="C149" s="10" t="n">
         <v>121</v>
       </c>
-      <c r="D148" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="149">
-      <c r="A149" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C149" s="9"/>
-      <c r="D149" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>478</v>
+      <c r="D149" s="3" t="s">
+        <v>481</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="150">
       <c r="A150" s="1" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="10" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="151" s="4">
+        <v>484</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="151">
       <c r="A151" s="1" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C151" s="10" t="n">
+        <v>181</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="152" s="4">
+      <c r="A152" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C152" s="10" t="n">
         <v>111</v>
       </c>
-      <c r="D151" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="152">
-      <c r="A152" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C152" s="10" t="n">
-        <v>1711</v>
-      </c>
-      <c r="D152" s="10"/>
-      <c r="E152" s="3" t="s">
-        <v>232</v>
+      <c r="D152" s="10" t="s">
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="153">
       <c r="A153" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>485</v>
+        <v>232</v>
       </c>
       <c r="C153" s="10" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>486</v>
-      </c>
+        <v>1711</v>
+      </c>
+      <c r="D153" s="10"/>
       <c r="E153" s="3" t="s">
-        <v>487</v>
+        <v>234</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="154">
       <c r="A154" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C154" s="9"/>
+        <v>491</v>
+      </c>
+      <c r="C154" s="10" t="n">
+        <v>8000</v>
+      </c>
       <c r="D154" s="10" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="155">
       <c r="A155" s="1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C155" s="9"/>
       <c r="D155" s="10" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="156">
       <c r="A156" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>196</v>
+        <v>136</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="10" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="157">
       <c r="A157" s="1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C157" s="9"/>
+      <c r="D157" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="158">
+      <c r="A158" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C157" s="10" t="n">
+      <c r="C158" s="10" t="n">
         <v>1500</v>
       </c>
-      <c r="D157" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="E157" s="3" t="s">
+      <c r="D158" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="158" s="4">
-      <c r="A158" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="C158" s="10" t="n">
-        <v>2611</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>501</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="159" s="4">
       <c r="A159" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>506</v>
       </c>
       <c r="C159" s="10" t="n">
+        <v>2611</v>
+      </c>
+      <c r="D159" s="10" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="160" s="4">
+      <c r="A160" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C160" s="10" t="n">
         <v>2711</v>
       </c>
-      <c r="D159" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="F159" s="4" t="s">
+      <c r="D160" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="F160" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="160">
-      <c r="A160" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C160" s="9"/>
-      <c r="D160" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>507</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="161">
       <c r="A161" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>509</v>
+        <v>181</v>
       </c>
       <c r="C161" s="9"/>
-      <c r="D161" s="4" t="s">
-        <v>510</v>
+      <c r="D161" s="10" t="s">
+        <v>512</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="162">
       <c r="A162" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C162" s="10" t="n">
+        <v>515</v>
+      </c>
+      <c r="C162" s="9"/>
+      <c r="D162" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="163">
+      <c r="A163" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C163" s="10" t="n">
         <v>3721</v>
       </c>
-      <c r="D162" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="163" s="4">
-      <c r="A163" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C163" s="10" t="n">
+      <c r="D163" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="164" s="4">
+      <c r="A164" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C164" s="10" t="n">
         <v>6100</v>
       </c>
-      <c r="D163" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="164">
-      <c r="A164" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C164" s="10" t="n">
-        <v>400</v>
-      </c>
       <c r="D164" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="165">
       <c r="A165" s="4" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C165" s="10"/>
-      <c r="D165" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
+      </c>
+      <c r="C165" s="10" t="n">
+        <v>400</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>526</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>344</v>
+        <v>527</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="166">
-      <c r="A166" s="1" t="s">
-        <v>524</v>
+      <c r="A166" s="4" t="s">
+        <v>528</v>
       </c>
       <c r="B166" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C166" s="10"/>
+      <c r="D166" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="167">
+      <c r="A167" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C166" s="9"/>
-      <c r="D166" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="167" s="4">
-      <c r="A167" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C167" s="10" t="n">
+      <c r="C167" s="9"/>
+      <c r="D167" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="168" s="4">
+      <c r="A168" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C168" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="D167" s="10" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="168">
-      <c r="A168" s="4" t="s">
-        <v>529</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="D168" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>531</v>
+        <v>534</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="169">
+      <c r="A169" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D169" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>537</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="545">
   <si>
     <t>Hash</t>
   </si>
@@ -128,7 +128,7 @@
     <t>Blowfish(OpenBSD)</t>
   </si>
   <si>
-    <t>^(\$2a|\$2y|\$2)\$[0-9]{0,2}?\$[a-z0-9\/\.]{53}$/i</t>
+    <t>^(\$2[axy]|\$2)\$[0-9]{0,2}?\$[a-z0-9\/\.]{53}$/i</t>
   </si>
   <si>
     <t>$2a$12$GhvMmNVjRW29ulnudl.LbuAnUtN/LRfe1JsBm1Xu6LE3059z5Tr8m</t>
@@ -224,6 +224,9 @@
     <t>^crypt1:[a-z0-9\+\=]{12}:[a-z0-9\+\=]{12}$/i</t>
   </si>
   <si>
+    <t>crypt1:fnd+8xl+U1E=:Wc30H8MPgAc= </t>
+  </si>
+  <si>
     <t>CRC-16</t>
   </si>
   <si>
@@ -812,6 +815,15 @@
     <t>https://en.wikipedia.org/wiki/MD5</t>
   </si>
   <si>
+    <t>MD5 Crypt</t>
+  </si>
+  <si>
+    <t>$1$0LfCQ4JA$1KfJgaUn1qR9NUDz7KoYG.</t>
+  </si>
+  <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.md5_crypt.html</t>
+  </si>
+  <si>
     <t>MD5(APR)</t>
   </si>
   <si>
@@ -821,7 +833,670 @@
     <t>MD5(Chap)</t>
   </si>
   <si>
-    <t>MD5(Sun)</t>
+    <t>Microsoft MSTSC(RDP-File)</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{1329}$/i</t>
+  </si>
+  <si>
+    <t>Minecraft(AuthMe Reloaded)</t>
+  </si>
+  <si>
+    <t>^\$sha\$[a-z0-9]{1,16}\$[a-f0-9]{64}$/i</t>
+  </si>
+  <si>
+    <t>$SHA$0123456789abcdef$a94fc6db0ac27700804ba21b403de8f5ff34a1c1ecb0f292da341b098be30df2</t>
+  </si>
+  <si>
+    <t>http://pastebin.com/1wy9g2HT</t>
+  </si>
+  <si>
+    <t>MSSQL(2000)</t>
+  </si>
+  <si>
+    <t>^0x0100[a-f0-9]{88}$/i</t>
+  </si>
+  <si>
+    <t>0x010011223344fc9def6a4f847576458241bf11c2a906140b1db2fc9def6a4f847576458241bf11c2a906140b1db2</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/MSSQL%282000%29</t>
+  </si>
+  <si>
+    <t>MSSQL(2005)</t>
+  </si>
+  <si>
+    <t>^0x0100[a-f0-9]{48}$/i</t>
+  </si>
+  <si>
+    <t>0x0100112233445810a72b6c3ee34a0a811d5bb7d9261fce9db2e0</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/MSSQL%282005%29</t>
+  </si>
+  <si>
+    <t>MSSQL(2008)</t>
+  </si>
+  <si>
+    <t>MSSQL(2012)</t>
+  </si>
+  <si>
+    <t>^0x0200[a-f0-9]{136}$/i</t>
+  </si>
+  <si>
+    <t>0x02000102030434ea1b17802fd95ea6316bd61d2c94622ca3812793e8fb1672487b5c904a45a31b2ab4a78890d563d2fcf5663e46fe797d71550494be50cf4915d3f4d55ec375</t>
+  </si>
+  <si>
+    <t>MyBB ≥ v1.2+</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{32}:.{8}$/i</t>
+  </si>
+  <si>
+    <t>05f619c43b281385d09ae6c7ab4c801c:pJDjnTP1</t>
+  </si>
+  <si>
+    <t>http://community.mybb.com/post-555267.html</t>
+  </si>
+  <si>
+    <t>MySQL323</t>
+  </si>
+  <si>
+    <t>77374c3b35d41755</t>
+  </si>
+  <si>
+    <t>MySQL4.1</t>
+  </si>
+  <si>
+    <t>^\*[a-f0-9]{40}$/i</t>
+  </si>
+  <si>
+    <t>*85ADE5DDF71E348162894C71D73324C043838751</t>
+  </si>
+  <si>
+    <t>MySQL5.x</t>
+  </si>
+  <si>
+    <t>*BE1BDEC0AA74B4DCB079943E70528096CCA985F8</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/MySQL5</t>
+  </si>
+  <si>
+    <t>NetNTLMv1-VANILLA / NetNTLMv1+ESS</t>
+  </si>
+  <si>
+    <t>^[^\\\/:*?\"\&lt;\&gt;\|]{1,20}::[^\\\/:*?\"\&lt;\&gt;\|]{1,20}:[a-f0-9]{48}:[a-f0-9]{48}:[a-f0-9]{16}$/i</t>
+  </si>
+  <si>
+    <t>u4-netntlm::kNS:338d08f8e26de93300000000000000000000000000000000:9526fb8c23a90751cdd619b6cea564742e1e4bf33006ba41:cb8086049ec4736c</t>
+  </si>
+  <si>
+    <t>NetNTLMv2</t>
+  </si>
+  <si>
+    <t>^[^\\\/:*?\"\&lt;\&gt;\|]{1,20}::[^\\\/:*?\"\&lt;\&gt;\|]{1,20}:[a-f0-9]{16}:[a-f0-9]{32}:[a-f0-9]+$/i</t>
+  </si>
+  <si>
+    <t>admin::N46iSNekpT:08ca45b7d7ea58ee:88dcbe4446168966a153a0064958dac6:5c7830315c7830310000000000000b45c67103d07d7b95acd12ffa11230e0000000052920b85f78d013c31cdb3b92f5d765c783030</t>
+  </si>
+  <si>
+    <t>Netscape LDAP SHA</t>
+  </si>
+  <si>
+    <t>^{SHA}[a-z0-9\/\+]{27}=$/i</t>
+  </si>
+  <si>
+    <t>{SHA}uJ6qx+YUFzQbcQtyd2gpTQ5qJ3s=</t>
+  </si>
+  <si>
+    <t>Netscape LDAP SSHA</t>
+  </si>
+  <si>
+    <t>^{SSHA}([a-z0-9\+\/]{40}|[a-z0-9\+\/]{38}==)$/i</t>
+  </si>
+  <si>
+    <t>{SSHA}AZKja92fbuuB9SpRlHqaoXxbTc43Mzc2MDM1Ng==</t>
+  </si>
+  <si>
+    <t>NTHash(FreeBSD Variant)</t>
+  </si>
+  <si>
+    <t>^\$3\$\$[a-f0-9]{32}$/i</t>
+  </si>
+  <si>
+    <t>$3$$8846f7eaee8fb117ad06bdd830b7586c</t>
+  </si>
+  <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.nthash.html</t>
+  </si>
+  <si>
+    <t>NTLM</t>
+  </si>
+  <si>
+    <t>Oracle 11g</t>
+  </si>
+  <si>
+    <t>^S:[a-f0-9]{60}$/i</t>
+  </si>
+  <si>
+    <t>ac5f1e62d21fd0529428b84d42e8955b04966703:38445748184477378130</t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.oracle11.html</t>
+  </si>
+  <si>
+    <t>Oracle 7-10g</t>
+  </si>
+  <si>
+    <t>872805F3F4C83365</t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.oracle10.html</t>
+  </si>
+  <si>
+    <t>osCommerce</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{32}:[a-z0-9]{2}$/i</t>
+  </si>
+  <si>
+    <t>14b6e86da0542055584abbd2df978c01:d7</t>
+  </si>
+  <si>
+    <t>http://www.oscommercecustomsolutions.com/os-commerce/modules/2008/ive-lost-my-oscommerce-password-i-cant-login-to-oscommerce/</t>
+  </si>
+  <si>
+    <t>OSX v10.4-10.6</t>
+  </si>
+  <si>
+    <t>1430823483d07626ef8be3fda2ff056d0dfd818dbfe47683</t>
+  </si>
+  <si>
+    <t>OSX v10.7</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{136}$/i</t>
+  </si>
+  <si>
+    <t>648742485c9b0acd786a233b2330197223118111b481abfa0ab8b3e8ede5f014fc7c523991c007db6882680b09962d16fd9c45568260531bdb34804a5e31c22b4cfeb32d</t>
+  </si>
+  <si>
+    <t>OSX v10.8-10.9</t>
+  </si>
+  <si>
+    <t>^\$ml\$.+$/i</t>
+  </si>
+  <si>
+    <t>$ml$35460$93a94bd24b5de64d79a5e49fa372827e739f4d7b6975c752c9a0ff1e5cf72e05$752351df64dd2ce9dc9c64a72ad91de6581a15c19176266b44d98919dfa81f0f96cbcb20a1ffb400718c20382030f637892f776627d34e021bad4f81b7de8222</t>
+  </si>
+  <si>
+    <t>Palshop CMS</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{51}$/i</t>
+  </si>
+  <si>
+    <t>a05938cc2e475e64937c057e33bbba227c4d634cfbfbbfc7c5c</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/MD5%28Palshop%29</t>
+  </si>
+  <si>
+    <t>PHPass' Portable Hash</t>
+  </si>
+  <si>
+    <t>^\$H\$[a-z0-9\/\.]{31}$/i</t>
+  </si>
+  <si>
+    <t>$P$8ohUJ.1sdFw09/bMaAQPTGDNi2BIUt1</t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.phpass.html</t>
+  </si>
+  <si>
+    <t>phpBB 3.x</t>
+  </si>
+  <si>
+    <t>$H$9BlVR2O6n5e1YWE8ZIq8C5/27MozR5.</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/MD5%28phpBB3%29</t>
+  </si>
+  <si>
+    <t>RACF</t>
+  </si>
+  <si>
+    <t>^(user-.+:)?\$racf\$\*.+\*[a-f0-9]{16}$/i</t>
+  </si>
+  <si>
+    <t>8500</t>
+  </si>
+  <si>
+    <t>$racf$*AAAAAAAA*3c44ee7f409c9a9b</t>
+  </si>
+  <si>
+    <t>http://openwall.info/wiki/_media/john/racf-hashkit-python.tar</t>
+  </si>
+  <si>
+    <t>RAdmin v2.x</t>
+  </si>
+  <si>
+    <t>6d0bb00954ceb7fbee436bb55a8397a9</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/RAdmin_v2.x</t>
+  </si>
+  <si>
+    <t>Redmine Project Management Web App</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{40}:[a-f0-9]{0,32}$/i</t>
+  </si>
+  <si>
+    <t>536befdaffc3e2215e481aded7e32134906a673b:1234</t>
+  </si>
+  <si>
+    <t>http://www.redmine.org/boards/2/topics/31915</t>
+  </si>
+  <si>
+    <t>RIPEMD-128</t>
+  </si>
+  <si>
+    <t>cdf26213a150dc3ecb610f18f6b38b46</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/RipeMD-128</t>
+  </si>
+  <si>
+    <t>RIPEMD-160</t>
+  </si>
+  <si>
+    <t>9c1185a5c5e9fc54612808977ee8f548b2258d31</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/RipeMD-160</t>
+  </si>
+  <si>
+    <t>RIPEMD-256</t>
+  </si>
+  <si>
+    <t>02ba4c4e5f8ecd1877fc52d64d30e37a2d9774fb1e5d026380ae0168e3c5522d</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/RipeMD-256</t>
+  </si>
+  <si>
+    <t>RIPEMD-320</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{80}$/i</t>
+  </si>
+  <si>
+    <t>22d65d5661536cdc75c1fdf5c6de7b41b9f27325ebc61e8557177d705a0ec880151c3a32a00899b8</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/RipeMD-320</t>
+  </si>
+  <si>
+    <t>Salsa10</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{128}$/i</t>
+  </si>
+  <si>
+    <t>105fe39a3683df2cd905fcccf41c8f5407262df7819072ac2f1c57653eb6c57fd203e4a7f1b4f1226321c146a6d934710bc3d0448a2ca554d44748fbdd3b6de2</t>
+  </si>
+  <si>
+    <t>http://cr.yp.to/salsa10.html</t>
+  </si>
+  <si>
+    <t>Salsa20</t>
+  </si>
+  <si>
+    <t>e819bc2b7915f5bf60adca7915a3540875486c0448a149ed7705da1186d1d73173b7e01b2050c540a6ee8a891a322207d8d86f9c556bd20827adf2b2808ffdb2</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Salsa20</t>
+  </si>
+  <si>
+    <t>SAM(LM_Hash:NT_Hash)</t>
+  </si>
+  <si>
+    <t>^[a-f-0-9]{32}:[a-f-0-9]{32}$/i</t>
+  </si>
+  <si>
+    <t>5dc82d817ee488fc4afe1b7c07093904:16bafcac2a2558b7aad3b435b51404ee</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Security_Accounts_Manager</t>
+  </si>
+  <si>
+    <t>Samsung Android Password/PIN</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{40}:[a-f0-9]{16}$/i</t>
+  </si>
+  <si>
+    <t>0223b799d526b596fe4ba5628b9e65068227e68e:f6d45822728ddb2c</t>
+  </si>
+  <si>
+    <t>http://hashcat.net/forum/thread-2202.html</t>
+  </si>
+  <si>
+    <t>SAP CODVN B (BCODE)</t>
+  </si>
+  <si>
+    <t>^[0-9]{12}\$[a-f0-9]{16}$/i</t>
+  </si>
+  <si>
+    <t>435748802305$70AE4FF6C945B78F</t>
+  </si>
+  <si>
+    <t>http://www.openwall.com/lists/john-dev/2014/02/21/1</t>
+  </si>
+  <si>
+    <t>SAP CODVN F/G (PASSCODE)</t>
+  </si>
+  <si>
+    <t>^[0-9]{12}\$[a-f0-9]{40}$/i</t>
+  </si>
+  <si>
+    <t>034488234401$3F9CB8B0EFC58A8536DC0121794F672A626D78FB</t>
+  </si>
+  <si>
+    <t>SCRAM Hash</t>
+  </si>
+  <si>
+    <t>^\$scram\$[0-9]+\$[a-z0-9\/\.]{16}\$sha-1=[a-z0-9\/\.]{27},sha-256=[a-z0-9\/\.]{43},sha-512=[a-z0-9\/\.]{86}$/i</t>
+  </si>
+  <si>
+    <t>$scram$6400$.Z/znnNOKWUsBaCU$sha-1=cRseQyJpnuPGn3e6d6u6JdJWk.0,sha-256=5GcjEbRaUIIci1r6NAMdI9OPZbxl9S5CFR6la9CHXYc,sha-512=.DHbIm82ajXbFR196Y.9TtbsgzvGjbMeuWCtKve8TPjRMNoZK9EGyHQ6y0lW9OtWdHZrDZbBUhB9ou./VI2mlw</t>
+  </si>
+  <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.scram.html</t>
+  </si>
+  <si>
+    <t>SHA-1</t>
+  </si>
+  <si>
+    <t>be02d85463a5eecf641c2a9cfcf0e1f0f4c61c14</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/SHA-1</t>
+  </si>
+  <si>
+    <t>SHA-1 Crypt</t>
+  </si>
+  <si>
+    <t>^\$sha1\$[0-9]+\$[a-z0-9\/\.]{0,64}\$[a-z0-9\/\.]{28}$/i</t>
+  </si>
+  <si>
+    <t>$sha1$40000$jtNX3nZ2$hBNaIXkt4wBI2o5rsi8KejSjNqIq </t>
+  </si>
+  <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.sha1_crypt.html</t>
+  </si>
+  <si>
+    <t>SHA-1(Base64)</t>
+  </si>
+  <si>
+    <t>SHA-1(Oracle)</t>
+  </si>
+  <si>
+    <t>f4bda8587b35988da6d362fd692118460eab06d753616c74</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/SHA-1%28Oracle%29</t>
+  </si>
+  <si>
+    <t>SHA-224</t>
+  </si>
+  <si>
+    <t>26dea9e65b4701c84168d390bfa7c8ab68cd907186a32dfc2e74e875</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/SHA-224</t>
+  </si>
+  <si>
+    <t>SHA-256</t>
+  </si>
+  <si>
+    <t>bd37a3ba003471fe95071cb7a3e8570f4cc5417195a691d525e17e14672e70f7</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/SHA-256</t>
+  </si>
+  <si>
+    <t>SHA-256 Crypt</t>
+  </si>
+  <si>
+    <t>^\$5\$(rounds=[0-9]+\$)?[a-z0-9\/\.]{0,16}\$[a-z0-9\/\.]{43}$/i</t>
+  </si>
+  <si>
+    <t>$5$12345678$.HyoD5rKr323EFaYphs1fdfWCCzEk7P6k0DJaT/MJg2</t>
+  </si>
+  <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.sha256_crypt.html</t>
+  </si>
+  <si>
+    <t>SHA-384</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{96}$/i</t>
+  </si>
+  <si>
+    <t>38b060a751ac96384cd9327eb1b1e36a21fdb71114be07434c0cc7bf63f6e1da274edebfe76f65fbd51ad2f14898b95b</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/SHA-384</t>
+  </si>
+  <si>
+    <t>SHA-512</t>
+  </si>
+  <si>
+    <t>cf83e1357eefb8bdf1542850d66d8007d620e4050b5715dc83f4a921d36ce9ce47d0d13c5d85f2b0ff8318d2877eec2f63b931bd47417a81a538327af927da3e</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/SHA-512</t>
+  </si>
+  <si>
+    <t>SHA-512 Crypt</t>
+  </si>
+  <si>
+    <t>^\$6\$(rounds=[0-9]+\$)?[a-z0-9\/\.]{0,16}\$[a-z0-9\/\.]{86}$/i</t>
+  </si>
+  <si>
+    <t>$6$12345678$QVQOdGAbBeNuQxcdIGKZUFvrf5FWFHOxEqGdQYM6Wzv6h05r45/gcV9xuGJH763.lCwMenMyTVmmXx2j6AZTB0</t>
+  </si>
+  <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.sha512_crypt.html</t>
+  </si>
+  <si>
+    <t>SHA3-224</t>
+  </si>
+  <si>
+    <t>ab01e6fda4206a97d3a6abf24dfa5359693628f545c234ffb4ac653d</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/SHA-3</t>
+  </si>
+  <si>
+    <t>SHA3-256</t>
+  </si>
+  <si>
+    <t>bc8a27e5be2d4c2ea01f7ff6bc6ae4731d28c993ccf1da2e8bda8f88cffe8f45</t>
+  </si>
+  <si>
+    <t>SHA3-384</t>
+  </si>
+  <si>
+    <t>f6f9bed0343f511cf1f635b81fdee2b23eba5aa49b764cf8842fc02a55368a760b74d80418f37aa9b680d4ce11fc96e1</t>
+  </si>
+  <si>
+    <t>SHA3-512</t>
+  </si>
+  <si>
+    <t>2d7421aeb3bae997944090ba7e1c1df448dd92af995af28fa58737d2cc0b0ecc955a9c747cd701e70edfe41e8e3d76740700df60926886c540a80cfa76854da5</t>
+  </si>
+  <si>
+    <t>Skein-1024</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{256}$/i</t>
+  </si>
+  <si>
+    <t>62b6c4521a646a099850699ea262d3f5a73290959fd34734b4015097eb7b2700e964236f0b213193f0a15b82eb08a0bf330d60421fc81e9a9383df72172ce9787fde19ea0813a566cb62c55d042d0d9a0f86d87ae40de85a9b247225968aea29ba878cf0c30c44a181f3ef8e47975da80ca21f244b81504ebfb446924dcd7061</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-1024</t>
+  </si>
+  <si>
+    <t>Skein-1024(384)</t>
+  </si>
+  <si>
+    <t>9e5c86653868f1d2a4a208eae807a031371dcaac17ce3ef74845a0602b9ac16ee52e95afc58c993161ea3223c63a486b</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-1024%28384%29</t>
+  </si>
+  <si>
+    <t>Skein-1024(512)</t>
+  </si>
+  <si>
+    <t>b132215e3fd6aebcdff044cf3824eee6de27de9e994dac41a65d28279c08cbd7e69b21bef892475265d7958e2e6ef59012e9a8ec4de38e774b17bbb9fce2f94a</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-1024%28512%29</t>
+  </si>
+  <si>
+    <t>Skein-256</t>
+  </si>
+  <si>
+    <t>31947ae23c6b0022d6e69280675dd57c385441887c422892c0ba805298408c1d</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-256</t>
+  </si>
+  <si>
+    <t>Skein-256(128)</t>
+  </si>
+  <si>
+    <t>8a33fdcc414954540140569b9ca04969</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-256%28128%29</t>
+  </si>
+  <si>
+    <t>Skein-256(160)</t>
+  </si>
+  <si>
+    <t>4be29115203aaf1705dd2e645077b7380d2bf17f</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-256%28160%29</t>
+  </si>
+  <si>
+    <t>Skein-256(224)</t>
+  </si>
+  <si>
+    <t>9ac0082bb1b2f3004fffa45300a74f2855f2308426fd5e9f0e4c39ec</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-256%28224%29</t>
+  </si>
+  <si>
+    <t>Skein-512</t>
+  </si>
+  <si>
+    <t>6a7f3568a6dfc8d74f478d787e10617787ea35557a909152c13cdc9ef3e8cce28560269748e0f2d58ea76cad67f70583e821d73220982fa5c9c68809edd43568</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-512</t>
+  </si>
+  <si>
+    <t>Skein-512(128)</t>
+  </si>
+  <si>
+    <t>e88eba6045f6a00672c398e2e2ce4959</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-512%28128%29</t>
+  </si>
+  <si>
+    <t>Skein-512(160)</t>
+  </si>
+  <si>
+    <t>4721295b14d704a452a56e948e52ca4ea296ca75</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-512%28160%29</t>
+  </si>
+  <si>
+    <t>Skein-512(224)</t>
+  </si>
+  <si>
+    <t>bf3e58d8cb9a2dd31215fb3b825896ae8d22514747cda7796f3e8c25</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-512%28224%29</t>
+  </si>
+  <si>
+    <t>Skein-512(256)</t>
+  </si>
+  <si>
+    <t>2fee3ce07ffef3d2f78a6f7b38a8f294b70e902f9d0f8f514e34d48d93b55f31</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-512%28256%29</t>
+  </si>
+  <si>
+    <t>Skein-512(384)</t>
+  </si>
+  <si>
+    <t>15f969b2d608f69b5e0873b0d10f195c57db84c45f35b535585a1452a9919888711b9de7717f9e47786319a102a74554</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Skein-512%28384%29</t>
+  </si>
+  <si>
+    <t>SMF ≥ v1.1</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{40}:[^*]{1,25}$/i</t>
+  </si>
+  <si>
+    <t>ecf076ce9d6ed3624a9332112b1cd67b236fdd11:17782686</t>
+  </si>
+  <si>
+    <t>Snefru-128</t>
+  </si>
+  <si>
+    <t>1dc9a09e23a3f8184b8e40f3ad872842</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Snefru-128</t>
+  </si>
+  <si>
+    <t>Snefru-256</t>
+  </si>
+  <si>
+    <t>cce3b171a7ede4c0a2d1a2db832035547226fade66980c7a62bd86c3ec1e82d1</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Snefru-256</t>
+  </si>
+  <si>
+    <t>SSHA-1(Base64)</t>
+  </si>
+  <si>
+    <t>SSHA-512(Base64)</t>
+  </si>
+  <si>
+    <t>{SSHA512}ALtwKGBdRgD+U0fPAy31C28RyKYx7+a8kmfksccsOeLknLHv2DBXYI7TDnTolQMBuPkWDISgZr2cHfnNPFjGZTEyNDU4OTkw </t>
+  </si>
+  <si>
+    <t>Sun MD5 Crypt</t>
   </si>
   <si>
     <t>^(\$md5,rounds=[0-9]+\$|\$md5\$rounds=[0-9]+\$|\$md5\$)[a-z0-9\/\.]{0,16}(\$|\$\$)[a-z0-9\/\.]{22}$/i</t>
@@ -831,660 +1506,6 @@
   </si>
   <si>
     <t>http://pythonhosted.org/passlib/lib/passlib.hash.sun_md5_crypt.html</t>
-  </si>
-  <si>
-    <t>MD5(Unix)</t>
-  </si>
-  <si>
-    <t>$1$0LfCQ4JA$1KfJgaUn1qR9NUDz7KoYG.</t>
-  </si>
-  <si>
-    <t>Microsoft MSTSC(RDP-File)</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{1329}$/i</t>
-  </si>
-  <si>
-    <t>Minecraft(AuthMe Reloaded)</t>
-  </si>
-  <si>
-    <t>^\$sha\$[a-z0-9]{1,16}\$[a-f0-9]{64}$/i</t>
-  </si>
-  <si>
-    <t>$SHA$0123456789abcdef$a94fc6db0ac27700804ba21b403de8f5ff34a1c1ecb0f292da341b098be30df2</t>
-  </si>
-  <si>
-    <t>http://pastebin.com/1wy9g2HT</t>
-  </si>
-  <si>
-    <t>MSSQL(2000)</t>
-  </si>
-  <si>
-    <t>^0x0100[a-f0-9]{88}$/i</t>
-  </si>
-  <si>
-    <t>0x010011223344fc9def6a4f847576458241bf11c2a906140b1db2fc9def6a4f847576458241bf11c2a906140b1db2</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/MSSQL%282000%29</t>
-  </si>
-  <si>
-    <t>MSSQL(2005)</t>
-  </si>
-  <si>
-    <t>^0x0100[a-f0-9]{48}$/i</t>
-  </si>
-  <si>
-    <t>0x0100112233445810a72b6c3ee34a0a811d5bb7d9261fce9db2e0</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/MSSQL%282005%29</t>
-  </si>
-  <si>
-    <t>MSSQL(2008)</t>
-  </si>
-  <si>
-    <t>MSSQL(2012)</t>
-  </si>
-  <si>
-    <t>^0x0200[a-f0-9]{136}$/i</t>
-  </si>
-  <si>
-    <t>0x02000102030434ea1b17802fd95ea6316bd61d2c94622ca3812793e8fb1672487b5c904a45a31b2ab4a78890d563d2fcf5663e46fe797d71550494be50cf4915d3f4d55ec375</t>
-  </si>
-  <si>
-    <t>MyBB ≥ v1.2+</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{32}:.{8}$/i</t>
-  </si>
-  <si>
-    <t>05f619c43b281385d09ae6c7ab4c801c:pJDjnTP1</t>
-  </si>
-  <si>
-    <t>http://community.mybb.com/post-555267.html</t>
-  </si>
-  <si>
-    <t>MySQL323</t>
-  </si>
-  <si>
-    <t>77374c3b35d41755</t>
-  </si>
-  <si>
-    <t>MySQL4.1</t>
-  </si>
-  <si>
-    <t>^\*[a-f0-9]{40}$/i</t>
-  </si>
-  <si>
-    <t>*85ADE5DDF71E348162894C71D73324C043838751</t>
-  </si>
-  <si>
-    <t>MySQL5.x</t>
-  </si>
-  <si>
-    <t>*BE1BDEC0AA74B4DCB079943E70528096CCA985F8</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/MySQL5</t>
-  </si>
-  <si>
-    <t>NetNTLMv1-VANILLA / NetNTLMv1+ESS</t>
-  </si>
-  <si>
-    <t>^[^\\\/:*?\"\&lt;\&gt;\|]{1,20}::[^\\\/:*?\"\&lt;\&gt;\|]{1,20}:[a-f0-9]{48}:[a-f0-9]{48}:[a-f0-9]{16}$/i</t>
-  </si>
-  <si>
-    <t>u4-netntlm::kNS:338d08f8e26de93300000000000000000000000000000000:9526fb8c23a90751cdd619b6cea564742e1e4bf33006ba41:cb8086049ec4736c</t>
-  </si>
-  <si>
-    <t>NetNTLMv2</t>
-  </si>
-  <si>
-    <t>^[^\\\/:*?\"\&lt;\&gt;\|]{1,20}::[^\\\/:*?\"\&lt;\&gt;\|]{1,20}:[a-f0-9]{16}:[a-f0-9]{32}:[a-f0-9]+$/i</t>
-  </si>
-  <si>
-    <t>admin::N46iSNekpT:08ca45b7d7ea58ee:88dcbe4446168966a153a0064958dac6:5c7830315c7830310000000000000b45c67103d07d7b95acd12ffa11230e0000000052920b85f78d013c31cdb3b92f5d765c783030</t>
-  </si>
-  <si>
-    <t>Netscape LDAP SHA</t>
-  </si>
-  <si>
-    <t>^{SHA}[a-z0-9\/\+]{27}=$/i</t>
-  </si>
-  <si>
-    <t>{SHA}uJ6qx+YUFzQbcQtyd2gpTQ5qJ3s=</t>
-  </si>
-  <si>
-    <t>Netscape LDAP SSHA</t>
-  </si>
-  <si>
-    <t>^{SSHA}([a-z0-9\+\/]{40}|[a-z0-9\+\/]{38}==)$/i</t>
-  </si>
-  <si>
-    <t>{SSHA}AZKja92fbuuB9SpRlHqaoXxbTc43Mzc2MDM1Ng==</t>
-  </si>
-  <si>
-    <t>NTHash(FreeBSD Variant)</t>
-  </si>
-  <si>
-    <t>^\$3\$\$[a-f0-9]{32}$/i</t>
-  </si>
-  <si>
-    <t>$3$$8846f7eaee8fb117ad06bdd830b7586c</t>
-  </si>
-  <si>
-    <t>https://pythonhosted.org/passlib/lib/passlib.hash.nthash.html</t>
-  </si>
-  <si>
-    <t>NTLM</t>
-  </si>
-  <si>
-    <t>Oracle 11g</t>
-  </si>
-  <si>
-    <t>^S:[a-f0-9]{60}$/i</t>
-  </si>
-  <si>
-    <t>ac5f1e62d21fd0529428b84d42e8955b04966703:38445748184477378130</t>
-  </si>
-  <si>
-    <t>http://pythonhosted.org/passlib/lib/passlib.hash.oracle11.html</t>
-  </si>
-  <si>
-    <t>Oracle 7-10g</t>
-  </si>
-  <si>
-    <t>872805F3F4C83365</t>
-  </si>
-  <si>
-    <t>http://pythonhosted.org/passlib/lib/passlib.hash.oracle10.html</t>
-  </si>
-  <si>
-    <t>osCommerce</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{32}:[a-z0-9]{2}$/i</t>
-  </si>
-  <si>
-    <t>14b6e86da0542055584abbd2df978c01:d7</t>
-  </si>
-  <si>
-    <t>http://www.oscommercecustomsolutions.com/os-commerce/modules/2008/ive-lost-my-oscommerce-password-i-cant-login-to-oscommerce/</t>
-  </si>
-  <si>
-    <t>OSX v10.4-10.6</t>
-  </si>
-  <si>
-    <t>1430823483d07626ef8be3fda2ff056d0dfd818dbfe47683</t>
-  </si>
-  <si>
-    <t>OSX v10.7</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{136}$/i</t>
-  </si>
-  <si>
-    <t>648742485c9b0acd786a233b2330197223118111b481abfa0ab8b3e8ede5f014fc7c523991c007db6882680b09962d16fd9c45568260531bdb34804a5e31c22b4cfeb32d</t>
-  </si>
-  <si>
-    <t>OSX v10.8-10.9</t>
-  </si>
-  <si>
-    <t>^\$ml\$.+$/i</t>
-  </si>
-  <si>
-    <t>$ml$35460$93a94bd24b5de64d79a5e49fa372827e739f4d7b6975c752c9a0ff1e5cf72e05$752351df64dd2ce9dc9c64a72ad91de6581a15c19176266b44d98919dfa81f0f96cbcb20a1ffb400718c20382030f637892f776627d34e021bad4f81b7de8222</t>
-  </si>
-  <si>
-    <t>Palshop CMS</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{51}$/i</t>
-  </si>
-  <si>
-    <t>a05938cc2e475e64937c057e33bbba227c4d634cfbfbbfc7c5c</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/MD5%28Palshop%29</t>
-  </si>
-  <si>
-    <t>PHPass' Portable Hash</t>
-  </si>
-  <si>
-    <t>^\$H\$[a-z0-9\/\.]{31}$/i</t>
-  </si>
-  <si>
-    <t>$P$8ohUJ.1sdFw09/bMaAQPTGDNi2BIUt1</t>
-  </si>
-  <si>
-    <t>http://pythonhosted.org/passlib/lib/passlib.hash.phpass.html</t>
-  </si>
-  <si>
-    <t>phpBB 3.x</t>
-  </si>
-  <si>
-    <t>$H$9BlVR2O6n5e1YWE8ZIq8C5/27MozR5.</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/MD5%28phpBB3%29</t>
-  </si>
-  <si>
-    <t>RACF</t>
-  </si>
-  <si>
-    <t>^(user-.+:)?\$racf\$\*.+\*[a-f0-9]{16}$/i</t>
-  </si>
-  <si>
-    <t>8500</t>
-  </si>
-  <si>
-    <t>$racf$*AAAAAAAA*3c44ee7f409c9a9b</t>
-  </si>
-  <si>
-    <t>http://openwall.info/wiki/_media/john/racf-hashkit-python.tar</t>
-  </si>
-  <si>
-    <t>RAdmin v2.x</t>
-  </si>
-  <si>
-    <t>6d0bb00954ceb7fbee436bb55a8397a9</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/RAdmin_v2.x</t>
-  </si>
-  <si>
-    <t>Redmine Project Management Web App</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{40}:[a-f0-9]{0,32}$/i</t>
-  </si>
-  <si>
-    <t>536befdaffc3e2215e481aded7e32134906a673b:1234</t>
-  </si>
-  <si>
-    <t>http://www.redmine.org/boards/2/topics/31915</t>
-  </si>
-  <si>
-    <t>RIPEMD-128</t>
-  </si>
-  <si>
-    <t>cdf26213a150dc3ecb610f18f6b38b46</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/RipeMD-128</t>
-  </si>
-  <si>
-    <t>RIPEMD-160</t>
-  </si>
-  <si>
-    <t>9c1185a5c5e9fc54612808977ee8f548b2258d31</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/RipeMD-160</t>
-  </si>
-  <si>
-    <t>RIPEMD-256</t>
-  </si>
-  <si>
-    <t>02ba4c4e5f8ecd1877fc52d64d30e37a2d9774fb1e5d026380ae0168e3c5522d</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/RipeMD-256</t>
-  </si>
-  <si>
-    <t>RIPEMD-320</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{80}$/i</t>
-  </si>
-  <si>
-    <t>22d65d5661536cdc75c1fdf5c6de7b41b9f27325ebc61e8557177d705a0ec880151c3a32a00899b8</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/RipeMD-320</t>
-  </si>
-  <si>
-    <t>Salsa10</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{128}$/i</t>
-  </si>
-  <si>
-    <t>105fe39a3683df2cd905fcccf41c8f5407262df7819072ac2f1c57653eb6c57fd203e4a7f1b4f1226321c146a6d934710bc3d0448a2ca554d44748fbdd3b6de2</t>
-  </si>
-  <si>
-    <t>http://cr.yp.to/salsa10.html</t>
-  </si>
-  <si>
-    <t>Salsa20</t>
-  </si>
-  <si>
-    <t>e819bc2b7915f5bf60adca7915a3540875486c0448a149ed7705da1186d1d73173b7e01b2050c540a6ee8a891a322207d8d86f9c556bd20827adf2b2808ffdb2</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Salsa20</t>
-  </si>
-  <si>
-    <t>SAM(LM_Hash:NT_Hash)</t>
-  </si>
-  <si>
-    <t>^[a-f-0-9]{32}:[a-f-0-9]{32}$/i</t>
-  </si>
-  <si>
-    <t>5dc82d817ee488fc4afe1b7c07093904:16bafcac2a2558b7aad3b435b51404ee</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Security_Accounts_Manager</t>
-  </si>
-  <si>
-    <t>Samsung Android Password/PIN</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{40}:[a-f0-9]{16}$/i</t>
-  </si>
-  <si>
-    <t>0223b799d526b596fe4ba5628b9e65068227e68e:f6d45822728ddb2c</t>
-  </si>
-  <si>
-    <t>http://hashcat.net/forum/thread-2202.html</t>
-  </si>
-  <si>
-    <t>SAP CODVN B (BCODE)</t>
-  </si>
-  <si>
-    <t>^[0-9]{12}\$[a-f0-9]{16}$/i</t>
-  </si>
-  <si>
-    <t>435748802305$70AE4FF6C945B78F</t>
-  </si>
-  <si>
-    <t>http://www.openwall.com/lists/john-dev/2014/02/21/1</t>
-  </si>
-  <si>
-    <t>SAP CODVN F/G (PASSCODE)</t>
-  </si>
-  <si>
-    <t>^[0-9]{12}\$[a-f0-9]{40}$/i</t>
-  </si>
-  <si>
-    <t>034488234401$3F9CB8B0EFC58A8536DC0121794F672A626D78FB</t>
-  </si>
-  <si>
-    <t>SCRAM Hash</t>
-  </si>
-  <si>
-    <t>^\$scram\$[0-9]+\$[a-z0-9\/\.]{16}\$sha-1=[a-z0-9\/\.]{27},sha-256=[a-z0-9\/\.]{43},sha-512=[a-z0-9\/\.]{86}$/i</t>
-  </si>
-  <si>
-    <t>$scram$6400$.Z/znnNOKWUsBaCU$sha-1=cRseQyJpnuPGn3e6d6u6JdJWk.0,sha-256=5GcjEbRaUIIci1r6NAMdI9OPZbxl9S5CFR6la9CHXYc,sha-512=.DHbIm82ajXbFR196Y.9TtbsgzvGjbMeuWCtKve8TPjRMNoZK9EGyHQ6y0lW9OtWdHZrDZbBUhB9ou./VI2mlw</t>
-  </si>
-  <si>
-    <t>https://pythonhosted.org/passlib/lib/passlib.hash.scram.html</t>
-  </si>
-  <si>
-    <t>SHA-1</t>
-  </si>
-  <si>
-    <t>be02d85463a5eecf641c2a9cfcf0e1f0f4c61c14</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/SHA-1</t>
-  </si>
-  <si>
-    <t>SHA-1(Base64)</t>
-  </si>
-  <si>
-    <t>SHA-1(Oracle)</t>
-  </si>
-  <si>
-    <t>f4bda8587b35988da6d362fd692118460eab06d753616c74</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-1%28Oracle%29</t>
-  </si>
-  <si>
-    <t>SHA-224</t>
-  </si>
-  <si>
-    <t>26dea9e65b4701c84168d390bfa7c8ab68cd907186a32dfc2e74e875</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-224</t>
-  </si>
-  <si>
-    <t>SHA-256</t>
-  </si>
-  <si>
-    <t>bd37a3ba003471fe95071cb7a3e8570f4cc5417195a691d525e17e14672e70f7</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-256</t>
-  </si>
-  <si>
-    <t>SHA-256(Unix)</t>
-  </si>
-  <si>
-    <t>^\$5\$(rounds=[0-9]+\$)?[a-z0-9\/\.]{0,16}\$[a-z0-9\/\.]{43}$/i</t>
-  </si>
-  <si>
-    <t>$5$12345678$.HyoD5rKr323EFaYphs1fdfWCCzEk7P6k0DJaT/MJg2</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-256%28Unix%29</t>
-  </si>
-  <si>
-    <t>SHA-384</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{96}$/i</t>
-  </si>
-  <si>
-    <t>38b060a751ac96384cd9327eb1b1e36a21fdb71114be07434c0cc7bf63f6e1da274edebfe76f65fbd51ad2f14898b95b</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-384</t>
-  </si>
-  <si>
-    <t>SHA-512</t>
-  </si>
-  <si>
-    <t>cf83e1357eefb8bdf1542850d66d8007d620e4050b5715dc83f4a921d36ce9ce47d0d13c5d85f2b0ff8318d2877eec2f63b931bd47417a81a538327af927da3e</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-512</t>
-  </si>
-  <si>
-    <t>SHA-512(Unix)</t>
-  </si>
-  <si>
-    <t>^\$6\$.{0,22}\$[a-z0-9\/\.]{86}$/i</t>
-  </si>
-  <si>
-    <t>$6$12345678$QVQOdGAbBeNuQxcdIGKZUFvrf5FWFHOxEqGdQYM6Wzv6h05r45/gcV9xuGJH763.lCwMenMyTVmmXx2j6AZTB0</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-512%28Unix%29</t>
-  </si>
-  <si>
-    <t>SHA3-224</t>
-  </si>
-  <si>
-    <t>ab01e6fda4206a97d3a6abf24dfa5359693628f545c234ffb4ac653d</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/SHA-3</t>
-  </si>
-  <si>
-    <t>SHA3-256</t>
-  </si>
-  <si>
-    <t>bc8a27e5be2d4c2ea01f7ff6bc6ae4731d28c993ccf1da2e8bda8f88cffe8f45</t>
-  </si>
-  <si>
-    <t>SHA3-384</t>
-  </si>
-  <si>
-    <t>f6f9bed0343f511cf1f635b81fdee2b23eba5aa49b764cf8842fc02a55368a760b74d80418f37aa9b680d4ce11fc96e1</t>
-  </si>
-  <si>
-    <t>SHA3-512</t>
-  </si>
-  <si>
-    <t>2d7421aeb3bae997944090ba7e1c1df448dd92af995af28fa58737d2cc0b0ecc955a9c747cd701e70edfe41e8e3d76740700df60926886c540a80cfa76854da5</t>
-  </si>
-  <si>
-    <t>Skein-1024</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{256}$/i</t>
-  </si>
-  <si>
-    <t>62b6c4521a646a099850699ea262d3f5a73290959fd34734b4015097eb7b2700e964236f0b213193f0a15b82eb08a0bf330d60421fc81e9a9383df72172ce9787fde19ea0813a566cb62c55d042d0d9a0f86d87ae40de85a9b247225968aea29ba878cf0c30c44a181f3ef8e47975da80ca21f244b81504ebfb446924dcd7061</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-1024</t>
-  </si>
-  <si>
-    <t>Skein-1024(384)</t>
-  </si>
-  <si>
-    <t>9e5c86653868f1d2a4a208eae807a031371dcaac17ce3ef74845a0602b9ac16ee52e95afc58c993161ea3223c63a486b</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-1024%28384%29</t>
-  </si>
-  <si>
-    <t>Skein-1024(512)</t>
-  </si>
-  <si>
-    <t>b132215e3fd6aebcdff044cf3824eee6de27de9e994dac41a65d28279c08cbd7e69b21bef892475265d7958e2e6ef59012e9a8ec4de38e774b17bbb9fce2f94a</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-1024%28512%29</t>
-  </si>
-  <si>
-    <t>Skein-256</t>
-  </si>
-  <si>
-    <t>31947ae23c6b0022d6e69280675dd57c385441887c422892c0ba805298408c1d</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-256</t>
-  </si>
-  <si>
-    <t>Skein-256(128)</t>
-  </si>
-  <si>
-    <t>8a33fdcc414954540140569b9ca04969</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-256%28128%29</t>
-  </si>
-  <si>
-    <t>Skein-256(160)</t>
-  </si>
-  <si>
-    <t>4be29115203aaf1705dd2e645077b7380d2bf17f</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-256%28160%29</t>
-  </si>
-  <si>
-    <t>Skein-256(224)</t>
-  </si>
-  <si>
-    <t>9ac0082bb1b2f3004fffa45300a74f2855f2308426fd5e9f0e4c39ec</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-256%28224%29</t>
-  </si>
-  <si>
-    <t>Skein-512</t>
-  </si>
-  <si>
-    <t>6a7f3568a6dfc8d74f478d787e10617787ea35557a909152c13cdc9ef3e8cce28560269748e0f2d58ea76cad67f70583e821d73220982fa5c9c68809edd43568</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-512</t>
-  </si>
-  <si>
-    <t>Skein-512(128)</t>
-  </si>
-  <si>
-    <t>e88eba6045f6a00672c398e2e2ce4959</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-512%28128%29</t>
-  </si>
-  <si>
-    <t>Skein-512(160)</t>
-  </si>
-  <si>
-    <t>4721295b14d704a452a56e948e52ca4ea296ca75</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-512%28160%29</t>
-  </si>
-  <si>
-    <t>Skein-512(224)</t>
-  </si>
-  <si>
-    <t>bf3e58d8cb9a2dd31215fb3b825896ae8d22514747cda7796f3e8c25</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-512%28224%29</t>
-  </si>
-  <si>
-    <t>Skein-512(256)</t>
-  </si>
-  <si>
-    <t>2fee3ce07ffef3d2f78a6f7b38a8f294b70e902f9d0f8f514e34d48d93b55f31</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-512%28256%29</t>
-  </si>
-  <si>
-    <t>Skein-512(384)</t>
-  </si>
-  <si>
-    <t>15f969b2d608f69b5e0873b0d10f195c57db84c45f35b535585a1452a9919888711b9de7717f9e47786319a102a74554</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Skein-512%28384%29</t>
-  </si>
-  <si>
-    <t>SMF ≥ v1.1</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{40}:[^*]{1,25}$/i</t>
-  </si>
-  <si>
-    <t>ecf076ce9d6ed3624a9332112b1cd67b236fdd11:17782686</t>
-  </si>
-  <si>
-    <t>Snefru-128</t>
-  </si>
-  <si>
-    <t>1dc9a09e23a3f8184b8e40f3ad872842</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Snefru-128</t>
-  </si>
-  <si>
-    <t>Snefru-256</t>
-  </si>
-  <si>
-    <t>cce3b171a7ede4c0a2d1a2db832035547226fade66980c7a62bd86c3ec1e82d1</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/Snefru-256</t>
-  </si>
-  <si>
-    <t>SSHA-1(Base64)</t>
-  </si>
-  <si>
-    <t>SSHA-512(Base64)</t>
   </si>
   <si>
     <t>Sybase ASE</t>
@@ -1724,7 +1745,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1765,6 +1786,10 @@
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1794,10 +1819,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F169"/>
+  <dimension ref="A1:F170"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A77" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B90" activeCellId="0" pane="topLeft" sqref="B90"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B65" activeCellId="0" pane="topLeft" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -1839,7 +1864,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1853,10 +1878,10 @@
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="10" t="n">
+      <c r="C3" s="11" t="n">
         <v>6300</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -1870,10 +1895,10 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="n">
+      <c r="C4" s="11" t="n">
         <v>6700</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -1887,10 +1912,10 @@
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="n">
+      <c r="C5" s="11" t="n">
         <v>6400</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
@@ -1904,10 +1929,10 @@
       <c r="B6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="10" t="n">
+      <c r="C6" s="11" t="n">
         <v>6500</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
@@ -1924,7 +1949,7 @@
       <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="10" t="n">
+      <c r="C7" s="11" t="n">
         <v>1600</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1942,7 +1967,7 @@
         <v>29</v>
       </c>
       <c r="C8" s="9"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -1971,7 +1996,7 @@
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="10" t="n">
+      <c r="C10" s="11" t="n">
         <v>3200</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1982,7 +2007,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="11">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2013,7 +2038,7 @@
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="13" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -2021,16 +2046,16 @@
         <v>49</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="14" s="4">
+      <c r="D13" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="14">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="10" t="n">
+      <c r="C14" s="11" t="n">
         <v>2410</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -2040,31 +2065,31 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="15" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="10" t="n">
+      <c r="C15" s="11" t="n">
         <v>500</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="16" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="10" t="n">
+      <c r="C16" s="11" t="n">
         <v>5700</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2075,10 +2100,10 @@
       <c r="B17" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="10" t="n">
+      <c r="C17" s="11" t="n">
         <v>2400</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="11" t="s">
         <v>61</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -2092,7 +2117,7 @@
       <c r="B18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="10" t="n">
+      <c r="C18" s="11" t="n">
         <v>8100</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2102,7 +2127,7 @@
         <v>66</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="19" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="19">
       <c r="A19" s="1" t="s">
         <v>67</v>
       </c>
@@ -2110,746 +2135,748 @@
         <v>68</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="20">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="23">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="24">
       <c r="A24" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="25">
       <c r="A25" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="27">
       <c r="A27" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="28">
       <c r="A28" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="29">
       <c r="A29" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="10" t="n">
+        <v>84</v>
+      </c>
+      <c r="C29" s="11" t="n">
         <v>3100</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>102</v>
+      <c r="D29" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="30">
-      <c r="A30" s="12" t="s">
-        <v>104</v>
+      <c r="A30" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C30" s="10" t="n">
+        <v>106</v>
+      </c>
+      <c r="C30" s="11" t="n">
         <v>1500</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="31">
       <c r="A31" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" s="10" t="n">
+        <v>110</v>
+      </c>
+      <c r="C31" s="11" t="n">
         <v>800</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>110</v>
+      <c r="D31" s="11" t="s">
+        <v>111</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="32">
       <c r="A32" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C32" s="9"/>
-      <c r="D32" s="10" t="s">
-        <v>114</v>
+      <c r="D32" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="33">
       <c r="A33" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C33" s="9"/>
-      <c r="D33" s="10" t="s">
-        <v>118</v>
+      <c r="D33" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="34">
       <c r="A34" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C34" s="9" t="n">
         <v>8300</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>122</v>
+      <c r="D34" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="35">
       <c r="A35" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="10" t="n">
+        <v>126</v>
+      </c>
+      <c r="C35" s="11" t="n">
         <v>1100</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>126</v>
+      <c r="D35" s="11" t="s">
+        <v>127</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="36">
       <c r="A36" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C36" s="10" t="n">
+        <v>130</v>
+      </c>
+      <c r="C36" s="11" t="n">
         <v>2100</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>130</v>
+      <c r="D36" s="11" t="s">
+        <v>131</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="37" s="4">
+        <v>132</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="37">
       <c r="A37" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C37" s="9" t="n">
         <v>2600</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="38" s="4">
+      <c r="D37" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="38">
       <c r="A38" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C38" s="9" t="n">
         <v>4500</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C39" s="10" t="n">
+        <v>140</v>
+      </c>
+      <c r="C39" s="11" t="n">
         <v>7900</v>
       </c>
-      <c r="D39" s="10" t="s">
-        <v>140</v>
+      <c r="D39" s="11" t="s">
+        <v>141</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="40">
       <c r="A40" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="41" s="4">
+        <v>145</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="41">
       <c r="A41" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C41" s="10" t="n">
+        <v>147</v>
+      </c>
+      <c r="C41" s="11" t="n">
         <v>123</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="42" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="42">
       <c r="A42" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="10" t="n">
+        <v>150</v>
+      </c>
+      <c r="C42" s="11" t="n">
         <v>141</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="43" s="4">
+      <c r="D42" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="43">
       <c r="A43" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="10" t="n">
+        <v>153</v>
+      </c>
+      <c r="C43" s="11" t="n">
         <v>1441</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>153</v>
+      <c r="D43" s="11" t="s">
+        <v>154</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="44">
       <c r="A44" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="45">
       <c r="A45" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="46">
       <c r="A46" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="47">
       <c r="A47" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="48">
       <c r="A48" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="49" s="4">
+        <v>169</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="49">
       <c r="A49" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C49" s="10" t="n">
+        <v>171</v>
+      </c>
+      <c r="C49" s="11" t="n">
         <v>7000</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="50" s="4">
+      <c r="D49" s="11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="50">
       <c r="A50" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="10" t="n">
+      <c r="C50" s="11" t="n">
         <v>500</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="51">
       <c r="A51" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="9"/>
-      <c r="D51" s="10" t="s">
-        <v>175</v>
+      <c r="D51" s="11" t="s">
+        <v>176</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="52">
       <c r="A52" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="9"/>
-      <c r="D52" s="10" t="s">
-        <v>178</v>
+      <c r="D52" s="11" t="s">
+        <v>179</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="53">
       <c r="A53" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C53" s="10" t="n">
+        <v>182</v>
+      </c>
+      <c r="C53" s="11" t="n">
         <v>6900</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="54" s="4">
+        <v>184</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="54">
       <c r="A54" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C54" s="10" t="n">
+        <v>186</v>
+      </c>
+      <c r="C54" s="11" t="n">
         <v>7200</v>
       </c>
-      <c r="D54" s="10" t="s">
-        <v>186</v>
+      <c r="D54" s="11" t="s">
+        <v>187</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="55" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="55">
       <c r="A55" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C55" s="10" t="n">
+        <v>84</v>
+      </c>
+      <c r="C55" s="11" t="n">
         <v>5100</v>
       </c>
-      <c r="D55" s="10" t="s">
-        <v>188</v>
+      <c r="D55" s="11" t="s">
+        <v>189</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="56">
       <c r="A56" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C56" s="9"/>
-      <c r="D56" s="10" t="s">
-        <v>190</v>
+      <c r="D56" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="57">
       <c r="A57" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="59">
       <c r="A59" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="60">
       <c r="A60" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="62" s="4">
-      <c r="A62" s="12" t="s">
-        <v>205</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="62">
+      <c r="A62" s="13" t="s">
+        <v>206</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C62" s="10" t="n">
+        <v>207</v>
+      </c>
+      <c r="C62" s="11" t="n">
         <v>2811</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="63" s="4">
+        <v>208</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="63">
       <c r="A63" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="64">
       <c r="A64" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C64" s="10" t="n">
+        <v>213</v>
+      </c>
+      <c r="C64" s="11" t="n">
         <v>4800</v>
       </c>
-      <c r="D64" s="10" t="s">
-        <v>213</v>
+      <c r="D64" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="65" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="65">
       <c r="A65" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="9"/>
-      <c r="D65" s="10" t="s">
-        <v>216</v>
+      <c r="D65" s="11" t="s">
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="66">
       <c r="A66" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C66" s="10" t="n">
+        <v>219</v>
+      </c>
+      <c r="C66" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="D66" s="10" t="s">
-        <v>219</v>
+      <c r="D66" s="11" t="s">
+        <v>220</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="67" s="4">
+        <v>221</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="67">
       <c r="A67" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C67" s="10" t="n">
+        <v>223</v>
+      </c>
+      <c r="C67" s="11" t="n">
         <v>22</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="68" s="4">
+        <v>224</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="68">
       <c r="A68" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C68" s="10" t="n">
+        <v>226</v>
+      </c>
+      <c r="C68" s="11" t="n">
         <v>7500</v>
       </c>
-      <c r="D68" s="10" t="s">
-        <v>226</v>
+      <c r="D68" s="11" t="s">
+        <v>227</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>23</v>
@@ -2857,1560 +2884,1579 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="69">
       <c r="A69" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C69" s="10" t="n">
+        <v>229</v>
+      </c>
+      <c r="C69" s="11" t="n">
         <v>6800</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="70">
       <c r="A70" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C70" s="10" t="n">
+        <v>233</v>
+      </c>
+      <c r="C70" s="11" t="n">
         <v>1711</v>
       </c>
-      <c r="D70" s="10" t="s">
-        <v>233</v>
+      <c r="D70" s="11" t="s">
+        <v>234</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="71">
       <c r="A71" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="72">
       <c r="A72" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C72" s="10" t="n">
+        <v>137</v>
+      </c>
+      <c r="C72" s="11" t="n">
         <v>190</v>
       </c>
-      <c r="D72" s="10" t="s">
-        <v>240</v>
+      <c r="D72" s="11" t="s">
+        <v>241</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="73">
       <c r="A73" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73" s="10" t="n">
+        <v>134</v>
+      </c>
+      <c r="C73" s="11" t="n">
         <v>3000</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="74">
       <c r="A74" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C74" s="9"/>
-      <c r="D74" s="10" t="s">
-        <v>247</v>
+      <c r="D74" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="75">
       <c r="A75" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C75" s="9"/>
-      <c r="D75" s="10" t="s">
-        <v>250</v>
+      <c r="D75" s="11" t="s">
+        <v>251</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="76">
       <c r="A76" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C76" s="9"/>
-      <c r="D76" s="10" t="s">
-        <v>253</v>
+      <c r="D76" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="77">
       <c r="A77" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="78">
       <c r="A78" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C78" s="10" t="n">
+        <v>134</v>
+      </c>
+      <c r="C78" s="11" t="n">
         <v>900</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="79">
       <c r="A79" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="80">
       <c r="A80" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C80" s="10" t="n">
-        <v>1600</v>
+        <v>54</v>
+      </c>
+      <c r="C80" s="11" t="n">
+        <v>500</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>26</v>
+        <v>267</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>27</v>
+        <v>268</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="81">
       <c r="A81" s="1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C81" s="10" t="n">
-        <v>4800</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>213</v>
+        <v>270</v>
+      </c>
+      <c r="C81" s="11" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>214</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="82">
       <c r="A82" s="1" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C82" s="10" t="n">
-        <v>3300</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>270</v>
+        <v>213</v>
+      </c>
+      <c r="C82" s="11" t="n">
+        <v>4800</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>214</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="83" s="4">
+        <v>215</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="83">
       <c r="A83" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C83" s="10" t="n">
-        <v>500</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="B83" s="9" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="84" s="4">
+      <c r="C83" s="9"/>
+      <c r="D83" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="84">
       <c r="A84" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="2" t="s">
         <v>275</v>
       </c>
       <c r="C84" s="9"/>
-      <c r="D84" s="10"/>
+      <c r="D84" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="85">
       <c r="A85" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C85" s="9"/>
+        <v>279</v>
+      </c>
+      <c r="C85" s="11" t="n">
+        <v>131</v>
+      </c>
       <c r="D85" s="2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="86">
       <c r="A86" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C86" s="10" t="n">
-        <v>131</v>
+        <v>283</v>
+      </c>
+      <c r="C86" s="11" t="n">
+        <v>132</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="87">
       <c r="A87" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C87" s="10" t="n">
-        <v>132</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E87" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="88">
+      <c r="A88" s="1" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="88" s="4">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="10"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="89" s="4">
+      <c r="C88" s="11" t="n">
+        <v>1731</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="89">
       <c r="A89" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C89" s="10" t="n">
-        <v>1731</v>
-      </c>
-      <c r="D89" s="10" t="s">
         <v>291</v>
+      </c>
+      <c r="C89" s="11" t="n">
+        <v>2811</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>293</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="90">
       <c r="A90" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C90" s="10" t="n">
-        <v>2811</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E90" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="91" s="4">
-      <c r="A91" s="1" t="s">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="91">
+      <c r="A91" s="13" t="s">
         <v>296</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C91" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="D91" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="92" s="4">
-      <c r="A92" s="12" t="s">
+      <c r="C91" s="11" t="n">
+        <v>300</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>298</v>
       </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="92">
+      <c r="A92" s="1" t="s">
+        <v>299</v>
+      </c>
       <c r="B92" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C92" s="10" t="n">
+        <v>297</v>
+      </c>
+      <c r="C92" s="11" t="n">
         <v>300</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="2" t="s">
         <v>300</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="93">
       <c r="A93" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C93" s="10" t="n">
-        <v>300</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E93" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="94" s="4">
+      <c r="C93" s="11" t="n">
+        <v>5500</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="94">
       <c r="A94" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C94" s="10" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D94" s="10" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="95" s="4">
+      <c r="C94" s="11" t="n">
+        <v>5600</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="95">
       <c r="A95" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C95" s="10" t="n">
-        <v>5600</v>
-      </c>
-      <c r="D95" s="10" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="96" s="4">
+      <c r="C95" s="11" t="n">
+        <v>101</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="96">
       <c r="A96" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C96" s="10" t="n">
-        <v>101</v>
-      </c>
-      <c r="D96" s="10" t="s">
         <v>312</v>
+      </c>
+      <c r="C96" s="11" t="n">
+        <v>111</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>313</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="97" s="4">
       <c r="A97" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C97" s="10" t="n">
-        <v>111</v>
-      </c>
-      <c r="D97" s="10" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="98" s="4">
+      <c r="D97" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="98">
       <c r="A98" s="1" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E98" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C98" s="11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="99">
+      <c r="A99" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="99" s="4">
-      <c r="A99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C99" s="10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>259</v>
+      <c r="C99" s="11" t="n">
+        <v>112</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>322</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="100">
       <c r="A100" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C100" s="10" t="n">
-        <v>112</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="E100" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="11" t="n">
+        <v>3100</v>
+      </c>
+      <c r="D100" s="11" t="s">
         <v>324</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="101">
       <c r="A101" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C101" s="10" t="n">
-        <v>3100</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
+      </c>
+      <c r="C101" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>328</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="102">
       <c r="A102" s="1" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C102" s="10" t="n">
-        <v>21</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E102" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C102" s="11" t="n">
+        <v>122</v>
+      </c>
+      <c r="D102" s="11" t="s">
         <v>331</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="103" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="103">
       <c r="A103" s="1" t="s">
         <v>332</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C103" s="10" t="n">
-        <v>122</v>
-      </c>
-      <c r="D103" s="10" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="104" s="4">
+      <c r="C103" s="11" t="n">
+        <v>1722</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="104">
       <c r="A104" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C104" s="10" t="n">
-        <v>1722</v>
-      </c>
-      <c r="D104" s="10" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="105" s="4">
+      <c r="C104" s="11" t="n">
+        <v>7100</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="105">
       <c r="A105" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C105" s="10" t="n">
-        <v>7100</v>
-      </c>
-      <c r="D105" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="F105" s="4" t="s">
-        <v>23</v>
+      <c r="C105" s="9"/>
+      <c r="D105" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="106">
       <c r="A106" s="1" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C106" s="9"/>
+        <v>343</v>
+      </c>
+      <c r="C106" s="11" t="n">
+        <v>400</v>
+      </c>
       <c r="D106" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E106" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="107">
+      <c r="A107" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="107">
-      <c r="A107" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C107" s="10" t="n">
+      <c r="C107" s="11" t="n">
         <v>400</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="108">
-      <c r="A108" s="4" t="s">
-        <v>348</v>
+      <c r="A108" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C108" s="10" t="n">
-        <v>400</v>
+        <v>350</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>351</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="109">
       <c r="A109" s="1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>353</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C109" s="9"/>
       <c r="D109" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="110">
       <c r="A110" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
+      </c>
+      <c r="C110" s="11" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>359</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="111">
       <c r="A111" s="1" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C111" s="10" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>361</v>
+        <v>134</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="D111" s="2" t="s">
+        <v>362</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="112">
       <c r="A112" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C112" s="9"/>
+        <v>137</v>
+      </c>
+      <c r="C112" s="11" t="n">
+        <v>6000</v>
+      </c>
       <c r="D112" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="113">
       <c r="A113" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C113" s="10" t="n">
-        <v>6000</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="C113" s="9"/>
       <c r="D113" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="114">
       <c r="A114" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>181</v>
+        <v>371</v>
       </c>
       <c r="C114" s="9"/>
       <c r="D114" s="2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C115" s="9"/>
-      <c r="D115" s="2" t="s">
-        <v>374</v>
+      <c r="D115" s="11" t="s">
+        <v>376</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C116" s="9"/>
-      <c r="D116" s="10" t="s">
-        <v>378</v>
+      <c r="D116" s="11" t="s">
+        <v>379</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C117" s="9"/>
-      <c r="D117" s="10" t="s">
-        <v>381</v>
+      <c r="D117" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
+      </c>
+      <c r="C118" s="11" t="n">
+        <v>5800</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>387</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C119" s="10" t="n">
-        <v>5800</v>
-      </c>
-      <c r="D119" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
+      </c>
+      <c r="C119" s="11" t="n">
+        <v>7700</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>391</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B120" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C120" s="11" t="n">
+        <v>7800</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E120" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="C120" s="10" t="n">
-        <v>7700</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>394</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C121" s="10" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D121" s="3" t="s">
         <v>397</v>
       </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="11" t="s">
+        <v>398</v>
+      </c>
       <c r="E121" s="3" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C122" s="9"/>
-      <c r="D122" s="10" t="s">
-        <v>400</v>
+        <v>137</v>
+      </c>
+      <c r="C122" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>401</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C123" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D123" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>405</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="124" s="4">
+        <v>406</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C124" s="10" t="n">
+        <v>309</v>
+      </c>
+      <c r="C124" s="11" t="n">
         <v>101</v>
       </c>
-      <c r="D124" s="10" t="s">
-        <v>312</v>
+      <c r="D124" s="11" t="s">
+        <v>310</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C125" s="9"/>
       <c r="D125" s="2" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C126" s="9"/>
-      <c r="D126" s="10" t="s">
-        <v>410</v>
+      <c r="D126" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C127" s="10" t="n">
+        <v>182</v>
+      </c>
+      <c r="C127" s="11" t="n">
         <v>1400</v>
       </c>
-      <c r="D127" s="10" t="s">
-        <v>413</v>
+      <c r="D127" s="11" t="s">
+        <v>415</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="128">
-      <c r="A128" s="1" t="s">
-        <v>415</v>
+      <c r="A128" s="4" t="s">
+        <v>417</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C128" s="10" t="n">
+        <v>418</v>
+      </c>
+      <c r="C128" s="11" t="n">
         <v>7400</v>
       </c>
-      <c r="D128" s="10" t="s">
-        <v>417</v>
+      <c r="D128" s="11" t="s">
+        <v>419</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="130">
       <c r="A130" s="1" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C130" s="10" t="n">
+        <v>375</v>
+      </c>
+      <c r="C130" s="11" t="n">
         <v>1700</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="C131" s="10" t="n">
+        <v>429</v>
+      </c>
+      <c r="C131" s="11" t="n">
         <v>1800</v>
       </c>
-      <c r="D131" s="10" t="s">
-        <v>428</v>
+      <c r="D131" s="11" t="s">
+        <v>430</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C132" s="10" t="n">
+        <v>202</v>
+      </c>
+      <c r="C132" s="11" t="n">
         <v>5000</v>
       </c>
-      <c r="D132" s="10" t="s">
-        <v>431</v>
+      <c r="D132" s="11" t="s">
+        <v>433</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C133" s="9"/>
-      <c r="D133" s="10" t="s">
+      <c r="D133" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="E133" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>432</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C134" s="9"/>
-      <c r="D134" s="10" t="s">
-        <v>436</v>
+      <c r="D134" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C135" s="9"/>
-      <c r="D135" s="10" t="s">
-        <v>438</v>
+      <c r="D135" s="11" t="s">
+        <v>440</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C136" s="9"/>
-      <c r="D136" s="10" t="s">
-        <v>441</v>
+      <c r="D136" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C137" s="9"/>
-      <c r="D137" s="10" t="s">
-        <v>444</v>
+      <c r="D137" s="11" t="s">
+        <v>446</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C138" s="9"/>
-      <c r="D138" s="10" t="s">
-        <v>447</v>
+      <c r="D138" s="11" t="s">
+        <v>449</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C139" s="9"/>
-      <c r="D139" s="10" t="s">
-        <v>450</v>
+      <c r="D139" s="11" t="s">
+        <v>452</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C140" s="9"/>
-      <c r="D140" s="10" t="s">
-        <v>453</v>
+      <c r="D140" s="11" t="s">
+        <v>455</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="141">
       <c r="A141" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C141" s="9"/>
-      <c r="D141" s="10" t="s">
-        <v>456</v>
+      <c r="D141" s="11" t="s">
+        <v>458</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="142">
       <c r="A142" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C142" s="9"/>
-      <c r="D142" s="10" t="s">
-        <v>459</v>
+      <c r="D142" s="11" t="s">
+        <v>461</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="143">
       <c r="A143" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C143" s="9"/>
-      <c r="D143" s="10" t="s">
-        <v>462</v>
+      <c r="D143" s="11" t="s">
+        <v>464</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="144">
       <c r="A144" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C144" s="9"/>
-      <c r="D144" s="10" t="s">
-        <v>465</v>
+      <c r="D144" s="11" t="s">
+        <v>467</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="145">
       <c r="A145" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C145" s="9"/>
-      <c r="D145" s="10" t="s">
-        <v>468</v>
+      <c r="D145" s="11" t="s">
+        <v>470</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="146">
       <c r="A146" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C146" s="9"/>
-      <c r="D146" s="10" t="s">
-        <v>471</v>
+      <c r="D146" s="11" t="s">
+        <v>473</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="147">
       <c r="A147" s="1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C147" s="9"/>
-      <c r="D147" s="10" t="s">
-        <v>474</v>
+      <c r="D147" s="11" t="s">
+        <v>476</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="148">
       <c r="A148" s="1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C148" s="9"/>
-      <c r="D148" s="10" t="s">
-        <v>477</v>
+      <c r="D148" s="11" t="s">
+        <v>479</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="149" s="4">
+        <v>480</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="149">
       <c r="A149" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="C149" s="10" t="n">
+        <v>482</v>
+      </c>
+      <c r="C149" s="11" t="n">
         <v>121</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="150">
       <c r="A150" s="1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C150" s="9"/>
-      <c r="D150" s="10" t="s">
-        <v>483</v>
+      <c r="D150" s="11" t="s">
+        <v>485</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="151">
       <c r="A151" s="1" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C151" s="9"/>
-      <c r="D151" s="10" t="s">
-        <v>486</v>
+      <c r="D151" s="11" t="s">
+        <v>488</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="152" s="4">
+        <v>489</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="152">
       <c r="A152" s="1" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="C152" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="C152" s="11" t="n">
         <v>111</v>
       </c>
-      <c r="D152" s="10" t="s">
-        <v>315</v>
+      <c r="D152" s="11" t="s">
+        <v>313</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="153">
       <c r="A153" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C153" s="10" t="n">
+        <v>233</v>
+      </c>
+      <c r="C153" s="11" t="n">
         <v>1711</v>
       </c>
-      <c r="D153" s="10"/>
+      <c r="D153" s="3" t="s">
+        <v>492</v>
+      </c>
       <c r="E153" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="154">
-      <c r="A154" s="1" t="s">
-        <v>490</v>
+      <c r="A154" s="4" t="s">
+        <v>493</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="C154" s="10" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>492</v>
+        <v>494</v>
+      </c>
+      <c r="C154" s="11" t="n">
+        <v>3300</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="155">
       <c r="A155" s="1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C155" s="9"/>
-      <c r="D155" s="10" t="s">
-        <v>495</v>
+        <v>498</v>
+      </c>
+      <c r="C155" s="11" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>499</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="156">
       <c r="A156" s="1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C156" s="9"/>
-      <c r="D156" s="10" t="s">
-        <v>498</v>
+      <c r="D156" s="11" t="s">
+        <v>502</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="157">
       <c r="A157" s="1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="C157" s="9"/>
-      <c r="D157" s="10" t="s">
-        <v>501</v>
+      <c r="D157" s="11" t="s">
+        <v>505</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="158">
       <c r="A158" s="1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C158" s="10" t="n">
+        <v>199</v>
+      </c>
+      <c r="C158" s="9"/>
+      <c r="D158" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="159">
+      <c r="A159" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C159" s="11" t="n">
         <v>1500</v>
       </c>
-      <c r="D158" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="159" s="4">
-      <c r="A159" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="C159" s="10" t="n">
+      <c r="D159" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="160">
+      <c r="A160" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="C160" s="11" t="n">
         <v>2611</v>
       </c>
-      <c r="D159" s="10" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="160" s="4">
-      <c r="A160" s="1" t="s">
-        <v>508</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="C160" s="10" t="n">
-        <v>2711</v>
-      </c>
-      <c r="D160" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>23</v>
+      <c r="D160" s="11" t="s">
+        <v>514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="161">
       <c r="A161" s="1" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C161" s="9"/>
-      <c r="D161" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>513</v>
+        <v>516</v>
+      </c>
+      <c r="C161" s="11" t="n">
+        <v>2711</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="162">
       <c r="A162" s="1" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>515</v>
+        <v>182</v>
       </c>
       <c r="C162" s="9"/>
-      <c r="D162" s="4" t="s">
-        <v>516</v>
+      <c r="D162" s="11" t="s">
+        <v>519</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="163">
       <c r="A163" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>519</v>
-      </c>
-      <c r="C163" s="10" t="n">
+        <v>522</v>
+      </c>
+      <c r="C163" s="9"/>
+      <c r="D163" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="164">
+      <c r="A164" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C164" s="11" t="n">
         <v>3721</v>
       </c>
-      <c r="D163" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="164" s="4">
-      <c r="A164" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C164" s="10" t="n">
+      <c r="D164" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="165">
+      <c r="A165" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C165" s="11" t="n">
         <v>6100</v>
       </c>
-      <c r="D164" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="165">
-      <c r="A165" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C165" s="10" t="n">
-        <v>400</v>
-      </c>
       <c r="D165" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="166">
       <c r="A166" s="4" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="C166" s="10"/>
-      <c r="D166" s="3" t="s">
-        <v>529</v>
+        <v>532</v>
+      </c>
+      <c r="C166" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>533</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>350</v>
+        <v>534</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="167">
-      <c r="A167" s="1" t="s">
-        <v>530</v>
+      <c r="A167" s="4" t="s">
+        <v>535</v>
       </c>
       <c r="B167" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C167" s="11"/>
+      <c r="D167" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="168">
+      <c r="A168" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C167" s="9"/>
-      <c r="D167" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="168" s="4">
-      <c r="A168" s="1" t="s">
-        <v>533</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C168" s="10" t="n">
+      <c r="C168" s="9"/>
+      <c r="D168" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="169">
+      <c r="A169" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C169" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="D168" s="10" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="169">
-      <c r="A169" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>537</v>
+      <c r="D169" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="170">
+      <c r="A170" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>544</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="557">
   <si>
     <t>Hash</t>
   </si>
@@ -101,7 +101,7 @@
     <t>http://pythonhosted.org/passlib/lib/passlib.hash.apr_md5_crypt.html</t>
   </si>
   <si>
-    <t>BCrypt(SHA256)</t>
+    <t>BCrypt(SHA-256)</t>
   </si>
   <si>
     <t>^\$bcrypt-sha256\$.{5}\$[a-z0-9\/\.]{22}\$[a-z0-9\/\.]{31}$/i</t>
@@ -170,10 +170,13 @@
     <t>Cisco-ASA(MD5)</t>
   </si>
   <si>
-    <t>^[a-z0-9\/\.]{16}(:[0-9]{2})?$/i</t>
-  </si>
-  <si>
-    <t>02dMBMYkTdC5Ziyp:36</t>
+    <t>^[a-z0-9\/\.]{16}(:.{1,})?$/i</t>
+  </si>
+  <si>
+    <t>.ewJz0Du3XKnFk/d:hashid</t>
+  </si>
+  <si>
+    <t>https://github.com/stekershaw/asa-password-encrypt</t>
   </si>
   <si>
     <t>Cisco-IOS(MD5)</t>
@@ -203,7 +206,7 @@
     <t>Itn9sO/yhumXJ7Jv</t>
   </si>
   <si>
-    <t>http://wiki.insidepro.com/index.php/MD5%28Cisco_PIX%29</t>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.cisco_pix.html</t>
   </si>
   <si>
     <t>Citrix Netscaler</t>
@@ -224,7 +227,7 @@
     <t>^crypt1:[a-z0-9\+\=]{12}:[a-z0-9\+\=]{12}$/i</t>
   </si>
   <si>
-    <t>crypt1:fnd+8xl+U1E=:Wc30H8MPgAc= </t>
+    <t>crypt1:fnd+8xl+U1E=:Wc30H8MPgAc=</t>
   </si>
   <si>
     <t>CRC-16</t>
@@ -635,6 +638,18 @@
     <t>4f6938531f0bc8991f62da7bbd6f7de3fad44562b8c6f4ebf146d5b4e46f7c17</t>
   </si>
   <si>
+    <t>hMailServer</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{70}$/i</t>
+  </si>
+  <si>
+    <t>cc06fa688a64cdeea43d3c0fb761fede7e3ccf00a9daea9c79f7d458e06f88327f16dd </t>
+  </si>
+  <si>
+    <t>http://www.hmailserver.com/forum/viewtopic.php?f=7&amp;t=16658&amp;start=0</t>
+  </si>
+  <si>
     <t>IP.Board ≥ v2</t>
   </si>
   <si>
@@ -833,6 +848,18 @@
     <t>MD5(Chap)</t>
   </si>
   <si>
+    <t>MediaWiki</t>
+  </si>
+  <si>
+    <t>^[:\$][AB][:\$]([a-f0-9]{1,8}[:\$])?[a-f0-9]{32}$/i</t>
+  </si>
+  <si>
+    <t>$B$113$de2874e33da25313d808d2a8cbf31485</t>
+  </si>
+  <si>
+    <t>https://www.mediawiki.org/wiki/Manual_talk%3aUser_table</t>
+  </si>
+  <si>
     <t>Microsoft MSTSC(RDP-File)</t>
   </si>
   <si>
@@ -857,10 +884,10 @@
     <t>^0x0100[a-f0-9]{88}$/i</t>
   </si>
   <si>
-    <t>0x010011223344fc9def6a4f847576458241bf11c2a906140b1db2fc9def6a4f847576458241bf11c2a906140b1db2</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/MSSQL%282000%29</t>
+    <t>0x0100200420C4988140FD3920894C3EDC188E94F428D57DAD5905F6CC1CBAF950CAD4C63F272B2C91E4DEEB5E6444</t>
+  </si>
+  <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.mssql2000.html</t>
   </si>
   <si>
     <t>MSSQL(2005)</t>
@@ -869,10 +896,10 @@
     <t>^0x0100[a-f0-9]{48}$/i</t>
   </si>
   <si>
-    <t>0x0100112233445810a72b6c3ee34a0a811d5bb7d9261fce9db2e0</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/MSSQL%282005%29</t>
+    <t>0x01006ACDF9FF5D2E211B392EEF1175EFFE13B3A368CE2F94038B</t>
+  </si>
+  <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.mssql2005.html</t>
   </si>
   <si>
     <t>MSSQL(2008)</t>
@@ -905,6 +932,9 @@
     <t>77374c3b35d41755</t>
   </si>
   <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.mysql323.html</t>
+  </si>
+  <si>
     <t>MySQL4.1</t>
   </si>
   <si>
@@ -914,6 +944,9 @@
     <t>*85ADE5DDF71E348162894C71D73324C043838751</t>
   </si>
   <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.mysql41.html</t>
+  </si>
+  <si>
     <t>MySQL5.x</t>
   </si>
   <si>
@@ -1232,7 +1265,7 @@
     <t>^\$sha1\$[0-9]+\$[a-z0-9\/\.]{0,64}\$[a-z0-9\/\.]{28}$/i</t>
   </si>
   <si>
-    <t>$sha1$40000$jtNX3nZ2$hBNaIXkt4wBI2o5rsi8KejSjNqIq </t>
+    <t>$sha1$40000$jtNX3nZ2$hBNaIXkt4wBI2o5rsi8KejSjNqIq</t>
   </si>
   <si>
     <t>https://pythonhosted.org/passlib/lib/passlib.hash.sha1_crypt.html</t>
@@ -1493,7 +1526,7 @@
     <t>SSHA-512(Base64)</t>
   </si>
   <si>
-    <t>{SSHA512}ALtwKGBdRgD+U0fPAy31C28RyKYx7+a8kmfksccsOeLknLHv2DBXYI7TDnTolQMBuPkWDISgZr2cHfnNPFjGZTEyNDU4OTkw </t>
+    <t>{SSHA512}ALtwKGBdRgD+U0fPAy31C28RyKYx7+a8kmfksccsOeLknLHv2DBXYI7TDnTolQMBuPkWDISgZr2cHfnNPFjGZTEyNDU4OTkw</t>
   </si>
   <si>
     <t>Sun MD5 Crypt</t>
@@ -1562,10 +1595,10 @@
     <t>16780ba78d2d5f02f3202901c1b6d975:568</t>
   </si>
   <si>
-    <t>VBulletin ≥ v3.8.5</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{32}:[a-z0-9]{30}$/i</t>
+    <t>vBulletin ≥ v3.8.5</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{32}:.{30}$/i</t>
   </si>
   <si>
     <t>bf366348c53ddcfbd16e63edfdd1eee6:181264250056774603641874043270</t>
@@ -1608,6 +1641,9 @@
   </si>
   <si>
     <t>19fa61d75522a4669b44e39c1d2e1726c530232130d407f89afee0964997f7a73e83be698b288febcf88e3e03c4f0757ea8964e59b63d93708b138cc42a66eb3</t>
+  </si>
+  <si>
+    <t>http://wiki.insidepro.com/index.php/Whirlpool</t>
   </si>
   <si>
     <t>Wordpress ≥ v2.6.2</t>
@@ -1819,10 +1855,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A52" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B65" activeCellId="0" pane="topLeft" sqref="B65"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A144" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A175" activeCellId="0" pane="topLeft" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -2038,7 +2074,7 @@
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="13" s="4">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -2061,2402 +2097,2443 @@
       <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="15">
+      <c r="E14" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="15" s="4">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15" s="11" t="n">
         <v>500</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="16">
+        <v>56</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="16" s="4">
       <c r="A16" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="11" t="n">
         <v>5700</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="17">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="11" t="n">
         <v>2400</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="18">
       <c r="A18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="11" t="n">
         <v>8100</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="19">
+        <v>67</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="19" s="4">
       <c r="A19" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="20">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="21">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="22">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="23">
       <c r="A23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="24">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="25">
       <c r="A25" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="27">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="28">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="29">
       <c r="A29" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C29" s="11" t="n">
         <v>3100</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="30">
       <c r="A30" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C30" s="11" t="n">
         <v>1500</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="31">
       <c r="A31" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C31" s="11" t="n">
         <v>800</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="32">
       <c r="A32" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="33">
       <c r="A33" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="34">
       <c r="A34" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" s="9" t="n">
         <v>8300</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="35">
       <c r="A35" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C35" s="11" t="n">
         <v>1100</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="36">
       <c r="A36" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C36" s="11" t="n">
         <v>2100</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="37">
+        <v>133</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="37" s="4">
       <c r="A37" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C37" s="9" t="n">
         <v>2600</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="38">
+        <v>136</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="38" s="4">
       <c r="A38" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C38" s="9" t="n">
         <v>4500</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="39">
       <c r="A39" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C39" s="11" t="n">
         <v>7900</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="40">
       <c r="A40" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="41">
+        <v>146</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="41" s="4">
       <c r="A41" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C41" s="11" t="n">
         <v>123</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="42">
+        <v>149</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="42" s="4">
       <c r="A42" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C42" s="11" t="n">
         <v>141</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="43">
+        <v>152</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="43" s="4">
       <c r="A43" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C43" s="11" t="n">
         <v>1441</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="44">
       <c r="A44" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="45">
       <c r="A45" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="46">
       <c r="A46" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="47">
       <c r="A47" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="48">
       <c r="A48" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="49">
+        <v>170</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="49" s="4">
       <c r="A49" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C49" s="11" t="n">
         <v>7000</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="50">
+        <v>173</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="50" s="4">
       <c r="A50" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C50" s="11" t="n">
         <v>500</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="51">
       <c r="A51" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="52">
       <c r="A52" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="53">
       <c r="A53" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C53" s="11" t="n">
         <v>6900</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="54">
+        <v>185</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="54" s="4">
       <c r="A54" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C54" s="11" t="n">
         <v>7200</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="55">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="55" s="4">
       <c r="A55" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C55" s="11" t="n">
         <v>5100</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="56">
       <c r="A56" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="57">
       <c r="A57" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="59">
       <c r="A59" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="60">
       <c r="A60" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="62">
-      <c r="A62" s="13" t="s">
-        <v>206</v>
+      <c r="A62" s="4" t="s">
+        <v>207</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C62" s="11" t="n">
+        <v>208</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="63" s="4">
+      <c r="A63" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C63" s="11" t="n">
         <v>2811</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="63">
-      <c r="A63" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C63" s="9"/>
       <c r="D63" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="64">
-      <c r="A64" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B64" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C64" s="11" t="n">
-        <v>4800</v>
-      </c>
-      <c r="D64" s="11" t="s">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="64" s="4">
+      <c r="A64" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="B64" s="4" t="s">
         <v>215</v>
+      </c>
+      <c r="C64" s="9" t="n">
+        <v>7300</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="65">
       <c r="A65" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" s="11" t="n">
+        <v>4800</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="66" s="4">
+      <c r="A66" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="66">
-      <c r="A66" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C66" s="11" t="n">
-        <v>11</v>
-      </c>
+      <c r="C66" s="9"/>
       <c r="D66" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="67">
       <c r="A67" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C67" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="68" s="4">
+      <c r="A68" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C68" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="68">
-      <c r="A68" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C68" s="11" t="n">
+      <c r="D68" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="69" s="4">
+      <c r="A69" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C69" s="11" t="n">
         <v>7500</v>
       </c>
-      <c r="D68" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F68" s="4" t="s">
+      <c r="D69" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F69" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="69">
-      <c r="A69" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C69" s="11" t="n">
-        <v>6800</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>231</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="70">
       <c r="A70" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="B70" s="2" t="s">
         <v>233</v>
       </c>
+      <c r="B70" s="4" t="s">
+        <v>234</v>
+      </c>
       <c r="C70" s="11" t="n">
-        <v>1711</v>
-      </c>
-      <c r="D70" s="11" t="s">
-        <v>234</v>
+        <v>6800</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="71">
       <c r="A71" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="2" t="s">
         <v>238</v>
       </c>
+      <c r="C71" s="11" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>239</v>
+      </c>
       <c r="E71" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="72">
       <c r="A72" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C72" s="11" t="n">
-        <v>190</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="73">
       <c r="A73" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C73" s="11" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>244</v>
+        <v>190</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>246</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="74">
       <c r="A74" s="1" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="11" t="s">
-        <v>248</v>
+        <v>135</v>
+      </c>
+      <c r="C74" s="11" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="75">
       <c r="A75" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>137</v>
+        <v>252</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="11" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="76">
-      <c r="A76" s="4" t="s">
-        <v>253</v>
+      <c r="A76" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="77">
-      <c r="A77" s="1" t="s">
-        <v>256</v>
+      <c r="A77" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C77" s="9"/>
-      <c r="D77" s="2" t="s">
-        <v>257</v>
+      <c r="D77" s="11" t="s">
+        <v>259</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="78">
       <c r="A78" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C78" s="11" t="n">
-        <v>900</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C78" s="9"/>
       <c r="D78" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="79">
       <c r="A79" s="1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>263</v>
+        <v>135</v>
+      </c>
+      <c r="C79" s="11" t="n">
+        <v>900</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="80">
       <c r="A80" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C80" s="11" t="n">
-        <v>500</v>
+        <v>135</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>268</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="81">
       <c r="A81" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="C81" s="11" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>26</v>
+        <v>272</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>27</v>
+        <v>273</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="82">
       <c r="A82" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="C82" s="11" t="n">
-        <v>4800</v>
-      </c>
-      <c r="D82" s="11" t="s">
-        <v>214</v>
+        <v>1600</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>215</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="83">
       <c r="A83" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="11"/>
+        <v>276</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" s="11" t="n">
+        <v>4800</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="84">
       <c r="A84" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C84" s="9"/>
+        <v>278</v>
+      </c>
       <c r="D84" s="2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="85">
+        <v>280</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="85" s="4">
       <c r="A85" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="C85" s="11" t="n">
-        <v>131</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="E85" s="3" t="s">
         <v>281</v>
       </c>
+      <c r="B85" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="11"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="86">
       <c r="A86" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C86" s="11" t="n">
-        <v>132</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="C86" s="9"/>
       <c r="D86" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="87">
       <c r="A87" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="11"/>
+        <v>288</v>
+      </c>
+      <c r="C87" s="11" t="n">
+        <v>131</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="88">
       <c r="A88" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C88" s="11" t="n">
+        <v>132</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="89" s="4">
+      <c r="A89" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="90" s="4">
+      <c r="A90" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C90" s="11" t="n">
         <v>1731</v>
       </c>
-      <c r="D88" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="89">
-      <c r="A89" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C89" s="11" t="n">
+      <c r="D90" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="91">
+      <c r="A91" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C91" s="11" t="n">
         <v>2811</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="90">
-      <c r="A90" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C90" s="11" t="n">
-        <v>200</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="91">
-      <c r="A91" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C91" s="11" t="n">
-        <v>300</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>298</v>
+      <c r="D91" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>302</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="92">
       <c r="A92" s="1" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>297</v>
+        <v>85</v>
       </c>
       <c r="C92" s="11" t="n">
+        <v>200</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="93">
+      <c r="A93" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C93" s="11" t="n">
         <v>300</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="93">
-      <c r="A93" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C93" s="11" t="n">
-        <v>5500</v>
-      </c>
       <c r="D93" s="11" t="s">
-        <v>304</v>
+        <v>308</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>309</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="94">
       <c r="A94" s="1" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C94" s="11" t="n">
+        <v>300</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="95" s="4">
+      <c r="A95" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C95" s="11" t="n">
+        <v>5500</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="96" s="4">
+      <c r="A96" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C96" s="11" t="n">
         <v>5600</v>
       </c>
-      <c r="D94" s="11" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="95">
-      <c r="A95" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C95" s="11" t="n">
-        <v>101</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="96">
-      <c r="A96" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C96" s="11" t="n">
-        <v>111</v>
-      </c>
       <c r="D96" s="11" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="97" s="4">
       <c r="A97" s="1" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="98">
+        <v>320</v>
+      </c>
+      <c r="C97" s="11" t="n">
+        <v>101</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="98" s="4">
       <c r="A98" s="1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>134</v>
+        <v>323</v>
       </c>
       <c r="C98" s="11" t="n">
+        <v>111</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="99" s="4">
+      <c r="A99" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="100" s="4">
+      <c r="A100" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="99">
-      <c r="A99" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C99" s="11" t="n">
-        <v>112</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="100">
-      <c r="A100" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C100" s="11" t="n">
-        <v>3100</v>
-      </c>
-      <c r="D100" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>325</v>
+      <c r="D100" s="2" t="s">
+        <v>265</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="101">
       <c r="A101" s="1" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C101" s="11" t="n">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="102">
       <c r="A102" s="1" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="C102" s="11" t="n">
-        <v>122</v>
+        <v>3100</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>331</v>
+        <v>335</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>336</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="103">
       <c r="A103" s="1" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C103" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="104" s="4">
+      <c r="A104" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C104" s="11" t="n">
+        <v>122</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="105" s="4">
+      <c r="A105" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C105" s="11" t="n">
         <v>1722</v>
       </c>
-      <c r="D103" s="11" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="104">
-      <c r="A104" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C104" s="11" t="n">
+      <c r="D105" s="11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="106" s="4">
+      <c r="A106" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C106" s="11" t="n">
         <v>7100</v>
       </c>
-      <c r="D104" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="F104" s="4" t="s">
+      <c r="D106" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F106" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="105">
-      <c r="A105" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="106">
-      <c r="A106" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C106" s="11" t="n">
-        <v>400</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="107">
-      <c r="A107" s="4" t="s">
-        <v>346</v>
+      <c r="A107" s="1" t="s">
+        <v>349</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C107" s="11" t="n">
-        <v>400</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="C107" s="9"/>
       <c r="D107" s="2" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="108">
       <c r="A108" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
+      </c>
+      <c r="C108" s="11" t="n">
+        <v>400</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="109">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C109" s="9"/>
+      <c r="C109" s="11" t="n">
+        <v>400</v>
+      </c>
       <c r="D109" s="2" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="110">
       <c r="A110" s="1" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C110" s="11" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="111">
       <c r="A111" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C111" s="9"/>
       <c r="D111" s="2" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="112">
       <c r="A112" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>137</v>
+        <v>369</v>
       </c>
       <c r="C112" s="11" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>365</v>
+        <v>7600</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="113">
       <c r="A113" s="1" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>182</v>
+        <v>135</v>
       </c>
       <c r="C113" s="9"/>
       <c r="D113" s="2" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="114">
       <c r="A114" s="1" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C114" s="9"/>
+        <v>138</v>
+      </c>
+      <c r="C114" s="11" t="n">
+        <v>6000</v>
+      </c>
       <c r="D114" s="2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>375</v>
+        <v>183</v>
       </c>
       <c r="C115" s="9"/>
-      <c r="D115" s="11" t="s">
-        <v>376</v>
+      <c r="D115" s="2" t="s">
+        <v>379</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C116" s="9"/>
-      <c r="D116" s="11" t="s">
-        <v>379</v>
+      <c r="D116" s="2" t="s">
+        <v>383</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C117" s="9"/>
-      <c r="D117" s="2" t="s">
-        <v>383</v>
+      <c r="D117" s="11" t="s">
+        <v>387</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C118" s="11" t="n">
-        <v>5800</v>
-      </c>
+      <c r="C118" s="9"/>
       <c r="D118" s="11" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C119" s="11" t="n">
-        <v>7700</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
+      </c>
+      <c r="C119" s="9"/>
+      <c r="D119" s="2" t="s">
+        <v>394</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C120" s="11" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>395</v>
+        <v>5800</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>398</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="11" t="s">
-        <v>398</v>
+        <v>401</v>
+      </c>
+      <c r="C121" s="11" t="n">
+        <v>7700</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>402</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C122" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D122" s="11" t="s">
-        <v>401</v>
+        <v>405</v>
+      </c>
+      <c r="C122" s="11" t="n">
+        <v>7800</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>406</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>405</v>
+        <v>408</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="11" t="s">
+        <v>409</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C124" s="11" t="n">
+        <v>138</v>
+      </c>
+      <c r="C124" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="125" s="4">
+      <c r="A125" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="126" s="4">
+      <c r="A126" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C126" s="11" t="n">
         <v>101</v>
       </c>
-      <c r="D124" s="11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="125">
-      <c r="A125" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="126">
-      <c r="A126" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C126" s="9"/>
       <c r="D126" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>413</v>
+        <v>321</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C127" s="11" t="n">
-        <v>1400</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>415</v>
+        <v>200</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="2" t="s">
+        <v>420</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="128">
-      <c r="A128" s="4" t="s">
-        <v>417</v>
+      <c r="A128" s="1" t="s">
+        <v>422</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="C128" s="11" t="n">
-        <v>7400</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C128" s="9"/>
       <c r="D128" s="11" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C129" s="9"/>
-      <c r="D129" s="2" t="s">
-        <v>423</v>
+        <v>183</v>
+      </c>
+      <c r="C129" s="11" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>426</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="130">
-      <c r="A130" s="1" t="s">
-        <v>425</v>
+      <c r="A130" s="4" t="s">
+        <v>428</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="C130" s="11" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>426</v>
+        <v>7400</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>430</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C131" s="11" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>430</v>
+        <v>433</v>
+      </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>202</v>
+        <v>386</v>
       </c>
       <c r="C132" s="11" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>433</v>
+        <v>1700</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>437</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="133">
       <c r="A133" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C133" s="9"/>
+        <v>440</v>
+      </c>
+      <c r="C133" s="11" t="n">
+        <v>1800</v>
+      </c>
       <c r="D133" s="11" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C134" s="9"/>
+        <v>203</v>
+      </c>
+      <c r="C134" s="11" t="n">
+        <v>5000</v>
+      </c>
       <c r="D134" s="11" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>375</v>
+        <v>183</v>
       </c>
       <c r="C135" s="9"/>
       <c r="D135" s="11" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C136" s="9"/>
       <c r="D136" s="11" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
       <c r="C137" s="9"/>
       <c r="D137" s="11" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>375</v>
+        <v>453</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="11" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>182</v>
+        <v>433</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="11" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>134</v>
+        <v>386</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="11" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="141">
       <c r="A141" s="1" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="11" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="142">
       <c r="A142" s="1" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="11" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="143">
       <c r="A143" s="1" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>375</v>
+        <v>138</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="11" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="144">
       <c r="A144" s="1" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="11" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="145">
       <c r="A145" s="1" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>137</v>
+        <v>386</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="11" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="146">
       <c r="A146" s="1" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="11" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="147">
       <c r="A147" s="1" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>182</v>
+        <v>138</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="11" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="148">
       <c r="A148" s="1" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>422</v>
+        <v>203</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="11" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="149">
       <c r="A149" s="1" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C149" s="11" t="n">
-        <v>121</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>483</v>
+        <v>183</v>
+      </c>
+      <c r="C149" s="9"/>
+      <c r="D149" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>488</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="150">
       <c r="A150" s="1" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>134</v>
+        <v>433</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="11" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="151">
+        <v>491</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="151" s="4">
       <c r="A151" s="1" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="11" t="s">
-        <v>488</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>489</v>
+        <v>493</v>
+      </c>
+      <c r="C151" s="11" t="n">
+        <v>121</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>494</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="152">
       <c r="A152" s="1" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C152" s="11" t="n">
-        <v>111</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C152" s="9"/>
       <c r="D152" s="11" t="s">
-        <v>313</v>
+        <v>496</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>497</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="153">
       <c r="A153" s="1" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C153" s="11" t="n">
-        <v>1711</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>492</v>
+        <v>183</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="11" t="s">
+        <v>499</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="154">
-      <c r="A154" s="4" t="s">
-        <v>493</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="154" s="4">
+      <c r="A154" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>494</v>
+        <v>323</v>
       </c>
       <c r="C154" s="11" t="n">
-        <v>3300</v>
+        <v>111</v>
       </c>
       <c r="D154" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>496</v>
+        <v>324</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="155">
       <c r="A155" s="1" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>498</v>
+        <v>238</v>
       </c>
       <c r="C155" s="11" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>499</v>
+        <v>1711</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>503</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>500</v>
+        <v>240</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="156">
-      <c r="A156" s="1" t="s">
-        <v>501</v>
+      <c r="A156" s="4" t="s">
+        <v>504</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C156" s="9"/>
+        <v>505</v>
+      </c>
+      <c r="C156" s="11" t="n">
+        <v>3300</v>
+      </c>
       <c r="D156" s="11" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="157">
       <c r="A157" s="1" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C157" s="9"/>
+        <v>509</v>
+      </c>
+      <c r="C157" s="11" t="n">
+        <v>8000</v>
+      </c>
       <c r="D157" s="11" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="158">
       <c r="A158" s="1" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="C158" s="9"/>
       <c r="D158" s="11" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="159">
       <c r="A159" s="1" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C159" s="11" t="n">
-        <v>1500</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C159" s="9"/>
       <c r="D159" s="11" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>108</v>
+        <v>517</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="160">
       <c r="A160" s="1" t="s">
-        <v>512</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="C160" s="11" t="n">
-        <v>2611</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C160" s="9"/>
       <c r="D160" s="11" t="s">
-        <v>514</v>
+        <v>519</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>520</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="161">
       <c r="A161" s="1" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>516</v>
+        <v>107</v>
       </c>
       <c r="C161" s="11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="162" s="4">
+      <c r="A162" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C162" s="11" t="n">
+        <v>2611</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="163" s="4">
+      <c r="A163" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C163" s="11" t="n">
         <v>2711</v>
       </c>
-      <c r="D161" s="11" t="s">
-        <v>517</v>
-      </c>
-      <c r="F161" s="4" t="s">
+      <c r="D163" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="F163" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="162">
-      <c r="A162" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C162" s="9"/>
-      <c r="D162" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="163">
-      <c r="A163" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="C163" s="9"/>
-      <c r="D163" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>524</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="164">
       <c r="A164" s="1" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="C164" s="11" t="n">
-        <v>3721</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>527</v>
+        <v>183</v>
+      </c>
+      <c r="C164" s="9"/>
+      <c r="D164" s="11" t="s">
+        <v>530</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="165">
       <c r="A165" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C165" s="11" t="n">
+        <v>533</v>
+      </c>
+      <c r="C165" s="9"/>
+      <c r="D165" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="166">
+      <c r="A166" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C166" s="11" t="n">
+        <v>3721</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="167">
+      <c r="A167" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C167" s="11" t="n">
         <v>6100</v>
       </c>
-      <c r="D165" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="166">
-      <c r="A166" s="4" t="s">
-        <v>531</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C166" s="11" t="n">
+      <c r="D167" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="168">
+      <c r="A168" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C168" s="11" t="n">
         <v>400</v>
       </c>
-      <c r="D166" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="167">
-      <c r="A167" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="C167" s="11"/>
-      <c r="D167" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="168">
-      <c r="A168" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B168" s="2" t="s">
+      <c r="D168" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="169">
+      <c r="A169" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C169" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="170">
+      <c r="A170" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C168" s="9"/>
-      <c r="D168" s="2" t="s">
-        <v>538</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="169">
-      <c r="A169" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="C169" s="11" t="n">
+      <c r="C170" s="9"/>
+      <c r="D170" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="171" s="4">
+      <c r="A171" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C171" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="D169" s="11" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="170">
-      <c r="A170" s="4" t="s">
-        <v>542</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>544</v>
+      <c r="D171" s="11" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="172">
+      <c r="A172" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="573">
   <si>
     <t>Hash</t>
   </si>
@@ -644,7 +644,7 @@
     <t>^[a-f0-9]{70}$/i</t>
   </si>
   <si>
-    <t>cc06fa688a64cdeea43d3c0fb761fede7e3ccf00a9daea9c79f7d458e06f88327f16dd </t>
+    <t>cc06fa688a64cdeea43d3c0fb761fede7e3ccf00a9daea9c79f7d458e06f88327f16dd</t>
   </si>
   <si>
     <t>http://www.hmailserver.com/forum/viewtopic.php?f=7&amp;t=16658&amp;start=0</t>
@@ -728,7 +728,7 @@
     <t>http://hashcat.net/forum/thread-2701-post-16111.html#pid16111</t>
   </si>
   <si>
-    <t>LDAP(SSHA512)</t>
+    <t>LDAP(SSHA-512)</t>
   </si>
   <si>
     <t>^{SSHA512}[a-z0-9\+\/]{96}={0,2}$/i</t>
@@ -1076,6 +1076,42 @@
     <t>http://wiki.insidepro.com/index.php/MD5%28Palshop%29</t>
   </si>
   <si>
+    <t>PBKDF2(Cryptacular)</t>
+  </si>
+  <si>
+    <t>^\$p5k2\$[0-9]+\$[a-z0-9\/+=-]+\$[a-z0-9\/+=-]{28}$/i</t>
+  </si>
+  <si>
+    <t>$p5k2$2710$oX9ZZOcNgYoAsYL-8bqxKg==$AU2JLf2rNxWoZxWxRCluY0u6h6c= </t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.cta_pbkdf2_sha1.html</t>
+  </si>
+  <si>
+    <t>PBKDF2(Dwayne Litzenberger)</t>
+  </si>
+  <si>
+    <t>^\$p5k2\$[0-9]+\$[a-z0-9\/\.]+\$[a-z0-9\/\.]{32}$/i</t>
+  </si>
+  <si>
+    <t>$p5k2$2710$.pPqsEwHD7MiECU0$b8TQ5AMQemtlaSgegw5Je.JBE3QQhLbO </t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.dlitz_pbkdf2_sha1.html</t>
+  </si>
+  <si>
+    <t>PBKDF2(Generic)</t>
+  </si>
+  <si>
+    <t>^\$pbkdf2-sha(1|256|512)\$[0-9]+\$[a-z0-9\/\.]{22}\$([a-z0-9\/\.]{27}|[a-z0-9\/\.]{43}|[a-z0-9\/\.]{86})$/i</t>
+  </si>
+  <si>
+    <t>$pbkdf2-sha256$6400$0ZrzXitFSGltTQnBWOsdAw$Y11AchqV4b0sUisdZd0Xr97KWoymNE0LNNrnEgY4H9M </t>
+  </si>
+  <si>
+    <t>http://pythonhosted.org/passlib/lib/passlib.hash.pbkdf2_digest.html</t>
+  </si>
+  <si>
     <t>PHPass' Portable Hash</t>
   </si>
   <si>
@@ -1662,6 +1698,18 @@
   </si>
   <si>
     <t>$H$91234567894GGuEJpikxPnFVUioh9e.</t>
+  </si>
+  <si>
+    <t>xAuth</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{140}$/i</t>
+  </si>
+  <si>
+    <t>cb5ef15b400cef07addb37e00e2cdd6d1b508a2a26f0befcb0f9d8fd03c1d67be1690eba2287c4f76a590f2feae654ce5aee9943a23babb8e56381fe3214a48ad8754a1fd9eb</t>
+  </si>
+  <si>
+    <t>https://github.com/CypherX/xAuth/wiki/Password-Hashing</t>
   </si>
   <si>
     <t>XOR-32</t>
@@ -1781,7 +1829,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1838,6 +1886,10 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -1855,10 +1907,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A144" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A175" activeCellId="0" pane="topLeft" sqref="A175"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A136" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B180" activeCellId="0" pane="topLeft" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -2074,7 +2126,7 @@
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="13" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="13">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -2097,11 +2149,11 @@
       <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="15" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="15">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -2115,7 +2167,7 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="16" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="16">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -2163,7 +2215,7 @@
         <v>67</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="19" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="19">
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
@@ -2442,7 +2494,7 @@
         <v>133</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="37" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="37">
       <c r="A37" s="4" t="s">
         <v>134</v>
       </c>
@@ -2456,7 +2508,7 @@
         <v>136</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="38" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="38">
       <c r="A38" s="4" t="s">
         <v>137</v>
       </c>
@@ -2502,7 +2554,7 @@
         <v>146</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="41" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="41">
       <c r="A41" s="1" t="s">
         <v>147</v>
       </c>
@@ -2516,7 +2568,7 @@
         <v>149</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="42" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="42">
       <c r="A42" s="1" t="s">
         <v>150</v>
       </c>
@@ -2530,7 +2582,7 @@
         <v>152</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="43" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="43">
       <c r="A43" s="1" t="s">
         <v>153</v>
       </c>
@@ -2619,7 +2671,7 @@
         <v>170</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="49" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="49">
       <c r="A49" s="1" t="s">
         <v>171</v>
       </c>
@@ -2633,7 +2685,7 @@
         <v>173</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="50" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="50">
       <c r="A50" s="1" t="s">
         <v>174</v>
       </c>
@@ -2694,7 +2746,7 @@
         <v>185</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="54" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="54">
       <c r="A54" s="1" t="s">
         <v>186</v>
       </c>
@@ -2711,7 +2763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="55" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="55">
       <c r="A55" s="1" t="s">
         <v>189</v>
       </c>
@@ -2815,21 +2867,21 @@
         <v>196</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="62">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="62" s="4">
       <c r="A62" s="4" t="s">
         <v>207</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="3" t="s">
         <v>209</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="63" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="63">
       <c r="A63" s="13" t="s">
         <v>211</v>
       </c>
@@ -2843,7 +2895,7 @@
         <v>213</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="64" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="64">
       <c r="A64" s="4" t="s">
         <v>214</v>
       </c>
@@ -2874,7 +2926,7 @@
         <v>220</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="66" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="66">
       <c r="A66" s="1" t="s">
         <v>221</v>
       </c>
@@ -2903,7 +2955,7 @@
         <v>226</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="68" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="68">
       <c r="A68" s="1" t="s">
         <v>227</v>
       </c>
@@ -2917,7 +2969,7 @@
         <v>229</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="69" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="69">
       <c r="A69" s="1" t="s">
         <v>230</v>
       </c>
@@ -3162,7 +3214,7 @@
         <v>220</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="84">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="84" s="4">
       <c r="A84" s="1" t="s">
         <v>277</v>
       </c>
@@ -3176,7 +3228,7 @@
         <v>280</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="85" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="85">
       <c r="A85" s="1" t="s">
         <v>281</v>
       </c>
@@ -3235,7 +3287,7 @@
         <v>294</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="89" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="89">
       <c r="A89" s="1" t="s">
         <v>295</v>
       </c>
@@ -3245,7 +3297,7 @@
       <c r="C89" s="9"/>
       <c r="D89" s="11"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="90" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="90">
       <c r="A90" s="1" t="s">
         <v>296</v>
       </c>
@@ -3327,7 +3379,7 @@
         <v>312</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="95" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="95">
       <c r="A95" s="1" t="s">
         <v>313</v>
       </c>
@@ -3341,7 +3393,7 @@
         <v>315</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="96" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="96">
       <c r="A96" s="1" t="s">
         <v>316</v>
       </c>
@@ -3355,7 +3407,7 @@
         <v>318</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="97" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="97">
       <c r="A97" s="1" t="s">
         <v>319</v>
       </c>
@@ -3369,7 +3421,7 @@
         <v>321</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="98" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="98">
       <c r="A98" s="1" t="s">
         <v>322</v>
       </c>
@@ -3397,7 +3449,7 @@
         <v>328</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="100" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="100">
       <c r="A100" s="1" t="s">
         <v>329</v>
       </c>
@@ -3462,7 +3514,7 @@
         <v>340</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="104" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="104">
       <c r="A104" s="1" t="s">
         <v>341</v>
       </c>
@@ -3476,7 +3528,7 @@
         <v>342</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="105" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="105">
       <c r="A105" s="1" t="s">
         <v>343</v>
       </c>
@@ -3490,7 +3542,7 @@
         <v>345</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="106" s="4">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="106">
       <c r="A106" s="1" t="s">
         <v>346</v>
       </c>
@@ -3529,48 +3581,48 @@
       <c r="B108" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C108" s="11" t="n">
-        <v>400</v>
-      </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="3" t="s">
         <v>355</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>356</v>
       </c>
+      <c r="F108" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="109">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="1" t="s">
         <v>357</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C109" s="11" t="n">
-        <v>400</v>
-      </c>
-      <c r="D109" s="2" t="s">
         <v>358</v>
       </c>
+      <c r="D109" s="3" t="s">
+        <v>359</v>
+      </c>
       <c r="E109" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="110">
-      <c r="A110" s="1" t="s">
-        <v>360</v>
+      <c r="A110" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C110" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="3" t="s">
         <v>363</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>364</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="111">
@@ -3578,27 +3630,29 @@
         <v>365</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C111" s="9"/>
+        <v>366</v>
+      </c>
+      <c r="C111" s="11" t="n">
+        <v>400</v>
+      </c>
       <c r="D111" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="112">
+      <c r="A112" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E111" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="112">
-      <c r="A112" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="C112" s="11" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D112" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>370</v>
       </c>
       <c r="E112" s="3" t="s">
@@ -3610,136 +3664,136 @@
         <v>372</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C113" s="9"/>
+        <v>373</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="D113" s="2" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="114">
       <c r="A114" s="1" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C114" s="11" t="n">
-        <v>6000</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C114" s="9"/>
       <c r="D114" s="2" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C115" s="9"/>
-      <c r="D115" s="2" t="s">
-        <v>379</v>
+        <v>381</v>
+      </c>
+      <c r="C115" s="11" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>382</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="116">
       <c r="A116" s="1" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>382</v>
+        <v>135</v>
       </c>
       <c r="C116" s="9"/>
       <c r="D116" s="2" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C117" s="9"/>
-      <c r="D117" s="11" t="s">
-        <v>387</v>
+        <v>138</v>
+      </c>
+      <c r="C117" s="11" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>388</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>386</v>
+        <v>183</v>
       </c>
       <c r="C118" s="9"/>
-      <c r="D118" s="11" t="s">
-        <v>390</v>
+      <c r="D118" s="2" t="s">
+        <v>391</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="120">
       <c r="A120" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C120" s="11" t="n">
-        <v>5800</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C120" s="9"/>
       <c r="D120" s="11" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="121">
       <c r="A121" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C121" s="11" t="n">
-        <v>7700</v>
-      </c>
-      <c r="D121" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C121" s="9"/>
+      <c r="D121" s="11" t="s">
         <v>402</v>
       </c>
       <c r="E121" s="3" t="s">
@@ -3753,787 +3807,847 @@
       <c r="B122" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C122" s="11" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D122" s="3" t="s">
+      <c r="C122" s="9"/>
+      <c r="D122" s="2" t="s">
         <v>406</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="123">
       <c r="A123" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C123" s="9"/>
+        <v>409</v>
+      </c>
+      <c r="C123" s="11" t="n">
+        <v>5800</v>
+      </c>
       <c r="D123" s="11" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="124">
       <c r="A124" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C124" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="D124" s="11" t="s">
-        <v>412</v>
+        <v>413</v>
+      </c>
+      <c r="C124" s="11" t="n">
+        <v>7700</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>414</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="125" s="4">
+        <v>415</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="125">
       <c r="A125" s="1" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B125" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C125" s="11" t="n">
+        <v>7800</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E125" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="126" s="4">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C126" s="11" t="n">
-        <v>101</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="C126" s="9"/>
       <c r="D126" s="11" t="s">
-        <v>321</v>
+        <v>421</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="127">
       <c r="A127" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="2" t="s">
-        <v>420</v>
+        <v>138</v>
+      </c>
+      <c r="C127" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>424</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="128">
+        <v>425</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="128" s="4">
       <c r="A128" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="11" t="s">
-        <v>423</v>
+        <v>427</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="129">
       <c r="A129" s="1" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>183</v>
+        <v>320</v>
       </c>
       <c r="C129" s="11" t="n">
-        <v>1400</v>
+        <v>101</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>427</v>
+        <v>321</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="130">
-      <c r="A130" s="4" t="s">
-        <v>428</v>
+      <c r="A130" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C130" s="11" t="n">
-        <v>7400</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>430</v>
+        <v>200</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="2" t="s">
+        <v>432</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>433</v>
+        <v>203</v>
       </c>
       <c r="C131" s="9"/>
-      <c r="D131" s="2" t="s">
-        <v>434</v>
+      <c r="D131" s="11" t="s">
+        <v>435</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>386</v>
+        <v>183</v>
       </c>
       <c r="C132" s="11" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>437</v>
+        <v>1400</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="133">
-      <c r="A133" s="1" t="s">
-        <v>439</v>
+      <c r="A133" s="4" t="s">
+        <v>440</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C133" s="11" t="n">
-        <v>1800</v>
+        <v>7400</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="134">
       <c r="A134" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C134" s="11" t="n">
-        <v>5000</v>
-      </c>
-      <c r="D134" s="11" t="s">
-        <v>444</v>
+        <v>445</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="2" t="s">
+        <v>446</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="135">
       <c r="A135" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="11" t="s">
-        <v>447</v>
+        <v>398</v>
+      </c>
+      <c r="C135" s="11" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="C136" s="9"/>
+        <v>452</v>
+      </c>
+      <c r="C136" s="11" t="n">
+        <v>1800</v>
+      </c>
       <c r="D136" s="11" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="137">
       <c r="A137" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C137" s="9"/>
+        <v>203</v>
+      </c>
+      <c r="C137" s="11" t="n">
+        <v>5000</v>
+      </c>
       <c r="D137" s="11" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>453</v>
+        <v>183</v>
       </c>
       <c r="C138" s="9"/>
       <c r="D138" s="11" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>458</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="11" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="141">
       <c r="A141" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>183</v>
+        <v>465</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="11" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="142">
       <c r="A142" s="1" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>135</v>
+        <v>445</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="11" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="143">
       <c r="A143" s="1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>138</v>
+        <v>398</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="11" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="144">
       <c r="A144" s="1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="11" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="145">
       <c r="A145" s="1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>386</v>
+        <v>135</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="11" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="146">
       <c r="A146" s="1" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="11" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="147">
       <c r="A147" s="1" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>138</v>
+        <v>203</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="11" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="148">
       <c r="A148" s="1" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>203</v>
+        <v>398</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="11" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="149">
       <c r="A149" s="1" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="11" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="150">
       <c r="A150" s="1" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>433</v>
+        <v>138</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="11" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="151" s="4">
+        <v>494</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="151">
       <c r="A151" s="1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="C151" s="11" t="n">
-        <v>121</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>494</v>
+        <v>203</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>497</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="152">
       <c r="A152" s="1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="11" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="153">
       <c r="A153" s="1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>183</v>
+        <v>445</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="11" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="154" s="4">
+        <v>503</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="154">
       <c r="A154" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>323</v>
+        <v>505</v>
       </c>
       <c r="C154" s="11" t="n">
-        <v>111</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>324</v>
+        <v>121</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>506</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="155">
       <c r="A155" s="1" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C155" s="11" t="n">
-        <v>1711</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>503</v>
+        <v>135</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="11" t="s">
+        <v>508</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>240</v>
+        <v>509</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="156">
-      <c r="A156" s="4" t="s">
-        <v>504</v>
+      <c r="A156" s="1" t="s">
+        <v>510</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C156" s="11" t="n">
-        <v>3300</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C156" s="9"/>
       <c r="D156" s="11" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="157">
       <c r="A157" s="1" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>509</v>
+        <v>323</v>
       </c>
       <c r="C157" s="11" t="n">
-        <v>8000</v>
+        <v>111</v>
       </c>
       <c r="D157" s="11" t="s">
-        <v>510</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>511</v>
+        <v>324</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="158">
       <c r="A158" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C158" s="9"/>
-      <c r="D158" s="11" t="s">
-        <v>513</v>
+        <v>238</v>
+      </c>
+      <c r="C158" s="11" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>514</v>
+        <v>240</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="159">
-      <c r="A159" s="1" t="s">
-        <v>515</v>
+      <c r="A159" s="4" t="s">
+        <v>516</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C159" s="9"/>
+        <v>517</v>
+      </c>
+      <c r="C159" s="11" t="n">
+        <v>3300</v>
+      </c>
       <c r="D159" s="11" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="160">
       <c r="A160" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C160" s="9"/>
+        <v>521</v>
+      </c>
+      <c r="C160" s="11" t="n">
+        <v>8000</v>
+      </c>
       <c r="D160" s="11" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="161">
       <c r="A161" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C161" s="11" t="n">
-        <v>1500</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C161" s="9"/>
       <c r="D161" s="11" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="162" s="4">
+        <v>526</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="162">
       <c r="A162" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="C162" s="11" t="n">
-        <v>2611</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C162" s="9"/>
       <c r="D162" s="11" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="163" s="4">
+        <v>528</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="163">
       <c r="A163" s="1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C163" s="11" t="n">
-        <v>2711</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C163" s="9"/>
       <c r="D163" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>23</v>
+        <v>531</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>532</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="164">
       <c r="A164" s="1" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C164" s="9"/>
+        <v>107</v>
+      </c>
+      <c r="C164" s="11" t="n">
+        <v>1500</v>
+      </c>
       <c r="D164" s="11" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>531</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="165">
       <c r="A165" s="1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C165" s="9"/>
-      <c r="D165" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="E165" s="3" t="s">
         <v>535</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="C165" s="11" t="n">
+        <v>2611</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>537</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="166">
       <c r="A166" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="C166" s="11" t="n">
-        <v>3721</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>539</v>
+        <v>2711</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>540</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="167">
       <c r="A167" s="1" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C167" s="11" t="n">
-        <v>6100</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>541</v>
+        <v>183</v>
+      </c>
+      <c r="C167" s="9"/>
+      <c r="D167" s="11" t="s">
+        <v>542</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="168">
-      <c r="A168" s="4" t="s">
-        <v>543</v>
+      <c r="A168" s="1" t="s">
+        <v>544</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>544</v>
-      </c>
-      <c r="C168" s="11" t="n">
-        <v>400</v>
-      </c>
-      <c r="D168" s="2" t="s">
         <v>545</v>
       </c>
+      <c r="C168" s="9"/>
+      <c r="D168" s="3" t="s">
+        <v>546</v>
+      </c>
       <c r="E168" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="169">
-      <c r="A169" s="4" t="s">
-        <v>547</v>
+      <c r="A169" s="1" t="s">
+        <v>548</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>354</v>
+        <v>549</v>
       </c>
       <c r="C169" s="11" t="n">
-        <v>400</v>
+        <v>3721</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>359</v>
+        <v>551</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="170">
       <c r="A170" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="9"/>
+        <v>398</v>
+      </c>
+      <c r="C170" s="11" t="n">
+        <v>6100</v>
+      </c>
       <c r="D170" s="2" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="171" s="4">
-      <c r="A171" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="171">
+      <c r="A171" s="4" t="s">
+        <v>555</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>338</v>
+        <v>556</v>
       </c>
       <c r="C171" s="11" t="n">
-        <v>21</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>553</v>
+        <v>400</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>558</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="172">
       <c r="A172" s="4" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C172" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="173">
+      <c r="A173" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="174">
+      <c r="A174" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="9"/>
+      <c r="D174" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="175">
+      <c r="A175" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C175" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="176">
+      <c r="A176" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D172" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>556</v>
+      <c r="D176" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="140" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="141" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="577">
   <si>
     <t>Hash</t>
   </si>
@@ -485,6 +485,18 @@
     <t>$episerver$*1*MDEyMzQ1Njc4OWFiY2RlZg==*lRjiU46qHA7S6ZE7RfKUcYhB85ofArj1j7TrCtu3u6Y</t>
   </si>
   <si>
+    <t>Fairly Secure Hashed Password</t>
+  </si>
+  <si>
+    <t>^{FSHP[0123]\|[0-9]+\|[0-9]+}[a-z0-9\/+=]+$/i</t>
+  </si>
+  <si>
+    <t>{FSHP1|16|16384}PtoqcGUetmVEy/uR8715TNqKa8+teMF9qZO1lA9lJNUm1EQBLPZ+qPRLeEPHqy6C</t>
+  </si>
+  <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.fshp.html</t>
+  </si>
+  <si>
     <t>FCS-16</t>
   </si>
   <si>
@@ -1082,7 +1094,7 @@
     <t>^\$p5k2\$[0-9]+\$[a-z0-9\/+=-]+\$[a-z0-9\/+=-]{28}$/i</t>
   </si>
   <si>
-    <t>$p5k2$2710$oX9ZZOcNgYoAsYL-8bqxKg==$AU2JLf2rNxWoZxWxRCluY0u6h6c= </t>
+    <t>$p5k2$2710$oX9ZZOcNgYoAsYL-8bqxKg==$AU2JLf2rNxWoZxWxRCluY0u6h6c=</t>
   </si>
   <si>
     <t>http://pythonhosted.org/passlib/lib/passlib.hash.cta_pbkdf2_sha1.html</t>
@@ -1094,7 +1106,7 @@
     <t>^\$p5k2\$[0-9]+\$[a-z0-9\/\.]+\$[a-z0-9\/\.]{32}$/i</t>
   </si>
   <si>
-    <t>$p5k2$2710$.pPqsEwHD7MiECU0$b8TQ5AMQemtlaSgegw5Je.JBE3QQhLbO </t>
+    <t>$p5k2$2710$.pPqsEwHD7MiECU0$b8TQ5AMQemtlaSgegw5Je.JBE3QQhLbO</t>
   </si>
   <si>
     <t>http://pythonhosted.org/passlib/lib/passlib.hash.dlitz_pbkdf2_sha1.html</t>
@@ -1106,7 +1118,7 @@
     <t>^\$pbkdf2-sha(1|256|512)\$[0-9]+\$[a-z0-9\/\.]{22}\$([a-z0-9\/\.]{27}|[a-z0-9\/\.]{43}|[a-z0-9\/\.]{86})$/i</t>
   </si>
   <si>
-    <t>$pbkdf2-sha256$6400$0ZrzXitFSGltTQnBWOsdAw$Y11AchqV4b0sUisdZd0Xr97KWoymNE0LNNrnEgY4H9M </t>
+    <t>$pbkdf2-sha256$6400$0ZrzXitFSGltTQnBWOsdAw$Y11AchqV4b0sUisdZd0Xr97KWoymNE0LNNrnEgY4H9M</t>
   </si>
   <si>
     <t>http://pythonhosted.org/passlib/lib/passlib.hash.pbkdf2_digest.html</t>
@@ -1256,7 +1268,7 @@
     <t>SAP CODVN B (BCODE)</t>
   </si>
   <si>
-    <t>^[0-9]{12}\$[a-f0-9]{16}$/i</t>
+    <t>^([0-9]{12})?\$[a-f0-9]{16}$/i</t>
   </si>
   <si>
     <t>435748802305$70AE4FF6C945B78F</t>
@@ -1268,7 +1280,7 @@
     <t>SAP CODVN F/G (PASSCODE)</t>
   </si>
   <si>
-    <t>^[0-9]{12}\$[a-f0-9]{40}$/i</t>
+    <t>^([0-9]{12})?\$[a-f0-9]{40}$/i</t>
   </si>
   <si>
     <t>034488234401$3F9CB8B0EFC58A8536DC0121794F672A626D78FB</t>
@@ -1829,7 +1841,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -1886,10 +1898,6 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="true" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -1907,10 +1915,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F176"/>
+  <dimension ref="A1:F177"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A136" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B180" activeCellId="0" pane="topLeft" sqref="B180"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B155" activeCellId="0" pane="topLeft" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -2126,7 +2134,7 @@
         <v>47</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="13">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="13" s="4">
       <c r="A13" s="1" t="s">
         <v>48</v>
       </c>
@@ -2153,7 +2161,7 @@
         <v>53</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="15">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="15" s="4">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
@@ -2167,7 +2175,7 @@
         <v>56</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="16">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="16" s="4">
       <c r="A16" s="1" t="s">
         <v>57</v>
       </c>
@@ -2215,7 +2223,7 @@
         <v>67</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="19" s="4">
       <c r="A19" s="1" t="s">
         <v>68</v>
       </c>
@@ -2494,7 +2502,7 @@
         <v>133</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="37">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="37" s="4">
       <c r="A37" s="4" t="s">
         <v>134</v>
       </c>
@@ -2508,7 +2516,7 @@
         <v>136</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="38">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="38" s="4">
       <c r="A38" s="4" t="s">
         <v>137</v>
       </c>
@@ -2554,7 +2562,7 @@
         <v>146</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="41">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="41" s="4">
       <c r="A41" s="1" t="s">
         <v>147</v>
       </c>
@@ -2568,7 +2576,7 @@
         <v>149</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="42">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="42" s="4">
       <c r="A42" s="1" t="s">
         <v>150</v>
       </c>
@@ -2582,7 +2590,7 @@
         <v>152</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="43">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="43" s="4">
       <c r="A43" s="1" t="s">
         <v>153</v>
       </c>
@@ -2597,149 +2605,146 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="44">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="4" t="s">
         <v>156</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C44" s="9"/>
+        <v>157</v>
+      </c>
       <c r="D44" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="45">
       <c r="A45" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>7</v>
+        <v>72</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="46">
       <c r="A46" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="47">
       <c r="A47" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="48">
       <c r="A48" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="49">
       <c r="A49" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C49" s="11" t="n">
+        <v>85</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="50" s="4">
+      <c r="A50" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C50" s="11" t="n">
         <v>7000</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="50">
-      <c r="A50" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="D50" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="51" s="4">
+      <c r="A51" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="11" t="n">
+      <c r="C51" s="11" t="n">
         <v>500</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="51">
-      <c r="A51" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>178</v>
+      <c r="D51" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="52">
       <c r="A52" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="53">
       <c r="A53" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C53" s="11" t="n">
-        <v>6900</v>
-      </c>
-      <c r="D53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="11" t="s">
         <v>184</v>
       </c>
       <c r="E53" s="3" t="s">
@@ -2754,175 +2759,175 @@
         <v>187</v>
       </c>
       <c r="C54" s="11" t="n">
+        <v>6900</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="55" s="4">
+      <c r="A55" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="11" t="n">
         <v>7200</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F54" s="4" t="s">
+      <c r="D55" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="55">
-      <c r="A55" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B55" s="2" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="56" s="4">
+      <c r="A56" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C55" s="11" t="n">
+      <c r="C56" s="11" t="n">
         <v>5100</v>
       </c>
-      <c r="D55" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="56">
-      <c r="A56" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" s="9"/>
       <c r="D56" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="57">
       <c r="A57" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C57" s="9"/>
-      <c r="D57" s="2" t="s">
-        <v>195</v>
+      <c r="D57" s="11" t="s">
+        <v>196</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="58">
       <c r="A58" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="59">
       <c r="A59" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="60">
       <c r="A60" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="61">
       <c r="A61" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="62" s="4">
-      <c r="A62" s="4" t="s">
-        <v>207</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="62">
+      <c r="A62" s="1" t="s">
+        <v>209</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>209</v>
+        <v>187</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="63">
-      <c r="A63" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="63" s="4">
+      <c r="A63" s="4" t="s">
         <v>211</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C63" s="11" t="n">
-        <v>2811</v>
-      </c>
       <c r="D63" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="64">
-      <c r="A64" s="4" t="s">
+      <c r="E63" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B64" s="4" t="s">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="64" s="4">
+      <c r="A64" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="C64" s="9" t="n">
+      <c r="B64" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C64" s="11" t="n">
+        <v>2811</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="65" s="4">
+      <c r="A65" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C65" s="9" t="n">
         <v>7300</v>
       </c>
-      <c r="D64" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="65">
-      <c r="A65" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C65" s="11" t="n">
-        <v>4800</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E65" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>220</v>
       </c>
     </row>
@@ -2931,27 +2936,27 @@
         <v>221</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C66" s="11" t="n">
+        <v>4800</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="67" s="4">
+      <c r="A67" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="9"/>
-      <c r="D66" s="11" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="67">
-      <c r="A67" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C67" s="11" t="n">
-        <v>11</v>
-      </c>
+      <c r="C67" s="9"/>
       <c r="D67" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="E67" s="3" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2963,57 +2968,57 @@
         <v>228</v>
       </c>
       <c r="C68" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="69" s="4">
+      <c r="A69" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C69" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="69">
-      <c r="A69" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C69" s="11" t="n">
+      <c r="D69" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="70" s="4">
+      <c r="A70" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C70" s="11" t="n">
         <v>7500</v>
       </c>
-      <c r="D69" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="F69" s="4" t="s">
+      <c r="D70" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="70">
-      <c r="A70" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C70" s="11" t="n">
-        <v>6800</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="71">
       <c r="A71" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="4" t="s">
         <v>238</v>
       </c>
       <c r="C71" s="11" t="n">
-        <v>1711</v>
-      </c>
-      <c r="D71" s="11" t="s">
+        <v>6800</v>
+      </c>
+      <c r="D71" s="3" t="s">
         <v>239</v>
       </c>
       <c r="E71" s="3" t="s">
@@ -3027,8 +3032,10 @@
       <c r="B72" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="2" t="s">
+      <c r="C72" s="11" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>243</v>
       </c>
       <c r="E72" s="3" t="s">
@@ -3040,44 +3047,44 @@
         <v>245</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C73" s="11" t="n">
-        <v>190</v>
-      </c>
-      <c r="D73" s="11" t="s">
         <v>246</v>
       </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="2" t="s">
+        <v>247</v>
+      </c>
       <c r="E73" s="3" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="74">
       <c r="A74" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C74" s="11" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>249</v>
+        <v>190</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>250</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="75">
       <c r="A75" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="11" t="n">
+        <v>3000</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>253</v>
       </c>
       <c r="E75" s="3" t="s">
@@ -3089,72 +3096,70 @@
         <v>255</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="77">
-      <c r="A77" s="4" t="s">
-        <v>258</v>
+      <c r="A77" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="11" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="78">
-      <c r="A78" s="1" t="s">
-        <v>261</v>
+      <c r="A78" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C78" s="9"/>
-      <c r="D78" s="2" t="s">
-        <v>262</v>
+      <c r="D78" s="11" t="s">
+        <v>263</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="79">
       <c r="A79" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C79" s="11" t="n">
-        <v>900</v>
-      </c>
+      <c r="C79" s="9"/>
       <c r="D79" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="80">
       <c r="A80" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>268</v>
+      <c r="C80" s="11" t="n">
+        <v>900</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>269</v>
@@ -3168,90 +3173,92 @@
         <v>271</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C81" s="11" t="n">
-        <v>500</v>
+        <v>135</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>272</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="82">
       <c r="A82" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>275</v>
+        <v>55</v>
       </c>
       <c r="C82" s="11" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>26</v>
+        <v>276</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>27</v>
+        <v>277</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="83">
       <c r="A83" s="1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="C83" s="11" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="84">
+      <c r="A84" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" s="11" t="n">
         <v>4800</v>
       </c>
-      <c r="D83" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="84" s="4">
-      <c r="A84" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>279</v>
+      <c r="D84" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="85">
+        <v>224</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="85" s="4">
       <c r="A85" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C85" s="9"/>
-      <c r="D85" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="86">
+      <c r="D85" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="86" s="4">
       <c r="A86" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>286</v>
       </c>
       <c r="C86" s="9"/>
-      <c r="D86" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>286</v>
-      </c>
+      <c r="D86" s="11"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="87">
       <c r="A87" s="1" t="s">
@@ -3260,10 +3267,8 @@
       <c r="B87" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C87" s="11" t="n">
-        <v>131</v>
-      </c>
-      <c r="D87" s="3" t="s">
+      <c r="C87" s="9"/>
+      <c r="D87" s="2" t="s">
         <v>289</v>
       </c>
       <c r="E87" s="3" t="s">
@@ -3278,7 +3283,7 @@
         <v>292</v>
       </c>
       <c r="C88" s="11" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>293</v>
@@ -3292,39 +3297,39 @@
         <v>295</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="11"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="90">
+        <v>296</v>
+      </c>
+      <c r="C89" s="11" t="n">
+        <v>132</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="90" s="4">
       <c r="A90" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C90" s="11" t="n">
+      <c r="C90" s="9"/>
+      <c r="D90" s="11"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="91" s="4">
+      <c r="A91" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C91" s="11" t="n">
         <v>1731</v>
       </c>
-      <c r="D90" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="91">
-      <c r="A91" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C91" s="11" t="n">
-        <v>2811</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="D91" s="11" t="s">
         <v>302</v>
       </c>
     </row>
@@ -3333,29 +3338,29 @@
         <v>303</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C92" s="11" t="n">
+        <v>2811</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="93">
+      <c r="A93" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C92" s="11" t="n">
+      <c r="C93" s="11" t="n">
         <v>200</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="93">
-      <c r="A93" s="13" t="s">
-        <v>306</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C93" s="11" t="n">
-        <v>300</v>
-      </c>
-      <c r="D93" s="11" t="s">
+      <c r="D93" s="2" t="s">
         <v>308</v>
       </c>
       <c r="E93" s="3" t="s">
@@ -3363,121 +3368,121 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="13" t="s">
         <v>310</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C94" s="11" t="n">
         <v>300</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>311</v>
+      <c r="D94" s="11" t="s">
+        <v>312</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="95">
       <c r="A95" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C95" s="11" t="n">
+        <v>300</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="96" s="4">
+      <c r="A96" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C96" s="11" t="n">
         <v>5500</v>
       </c>
-      <c r="D95" s="11" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="96">
-      <c r="A96" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C96" s="11" t="n">
+      <c r="D96" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="97" s="4">
+      <c r="A97" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C97" s="11" t="n">
         <v>5600</v>
       </c>
-      <c r="D96" s="11" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="97">
-      <c r="A97" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C97" s="11" t="n">
+      <c r="D97" s="11" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="98" s="4">
+      <c r="A98" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C98" s="11" t="n">
         <v>101</v>
       </c>
-      <c r="D97" s="11" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="98">
-      <c r="A98" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C98" s="11" t="n">
-        <v>111</v>
-      </c>
       <c r="D98" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="99" s="4">
       <c r="A99" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="D99" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="C99" s="11" t="n">
+        <v>111</v>
+      </c>
+      <c r="D99" s="11" t="s">
         <v>328</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="100">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="100" s="4">
       <c r="A100" s="1" t="s">
         <v>329</v>
       </c>
       <c r="B100" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="101" s="4">
+      <c r="A101" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C100" s="11" t="n">
+      <c r="C101" s="11" t="n">
         <v>1000</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="101">
-      <c r="A101" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C101" s="11" t="n">
-        <v>112</v>
-      </c>
-      <c r="D101" s="11" t="s">
-        <v>332</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>333</v>
+      <c r="D101" s="2" t="s">
+        <v>269</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="102">
@@ -3485,27 +3490,27 @@
         <v>334</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>335</v>
       </c>
       <c r="C102" s="11" t="n">
-        <v>3100</v>
+        <v>112</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="103">
       <c r="A103" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>338</v>
+        <v>85</v>
       </c>
       <c r="C103" s="11" t="n">
-        <v>21</v>
+        <v>3100</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>339</v>
@@ -3519,59 +3524,61 @@
         <v>341</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>200</v>
+        <v>342</v>
       </c>
       <c r="C104" s="11" t="n">
+        <v>21</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="105" s="4">
+      <c r="A105" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105" s="11" t="n">
         <v>122</v>
       </c>
-      <c r="D104" s="11" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="105">
-      <c r="A105" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C105" s="11" t="n">
+      <c r="D105" s="11" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="106" s="4">
+      <c r="A106" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="C106" s="11" t="n">
         <v>1722</v>
       </c>
-      <c r="D105" s="11" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="106">
-      <c r="A106" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C106" s="11" t="n">
+      <c r="D106" s="11" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="107" s="4">
+      <c r="A107" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C107" s="11" t="n">
         <v>7100</v>
       </c>
-      <c r="D106" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="F106" s="4" t="s">
+      <c r="D107" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="F107" s="4" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="107">
-      <c r="A107" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C107" s="9"/>
-      <c r="D107" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>352</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="108">
@@ -3581,17 +3588,15 @@
       <c r="B108" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="C108" s="9"/>
+      <c r="D108" s="2" t="s">
         <v>355</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="109">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="109" s="4">
       <c r="A109" s="1" t="s">
         <v>357</v>
       </c>
@@ -3608,8 +3613,8 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="110">
-      <c r="A110" s="4" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="110" s="4">
+      <c r="A110" s="1" t="s">
         <v>361</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -3625,83 +3630,83 @@
         <v>23</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="111">
-      <c r="A111" s="1" t="s">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="111" s="4">
+      <c r="A111" s="4" t="s">
         <v>365</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C111" s="11" t="n">
-        <v>400</v>
-      </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="3" t="s">
         <v>367</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>368</v>
       </c>
+      <c r="F111" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="112">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="1" t="s">
         <v>369</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C112" s="11" t="n">
         <v>400</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="113">
+      <c r="A113" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E112" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="113">
-      <c r="A113" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="E113" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>376</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="114">
       <c r="A114" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C114" s="9"/>
+      <c r="C114" s="2" t="s">
+        <v>378</v>
+      </c>
       <c r="D114" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="115">
       <c r="A115" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C115" s="11" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D115" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="2" t="s">
         <v>382</v>
       </c>
       <c r="E115" s="3" t="s">
@@ -3713,54 +3718,56 @@
         <v>384</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="2" t="s">
         <v>385</v>
       </c>
+      <c r="C116" s="11" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>386</v>
+      </c>
       <c r="E116" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="117">
       <c r="A117" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C117" s="11" t="n">
-        <v>6000</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C117" s="9"/>
       <c r="D117" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="118">
       <c r="A118" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C118" s="9"/>
+        <v>138</v>
+      </c>
+      <c r="C118" s="11" t="n">
+        <v>6000</v>
+      </c>
       <c r="D118" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="119">
       <c r="A119" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>394</v>
+        <v>187</v>
       </c>
       <c r="C119" s="9"/>
       <c r="D119" s="2" t="s">
@@ -3778,7 +3785,7 @@
         <v>398</v>
       </c>
       <c r="C120" s="9"/>
-      <c r="D120" s="11" t="s">
+      <c r="D120" s="2" t="s">
         <v>399</v>
       </c>
       <c r="E120" s="3" t="s">
@@ -3790,25 +3797,25 @@
         <v>401</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C121" s="9"/>
       <c r="D121" s="11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="122">
       <c r="A122" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C122" s="9"/>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="11" t="s">
         <v>406</v>
       </c>
       <c r="E122" s="3" t="s">
@@ -3822,10 +3829,8 @@
       <c r="B123" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C123" s="11" t="n">
-        <v>5800</v>
-      </c>
-      <c r="D123" s="11" t="s">
+      <c r="C123" s="9"/>
+      <c r="D123" s="2" t="s">
         <v>410</v>
       </c>
       <c r="E123" s="3" t="s">
@@ -3840,9 +3845,9 @@
         <v>413</v>
       </c>
       <c r="C124" s="11" t="n">
-        <v>7700</v>
-      </c>
-      <c r="D124" s="3" t="s">
+        <v>5800</v>
+      </c>
+      <c r="D124" s="11" t="s">
         <v>414</v>
       </c>
       <c r="E124" s="3" t="s">
@@ -3857,28 +3862,30 @@
         <v>417</v>
       </c>
       <c r="C125" s="11" t="n">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>418</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="126">
       <c r="A126" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C126" s="11" t="n">
+        <v>7800</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E126" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="127">
@@ -3886,102 +3893,100 @@
         <v>423</v>
       </c>
       <c r="B127" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="128">
+      <c r="A128" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C127" s="9" t="n">
+      <c r="C128" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="D127" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="128" s="4">
-      <c r="A128" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="11" t="s">
         <v>428</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="129">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="129" s="4">
       <c r="A129" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C129" s="11" t="n">
+        <v>431</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="130" s="4">
+      <c r="A130" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C130" s="11" t="n">
         <v>101</v>
       </c>
-      <c r="D129" s="11" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="130">
-      <c r="A130" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>433</v>
+      <c r="D130" s="11" t="s">
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="131">
       <c r="A131" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C131" s="9"/>
-      <c r="D131" s="11" t="s">
-        <v>435</v>
+      <c r="D131" s="2" t="s">
+        <v>436</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="132">
       <c r="A132" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C132" s="11" t="n">
+        <v>207</v>
+      </c>
+      <c r="C132" s="9"/>
+      <c r="D132" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="133">
+      <c r="A133" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C133" s="11" t="n">
         <v>1400</v>
-      </c>
-      <c r="D132" s="11" t="s">
-        <v>438</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="133">
-      <c r="A133" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="C133" s="11" t="n">
-        <v>7400</v>
       </c>
       <c r="D133" s="11" t="s">
         <v>442</v>
@@ -3991,14 +3996,16 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="134">
-      <c r="A134" s="1" t="s">
+      <c r="A134" s="4" t="s">
         <v>444</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="2" t="s">
+      <c r="C134" s="11" t="n">
+        <v>7400</v>
+      </c>
+      <c r="D134" s="11" t="s">
         <v>446</v>
       </c>
       <c r="E134" s="3" t="s">
@@ -4010,29 +4017,27 @@
         <v>448</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="C135" s="11" t="n">
-        <v>1700</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="C135" s="9"/>
       <c r="D135" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="136">
       <c r="A136" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="C136" s="11" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D136" s="11" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D136" s="2" t="s">
         <v>453</v>
       </c>
       <c r="E136" s="3" t="s">
@@ -4044,76 +4049,78 @@
         <v>455</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>203</v>
+        <v>456</v>
       </c>
       <c r="C137" s="11" t="n">
-        <v>5000</v>
+        <v>1800</v>
       </c>
       <c r="D137" s="11" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="138">
       <c r="A138" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C138" s="9"/>
+        <v>207</v>
+      </c>
+      <c r="C138" s="11" t="n">
+        <v>5000</v>
+      </c>
       <c r="D138" s="11" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="139">
       <c r="A139" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>445</v>
+        <v>187</v>
       </c>
       <c r="C139" s="9"/>
       <c r="D139" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="E139" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>457</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="140">
       <c r="A140" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="C140" s="9"/>
       <c r="D140" s="11" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="141">
       <c r="A141" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>465</v>
+        <v>402</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="11" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="142">
@@ -4121,282 +4128,280 @@
         <v>468</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="C142" s="9"/>
       <c r="D142" s="11" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="143">
       <c r="A143" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>398</v>
+        <v>449</v>
       </c>
       <c r="C143" s="9"/>
       <c r="D143" s="11" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="144">
       <c r="A144" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>183</v>
+        <v>402</v>
       </c>
       <c r="C144" s="9"/>
       <c r="D144" s="11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="145">
       <c r="A145" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="C145" s="9"/>
       <c r="D145" s="11" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="146">
       <c r="A146" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C146" s="9"/>
       <c r="D146" s="11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="147">
       <c r="A147" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="C147" s="9"/>
       <c r="D147" s="11" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="148">
       <c r="A148" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>398</v>
+        <v>207</v>
       </c>
       <c r="C148" s="9"/>
       <c r="D148" s="11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="149">
       <c r="A149" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>135</v>
+        <v>402</v>
       </c>
       <c r="C149" s="9"/>
       <c r="D149" s="11" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="150">
       <c r="A150" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C150" s="9"/>
       <c r="D150" s="11" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="151">
       <c r="A151" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="C151" s="9"/>
       <c r="D151" s="11" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="152">
       <c r="A152" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C152" s="9"/>
       <c r="D152" s="11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="153">
       <c r="A153" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>445</v>
+        <v>187</v>
       </c>
       <c r="C153" s="9"/>
       <c r="D153" s="11" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="154">
       <c r="A154" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="C154" s="11" t="n">
+        <v>449</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="D154" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="155" s="4">
+      <c r="A155" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C155" s="11" t="n">
         <v>121</v>
       </c>
-      <c r="D154" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="155">
-      <c r="A155" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C155" s="9"/>
-      <c r="D155" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>509</v>
+      <c r="D155" s="3" t="s">
+        <v>510</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="156">
       <c r="A156" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="C156" s="9"/>
       <c r="D156" s="11" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="157">
       <c r="A157" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C157" s="11" t="n">
+        <v>187</v>
+      </c>
+      <c r="C157" s="9"/>
+      <c r="D157" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="158" s="4">
+      <c r="A158" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="C158" s="11" t="n">
         <v>111</v>
       </c>
-      <c r="D157" s="11" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="158">
-      <c r="A158" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C158" s="11" t="n">
+      <c r="D158" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="159">
+      <c r="A159" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C159" s="11" t="n">
         <v>1711</v>
       </c>
-      <c r="D158" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="159">
-      <c r="A159" s="4" t="s">
-        <v>516</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>517</v>
-      </c>
-      <c r="C159" s="11" t="n">
-        <v>3300</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>518</v>
+      <c r="D159" s="3" t="s">
+        <v>519</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>519</v>
+        <v>244</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="160">
-      <c r="A160" s="1" t="s">
+      <c r="A160" s="4" t="s">
         <v>520</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>521</v>
       </c>
       <c r="C160" s="11" t="n">
-        <v>8000</v>
+        <v>3300</v>
       </c>
       <c r="D160" s="11" t="s">
         <v>522</v>
@@ -4410,115 +4415,117 @@
         <v>524</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C161" s="9"/>
+        <v>525</v>
+      </c>
+      <c r="C161" s="11" t="n">
+        <v>8000</v>
+      </c>
       <c r="D161" s="11" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="162">
       <c r="A162" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C162" s="9"/>
       <c r="D162" s="11" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="163">
       <c r="A163" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="C163" s="9"/>
       <c r="D163" s="11" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="164">
       <c r="A164" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C164" s="11" t="n">
-        <v>1500</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="C164" s="9"/>
       <c r="D164" s="11" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>109</v>
+        <v>536</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="165">
       <c r="A165" s="1" t="s">
-        <v>535</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>536</v>
+        <v>537</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="C165" s="11" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="166" s="4">
+      <c r="A166" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C166" s="11" t="n">
         <v>2611</v>
       </c>
-      <c r="D165" s="11" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="166">
-      <c r="A166" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>539</v>
-      </c>
-      <c r="C166" s="11" t="n">
+      <c r="D166" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="167" s="4">
+      <c r="A167" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C167" s="11" t="n">
         <v>2711</v>
       </c>
-      <c r="D166" s="11" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="167">
-      <c r="A167" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C167" s="9"/>
       <c r="D167" s="11" t="s">
-        <v>542</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="168">
       <c r="A168" s="1" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>545</v>
+        <v>187</v>
       </c>
       <c r="C168" s="9"/>
-      <c r="D168" s="3" t="s">
+      <c r="D168" s="11" t="s">
         <v>546</v>
       </c>
       <c r="E168" s="3" t="s">
@@ -4532,9 +4539,7 @@
       <c r="B169" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="C169" s="11" t="n">
-        <v>3721</v>
-      </c>
+      <c r="C169" s="9"/>
       <c r="D169" s="3" t="s">
         <v>550</v>
       </c>
@@ -4547,27 +4552,27 @@
         <v>552</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>398</v>
+        <v>553</v>
       </c>
       <c r="C170" s="11" t="n">
+        <v>3721</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="171">
+      <c r="A171" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C171" s="11" t="n">
         <v>6100</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="171">
-      <c r="A171" s="4" t="s">
-        <v>555</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="C171" s="11" t="n">
-        <v>400</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>557</v>
@@ -4581,73 +4586,90 @@
         <v>559</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>366</v>
+        <v>560</v>
       </c>
       <c r="C172" s="11" t="n">
         <v>400</v>
       </c>
-      <c r="D172" s="3" t="s">
-        <v>560</v>
+      <c r="D172" s="2" t="s">
+        <v>561</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>371</v>
+        <v>562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="173">
-      <c r="A173" s="1" t="s">
-        <v>561</v>
+      <c r="A173" s="4" t="s">
+        <v>563</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="D173" s="14" t="s">
-        <v>563</v>
+        <v>370</v>
+      </c>
+      <c r="C173" s="11" t="n">
+        <v>400</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>564</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="174">
+        <v>375</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="174" s="4">
       <c r="A174" s="1" t="s">
         <v>565</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="9"/>
-      <c r="D174" s="2" t="s">
         <v>566</v>
       </c>
+      <c r="D174" s="3" t="s">
+        <v>567</v>
+      </c>
       <c r="E174" s="3" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="175">
       <c r="A175" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="C175" s="11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C175" s="9"/>
+      <c r="D175" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="176" s="4">
+      <c r="A176" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C176" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="D175" s="11" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="176">
-      <c r="A176" s="4" t="s">
-        <v>570</v>
-      </c>
-      <c r="B176" s="2" t="s">
+      <c r="D176" s="11" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="177">
+      <c r="A177" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D176" s="11" t="s">
-        <v>571</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>572</v>
+      <c r="D177" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>576</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="628">
   <si>
     <t>Hash</t>
   </si>
@@ -26,6 +26,9 @@
     <t>Hashcat Mode</t>
   </si>
   <si>
+    <t>JTR Formats</t>
+  </si>
+  <si>
     <t>Example Hash</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
     <t>^(\$2[axy]|\$2)\$[0-9]{0,2}?\$[a-z0-9\/\.]{53}$/i</t>
   </si>
   <si>
+    <t>bf</t>
+  </si>
+  <si>
     <t>$2a$12$GhvMmNVjRW29ulnudl.LbuAnUtN/LRfe1JsBm1Xu6LE3059z5Tr8m</t>
   </si>
   <si>
@@ -131,6 +137,9 @@
     <t>^_[a-z0-9\/\.]{19}$/i</t>
   </si>
   <si>
+    <t>bsdi</t>
+  </si>
+  <si>
     <t>_EQ0.jzhSVeUyoSqLupI</t>
   </si>
   <si>
@@ -179,6 +188,9 @@
     <t>^[a-z0-9\/\.]{16}$/i</t>
   </si>
   <si>
+    <t>pix-md5</t>
+  </si>
+  <si>
     <t>Itn9sO/yhumXJ7Jv</t>
   </si>
   <si>
@@ -326,6 +338,9 @@
     <t>^[a-z0-9\/\.]{13}$/i</t>
   </si>
   <si>
+    <t>crypt</t>
+  </si>
+  <si>
     <t>G8n0KRCTGO8SY</t>
   </si>
   <si>
@@ -386,6 +401,9 @@
     <t>^[a-f0-9]{32}(:[^\\\/\:\*\?\"\&lt;\&gt;\|]{1,20})?$/i</t>
   </si>
   <si>
+    <t>mscach</t>
+  </si>
+  <si>
     <t>25fd08fa89795ed54207e6e8442a6ca0</t>
   </si>
   <si>
@@ -398,6 +416,9 @@
     <t>^(\$DCC2\$10240#[^\\\/\:\*\?\"\&lt;\&gt;\|]{1,20}#)?[a-f0-9]{32}$/i</t>
   </si>
   <si>
+    <t>mscach2</t>
+  </si>
+  <si>
     <t>4c253e4b65c007a8cd683ea57bc43c76</t>
   </si>
   <si>
@@ -440,6 +461,9 @@
     <t>^\+[a-z0-9\/\.]{12}$/i</t>
   </si>
   <si>
+    <t>bfegg</t>
+  </si>
+  <si>
     <t>+3nynz1ThEqm.</t>
   </si>
   <si>
@@ -551,6 +575,9 @@
     <t>FreeBSD MD5</t>
   </si>
   <si>
+    <t>md5</t>
+  </si>
+  <si>
     <t>$1$28772684$iEwNOgGugqO9.bIz5sk8k/</t>
   </si>
   <si>
@@ -653,6 +680,9 @@
     <t>^[a-f0-9]{70}$/i</t>
   </si>
   <si>
+    <t>hmailserver</t>
+  </si>
+  <si>
     <t>cc06fa688a64cdeea43d3c0fb761fede7e3ccf00a9daea9c79f7d458e06f88327f16dd</t>
   </si>
   <si>
@@ -725,7 +755,10 @@
     <t>Juniper Netscreen/SSG(ScreenOS)</t>
   </si>
   <si>
-    <t>^[a-z0-9\/\.]{30}(:.+)?$/i</t>
+    <t>^(.+\$)?[a-z0-9\/\.]{30}(:.+)?$/i</t>
+  </si>
+  <si>
+    <t>md5ns</t>
   </si>
   <si>
     <t>nNxKL2rOEkbBc9BFLsVGG6OtOUO/8n:user</t>
@@ -791,6 +824,9 @@
     <t>LM</t>
   </si>
   <si>
+    <t>lm</t>
+  </si>
+  <si>
     <t>16bafcac2a2558b7aad3b435b51404ee</t>
   </si>
   <si>
@@ -803,6 +839,9 @@
     <t>^\([a-z0-9\+\/]{20}\)$/i</t>
   </si>
   <si>
+    <t>dominosec</t>
+  </si>
+  <si>
     <t>(Gv0GtxzT8DYnLKAKDNsB)</t>
   </si>
   <si>
@@ -839,6 +878,9 @@
     <t>MD4</t>
   </si>
   <si>
+    <t>raw-md4</t>
+  </si>
+  <si>
     <t>31d6cfe0d16ae931b73c59d7e0c089c0</t>
   </si>
   <si>
@@ -851,6 +893,9 @@
     <t>0</t>
   </si>
   <si>
+    <t>raw-md5</t>
+  </si>
+  <si>
     <t>d41d8cd98f00b204e9800998ecf8427e</t>
   </si>
   <si>
@@ -881,6 +926,9 @@
     <t>^[:\$][AB][:\$]([a-f0-9]{1,8}[:\$])?[a-f0-9]{32}$/i</t>
   </si>
   <si>
+    <t>mediawiki</t>
+  </si>
+  <si>
     <t>$B$113$de2874e33da25313d808d2a8cbf31485</t>
   </si>
   <si>
@@ -911,6 +959,9 @@
     <t>^0x0100[a-f0-9]{88}$/i</t>
   </si>
   <si>
+    <t>mssql</t>
+  </si>
+  <si>
     <t>0x0100200420C4988140FD3920894C3EDC188E94F428D57DAD5905F6CC1CBAF950CAD4C63F272B2C91E4DEEB5E6444</t>
   </si>
   <si>
@@ -923,6 +974,9 @@
     <t>^0x0100[a-f0-9]{48}$/i</t>
   </si>
   <si>
+    <t>mssql05</t>
+  </si>
+  <si>
     <t>0x01006ACDF9FF5D2E211B392EEF1175EFFE13B3A368CE2F94038B</t>
   </si>
   <si>
@@ -965,6 +1019,9 @@
     <t>MySQL323</t>
   </si>
   <si>
+    <t>mysql</t>
+  </si>
+  <si>
     <t>77374c3b35d41755</t>
   </si>
   <si>
@@ -977,6 +1034,9 @@
     <t>^\*[a-f0-9]{40}$/i</t>
   </si>
   <si>
+    <t>mysql-sha1</t>
+  </si>
+  <si>
     <t>*85ADE5DDF71E348162894C71D73324C043838751</t>
   </si>
   <si>
@@ -1016,6 +1076,9 @@
     <t>^{SHA}[a-z0-9\+\/=]{28}$/i</t>
   </si>
   <si>
+    <t>nsldap</t>
+  </si>
+  <si>
     <t>{SHA}uJ6qx+YUFzQbcQtyd2gpTQ5qJ3s=</t>
   </si>
   <si>
@@ -1025,6 +1088,9 @@
     <t>^{SSHA}[a-z0-9\+\/=]{40}$/i</t>
   </si>
   <si>
+    <t>ssha</t>
+  </si>
+  <si>
     <t>{SSHA}AZKja92fbuuB9SpRlHqaoXxbTc43Mzc2MDM1Ng==</t>
   </si>
   <si>
@@ -1043,12 +1109,21 @@
     <t>NTLM</t>
   </si>
   <si>
+    <t>^(\$NT\$)?[a-f0-9]{32}$/i</t>
+  </si>
+  <si>
+    <t>nt</t>
+  </si>
+  <si>
     <t>Oracle 11g</t>
   </si>
   <si>
     <t>^S:[a-f0-9]{60}$/i</t>
   </si>
   <si>
+    <t>oracle11</t>
+  </si>
+  <si>
     <t>ac5f1e62d21fd0529428b84d42e8955b04966703:38445748184477378130</t>
   </si>
   <si>
@@ -1079,6 +1154,9 @@
     <t>OSX v10.4-10.6</t>
   </si>
   <si>
+    <t>xsha</t>
+  </si>
+  <si>
     <t>1430823483d07626ef8be3fda2ff056d0dfd818dbfe47683</t>
   </si>
   <si>
@@ -1151,6 +1229,9 @@
     <t>PHPass' Portable Hash</t>
   </si>
   <si>
+    <t>phpass-md5</t>
+  </si>
+  <si>
     <t>$P$8ohUJ.1sdFw09/bMaAQPTGDNi2BIUt1</t>
   </si>
   <si>
@@ -1295,6 +1376,9 @@
     <t>^([0-9]{12})?\$[a-f0-9]{16}$/i</t>
   </si>
   <si>
+    <t>sapb</t>
+  </si>
+  <si>
     <t>435748802305$70AE4FF6C945B78F</t>
   </si>
   <si>
@@ -1307,6 +1391,9 @@
     <t>^([0-9]{12})?\$[a-f0-9]{40}$/i</t>
   </si>
   <si>
+    <t>sapg</t>
+  </si>
+  <si>
     <t>034488234401$3F9CB8B0EFC58A8536DC0121794F672A626D78FB</t>
   </si>
   <si>
@@ -1325,6 +1412,9 @@
     <t>SHA-1</t>
   </si>
   <si>
+    <t>raw-sha1</t>
+  </si>
+  <si>
     <t>be02d85463a5eecf641c2a9cfcf0e1f0f4c61c14</t>
   </si>
   <si>
@@ -1358,6 +1448,9 @@
     <t>SHA-224</t>
   </si>
   <si>
+    <t>raw-sha224</t>
+  </si>
+  <si>
     <t>26dea9e65b4701c84168d390bfa7c8ab68cd907186a32dfc2e74e875</t>
   </si>
   <si>
@@ -1367,6 +1460,9 @@
     <t>SHA-256</t>
   </si>
   <si>
+    <t>raw-sha256</t>
+  </si>
+  <si>
     <t>bd37a3ba003471fe95071cb7a3e8570f4cc5417195a691d525e17e14672e70f7</t>
   </si>
   <si>
@@ -1391,6 +1487,9 @@
     <t>^[a-f0-9]{96}$/i</t>
   </si>
   <si>
+    <t>raw-sha384</t>
+  </si>
+  <si>
     <t>38b060a751ac96384cd9327eb1b1e36a21fdb71114be07434c0cc7bf63f6e1da274edebfe76f65fbd51ad2f14898b95b</t>
   </si>
   <si>
@@ -1400,6 +1499,9 @@
     <t>SHA-512</t>
   </si>
   <si>
+    <t>raw-sha512</t>
+  </si>
+  <si>
     <t>cf83e1357eefb8bdf1542850d66d8007d620e4050b5715dc83f4a921d36ce9ce47d0d13c5d85f2b0ff8318d2877eec2f63b931bd47417a81a538327af927da3e</t>
   </si>
   <si>
@@ -1622,6 +1724,9 @@
     <t>^0x[a-f0-9]{4}[a-f0-9]{16}[a-f0-9]{64}$/i</t>
   </si>
   <si>
+    <t>sybasease</t>
+  </si>
+  <si>
     <t>0xc00778168388631428230545ed2c976790af96768afa0806fe6c0da3b28f3e132137eac56f9bad027ea2</t>
   </si>
   <si>
@@ -1656,6 +1761,9 @@
   </si>
   <si>
     <t>Traditional DES</t>
+  </si>
+  <si>
+    <t>des</t>
   </si>
   <si>
     <t>JQMuyS6H.AGMo</t>
@@ -1962,23 +2070,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
+    <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F181"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="35.5408163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="33.5663265306122"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="65.8673469387755"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="17.2091836734694"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="98.3112244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="53.4591836734694"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="1" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.6479591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="98.3112244897959"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="53.4591836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.4948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1994,2872 +2104,3126 @@
       <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="9" t="n">
         <v>6300</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="9" t="n">
         <v>6700</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="9" t="n">
         <v>6400</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9" t="n">
         <v>6500</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="9" t="n">
         <v>1600</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="D8" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="9" t="s">
         <v>31</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" s="9" t="n">
         <v>3200</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C10" s="10"/>
-      <c r="D10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>39</v>
+      <c r="D10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C12" s="9" t="n">
         <v>2410</v>
       </c>
-      <c r="D12" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>45</v>
+      <c r="D12" s="9"/>
+      <c r="E12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>48</v>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C14" s="9" t="n">
         <v>5700</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>51</v>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C15" s="9" t="n">
         <v>2400</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C16" s="9" t="n">
         <v>8100</v>
       </c>
-      <c r="D16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>59</v>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C17" s="10"/>
-      <c r="D17" s="11" t="s">
-        <v>62</v>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C18" s="10"/>
-      <c r="D18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>66</v>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>69</v>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C20" s="10"/>
-      <c r="D20" s="1" t="s">
-        <v>72</v>
+      <c r="D20" s="10"/>
+      <c r="E20" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" s="10"/>
-      <c r="D21" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>75</v>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" s="10"/>
-      <c r="D22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>78</v>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C23" s="10"/>
-      <c r="D23" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>82</v>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C24" s="10"/>
-      <c r="D24" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>86</v>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C25" s="10"/>
-      <c r="D25" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>90</v>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C26" s="10"/>
-      <c r="D26" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>94</v>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C27" s="10"/>
-      <c r="D27" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>94</v>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C28" s="9" t="n">
         <v>3100</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>100</v>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C29" s="9" t="n">
         <v>1500</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C30" s="9" t="n">
         <v>800</v>
       </c>
-      <c r="D30" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>108</v>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C31" s="10"/>
-      <c r="D31" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>112</v>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C32" s="10"/>
-      <c r="D32" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>116</v>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C33" s="10" t="n">
         <v>8300</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>120</v>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C34" s="9" t="n">
         <v>1100</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C35" s="9" t="n">
         <v>2100</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>128</v>
+        <v>133</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C36" s="10" t="n">
         <v>2600</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>131</v>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C37" s="10" t="n">
         <v>4500</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>134</v>
+      <c r="D37" s="10"/>
+      <c r="E37" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C38" s="9" t="n">
         <v>7900</v>
       </c>
-      <c r="D38" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>138</v>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C39" s="10"/>
-      <c r="D39" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>142</v>
+      <c r="D39" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" s="10"/>
-      <c r="D40" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>145</v>
+      <c r="D40" s="10"/>
+      <c r="E40" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C41" s="9" t="n">
         <v>123</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>14</v>
+      <c r="D41" s="9"/>
+      <c r="E41" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C42" s="9" t="n">
         <v>141</v>
       </c>
-      <c r="D42" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>14</v>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="C43" s="9" t="n">
         <v>1441</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>14</v>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="C44" s="10"/>
-      <c r="D44" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>158</v>
+      <c r="D44" s="10"/>
+      <c r="E44" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C45" s="10"/>
-      <c r="D45" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>161</v>
+      <c r="D45" s="10"/>
+      <c r="E45" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" s="10"/>
-      <c r="D46" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>164</v>
+      <c r="D46" s="10"/>
+      <c r="E46" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" s="10"/>
-      <c r="D47" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>167</v>
+      <c r="D47" s="10"/>
+      <c r="E47" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" s="10"/>
-      <c r="D48" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>170</v>
+      <c r="D48" s="10"/>
+      <c r="E48" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C49" s="10"/>
-      <c r="D49" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>173</v>
+      <c r="D49" s="10"/>
+      <c r="E49" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="C50" s="9" t="n">
         <v>7000</v>
       </c>
-      <c r="D50" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>14</v>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C51" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>14</v>
+      <c r="D51" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" s="10"/>
-      <c r="D52" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>181</v>
+      <c r="D52" s="10"/>
+      <c r="E52" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" s="10"/>
-      <c r="D53" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>184</v>
+      <c r="D53" s="10"/>
+      <c r="E53" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C54" s="9" t="n">
         <v>6900</v>
       </c>
-      <c r="D54" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>188</v>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="C55" s="9" t="n">
         <v>7200</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>14</v>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C56" s="9" t="n">
         <v>5100</v>
       </c>
-      <c r="D56" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>14</v>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C57" s="10"/>
-      <c r="D57" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>196</v>
+      <c r="D57" s="10"/>
+      <c r="E57" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C58" s="10"/>
-      <c r="D58" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>199</v>
+      <c r="D58" s="10"/>
+      <c r="E58" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C59" s="10"/>
-      <c r="D59" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>199</v>
+      <c r="D59" s="10"/>
+      <c r="E59" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C60" s="10"/>
-      <c r="D60" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>199</v>
+      <c r="D60" s="10"/>
+      <c r="E60" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C61" s="10"/>
-      <c r="D61" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>199</v>
+      <c r="D61" s="10"/>
+      <c r="E61" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="C63" s="10" t="n">
         <v>1421</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>213</v>
+      <c r="D63" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="14" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C64" s="9" t="n">
         <v>2811</v>
       </c>
-      <c r="D64" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>14</v>
+      <c r="D64" s="9"/>
+      <c r="E64" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C65" s="10" t="n">
         <v>7300</v>
       </c>
-      <c r="D65" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>14</v>
+      <c r="D65" s="10"/>
+      <c r="E65" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C66" s="9" t="n">
         <v>4800</v>
       </c>
-      <c r="D66" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>223</v>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" s="10"/>
-      <c r="D67" s="9" t="s">
-        <v>225</v>
+      <c r="D67" s="10"/>
+      <c r="E67" s="9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C68" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="D68" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>229</v>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>234</v>
+        <v>242</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C70" s="9" t="n">
         <v>22</v>
       </c>
-      <c r="D70" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>14</v>
+      <c r="D70" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="C71" s="9" t="n">
         <v>7500</v>
       </c>
-      <c r="D71" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>14</v>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C72" s="9" t="n">
         <v>6800</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>244</v>
+      <c r="D72" s="9"/>
+      <c r="E72" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C73" s="9" t="n">
         <v>1711</v>
       </c>
-      <c r="D73" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>249</v>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C74" s="10"/>
-      <c r="D74" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>253</v>
+      <c r="D74" s="10"/>
+      <c r="E74" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C75" s="9" t="n">
         <v>190</v>
       </c>
-      <c r="D75" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>256</v>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C76" s="9" t="n">
         <v>3000</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>259</v>
+        <v>269</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="C77" s="10"/>
-      <c r="D77" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>263</v>
+      <c r="D77" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C78" s="10"/>
-      <c r="D78" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>266</v>
+      <c r="D78" s="10"/>
+      <c r="E78" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C79" s="10"/>
-      <c r="D79" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>269</v>
+      <c r="D79" s="10"/>
+      <c r="E79" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C80" s="10"/>
-      <c r="D80" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>272</v>
+      <c r="D80" s="10"/>
+      <c r="E80" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C81" s="9" t="n">
         <v>900</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>275</v>
+        <v>287</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="8" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C82" s="9" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>279</v>
+        <v>292</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C83" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>282</v>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="8" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="C84" s="9" t="n">
         <v>1600</v>
       </c>
-      <c r="D84" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E84" s="3" t="s">
+      <c r="D84" s="9"/>
+      <c r="E84" s="9" t="s">
         <v>27</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C85" s="9" t="n">
         <v>4800</v>
       </c>
-      <c r="D85" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>223</v>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C86" s="10"/>
-      <c r="D86" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>289</v>
+      <c r="D86" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="C88" s="10"/>
-      <c r="D88" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>295</v>
+      <c r="D88" s="10"/>
+      <c r="E88" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="C89" s="9" t="n">
         <v>131</v>
       </c>
-      <c r="D89" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>299</v>
+      <c r="D89" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="C90" s="9" t="n">
         <v>132</v>
       </c>
-      <c r="D90" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>303</v>
+      <c r="D90" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="C91" s="10" t="n">
         <v>132</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>14</v>
+      <c r="D91" s="10"/>
+      <c r="G91" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C92" s="9" t="n">
         <v>1731</v>
       </c>
-      <c r="D92" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>14</v>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="C93" s="9" t="n">
         <v>1731</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>310</v>
+      <c r="D93" s="9"/>
+      <c r="F93" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="s">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="C94" s="9" t="n">
         <v>2811</v>
       </c>
-      <c r="D94" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>314</v>
+      <c r="D94" s="9"/>
+      <c r="E94" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="8" t="s">
-        <v>315</v>
+        <v>333</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C95" s="9" t="n">
         <v>200</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>317</v>
+        <v>334</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="14" t="s">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="C96" s="9" t="n">
         <v>300</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>321</v>
+        <v>339</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="C97" s="9" t="n">
         <v>300</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>324</v>
+        <v>339</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="8" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="C98" s="9" t="n">
         <v>5500</v>
       </c>
-      <c r="D98" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>14</v>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="8" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="C99" s="9" t="n">
         <v>5600</v>
       </c>
-      <c r="D99" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>14</v>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="8" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="C100" s="9" t="n">
         <v>101</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>14</v>
+        <v>353</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="8" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="C101" s="9" t="n">
         <v>111</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>14</v>
+        <v>357</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="C102" s="10"/>
-      <c r="D102" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>340</v>
+      <c r="D102" s="10"/>
+      <c r="E102" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>130</v>
+        <v>364</v>
       </c>
       <c r="C103" s="9" t="n">
         <v>1000</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>274</v>
+        <v>365</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="8" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="C104" s="9" t="n">
         <v>112</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>345</v>
+        <v>368</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="8" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C105" s="9" t="n">
         <v>3100</v>
       </c>
-      <c r="D105" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>348</v>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="8" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="C106" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="D106" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>352</v>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C107" s="9" t="n">
         <v>122</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>14</v>
+        <v>379</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="C108" s="9" t="n">
         <v>1722</v>
       </c>
-      <c r="D108" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>14</v>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="8" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="C109" s="9" t="n">
         <v>7100</v>
       </c>
-      <c r="D109" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>14</v>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="8" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="C110" s="10"/>
-      <c r="D110" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>364</v>
+      <c r="D110" s="10"/>
+      <c r="E110" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="8" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="C111" s="10"/>
-      <c r="D111" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>249</v>
+      <c r="D111" s="10"/>
+      <c r="E111" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="C112" s="10"/>
-      <c r="D112" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>249</v>
+      <c r="D112" s="10"/>
+      <c r="E112" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="C113" s="10"/>
-      <c r="D113" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>249</v>
+      <c r="D113" s="10"/>
+      <c r="E113" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="8" t="s">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C114" s="9" t="n">
         <v>400</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>379</v>
+        <v>404</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="C115" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D115" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>383</v>
+      <c r="D115" s="9"/>
+      <c r="E115" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="8" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="C116" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>388</v>
+        <v>413</v>
+      </c>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="8" t="s">
-        <v>389</v>
+        <v>416</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C117" s="10"/>
-      <c r="D117" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>391</v>
+      <c r="D117" s="10"/>
+      <c r="E117" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="8" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>393</v>
+        <v>420</v>
       </c>
       <c r="C118" s="9" t="n">
         <v>7600</v>
       </c>
-      <c r="D118" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>395</v>
+      <c r="D118" s="9"/>
+      <c r="E118" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
-        <v>396</v>
+        <v>423</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C119" s="10"/>
-      <c r="D119" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>398</v>
+      <c r="D119" s="10"/>
+      <c r="E119" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="8" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C120" s="9" t="n">
         <v>6000</v>
       </c>
-      <c r="D120" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>401</v>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="8" t="s">
-        <v>402</v>
+        <v>429</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C121" s="10"/>
-      <c r="D121" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>404</v>
+      <c r="D121" s="10"/>
+      <c r="E121" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="8" t="s">
-        <v>405</v>
+        <v>432</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>406</v>
+        <v>433</v>
       </c>
       <c r="C122" s="10"/>
-      <c r="D122" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="E122" s="3" t="s">
-        <v>408</v>
+      <c r="D122" s="10"/>
+      <c r="E122" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="C123" s="10"/>
-      <c r="D123" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>412</v>
+      <c r="D123" s="10"/>
+      <c r="E123" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="s">
-        <v>413</v>
+        <v>440</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="C124" s="10"/>
-      <c r="D124" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>415</v>
+      <c r="D124" s="10"/>
+      <c r="E124" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="8" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="C125" s="10"/>
-      <c r="D125" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>419</v>
+      <c r="D125" s="10"/>
+      <c r="E125" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="8" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="C126" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="D126" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>423</v>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="8" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="C127" s="9" t="n">
         <v>7700</v>
       </c>
-      <c r="D127" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>427</v>
+      <c r="D127" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="8" t="s">
-        <v>428</v>
+        <v>456</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>429</v>
+        <v>457</v>
       </c>
       <c r="C128" s="9" t="n">
         <v>7800</v>
       </c>
-      <c r="D128" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>427</v>
+      <c r="D128" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="8" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>432</v>
+        <v>461</v>
       </c>
       <c r="C129" s="10"/>
-      <c r="D129" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>434</v>
+      <c r="D129" s="10"/>
+      <c r="E129" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="8" t="s">
-        <v>435</v>
+        <v>464</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C130" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="D130" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>437</v>
+      <c r="D130" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="8" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
       <c r="C131" s="10"/>
-      <c r="D131" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="E131" s="3" t="s">
-        <v>441</v>
+      <c r="D131" s="10"/>
+      <c r="E131" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="8" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="C132" s="9" t="n">
         <v>101</v>
       </c>
-      <c r="D132" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>14</v>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="8" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C133" s="10"/>
-      <c r="D133" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>445</v>
+      <c r="D133" s="10"/>
+      <c r="E133" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="8" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C134" s="10"/>
-      <c r="D134" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>448</v>
+      <c r="D134" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="8" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C135" s="9" t="n">
         <v>1400</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>451</v>
+        <v>481</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>453</v>
+        <v>485</v>
       </c>
       <c r="C136" s="9" t="n">
         <v>7400</v>
       </c>
       <c r="D136" s="9" t="s">
-        <v>454</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>455</v>
+        <v>107</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="8" t="s">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C137" s="10"/>
-      <c r="D137" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="E137" s="3" t="s">
-        <v>459</v>
+      <c r="D137" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="8" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="C138" s="9" t="n">
         <v>1700</v>
       </c>
       <c r="D138" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>462</v>
+        <v>494</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="8" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="C139" s="9" t="n">
         <v>1800</v>
       </c>
       <c r="D139" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>466</v>
+        <v>107</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="8" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>469</v>
+        <v>215</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="8" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>471</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>469</v>
+        <v>505</v>
+      </c>
+      <c r="D141" s="10"/>
+      <c r="E141" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="8" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C142" s="10"/>
-      <c r="D142" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>469</v>
+      <c r="D142" s="10"/>
+      <c r="E142" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="8" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="C143" s="10"/>
-      <c r="D143" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>469</v>
+      <c r="D143" s="10"/>
+      <c r="E143" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="8" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
       <c r="C144" s="10"/>
-      <c r="D144" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>480</v>
+      <c r="D144" s="10"/>
+      <c r="E144" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="8" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C145" s="10"/>
-      <c r="D145" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>483</v>
+      <c r="D145" s="10"/>
+      <c r="E145" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="8" t="s">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="C146" s="10"/>
-      <c r="D146" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>486</v>
+      <c r="D146" s="10"/>
+      <c r="E146" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="8" t="s">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C147" s="10"/>
-      <c r="D147" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>489</v>
+      <c r="D147" s="10"/>
+      <c r="E147" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="8" t="s">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C148" s="10"/>
-      <c r="D148" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>492</v>
+      <c r="D148" s="10"/>
+      <c r="E148" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="8" t="s">
-        <v>493</v>
+        <v>527</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C149" s="10"/>
-      <c r="D149" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>495</v>
+      <c r="D149" s="10"/>
+      <c r="E149" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="8" t="s">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C150" s="10"/>
-      <c r="D150" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>498</v>
+      <c r="D150" s="10"/>
+      <c r="E150" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="8" t="s">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="C151" s="10"/>
-      <c r="D151" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>501</v>
+      <c r="D151" s="10"/>
+      <c r="E151" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="8" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C152" s="10"/>
-      <c r="D152" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>504</v>
+      <c r="D152" s="10"/>
+      <c r="E152" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="8" t="s">
-        <v>505</v>
+        <v>539</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C153" s="10"/>
-      <c r="D153" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>507</v>
+      <c r="D153" s="10"/>
+      <c r="E153" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="8" t="s">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="C154" s="10"/>
-      <c r="D154" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>510</v>
+      <c r="D154" s="10"/>
+      <c r="E154" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="8" t="s">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C155" s="10"/>
-      <c r="D155" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>513</v>
+      <c r="D155" s="10"/>
+      <c r="E155" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="8" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C156" s="10"/>
-      <c r="D156" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>516</v>
+      <c r="D156" s="10"/>
+      <c r="E156" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="8" t="s">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="C157" s="9" t="n">
         <v>121</v>
       </c>
-      <c r="D157" s="11" t="s">
-        <v>519</v>
+      <c r="D157" s="9"/>
+      <c r="E157" s="11" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C158" s="10"/>
-      <c r="D158" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>522</v>
+      <c r="D158" s="10"/>
+      <c r="E158" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="8" t="s">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C159" s="10"/>
-      <c r="D159" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>525</v>
+      <c r="D159" s="10"/>
+      <c r="E159" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="8" t="s">
-        <v>526</v>
+        <v>560</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>335</v>
+        <v>356</v>
       </c>
       <c r="C160" s="9" t="n">
         <v>111</v>
       </c>
-      <c r="D160" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>14</v>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="8" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C161" s="9" t="n">
         <v>1711</v>
       </c>
-      <c r="D161" s="11" t="s">
-        <v>528</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>249</v>
+      <c r="D161" s="9"/>
+      <c r="E161" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="C162" s="9" t="n">
         <v>3300</v>
       </c>
-      <c r="D162" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>532</v>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9" t="s">
+        <v>565</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="8" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="C163" s="9" t="n">
         <v>8000</v>
       </c>
       <c r="D163" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>536</v>
+        <v>569</v>
+      </c>
+      <c r="E163" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="8" t="s">
-        <v>537</v>
+        <v>572</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C164" s="10"/>
-      <c r="D164" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>539</v>
+      <c r="D164" s="10"/>
+      <c r="E164" s="9" t="s">
+        <v>573</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="8" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C165" s="10"/>
-      <c r="D165" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>542</v>
+      <c r="D165" s="10"/>
+      <c r="E165" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="8" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C166" s="10"/>
-      <c r="D166" s="9" t="s">
-        <v>544</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>545</v>
+      <c r="D166" s="10"/>
+      <c r="E166" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="8" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C167" s="9" t="n">
         <v>1500</v>
       </c>
       <c r="D167" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>104</v>
+        <v>582</v>
+      </c>
+      <c r="E167" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="8" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="B168" s="13" t="s">
-        <v>549</v>
+        <v>585</v>
       </c>
       <c r="C168" s="9" t="n">
         <v>2611</v>
       </c>
-      <c r="D168" s="9" t="s">
-        <v>550</v>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="8" t="s">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>552</v>
+        <v>588</v>
       </c>
       <c r="C169" s="9" t="n">
         <v>2711</v>
       </c>
-      <c r="D169" s="9" t="s">
-        <v>553</v>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="8" t="s">
-        <v>554</v>
+        <v>590</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C170" s="10"/>
-      <c r="D170" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>556</v>
+      <c r="D170" s="10"/>
+      <c r="E170" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="8" t="s">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="C171" s="10"/>
-      <c r="D171" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="E171" s="3" t="s">
-        <v>560</v>
+      <c r="D171" s="10"/>
+      <c r="E171" s="11" t="s">
+        <v>595</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="8" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="C172" s="9" t="n">
         <v>3721</v>
       </c>
-      <c r="D172" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>564</v>
+      <c r="D172" s="9"/>
+      <c r="E172" s="11" t="s">
+        <v>599</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="8" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>410</v>
+        <v>437</v>
       </c>
       <c r="C173" s="9" t="n">
         <v>6100</v>
       </c>
-      <c r="D173" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>567</v>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="8" t="s">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="C174" s="10" t="n">
         <v>8400</v>
       </c>
-      <c r="D174" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>571</v>
+      <c r="D174" s="10"/>
+      <c r="E174" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="8" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D175" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>574</v>
+        <v>34</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C176" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D176" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>577</v>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="C177" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D177" s="11" t="s">
-        <v>579</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>383</v>
+      <c r="D177" s="9"/>
+      <c r="E177" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="8" t="s">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>581</v>
+        <v>617</v>
       </c>
       <c r="C178" s="10"/>
-      <c r="D178" s="11" t="s">
-        <v>582</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>583</v>
+      <c r="D178" s="10"/>
+      <c r="E178" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="8" t="s">
-        <v>584</v>
+        <v>620</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" s="10"/>
-      <c r="D179" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>586</v>
+      <c r="D179" s="10"/>
+      <c r="E179" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="8" t="s">
-        <v>587</v>
+        <v>623</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="C180" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="D180" s="9" t="s">
-        <v>588</v>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>589</v>
+        <v>625</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="D181" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>591</v>
+        <v>137</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>627</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="636">
   <si>
     <t>Hash</t>
   </si>
@@ -386,7 +386,7 @@
     <t>DNSSEC(NSEC3)</t>
   </si>
   <si>
-    <t>^[a-z0-9]{32}(:([a-z0-9-]+\.)?[a-z0-9-]+\.[a-z]{2,7}:.+:[0-9]+)?$/i</t>
+    <t>^[a-z0-9]{32}(:([a-z0-9-]+\.)?[a-z0-9-.]+\.[a-z]{2,7}:.+:[0-9]+)?$/i</t>
   </si>
   <si>
     <t>2rpoiv7tgpg21jm3qb3ifdj6kajk0g29:test.example.com:33164473:10</t>
@@ -419,7 +419,7 @@
     <t>mscach2</t>
   </si>
   <si>
-    <t>4c253e4b65c007a8cd683ea57bc43c76</t>
+    <t>$DCC2$10240#hashid#4c253e4b65c007a8cd683ea57bc43c76</t>
   </si>
   <si>
     <t>http://pythonhosted.org/passlib/lib/passlib.hash.msdcc2.html</t>
@@ -833,21 +833,33 @@
     <t>http://pythonhosted.org/passlib/lib/passlib.hash.lmhash.html</t>
   </si>
   <si>
-    <t>Lotus Domino</t>
+    <t>Lotus Notes/Domino 5</t>
+  </si>
+  <si>
+    <t>8600</t>
+  </si>
+  <si>
+    <t>lotus5</t>
+  </si>
+  <si>
+    <t>3dd2e1e5ac03e230243d58b8c5ada076</t>
+  </si>
+  <si>
+    <t>Lotus Notes/Domino 6</t>
   </si>
   <si>
     <t>^\([a-z0-9\+\/]{20}\)$/i</t>
   </si>
   <si>
+    <t>8700</t>
+  </si>
+  <si>
     <t>dominosec</t>
   </si>
   <si>
     <t>(Gv0GtxzT8DYnLKAKDNsB)</t>
   </si>
   <si>
-    <t>https://en.wikipedia.org/wiki/IBM_Lotus_Domino</t>
-  </si>
-  <si>
     <t>MaNGOS CMS</t>
   </si>
   <si>
@@ -1248,6 +1260,18 @@
   </si>
   <si>
     <t>http://wiki.insidepro.com/index.php/MD5%28phpBB3%29</t>
+  </si>
+  <si>
+    <t>PHPS</t>
+  </si>
+  <si>
+    <t>^\$PHPS\$[0-9]{14}\$[a-f0-9]{32}$/i</t>
+  </si>
+  <si>
+    <t>phps</t>
+  </si>
+  <si>
+    <t>$PHPS$34323438373734$5b07e065b9d78d69603e71201c6cf29f</t>
   </si>
   <si>
     <t>RACF</t>
@@ -1994,7 +2018,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2055,6 +2079,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -2073,10 +2101,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3404,43 +3432,49 @@
         <v>271</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
         <v>272</v>
       </c>
       <c r="B77" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="G77" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="8" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="s">
+      <c r="B78" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B78" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
+      <c r="C78" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>279</v>
+      </c>
       <c r="E78" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="s">
-        <v>280</v>
+      <c r="A79" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>140</v>
@@ -3448,41 +3482,37 @@
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
       <c r="E79" s="9" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="8" t="s">
-        <v>283</v>
+      <c r="A80" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B81" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C81" s="9" t="n">
-        <v>900</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>287</v>
-      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
       <c r="E81" s="9" t="s">
         <v>288</v>
       </c>
@@ -3497,116 +3527,120 @@
       <c r="B82" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C82" s="9" t="s">
+      <c r="C82" s="9" t="n">
+        <v>900</v>
+      </c>
+      <c r="D82" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="E82" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="F82" s="3" t="s">
         <v>293</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C83" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="B83" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C83" s="9" t="n">
-        <v>500</v>
-      </c>
-      <c r="D83" s="9"/>
+      <c r="D83" s="9" t="s">
+        <v>296</v>
+      </c>
       <c r="E83" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>299</v>
+        <v>50</v>
       </c>
       <c r="C84" s="9" t="n">
-        <v>1600</v>
+        <v>500</v>
       </c>
       <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>27</v>
+        <v>300</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>28</v>
+        <v>301</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>231</v>
+        <v>303</v>
       </c>
       <c r="C85" s="9" t="n">
-        <v>4800</v>
+        <v>1600</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>233</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10" t="s">
-        <v>303</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C86" s="9" t="n">
+        <v>4800</v>
+      </c>
+      <c r="D86" s="9"/>
       <c r="E86" s="9" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="F86" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="8" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="87" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8" t="s">
+      <c r="B87" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="C87" s="10"/>
+      <c r="D87" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>311</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
-      <c r="E88" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>311</v>
-      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="s">
@@ -3615,105 +3649,103 @@
       <c r="B89" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C89" s="9" t="n">
-        <v>131</v>
-      </c>
-      <c r="D89" s="9" t="s">
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="E89" s="11" t="s">
+      <c r="F89" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="C90" s="9" t="n">
+        <v>131</v>
+      </c>
+      <c r="D90" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="C90" s="9" t="n">
+      <c r="E90" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C91" s="9" t="n">
         <v>132</v>
       </c>
-      <c r="D90" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="E90" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="91" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C91" s="10" t="n">
-        <v>132</v>
-      </c>
-      <c r="D91" s="10"/>
-      <c r="G91" s="1" t="s">
-        <v>15</v>
+      <c r="D91" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C92" s="9" t="n">
-        <v>1731</v>
-      </c>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9" t="s">
-        <v>325</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="C92" s="10" t="n">
+        <v>132</v>
+      </c>
+      <c r="D92" s="10"/>
       <c r="G92" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C93" s="9" t="n">
         <v>1731</v>
       </c>
       <c r="D93" s="9"/>
-      <c r="F93" s="3" t="s">
-        <v>327</v>
+      <c r="E93" s="9" t="s">
+        <v>329</v>
       </c>
       <c r="G93" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>330</v>
-      </c>
       <c r="C94" s="9" t="n">
-        <v>2811</v>
+        <v>1731</v>
       </c>
       <c r="D94" s="9"/>
-      <c r="E94" s="11" t="s">
+      <c r="F94" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="G94" s="1" t="s">
         <v>332</v>
       </c>
     </row>
@@ -3722,15 +3754,13 @@
         <v>333</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>84</v>
+        <v>334</v>
       </c>
       <c r="C95" s="9" t="n">
-        <v>200</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="E95" s="9" t="s">
+        <v>2811</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="11" t="s">
         <v>335</v>
       </c>
       <c r="F95" s="3" t="s">
@@ -3738,76 +3768,78 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="8" t="s">
         <v>337</v>
       </c>
       <c r="B96" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="D96" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="C96" s="9" t="n">
-        <v>300</v>
-      </c>
-      <c r="D96" s="9" t="s">
+      <c r="E96" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="F96" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F96" s="3" t="s">
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="14" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8" t="s">
+      <c r="B97" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>338</v>
       </c>
       <c r="C97" s="9" t="n">
         <v>300</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="E97" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="C98" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="D98" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="98" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C98" s="9" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D98" s="9"/>
       <c r="E98" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="G98" s="1" t="s">
-        <v>15</v>
+      <c r="F98" s="3" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C99" s="9" t="n">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>15</v>
@@ -3815,17 +3847,15 @@
     </row>
     <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C100" s="9" t="n">
-        <v>101</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>353</v>
-      </c>
+        <v>5600</v>
+      </c>
+      <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
         <v>354</v>
       </c>
@@ -3841,7 +3871,7 @@
         <v>356</v>
       </c>
       <c r="C101" s="9" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D101" s="9" t="s">
         <v>357</v>
@@ -3853,86 +3883,88 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="s">
         <v>359</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="11" t="s">
+      <c r="C102" s="9" t="n">
+        <v>111</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="E102" s="9" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="103" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G102" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="s">
         <v>363</v>
       </c>
       <c r="B103" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C103" s="9" t="n">
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="104" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="C104" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="D103" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C104" s="9" t="n">
-        <v>112</v>
-      </c>
       <c r="D104" s="9" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>370</v>
+        <v>292</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="B105" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="C105" s="9" t="n">
-        <v>3100</v>
-      </c>
-      <c r="D105" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>372</v>
+      </c>
       <c r="E105" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>375</v>
+        <v>84</v>
       </c>
       <c r="C106" s="9" t="n">
-        <v>21</v>
+        <v>3100</v>
       </c>
       <c r="D106" s="9"/>
       <c r="E106" s="9" t="s">
@@ -3942,39 +3974,39 @@
         <v>377</v>
       </c>
     </row>
-    <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="s">
         <v>378</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>212</v>
+        <v>379</v>
       </c>
       <c r="C107" s="9" t="n">
-        <v>122</v>
-      </c>
-      <c r="D107" s="9" t="s">
-        <v>379</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D107" s="9"/>
       <c r="E107" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>15</v>
+      <c r="F107" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>382</v>
+        <v>212</v>
       </c>
       <c r="C108" s="9" t="n">
-        <v>1722</v>
-      </c>
-      <c r="D108" s="9"/>
+        <v>122</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>383</v>
+      </c>
       <c r="E108" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>15</v>
@@ -3982,36 +4014,38 @@
     </row>
     <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="8" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C109" s="9" t="n">
-        <v>7100</v>
+        <v>1722</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
+        <v>389</v>
+      </c>
+      <c r="C110" s="9" t="n">
+        <v>7100</v>
+      </c>
+      <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="F110" s="3" t="s">
         <v>390</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4023,14 +4057,11 @@
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
-      <c r="E111" s="11" t="s">
+      <c r="E111" s="9" t="s">
         <v>393</v>
       </c>
       <c r="F111" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4053,7 +4084,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="8" t="s">
         <v>399</v>
       </c>
       <c r="B113" s="9" t="s">
@@ -4072,37 +4103,38 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="1" t="s">
         <v>403</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C114" s="9" t="n">
-        <v>400</v>
-      </c>
-      <c r="D114" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="11" t="s">
         <v>405</v>
       </c>
       <c r="F114" s="3" t="s">
         <v>406</v>
       </c>
+      <c r="G114" s="1" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="8" t="s">
         <v>407</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>408</v>
+        <v>241</v>
       </c>
       <c r="C115" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="8" t="s">
+      <c r="D115" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E115" s="9" t="s">
         <v>409</v>
       </c>
       <c r="F115" s="3" t="s">
@@ -4110,37 +4142,41 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="1" t="s">
         <v>411</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="9" t="n">
+        <v>400</v>
+      </c>
+      <c r="D116" s="9"/>
+      <c r="E116" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9" t="s">
+      <c r="F116" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="F116" s="3" t="s">
+    </row>
+    <row r="117" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8" t="s">
+      <c r="B117" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B117" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="9" t="s">
+      <c r="C117" s="2" t="n">
+        <v>2612</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="F117" s="3" t="s">
+      <c r="E117" s="15" t="s">
         <v>418</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4150,20 +4186,20 @@
       <c r="B118" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="C118" s="9" t="n">
-        <v>7600</v>
+      <c r="C118" s="9" t="s">
+        <v>421</v>
       </c>
       <c r="D118" s="9"/>
-      <c r="E118" s="11" t="s">
-        <v>421</v>
+      <c r="E118" s="9" t="s">
+        <v>422</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>137</v>
@@ -4171,68 +4207,70 @@
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="8" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>140</v>
+        <v>428</v>
       </c>
       <c r="C120" s="9" t="n">
-        <v>6000</v>
+        <v>7600</v>
       </c>
       <c r="D120" s="9"/>
-      <c r="E120" s="9" t="s">
-        <v>427</v>
+      <c r="E120" s="11" t="s">
+        <v>429</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="8" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
       <c r="E121" s="9" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
+        <v>140</v>
+      </c>
+      <c r="C122" s="9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>437</v>
+        <v>195</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
@@ -4248,44 +4286,42 @@
         <v>440</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
       <c r="E124" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="8" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
       <c r="E125" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="C126" s="9" t="n">
-        <v>5800</v>
-      </c>
-      <c r="D126" s="9"/>
+        <v>445</v>
+      </c>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
       <c r="E126" s="9" t="s">
         <v>449</v>
       </c>
@@ -4300,49 +4336,47 @@
       <c r="B127" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="C127" s="9" t="n">
-        <v>7700</v>
-      </c>
-      <c r="D127" s="9" t="s">
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="E127" s="11" t="s">
+      <c r="F127" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="C128" s="9" t="n">
+        <v>5800</v>
+      </c>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C128" s="9" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D128" s="9" t="s">
+      <c r="F128" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="C129" s="9" t="n">
+        <v>7700</v>
+      </c>
+      <c r="D129" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="11" t="s">
         <v>462</v>
       </c>
       <c r="F129" s="3" t="s">
@@ -4354,19 +4388,19 @@
         <v>464</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C130" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D130" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="E130" s="9" t="s">
+      <c r="C130" s="9" t="n">
+        <v>7800</v>
+      </c>
+      <c r="D130" s="9" t="s">
         <v>466</v>
       </c>
+      <c r="E130" s="11" t="s">
+        <v>467</v>
+      </c>
       <c r="F130" s="3" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4378,78 +4412,76 @@
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
-      <c r="E131" s="11" t="s">
+      <c r="E131" s="9" t="s">
         <v>470</v>
       </c>
       <c r="F131" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="8" t="s">
         <v>472</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C132" s="9" t="n">
-        <v>101</v>
-      </c>
-      <c r="D132" s="9"/>
+        <v>140</v>
+      </c>
+      <c r="C132" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D132" s="10" t="s">
+        <v>473</v>
+      </c>
       <c r="E132" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>15</v>
+        <v>474</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="8" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>212</v>
+        <v>477</v>
       </c>
       <c r="C133" s="10"/>
       <c r="D133" s="10"/>
-      <c r="E133" s="9" t="s">
-        <v>474</v>
+      <c r="E133" s="11" t="s">
+        <v>478</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="8" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C134" s="10"/>
-      <c r="D134" s="10" t="s">
-        <v>477</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C134" s="9" t="n">
+        <v>101</v>
+      </c>
+      <c r="D134" s="9"/>
       <c r="E134" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>479</v>
+        <v>358</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="8" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C135" s="9" t="n">
-        <v>1400</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>481</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
       <c r="E135" s="9" t="s">
         <v>482</v>
       </c>
@@ -4458,17 +4490,15 @@
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
+      <c r="A136" s="8" t="s">
         <v>484</v>
       </c>
       <c r="B136" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10" t="s">
         <v>485</v>
-      </c>
-      <c r="C136" s="9" t="n">
-        <v>7400</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="E136" s="9" t="s">
         <v>486</v>
@@ -4482,51 +4512,51 @@
         <v>488</v>
       </c>
       <c r="B137" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C137" s="9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D137" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10" t="s">
+      <c r="E137" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="E137" s="9" t="s">
+      <c r="F137" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="F137" s="3" t="s">
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="8" t="s">
+      <c r="B138" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="B138" s="9" t="s">
-        <v>437</v>
-      </c>
       <c r="C138" s="9" t="n">
-        <v>1700</v>
+        <v>7400</v>
       </c>
       <c r="D138" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E138" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="E138" s="9" t="s">
+      <c r="F138" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="C139" s="10"/>
+      <c r="D139" s="10" t="s">
         <v>498</v>
-      </c>
-      <c r="C139" s="9" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="E139" s="9" t="s">
         <v>499</v>
@@ -4535,411 +4565,415 @@
         <v>500</v>
       </c>
     </row>
-    <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="8" t="s">
         <v>501</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>215</v>
+        <v>445</v>
+      </c>
+      <c r="C140" s="9" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>502</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="D141" s="10"/>
+        <v>506</v>
+      </c>
+      <c r="C141" s="9" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D141" s="9" t="s">
+        <v>107</v>
+      </c>
       <c r="E141" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="142" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="8" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
+        <v>215</v>
+      </c>
       <c r="E142" s="9" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="8" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="C143" s="10"/>
+        <v>195</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>513</v>
+      </c>
       <c r="D143" s="10"/>
       <c r="E143" s="9" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="8" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
       <c r="E144" s="9" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="8" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
       <c r="E145" s="9" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>437</v>
+        <v>520</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
       <c r="E146" s="9" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="8" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>195</v>
+        <v>497</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
       <c r="E147" s="9" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="8" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>137</v>
+        <v>445</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
       <c r="E148" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>140</v>
+        <v>195</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
       <c r="E149" s="9" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="8" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
       <c r="E150" s="9" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="8" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>437</v>
+        <v>140</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
       <c r="E151" s="9" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="8" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>137</v>
+        <v>215</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
       <c r="E152" s="9" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="8" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>140</v>
+        <v>445</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
       <c r="E153" s="9" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="8" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
       <c r="E154" s="9" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="8" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
       <c r="E155" s="9" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>489</v>
+        <v>215</v>
       </c>
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
       <c r="E156" s="9" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="8" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="C157" s="9" t="n">
-        <v>121</v>
-      </c>
-      <c r="D157" s="9"/>
-      <c r="E157" s="11" t="s">
-        <v>553</v>
+        <v>195</v>
+      </c>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>137</v>
+        <v>497</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
       <c r="E158" s="9" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="159" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="8" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>560</v>
+      </c>
+      <c r="C159" s="9" t="n">
+        <v>121</v>
+      </c>
+      <c r="D159" s="9"/>
+      <c r="E159" s="11" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="8" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C160" s="9" t="n">
-        <v>111</v>
-      </c>
-      <c r="D160" s="9"/>
+        <v>137</v>
+      </c>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
       <c r="E160" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>15</v>
+        <v>563</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="8" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C161" s="9" t="n">
-        <v>1711</v>
-      </c>
-      <c r="D161" s="9"/>
-      <c r="E161" s="11" t="s">
-        <v>562</v>
+        <v>195</v>
+      </c>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="9" t="s">
+        <v>566</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G161" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="s">
-        <v>563</v>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="8" t="s">
+        <v>568</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>564</v>
+        <v>360</v>
       </c>
       <c r="C162" s="9" t="n">
-        <v>3300</v>
+        <v>111</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9" t="s">
-        <v>565</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>566</v>
+        <v>362</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="8" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>568</v>
+        <v>257</v>
       </c>
       <c r="C163" s="9" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D163" s="9" t="s">
-        <v>569</v>
-      </c>
-      <c r="E163" s="9" t="s">
+        <v>1711</v>
+      </c>
+      <c r="D163" s="9"/>
+      <c r="E163" s="11" t="s">
         <v>570</v>
       </c>
       <c r="F163" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8" t="s">
+      <c r="B164" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="B164" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
+      <c r="C164" s="9" t="n">
+        <v>3300</v>
+      </c>
+      <c r="D164" s="9"/>
       <c r="E164" s="9" t="s">
         <v>573</v>
       </c>
@@ -4952,127 +4986,129 @@
         <v>575</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C165" s="10"/>
-      <c r="D165" s="10"/>
+        <v>576</v>
+      </c>
+      <c r="C165" s="9" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>577</v>
+      </c>
       <c r="E165" s="9" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="8" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
       <c r="E166" s="9" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="8" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B167" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="9" t="s">
+        <v>584</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B169" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C167" s="9" t="n">
+      <c r="C169" s="9" t="n">
         <v>1500</v>
       </c>
-      <c r="D167" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="E167" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="F167" s="3" t="s">
+      <c r="D169" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="F169" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="B168" s="13" t="s">
-        <v>585</v>
-      </c>
-      <c r="C168" s="9" t="n">
+    <row r="170" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="C170" s="9" t="n">
         <v>2611</v>
       </c>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="8" t="s">
-        <v>587</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="C169" s="9" t="n">
+      <c r="D170" s="9"/>
+      <c r="E170" s="9" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="C171" s="9" t="n">
         <v>2711</v>
       </c>
-      <c r="D169" s="9"/>
-      <c r="E169" s="9" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>596</v>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="8" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="C172" s="9" t="n">
-        <v>3721</v>
-      </c>
-      <c r="D172" s="9"/>
-      <c r="E172" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="9" t="s">
         <v>599</v>
       </c>
       <c r="F172" s="3" t="s">
@@ -5084,146 +5120,180 @@
         <v>601</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="C173" s="9" t="n">
-        <v>6100</v>
-      </c>
-      <c r="D173" s="9"/>
-      <c r="E173" s="9" t="s">
         <v>602</v>
       </c>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="11" t="s">
+        <v>603</v>
+      </c>
       <c r="F173" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="8" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="C174" s="10" t="n">
+        <v>606</v>
+      </c>
+      <c r="C174" s="9" t="n">
+        <v>3721</v>
+      </c>
+      <c r="D174" s="9"/>
+      <c r="E174" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C175" s="9" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="C176" s="10" t="n">
         <v>8400</v>
       </c>
-      <c r="D174" s="10"/>
-      <c r="E174" s="9" t="s">
-        <v>606</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="B175" s="9" t="s">
+      <c r="D176" s="10"/>
+      <c r="E176" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="B177" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E175" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="B176" s="9" t="s">
+      <c r="E177" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B178" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C176" s="9" t="n">
+      <c r="C178" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D176" s="9"/>
-      <c r="E176" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="C177" s="9" t="n">
+      <c r="D178" s="9"/>
+      <c r="E178" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C179" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D177" s="9"/>
-      <c r="E177" s="11" t="s">
-        <v>615</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C178" s="10"/>
-      <c r="D178" s="10"/>
-      <c r="E178" s="11" t="s">
-        <v>618</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="8" t="s">
-        <v>620</v>
-      </c>
-      <c r="B179" s="9" t="s">
+      <c r="D179" s="9"/>
+      <c r="E179" s="11" t="s">
+        <v>623</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="11" t="s">
+        <v>626</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="B181" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C179" s="10"/>
-      <c r="D179" s="10"/>
-      <c r="E179" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="8" t="s">
-        <v>623</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C180" s="9" t="n">
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C182" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="D180" s="9"/>
-      <c r="E180" s="9" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="B181" s="9" t="s">
+      <c r="D182" s="9"/>
+      <c r="E182" s="9" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B183" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E181" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>627</v>
+      <c r="E183" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="637">
   <si>
     <t>Hash</t>
   </si>
@@ -1265,13 +1265,16 @@
     <t>PHPS</t>
   </si>
   <si>
-    <t>^\$PHPS\$[0-9]{14}\$[a-f0-9]{32}$/i</t>
+    <t>^\$PHPS\$[^\$]+\$[a-f0-9]{32}$/i</t>
   </si>
   <si>
     <t>phps</t>
   </si>
   <si>
     <t>$PHPS$34323438373734$5b07e065b9d78d69603e71201c6cf29f</t>
+  </si>
+  <si>
+    <t>https://github.com/magnumripper/JohnTheRipper/blob/bleeding-jumbo/src/PHPS_fmt_plug.c</t>
   </si>
   <si>
     <t>RACF</t>
@@ -2018,7 +2021,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2031,7 +2034,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2040,10 +2043,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2061,10 +2060,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2103,8 +2098,8 @@
   </sheetPr>
   <dimension ref="A1:G183"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B33" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B117" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2114,7 +2109,7 @@
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="17.2091836734694"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.6479591836735"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="98.3112244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="53.4591836734694"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="46.1224489795918"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.4948979591837"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="11.5204081632653"/>
   </cols>
@@ -2135,23 +2130,23 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -2159,17 +2154,17 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="n">
+      <c r="C3" s="8" t="n">
         <v>6300</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -2180,17 +2175,17 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C4" s="8" t="n">
         <v>6700</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -2201,17 +2196,17 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C5" s="8" t="n">
         <v>6400</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -2222,17 +2217,17 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="8" t="n">
         <v>6500</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -2243,17 +2238,17 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C7" s="8" t="n">
         <v>1600</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -2261,15 +2256,15 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -2277,19 +2272,19 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C9" s="8" t="n">
         <v>3200</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -2297,95 +2292,96 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>41</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>45</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="8" t="n">
         <v>2410</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="3" t="s">
         <v>47</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="9" t="n">
+      <c r="C14" s="8" t="n">
         <v>5700</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="8" t="n">
         <v>2400</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="8" t="s">
         <v>58</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -2393,46 +2389,46 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="9" t="n">
+      <c r="C16" s="8" t="n">
         <v>8100</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
         <v>62</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="3" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9" t="s">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -2440,44 +2436,44 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="9" t="s">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="8" t="s">
         <v>78</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -2485,15 +2481,15 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="9" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="8" t="s">
         <v>81</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -2501,15 +2497,15 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="9" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="8" t="s">
         <v>85</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -2517,15 +2513,15 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="9" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="8" t="s">
         <v>89</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -2533,15 +2529,15 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="9" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="8" t="s">
         <v>93</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -2549,15 +2545,15 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="9" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="8" t="s">
         <v>97</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -2565,15 +2561,15 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="9" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="8" t="s">
         <v>101</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -2581,17 +2577,17 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="9" t="n">
+      <c r="C28" s="8" t="n">
         <v>3100</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="s">
         <v>103</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -2599,19 +2595,19 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C29" s="9" t="n">
+      <c r="C29" s="8" t="n">
         <v>1500</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>108</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -2622,14 +2618,14 @@
       <c r="A30" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="9" t="n">
+      <c r="C30" s="8" t="n">
         <v>800</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="8"/>
+      <c r="E30" s="8" t="s">
         <v>112</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -2640,12 +2636,12 @@
       <c r="A31" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="9" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="8" t="s">
         <v>116</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -2656,12 +2652,12 @@
       <c r="A32" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="9" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="8" t="s">
         <v>120</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -2672,14 +2668,14 @@
       <c r="A33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="10" t="n">
+      <c r="C33" s="9" t="n">
         <v>8300</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11" t="s">
+      <c r="D33" s="9"/>
+      <c r="E33" s="3" t="s">
         <v>124</v>
       </c>
       <c r="F33" s="3" t="s">
@@ -2687,19 +2683,19 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="9" t="n">
+      <c r="C34" s="8" t="n">
         <v>1100</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>129</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -2707,67 +2703,67 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="9" t="n">
+      <c r="C35" s="8" t="n">
         <v>2100</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>134</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="10" t="n">
+      <c r="C36" s="9" t="n">
         <v>2600</v>
       </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="10" t="n">
+      <c r="C37" s="9" t="n">
         <v>4500</v>
       </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="9"/>
+      <c r="E37" s="8" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="9" t="n">
+      <c r="C38" s="8" t="n">
         <v>7900</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8" t="s">
         <v>144</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -2775,17 +2771,17 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10" t="s">
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>149</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -2793,69 +2789,69 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="9" t="s">
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="8" t="s">
         <v>152</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="7" t="s">
         <v>154</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C41" s="9" t="n">
+      <c r="C41" s="8" t="n">
         <v>123</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="11" t="s">
+      <c r="D41" s="8"/>
+      <c r="E41" s="3" t="s">
         <v>156</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8" t="s">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C42" s="9" t="n">
+      <c r="C42" s="8" t="n">
         <v>141</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="s">
         <v>159</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="43" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="9" t="n">
+      <c r="C43" s="8" t="n">
         <v>1441</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="s">
         <v>162</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -2866,12 +2862,12 @@
       <c r="A44" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="9" t="s">
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="8" t="s">
         <v>165</v>
       </c>
       <c r="F44" s="3" t="s">
@@ -2879,15 +2875,15 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="9" t="s">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="8" t="s">
         <v>168</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -2895,15 +2891,15 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="9" t="s">
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="8" t="s">
         <v>171</v>
       </c>
       <c r="F46" s="3" t="s">
@@ -2911,15 +2907,15 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="9" t="s">
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="8" t="s">
         <v>174</v>
       </c>
       <c r="F47" s="3" t="s">
@@ -2927,15 +2923,15 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="9" t="s">
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="8" t="s">
         <v>177</v>
       </c>
       <c r="F48" s="3" t="s">
@@ -2943,53 +2939,53 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="9" t="s">
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="8" t="s">
         <v>180</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="8" t="s">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C50" s="9" t="n">
+      <c r="C50" s="8" t="n">
         <v>7000</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="8"/>
+      <c r="E50" s="8" t="s">
         <v>184</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="s">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C51" s="9" t="n">
+      <c r="C51" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="E51" s="3" t="s">
         <v>187</v>
       </c>
       <c r="G51" s="1" t="s">
@@ -2997,15 +2993,15 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="9" t="s">
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="8" t="s">
         <v>189</v>
       </c>
       <c r="F52" s="3" t="s">
@@ -3013,15 +3009,15 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="9" t="s">
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="8" t="s">
         <v>192</v>
       </c>
       <c r="F53" s="3" t="s">
@@ -3029,53 +3025,53 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C54" s="9" t="n">
+      <c r="C54" s="8" t="n">
         <v>6900</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8" t="s">
         <v>196</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C55" s="9" t="n">
+      <c r="C55" s="8" t="n">
         <v>7200</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="8"/>
+      <c r="E55" s="8" t="s">
         <v>200</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="s">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C56" s="9" t="n">
+      <c r="C56" s="8" t="n">
         <v>5100</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8" t="s">
         <v>202</v>
       </c>
       <c r="G56" s="1" t="s">
@@ -3083,15 +3079,15 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="9" t="s">
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="8" t="s">
         <v>204</v>
       </c>
       <c r="F57" s="3" t="s">
@@ -3099,15 +3095,15 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="9" t="s">
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="8" t="s">
         <v>207</v>
       </c>
       <c r="F58" s="3" t="s">
@@ -3115,15 +3111,15 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="9" t="s">
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="8" t="s">
         <v>210</v>
       </c>
       <c r="F59" s="3" t="s">
@@ -3131,15 +3127,15 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="9" t="s">
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="8" t="s">
         <v>213</v>
       </c>
       <c r="F60" s="3" t="s">
@@ -3147,15 +3143,15 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="9" t="s">
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="8" t="s">
         <v>216</v>
       </c>
       <c r="F61" s="3" t="s">
@@ -3163,15 +3159,15 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="9" t="s">
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="8" t="s">
         <v>218</v>
       </c>
       <c r="F62" s="3" t="s">
@@ -3182,52 +3178,52 @@
       <c r="A63" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C63" s="10" t="n">
+      <c r="C63" s="9" t="n">
         <v>1421</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="3" t="s">
         <v>222</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14" t="s">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="C64" s="9" t="n">
+      <c r="C64" s="8" t="n">
         <v>2811</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="11" t="s">
+      <c r="D64" s="8"/>
+      <c r="E64" s="3" t="s">
         <v>226</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C65" s="10" t="n">
+      <c r="C65" s="9" t="n">
         <v>7300</v>
       </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11" t="s">
+      <c r="D65" s="9"/>
+      <c r="E65" s="3" t="s">
         <v>229</v>
       </c>
       <c r="G65" s="1" t="s">
@@ -3235,48 +3231,48 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C66" s="9" t="n">
+      <c r="C66" s="8" t="n">
         <v>4800</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8" t="s">
         <v>232</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="s">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="9" t="s">
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C68" s="9" t="n">
+      <c r="C68" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
+      <c r="D68" s="8"/>
+      <c r="E68" s="8" t="s">
         <v>238</v>
       </c>
       <c r="F68" s="3" t="s">
@@ -3284,55 +3280,55 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
+      <c r="D69" s="8"/>
+      <c r="E69" s="8" t="s">
         <v>243</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="s">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C70" s="9" t="n">
+      <c r="C70" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="3" t="s">
         <v>248</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="s">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C71" s="9" t="n">
+      <c r="C71" s="8" t="n">
         <v>7500</v>
       </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8" t="s">
         <v>251</v>
       </c>
       <c r="G71" s="1" t="s">
@@ -3340,17 +3336,17 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>252</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C72" s="9" t="n">
+      <c r="C72" s="8" t="n">
         <v>6800</v>
       </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="11" t="s">
+      <c r="D72" s="8"/>
+      <c r="E72" s="3" t="s">
         <v>254</v>
       </c>
       <c r="F72" s="3" t="s">
@@ -3358,17 +3354,17 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C73" s="9" t="n">
+      <c r="C73" s="8" t="n">
         <v>1711</v>
       </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
+      <c r="D73" s="8"/>
+      <c r="E73" s="8" t="s">
         <v>258</v>
       </c>
       <c r="F73" s="3" t="s">
@@ -3379,15 +3375,15 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="9" t="s">
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="8" t="s">
         <v>263</v>
       </c>
       <c r="F74" s="3" t="s">
@@ -3395,17 +3391,17 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C75" s="9" t="n">
+      <c r="C75" s="8" t="n">
         <v>190</v>
       </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
+      <c r="D75" s="8"/>
+      <c r="E75" s="8" t="s">
         <v>266</v>
       </c>
       <c r="F75" s="3" t="s">
@@ -3413,59 +3409,59 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C76" s="9" t="n">
+      <c r="C76" s="8" t="n">
         <v>3000</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="8" t="s">
         <v>270</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="77" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
+    <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="D77" s="15" t="s">
+      <c r="D77" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E77" s="15" t="s">
+      <c r="E77" s="13" t="s">
         <v>275</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="78" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="s">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C78" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="8" t="s">
         <v>280</v>
       </c>
       <c r="G78" s="1" t="s">
@@ -3473,15 +3469,15 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="9" t="s">
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="8" t="s">
         <v>282</v>
       </c>
       <c r="F79" s="3" t="s">
@@ -3492,12 +3488,12 @@
       <c r="A80" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="9" t="s">
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="8" t="s">
         <v>285</v>
       </c>
       <c r="F80" s="3" t="s">
@@ -3505,15 +3501,15 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="9" t="s">
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="8" t="s">
         <v>288</v>
       </c>
       <c r="F81" s="3" t="s">
@@ -3521,19 +3517,19 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C82" s="9" t="n">
+      <c r="C82" s="8" t="n">
         <v>900</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="8" t="s">
         <v>292</v>
       </c>
       <c r="F82" s="3" t="s">
@@ -3541,19 +3537,19 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="8" t="s">
         <v>297</v>
       </c>
       <c r="F83" s="3" t="s">
@@ -3561,17 +3557,17 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C84" s="9" t="n">
+      <c r="C84" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9" t="s">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8" t="s">
         <v>300</v>
       </c>
       <c r="F84" s="3" t="s">
@@ -3579,17 +3575,17 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C85" s="9" t="n">
+      <c r="C85" s="8" t="n">
         <v>1600</v>
       </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F85" s="3" t="s">
@@ -3597,17 +3593,17 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="C86" s="9" t="n">
+      <c r="C86" s="8" t="n">
         <v>4800</v>
       </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9" t="s">
+      <c r="D86" s="8"/>
+      <c r="E86" s="8" t="s">
         <v>232</v>
       </c>
       <c r="F86" s="3" t="s">
@@ -3615,43 +3611,44 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10" t="s">
+      <c r="C87" s="9"/>
+      <c r="D87" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="8" t="s">
         <v>308</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="88" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8" t="s">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="9" t="s">
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="8" t="s">
         <v>314</v>
       </c>
       <c r="F89" s="3" t="s">
@@ -3659,19 +3656,19 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C90" s="9" t="n">
+      <c r="C90" s="8" t="n">
         <v>131</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="E90" s="3" t="s">
         <v>319</v>
       </c>
       <c r="F90" s="3" t="s">
@@ -3679,52 +3676,53 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C91" s="9" t="n">
+      <c r="C91" s="8" t="n">
         <v>132</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="E91" s="3" t="s">
         <v>324</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8" t="s">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C92" s="10" t="n">
+      <c r="C92" s="9" t="n">
         <v>132</v>
       </c>
-      <c r="D92" s="10"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="1"/>
       <c r="G92" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8" t="s">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C93" s="9" t="n">
+      <c r="C93" s="8" t="n">
         <v>1731</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
+      <c r="D93" s="8"/>
+      <c r="E93" s="8" t="s">
         <v>329</v>
       </c>
       <c r="G93" s="1" t="s">
@@ -3732,16 +3730,16 @@
       </c>
     </row>
     <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C94" s="9" t="n">
+      <c r="C94" s="8" t="n">
         <v>1731</v>
       </c>
-      <c r="D94" s="9"/>
+      <c r="D94" s="8"/>
       <c r="F94" s="3" t="s">
         <v>331</v>
       </c>
@@ -3750,17 +3748,17 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C95" s="9" t="n">
+      <c r="C95" s="8" t="n">
         <v>2811</v>
       </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="11" t="s">
+      <c r="D95" s="8"/>
+      <c r="E95" s="3" t="s">
         <v>335</v>
       </c>
       <c r="F95" s="3" t="s">
@@ -3768,19 +3766,19 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C96" s="9" t="n">
+      <c r="C96" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="D96" s="9" t="s">
+      <c r="D96" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="8" t="s">
         <v>339</v>
       </c>
       <c r="F96" s="3" t="s">
@@ -3788,19 +3786,19 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C97" s="9" t="n">
+      <c r="C97" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="E97" s="8" t="s">
         <v>344</v>
       </c>
       <c r="F97" s="3" t="s">
@@ -3808,95 +3806,95 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C98" s="9" t="n">
+      <c r="C98" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="D98" s="9" t="s">
+      <c r="D98" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="8" t="s">
         <v>347</v>
       </c>
       <c r="F98" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8" t="s">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C99" s="9" t="n">
+      <c r="C99" s="8" t="n">
         <v>5500</v>
       </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
+      <c r="D99" s="8"/>
+      <c r="E99" s="8" t="s">
         <v>351</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8" t="s">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="C100" s="9" t="n">
+      <c r="C100" s="8" t="n">
         <v>5600</v>
       </c>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9" t="s">
+      <c r="D100" s="8"/>
+      <c r="E100" s="8" t="s">
         <v>354</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8" t="s">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C101" s="9" t="n">
+      <c r="C101" s="8" t="n">
         <v>101</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="E101" s="8" t="s">
         <v>358</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="102" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8" t="s">
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C102" s="9" t="n">
+      <c r="C102" s="8" t="n">
         <v>111</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="E102" s="8" t="s">
         <v>362</v>
       </c>
       <c r="G102" s="1" t="s">
@@ -3904,52 +3902,52 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="11" t="s">
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="3" t="s">
         <v>365</v>
       </c>
       <c r="F103" s="3" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="104" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8" t="s">
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C104" s="9" t="n">
+      <c r="C104" s="8" t="n">
         <v>1000</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="E104" s="8" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C105" s="9" t="n">
+      <c r="C105" s="8" t="n">
         <v>112</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="8" t="s">
         <v>373</v>
       </c>
       <c r="F105" s="3" t="s">
@@ -3957,17 +3955,17 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C106" s="9" t="n">
+      <c r="C106" s="8" t="n">
         <v>3100</v>
       </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9" t="s">
+      <c r="D106" s="8"/>
+      <c r="E106" s="8" t="s">
         <v>376</v>
       </c>
       <c r="F106" s="3" t="s">
@@ -3975,73 +3973,73 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C107" s="9" t="n">
+      <c r="C107" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8" t="s">
         <v>380</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8" t="s">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C108" s="9" t="n">
+      <c r="C108" s="8" t="n">
         <v>122</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="8" t="s">
         <v>384</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8" t="s">
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="C109" s="9" t="n">
+      <c r="C109" s="8" t="n">
         <v>1722</v>
       </c>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
+      <c r="D109" s="8"/>
+      <c r="E109" s="8" t="s">
         <v>387</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8" t="s">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C110" s="9" t="n">
+      <c r="C110" s="8" t="n">
         <v>7100</v>
       </c>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9" t="s">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8" t="s">
         <v>390</v>
       </c>
       <c r="G110" s="1" t="s">
@@ -4049,15 +4047,15 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="9" t="s">
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="8" t="s">
         <v>393</v>
       </c>
       <c r="F111" s="3" t="s">
@@ -4065,15 +4063,15 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="11" t="s">
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="3" t="s">
         <v>397</v>
       </c>
       <c r="F112" s="3" t="s">
@@ -4084,15 +4082,15 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="11" t="s">
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="3" t="s">
         <v>401</v>
       </c>
       <c r="F113" s="3" t="s">
@@ -4106,12 +4104,12 @@
       <c r="A114" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="11" t="s">
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="3" t="s">
         <v>405</v>
       </c>
       <c r="F114" s="3" t="s">
@@ -4122,19 +4120,19 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C115" s="9" t="n">
+      <c r="C115" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="E115" s="8" t="s">
         <v>409</v>
       </c>
       <c r="F115" s="3" t="s">
@@ -4145,21 +4143,21 @@
       <c r="A116" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C116" s="9" t="n">
+      <c r="C116" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="D116" s="9"/>
-      <c r="E116" s="8" t="s">
+      <c r="D116" s="8"/>
+      <c r="E116" s="7" t="s">
         <v>413</v>
       </c>
       <c r="F116" s="3" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="117" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>415</v>
       </c>
@@ -4172,301 +4170,301 @@
       <c r="D117" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E117" s="15" t="s">
+      <c r="E117" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>15</v>
+      <c r="F117" s="3" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="B118" s="9" t="s">
+      <c r="A118" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="B118" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9" t="s">
+      <c r="C118" s="8" t="s">
         <v>422</v>
       </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8" t="s">
+        <v>423</v>
+      </c>
       <c r="F118" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8" t="s">
-        <v>424</v>
-      </c>
-      <c r="B119" s="9" t="s">
+      <c r="A119" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="9" t="s">
-        <v>425</v>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="8" t="s">
+        <v>426</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8" t="s">
-        <v>427</v>
-      </c>
-      <c r="B120" s="9" t="s">
+      <c r="A120" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="C120" s="9" t="n">
+      <c r="B120" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C120" s="8" t="n">
         <v>7600</v>
       </c>
-      <c r="D120" s="9"/>
-      <c r="E120" s="11" t="s">
-        <v>429</v>
+      <c r="D120" s="8"/>
+      <c r="E120" s="3" t="s">
+        <v>430</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="B121" s="9" t="s">
+      <c r="A121" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="9" t="s">
-        <v>432</v>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="8" t="s">
+        <v>433</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="B122" s="9" t="s">
+      <c r="A122" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B122" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C122" s="9" t="n">
+      <c r="C122" s="8" t="n">
         <v>6000</v>
       </c>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9" t="s">
-        <v>435</v>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8" t="s">
+        <v>436</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="B123" s="9" t="s">
+      <c r="A123" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="9" t="s">
-        <v>438</v>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="8" t="s">
+        <v>439</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="B124" s="9" t="s">
+      <c r="A124" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="9" t="s">
+      <c r="B124" s="8" t="s">
         <v>442</v>
       </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="8" t="s">
+        <v>443</v>
+      </c>
       <c r="F124" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="B125" s="9" t="s">
+      <c r="A125" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="9" t="s">
+      <c r="B125" s="8" t="s">
         <v>446</v>
       </c>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="8" t="s">
+        <v>447</v>
+      </c>
       <c r="F125" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="9" t="s">
+      <c r="A126" s="7" t="s">
         <v>449</v>
       </c>
+      <c r="B126" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="8" t="s">
+        <v>450</v>
+      </c>
       <c r="F126" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="B127" s="9" t="s">
+      <c r="A127" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="9" t="s">
+      <c r="B127" s="8" t="s">
         <v>453</v>
       </c>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="8" t="s">
+        <v>454</v>
+      </c>
       <c r="F127" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="B128" s="9" t="s">
+      <c r="A128" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="C128" s="9" t="n">
+      <c r="B128" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C128" s="8" t="n">
         <v>5800</v>
       </c>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9" t="s">
-        <v>457</v>
+      <c r="D128" s="8"/>
+      <c r="E128" s="8" t="s">
+        <v>458</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="B129" s="9" t="s">
+      <c r="A129" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="C129" s="9" t="n">
+      <c r="B129" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="C129" s="8" t="n">
         <v>7700</v>
       </c>
-      <c r="D129" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="E129" s="11" t="s">
+      <c r="D129" s="8" t="s">
         <v>462</v>
       </c>
+      <c r="E129" s="3" t="s">
+        <v>463</v>
+      </c>
       <c r="F129" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C130" s="8" t="n">
+        <v>7800</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="F130" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="B130" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="C130" s="9" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>463</v>
-      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="B131" s="9" t="s">
+      <c r="A131" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="9" t="s">
+      <c r="B131" s="8" t="s">
         <v>470</v>
       </c>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="8" t="s">
+        <v>471</v>
+      </c>
       <c r="F131" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="B132" s="9" t="s">
+      <c r="A132" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B132" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C132" s="10" t="n">
+      <c r="C132" s="9" t="n">
         <v>100</v>
       </c>
-      <c r="D132" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="E132" s="9" t="s">
+      <c r="D132" s="9" t="s">
         <v>474</v>
       </c>
+      <c r="E132" s="8" t="s">
+        <v>475</v>
+      </c>
       <c r="F132" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="B133" s="9" t="s">
+      <c r="A133" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="11" t="s">
+      <c r="B133" s="8" t="s">
         <v>478</v>
       </c>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="E133" s="3" t="s">
+        <v>479</v>
+      </c>
       <c r="F133" s="3" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="B134" s="9" t="s">
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="B134" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="C134" s="9" t="n">
+      <c r="C134" s="8" t="n">
         <v>101</v>
       </c>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9" t="s">
+      <c r="D134" s="8"/>
+      <c r="E134" s="8" t="s">
         <v>358</v>
       </c>
       <c r="G134" s="1" t="s">
@@ -4474,468 +4472,468 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="B135" s="9" t="s">
+      <c r="A135" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="B135" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
-      <c r="E135" s="9" t="s">
-        <v>482</v>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="E135" s="8" t="s">
+        <v>483</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="B136" s="9" t="s">
+      <c r="A136" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="B136" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="E136" s="9" t="s">
+      <c r="C136" s="9"/>
+      <c r="D136" s="9" t="s">
         <v>486</v>
       </c>
+      <c r="E136" s="8" t="s">
+        <v>487</v>
+      </c>
       <c r="F136" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="B137" s="9" t="s">
+      <c r="A137" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B137" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C137" s="9" t="n">
+      <c r="C137" s="8" t="n">
         <v>1400</v>
       </c>
-      <c r="D137" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="E137" s="9" t="s">
+      <c r="D137" s="8" t="s">
         <v>490</v>
       </c>
+      <c r="E137" s="8" t="s">
+        <v>491</v>
+      </c>
       <c r="F137" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="B138" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C138" s="9" t="n">
+      <c r="B138" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="C138" s="8" t="n">
         <v>7400</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E138" s="9" t="s">
-        <v>494</v>
+      <c r="E138" s="8" t="s">
+        <v>495</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="B139" s="9" t="s">
+      <c r="A139" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10" t="s">
+      <c r="B139" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="E139" s="9" t="s">
+      <c r="C139" s="9"/>
+      <c r="D139" s="9" t="s">
         <v>499</v>
       </c>
+      <c r="E139" s="8" t="s">
+        <v>500</v>
+      </c>
       <c r="F139" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C140" s="9" t="n">
+      <c r="A140" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C140" s="8" t="n">
         <v>1700</v>
       </c>
-      <c r="D140" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="E140" s="9" t="s">
+      <c r="D140" s="8" t="s">
         <v>503</v>
       </c>
+      <c r="E140" s="8" t="s">
+        <v>504</v>
+      </c>
       <c r="F140" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="B141" s="9" t="s">
+      <c r="A141" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="C141" s="9" t="n">
+      <c r="B141" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C141" s="8" t="n">
         <v>1800</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E141" s="9" t="s">
-        <v>507</v>
+      <c r="E141" s="8" t="s">
+        <v>508</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="B142" s="9" t="s">
+      <c r="A142" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B142" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E142" s="9" t="s">
-        <v>510</v>
+      <c r="E142" s="8" t="s">
+        <v>511</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="D143" s="9"/>
+      <c r="E143" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B143" s="9" t="s">
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="E145" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="E146" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="E147" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="E148" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="B149" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C143" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="D143" s="10"/>
-      <c r="E143" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8" t="s">
-        <v>515</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="8" t="s">
-        <v>523</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="C147" s="10"/>
-      <c r="D147" s="10"/>
-      <c r="E147" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="8" t="s">
-        <v>526</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="8" t="s">
-        <v>529</v>
-      </c>
-      <c r="B149" s="9" t="s">
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="E149" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="E150" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="E151" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="E153" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="E154" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="E156" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B157" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
-      <c r="E149" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="8" t="s">
-        <v>532</v>
-      </c>
-      <c r="B150" s="9" t="s">
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9"/>
+      <c r="E158" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="C159" s="8" t="n">
+        <v>121</v>
+      </c>
+      <c r="D159" s="8"/>
+      <c r="E159" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B160" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
-      <c r="E150" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="8" t="s">
-        <v>535</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="8" t="s">
-        <v>538</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
-      <c r="E152" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="8" t="s">
-        <v>541</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="9" t="s">
-        <v>542</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="8" t="s">
-        <v>547</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C155" s="10"/>
-      <c r="D155" s="10"/>
-      <c r="E155" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="C156" s="10"/>
-      <c r="D156" s="10"/>
-      <c r="E156" s="9" t="s">
-        <v>551</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="8" t="s">
-        <v>553</v>
-      </c>
-      <c r="B157" s="9" t="s">
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
+      <c r="E160" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B161" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
-      <c r="E157" s="9" t="s">
-        <v>554</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="C158" s="10"/>
-      <c r="D158" s="10"/>
-      <c r="E158" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="159" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="8" t="s">
-        <v>559</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="C159" s="9" t="n">
-        <v>121</v>
-      </c>
-      <c r="D159" s="9"/>
-      <c r="E159" s="11" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
-      <c r="E160" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="9" t="s">
-        <v>566</v>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
+      <c r="E161" s="8" t="s">
+        <v>567</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="B162" s="9" t="s">
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B162" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="C162" s="9" t="n">
+      <c r="C162" s="8" t="n">
         <v>111</v>
       </c>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9" t="s">
+      <c r="D162" s="8"/>
+      <c r="E162" s="8" t="s">
         <v>362</v>
       </c>
       <c r="G162" s="1" t="s">
@@ -4943,18 +4941,18 @@
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="8" t="s">
-        <v>569</v>
-      </c>
-      <c r="B163" s="9" t="s">
+      <c r="A163" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B163" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C163" s="9" t="n">
+      <c r="C163" s="8" t="n">
         <v>1711</v>
       </c>
-      <c r="D163" s="9"/>
-      <c r="E163" s="11" t="s">
-        <v>570</v>
+      <c r="D163" s="8"/>
+      <c r="E163" s="3" t="s">
+        <v>571</v>
       </c>
       <c r="F163" s="3" t="s">
         <v>259</v>
@@ -4965,335 +4963,335 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="B164" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="C164" s="9" t="n">
+      <c r="B164" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C164" s="8" t="n">
         <v>3300</v>
       </c>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9" t="s">
-        <v>573</v>
+      <c r="D164" s="8"/>
+      <c r="E164" s="8" t="s">
+        <v>574</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8" t="s">
-        <v>575</v>
-      </c>
-      <c r="B165" s="9" t="s">
+      <c r="A165" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="C165" s="9" t="n">
+      <c r="B165" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C165" s="8" t="n">
         <v>8000</v>
       </c>
-      <c r="D165" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="E165" s="9" t="s">
+      <c r="D165" s="8" t="s">
         <v>578</v>
       </c>
+      <c r="E165" s="8" t="s">
+        <v>579</v>
+      </c>
       <c r="F165" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="B166" s="9" t="s">
+      <c r="A166" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B166" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
-      <c r="E166" s="9" t="s">
-        <v>581</v>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="8" t="s">
+        <v>582</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="B167" s="9" t="s">
+      <c r="A167" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B167" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="9" t="s">
-        <v>584</v>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="8" t="s">
+        <v>585</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="B168" s="9" t="s">
+      <c r="A168" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B168" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="9" t="s">
-        <v>587</v>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="8" t="s">
+        <v>588</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="B169" s="9" t="s">
+      <c r="A169" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B169" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C169" s="9" t="n">
+      <c r="C169" s="8" t="n">
         <v>1500</v>
       </c>
-      <c r="D169" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="E169" s="9" t="s">
+      <c r="D169" s="8" t="s">
         <v>591</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>592</v>
       </c>
       <c r="F169" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="170" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="B170" s="13" t="s">
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="C170" s="9" t="n">
+      <c r="B170" s="11" t="s">
+        <v>594</v>
+      </c>
+      <c r="C170" s="8" t="n">
         <v>2611</v>
       </c>
-      <c r="D170" s="9"/>
-      <c r="E170" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8" t="s">
+      <c r="D170" s="8"/>
+      <c r="E170" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="B171" s="9" t="s">
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="C171" s="9" t="n">
+      <c r="B171" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="C171" s="8" t="n">
         <v>2711</v>
       </c>
-      <c r="D171" s="9"/>
-      <c r="E171" s="9" t="s">
-        <v>597</v>
+      <c r="D171" s="8"/>
+      <c r="E171" s="8" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="8" t="s">
-        <v>598</v>
-      </c>
-      <c r="B172" s="9" t="s">
+      <c r="A172" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="B172" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="9" t="s">
-        <v>599</v>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="8" t="s">
+        <v>600</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="B173" s="9" t="s">
+      <c r="A173" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="11" t="s">
+      <c r="B173" s="8" t="s">
         <v>603</v>
       </c>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="3" t="s">
+        <v>604</v>
+      </c>
       <c r="F173" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8" t="s">
-        <v>605</v>
-      </c>
-      <c r="B174" s="9" t="s">
+      <c r="A174" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="C174" s="9" t="n">
+      <c r="B174" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="C174" s="8" t="n">
         <v>3721</v>
       </c>
-      <c r="D174" s="9"/>
-      <c r="E174" s="11" t="s">
-        <v>607</v>
+      <c r="D174" s="8"/>
+      <c r="E174" s="3" t="s">
+        <v>608</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C175" s="9" t="n">
+      <c r="A175" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C175" s="8" t="n">
         <v>6100</v>
       </c>
-      <c r="D175" s="9"/>
-      <c r="E175" s="9" t="s">
-        <v>610</v>
+      <c r="D175" s="8"/>
+      <c r="E175" s="8" t="s">
+        <v>611</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="B176" s="9" t="s">
+      <c r="A176" s="7" t="s">
         <v>613</v>
       </c>
-      <c r="C176" s="10" t="n">
+      <c r="B176" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C176" s="9" t="n">
         <v>8400</v>
       </c>
-      <c r="D176" s="10"/>
-      <c r="E176" s="9" t="s">
-        <v>614</v>
+      <c r="D176" s="9"/>
+      <c r="E176" s="8" t="s">
+        <v>615</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="B177" s="9" t="s">
+      <c r="A177" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="B177" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E177" s="9" t="s">
-        <v>617</v>
+      <c r="E177" s="8" t="s">
+        <v>618</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>619</v>
-      </c>
-      <c r="B178" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="B178" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C178" s="9" t="n">
+      <c r="C178" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="D178" s="9"/>
-      <c r="E178" s="9" t="s">
-        <v>620</v>
+      <c r="D178" s="8"/>
+      <c r="E178" s="8" t="s">
+        <v>621</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>622</v>
-      </c>
-      <c r="B179" s="9" t="s">
+        <v>623</v>
+      </c>
+      <c r="B179" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="C179" s="9" t="n">
+      <c r="C179" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="D179" s="9"/>
-      <c r="E179" s="11" t="s">
-        <v>623</v>
+      <c r="D179" s="8"/>
+      <c r="E179" s="3" t="s">
+        <v>624</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="8" t="s">
-        <v>624</v>
-      </c>
-      <c r="B180" s="9" t="s">
+      <c r="A180" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="11" t="s">
+      <c r="B180" s="8" t="s">
         <v>626</v>
       </c>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="E180" s="3" t="s">
+        <v>627</v>
+      </c>
       <c r="F180" s="3" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="B181" s="9" t="s">
+      <c r="A181" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="B181" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="9" t="s">
-        <v>629</v>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="E181" s="8" t="s">
+        <v>630</v>
       </c>
       <c r="F181" s="3" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="B182" s="9" t="s">
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="B182" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C182" s="9" t="n">
+      <c r="C182" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="D182" s="9"/>
-      <c r="E182" s="9" t="s">
-        <v>632</v>
+      <c r="D182" s="8"/>
+      <c r="E182" s="8" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B183" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="B183" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="E183" s="9" t="s">
-        <v>634</v>
+      <c r="E183" s="8" t="s">
+        <v>635</v>
       </c>
       <c r="F183" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="640">
   <si>
     <t>Hash</t>
   </si>
@@ -62,7 +62,7 @@
     <t>http://hashcat.net/forum/thread-2247-post-13532.html#pid13532</t>
   </si>
   <si>
-    <t>information needed</t>
+    <t>correct regex?</t>
   </si>
   <si>
     <t>AIX(ssha1)</t>
@@ -152,6 +152,9 @@
     <t>^[a-f0-9]{112}$/i</t>
   </si>
   <si>
+    <t>hash needed</t>
+  </si>
+  <si>
     <t>Cisco-ASA(MD5)</t>
   </si>
   <si>
@@ -173,6 +176,9 @@
     <t>dRRVnUmUHXOTt9nk</t>
   </si>
   <si>
+    <t>resource needed</t>
+  </si>
+  <si>
     <t>Cisco-IOS(SHA-256)</t>
   </si>
   <si>
@@ -614,18 +620,24 @@
     <t>GRUB 2</t>
   </si>
   <si>
-    <t>^grub\.pbkdf2\.sha512\.[0-9]+\.[a-f0-9]+\.[a-f0-9]+$/i</t>
+    <t>^grub\.pbkdf2\.sha512\.[0-9]+\.[a-f0-9]{128,2048}\.[a-f0-9]{128}$/i</t>
   </si>
   <si>
     <t>grub.pbkdf2.sha512.10000.7d391ef48645f626b427b1fae06a7219b5b54f4f02b2621f86b5e36e83ae492bd1db60871e45bc07925cecb46ff8ba3db31c723c0c6acbd4f06f60c5b246ecbf.26d59c52b50df90d043f070bd9cbcd92a74424da42b3666fdeb08f1a54b8f1d2f4f56cf436f9382419c26798dc2c209a86003982b1e5a9fcef905f4dfaa4c524</t>
   </si>
   <si>
+    <t>http://passlib.readthedocs.org/en/default/lib/passlib.hash.grub_pbkdf2_sha512.html</t>
+  </si>
+  <si>
     <t>Half MD5</t>
   </si>
   <si>
     <t>8743b52063cd8409</t>
   </si>
   <si>
+    <t>https://hashcat.net/trac/ticket/6</t>
+  </si>
+  <si>
     <t>HAS-160</t>
   </si>
   <si>
@@ -767,10 +779,13 @@
     <t>Kerberos 5 AS-REQ Pre-Auth</t>
   </si>
   <si>
-    <t>^\$krb5pa\$.+$/i</t>
-  </si>
-  <si>
-    <t>$krb5pa$23$user$realm$salt$4e751db65422b2117f7eac7b721932dc8aa0d9966785ecd958f971f622bf5c42dc0c70b532363138363631363132333238383835</t>
+    <t>^\$krb5pa\$23\$user\$realm\$salt\$[a-f0-9]{104}$/i</t>
+  </si>
+  <si>
+    <t>$krb5pa$23$user$realm$salt$034acfc70afba542690b8bc912fcd7fed6a848493a3ff0d7af641a263b71dcc72902995df4085ba458b733d8092e6b348e3e3990</t>
+  </si>
+  <si>
+    <t>http://hashcat.net/forum/thread-3267.html</t>
   </si>
   <si>
     <t>Lastpass</t>
@@ -797,9 +812,6 @@
     <t>https://stackoverflow.com/questions/6713521/how-to-securely-generate-ssha256-or-ssha512-hashes-in-php</t>
   </si>
   <si>
-    <t>correct regex?</t>
-  </si>
-  <si>
     <t>Lineage II C4</t>
   </si>
   <si>
@@ -1013,9 +1025,6 @@
     <t>https://hashcat.net/forum/thread-3282.html</t>
   </si>
   <si>
-    <t>hash needed</t>
-  </si>
-  <si>
     <t>MyBB ≥ v1.2+</t>
   </si>
   <si>
@@ -1265,7 +1274,7 @@
     <t>PHPS</t>
   </si>
   <si>
-    <t>^\$PHPS\$[^\$]+\$[a-f0-9]{32}$/i</t>
+    <t>^\$PHPS\$.+\$[a-f0-9]{32}$/i</t>
   </si>
   <si>
     <t>phps</t>
@@ -2021,7 +2030,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2034,8 +2043,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2060,6 +2073,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2098,8 +2115,8 @@
   </sheetPr>
   <dimension ref="A1:G183"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B117" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G71" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2110,3188 +2127,3229 @@
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.6479591836735"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="98.3112244897959"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="3" width="46.1224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="16.4948979591837"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="14.5255102040816"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="9" t="n">
         <v>6300</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="9" t="n">
         <v>6700</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="9" t="n">
         <v>6400</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="9" t="n">
         <v>6500</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8" t="s">
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="9" t="n">
         <v>1600</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="8" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="11" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="9" t="n">
         <v>3200</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="1"/>
+      <c r="G11" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>45</v>
+      <c r="A12" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="8" t="n">
+        <v>47</v>
+      </c>
+      <c r="C12" s="9" t="n">
         <v>2410</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="11" t="s">
         <v>48</v>
       </c>
+      <c r="F12" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="8" t="s">
+      <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="B13" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
-        <v>51</v>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>5700</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="8" t="n">
-        <v>5700</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="8" t="n">
+      <c r="A15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="9" t="n">
         <v>2400</v>
       </c>
-      <c r="D15" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="9" t="s">
         <v>59</v>
       </c>
+      <c r="E15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="8" t="n">
+      <c r="A16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="9" t="n">
         <v>8100</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>63</v>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="3" t="s">
+      <c r="A17" s="8" t="s">
         <v>66</v>
       </c>
+      <c r="B17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="8" t="s">
+      <c r="A18" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>70</v>
       </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="A19" s="8" t="s">
         <v>73</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+        <v>76</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="A21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>79</v>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" s="8" t="s">
+      <c r="A22" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>82</v>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="8" t="s">
+      <c r="A23" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="B23" s="9" t="s">
         <v>86</v>
       </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="8" t="s">
+      <c r="A24" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="B24" s="9" t="s">
         <v>90</v>
       </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="8" t="s">
+      <c r="A25" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="B25" s="9" t="s">
         <v>94</v>
       </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="8" t="s">
+      <c r="A26" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="B26" s="9" t="s">
         <v>98</v>
       </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B27" s="8" t="s">
+      <c r="A27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="8" t="n">
+      <c r="A28" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="9" t="n">
         <v>3100</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>104</v>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" s="8" t="n">
+      <c r="A29" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="9" t="n">
         <v>1500</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="D29" s="9" t="s">
         <v>109</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C30" s="9" t="n">
         <v>800</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>113</v>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="B31" s="9" t="s">
         <v>117</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="B32" s="9" t="s">
         <v>121</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C33" s="9" t="n">
+        <v>124</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="10" t="n">
         <v>8300</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>125</v>
+      <c r="D33" s="10"/>
+      <c r="E33" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="8" t="n">
+      <c r="A34" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="9" t="n">
         <v>1100</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="F34" s="3" t="s">
+      <c r="D34" s="9" t="s">
         <v>130</v>
       </c>
+      <c r="E34" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" s="8" t="n">
+      <c r="A35" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="9" t="n">
         <v>2100</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F35" s="3" t="s">
+      <c r="D35" s="9" t="s">
         <v>135</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C36" s="9" t="n">
+        <v>138</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="10" t="n">
         <v>2600</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="3" t="s">
-        <v>138</v>
+      <c r="D36" s="10"/>
+      <c r="E36" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" s="9" t="n">
+        <v>141</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="10" t="n">
         <v>4500</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="8" t="s">
+      <c r="D37" s="10"/>
+      <c r="E37" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C38" s="9" t="n">
+        <v>7900</v>
+      </c>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="9" t="n">
+        <v>123</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="9" t="n">
         <v>141</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C38" s="8" t="n">
-        <v>7900</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="8" t="n">
-        <v>123</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C42" s="8" t="n">
-        <v>141</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>15</v>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C43" s="8" t="n">
+      <c r="A43" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="C43" s="9" t="n">
         <v>1441</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>15</v>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="B44" s="9" t="s">
         <v>166</v>
       </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="A45" s="8" t="s">
         <v>169</v>
       </c>
+      <c r="B45" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B46" s="8" t="s">
+      <c r="A46" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>172</v>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>175</v>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" s="8" t="s">
+      <c r="A48" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>178</v>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F49" s="3" t="s">
+      <c r="A49" s="8" t="s">
         <v>181</v>
       </c>
+      <c r="B49" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="C50" s="8" t="n">
+      <c r="A50" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C50" s="9" t="n">
         <v>7000</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>15</v>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="8" t="n">
+      <c r="A51" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>15</v>
+      <c r="D51" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B52" s="8" t="s">
+      <c r="A52" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>190</v>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B53" s="8" t="s">
+      <c r="A53" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
-      <c r="E53" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>193</v>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C54" s="8" t="n">
+      <c r="A54" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" s="9" t="n">
         <v>6900</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="F54" s="3" t="s">
+      <c r="D54" s="9"/>
+      <c r="E54" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" s="9" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C56" s="9" t="n">
+        <v>5100</v>
+      </c>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C55" s="8" t="n">
-        <v>7200</v>
-      </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="8" t="n">
-        <v>5100</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="B60" s="8" t="s">
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" s="11" t="s">
         <v>212</v>
-      </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C63" s="9" t="n">
+        <v>223</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="10" t="n">
         <v>1421</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>223</v>
+      <c r="D63" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C64" s="8" t="n">
+      <c r="A64" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C64" s="9" t="n">
         <v>2811</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>15</v>
+      <c r="D64" s="9"/>
+      <c r="E64" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C65" s="9" t="n">
+        <v>232</v>
+      </c>
+      <c r="C65" s="10" t="n">
         <v>7300</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="G65" s="1" t="s">
+      <c r="D65" s="10"/>
+      <c r="E65" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66" s="9" t="n">
+        <v>4800</v>
+      </c>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="9" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C68" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C70" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C71" s="9" t="n">
+        <v>7500</v>
+      </c>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G71" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C66" s="8" t="n">
-        <v>4800</v>
-      </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="8" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C68" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="C70" s="8" t="n">
-        <v>22</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="G70" s="1" t="s">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C72" s="9" t="n">
+        <v>6800</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C73" s="9" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="G73" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="C71" s="8" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="G71" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C72" s="8" t="n">
-        <v>6800</v>
-      </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C73" s="8" t="n">
-        <v>1711</v>
-      </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>264</v>
+      <c r="A74" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C75" s="8" t="n">
+      <c r="A75" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C75" s="9" t="n">
         <v>190</v>
       </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>267</v>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="8" t="n">
+      <c r="A76" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76" s="9" t="n">
         <v>3000</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>271</v>
+      <c r="D76" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>15</v>
+      <c r="A77" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C78" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="E78" s="8" t="s">
+      <c r="A78" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>15</v>
+      <c r="B78" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>283</v>
+      <c r="A79" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>289</v>
+      <c r="A81" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C82" s="8" t="n">
+      <c r="A82" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="9" t="n">
         <v>900</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>293</v>
+      <c r="D82" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D83" s="8" t="s">
+      <c r="A83" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="9" t="n">
+        <v>500</v>
+      </c>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C85" s="9" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" s="9" t="n">
+        <v>4800</v>
+      </c>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="1"/>
+      <c r="G88" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="C90" s="9" t="n">
+        <v>131</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C91" s="9" t="n">
+        <v>132</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C92" s="10" t="n">
+        <v>132</v>
+      </c>
+      <c r="D92" s="10"/>
+      <c r="E92" s="1"/>
+      <c r="G92" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C93" s="9" t="n">
+        <v>1731</v>
+      </c>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C94" s="9" t="n">
+        <v>1731</v>
+      </c>
+      <c r="D94" s="9"/>
+      <c r="F94" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C95" s="9" t="n">
+        <v>2811</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C96" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C97" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="C98" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C99" s="9" t="n">
+        <v>5500</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="C100" s="9" t="n">
+        <v>5600</v>
+      </c>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C101" s="9" t="n">
+        <v>101</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C102" s="9" t="n">
+        <v>111</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="C104" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E104" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="E83" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C84" s="8" t="n">
-        <v>500</v>
-      </c>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="C85" s="8" t="n">
-        <v>1600</v>
-      </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B86" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="C86" s="8" t="n">
-        <v>4800</v>
-      </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="C90" s="8" t="n">
-        <v>131</v>
-      </c>
-      <c r="D90" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C91" s="8" t="n">
-        <v>132</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="C92" s="9" t="n">
-        <v>132</v>
-      </c>
-      <c r="D92" s="9"/>
-      <c r="E92" s="1"/>
-      <c r="G92" s="1" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="C105" s="9" t="n">
+        <v>112</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C106" s="9" t="n">
+        <v>3100</v>
+      </c>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C107" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" s="9" t="n">
+        <v>122</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C109" s="9" t="n">
+        <v>1722</v>
+      </c>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C110" s="9" t="n">
+        <v>7100</v>
+      </c>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="G112" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C93" s="8" t="n">
-        <v>1731</v>
-      </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="G93" s="1" t="s">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="G113" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C94" s="8" t="n">
-        <v>1731</v>
-      </c>
-      <c r="D94" s="8"/>
-      <c r="F94" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="C95" s="8" t="n">
-        <v>2811</v>
-      </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="F95" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C96" s="8" t="n">
-        <v>200</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="B97" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C97" s="8" t="n">
-        <v>300</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="C98" s="8" t="n">
-        <v>300</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="C99" s="8" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>353</v>
-      </c>
-      <c r="C100" s="8" t="n">
-        <v>5600</v>
-      </c>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C101" s="8" t="n">
-        <v>101</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="C102" s="8" t="n">
-        <v>111</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="E103" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B104" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="C104" s="8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>369</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>371</v>
-      </c>
-      <c r="C105" s="8" t="n">
-        <v>112</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B106" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C106" s="8" t="n">
-        <v>3100</v>
-      </c>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C107" s="8" t="n">
-        <v>21</v>
-      </c>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C108" s="8" t="n">
-        <v>122</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="C109" s="8" t="n">
-        <v>1722</v>
-      </c>
-      <c r="D109" s="8"/>
-      <c r="E109" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="C110" s="8" t="n">
-        <v>7100</v>
-      </c>
-      <c r="D110" s="8"/>
-      <c r="E110" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
-      <c r="E111" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
-      <c r="E112" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="G112" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>400</v>
-      </c>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="G113" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>404</v>
-      </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F114" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>260</v>
+      <c r="B114" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C115" s="8" t="n">
+      <c r="A115" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C115" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D115" s="8" t="s">
-        <v>408</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>409</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>410</v>
+      <c r="D115" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C116" s="8" t="n">
+        <v>414</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C116" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D116" s="8"/>
-      <c r="E116" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>414</v>
+      <c r="D116" s="9"/>
+      <c r="E116" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>2612</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E117" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
+      </c>
+      <c r="E117" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>422</v>
-      </c>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8" t="s">
+      <c r="A118" s="8" t="s">
         <v>423</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="B118" s="9" t="s">
         <v>424</v>
       </c>
+      <c r="C118" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="B119" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="E119" s="8" t="s">
-        <v>426</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>427</v>
+      <c r="A119" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="B120" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="C120" s="8" t="n">
+      <c r="A120" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="C120" s="9" t="n">
         <v>7600</v>
       </c>
-      <c r="D120" s="8"/>
-      <c r="E120" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>431</v>
+      <c r="D120" s="9"/>
+      <c r="E120" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="B121" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="E121" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>434</v>
+      <c r="A121" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B122" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C122" s="8" t="n">
+      <c r="A122" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C122" s="9" t="n">
         <v>6000</v>
       </c>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>437</v>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="B123" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="E123" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>440</v>
+      <c r="A123" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="B124" s="8" t="s">
-        <v>442</v>
-      </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="9"/>
-      <c r="E124" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="F124" s="3" t="s">
+      <c r="A124" s="8" t="s">
         <v>444</v>
       </c>
+      <c r="B124" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="B125" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
-      <c r="E125" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="F125" s="3" t="s">
+      <c r="A125" s="8" t="s">
         <v>448</v>
       </c>
+      <c r="B125" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="B126" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
-      <c r="E126" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>451</v>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="B127" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
-      <c r="E127" s="8" t="s">
-        <v>454</v>
-      </c>
-      <c r="F127" s="3" t="s">
+      <c r="A127" s="8" t="s">
         <v>455</v>
       </c>
+      <c r="B127" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="C128" s="8" t="n">
+      <c r="A128" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C128" s="9" t="n">
         <v>5800</v>
       </c>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>459</v>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="C129" s="8" t="n">
+      <c r="A129" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="C129" s="9" t="n">
         <v>7700</v>
       </c>
-      <c r="D129" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>464</v>
+      <c r="D129" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>466</v>
-      </c>
-      <c r="C130" s="8" t="n">
+      <c r="A130" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C130" s="9" t="n">
         <v>7800</v>
       </c>
-      <c r="D130" s="8" t="s">
+      <c r="D130" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="F130" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="E131" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="F131" s="3" t="s">
+      <c r="A131" s="8" t="s">
         <v>472</v>
       </c>
+      <c r="B131" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C132" s="9" t="n">
+      <c r="A132" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C132" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="D132" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="E132" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>476</v>
+      <c r="D132" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="E133" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="F133" s="3" t="s">
+      <c r="A133" s="8" t="s">
         <v>480</v>
       </c>
+      <c r="B133" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="F133" s="11" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="C134" s="8" t="n">
+      <c r="A134" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C134" s="9" t="n">
         <v>101</v>
       </c>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>15</v>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="E135" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>484</v>
+      <c r="A135" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="F135" s="11" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="E136" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="F136" s="3" t="s">
+      <c r="A136" s="8" t="s">
         <v>488</v>
       </c>
+      <c r="B136" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C137" s="8" t="n">
+      <c r="A137" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C137" s="9" t="n">
         <v>1400</v>
       </c>
-      <c r="D137" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="E137" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>492</v>
+      <c r="D137" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="C138" s="8" t="n">
+        <v>496</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C138" s="9" t="n">
         <v>7400</v>
       </c>
-      <c r="D138" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E138" s="8" t="s">
-        <v>495</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>496</v>
+      <c r="D138" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="F138" s="11" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="B139" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="E139" s="8" t="s">
+      <c r="A139" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="B139" s="9" t="s">
         <v>501</v>
       </c>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>504</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C140" s="8" t="n">
+      <c r="A140" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C140" s="9" t="n">
         <v>1700</v>
       </c>
-      <c r="D140" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="E140" s="8" t="s">
-        <v>504</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>505</v>
+      <c r="D140" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="B141" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="C141" s="8" t="n">
+      <c r="A141" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C141" s="9" t="n">
         <v>1800</v>
       </c>
-      <c r="D141" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="E141" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>509</v>
+      <c r="D141" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="E142" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>512</v>
-      </c>
+      <c r="A142" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="G142" s="4"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="B143" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="D143" s="9"/>
-      <c r="E143" s="8" t="s">
+      <c r="A143" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="D143" s="10"/>
+      <c r="E143" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F143" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="F143" s="3" t="s">
-        <v>512</v>
-      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="8" t="s">
-        <v>517</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>512</v>
+      <c r="A144" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="B145" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="E145" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>512</v>
+      <c r="A145" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="B146" s="8" t="s">
-        <v>521</v>
-      </c>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="E146" s="8" t="s">
-        <v>522</v>
-      </c>
-      <c r="F146" s="3" t="s">
+      <c r="A146" s="8" t="s">
         <v>523</v>
       </c>
+      <c r="B146" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>526</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="B147" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="E147" s="8" t="s">
-        <v>525</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>526</v>
+      <c r="A147" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="7" t="s">
-        <v>527</v>
-      </c>
-      <c r="B148" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="E148" s="8" t="s">
-        <v>528</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>529</v>
+      <c r="A148" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
+      <c r="E148" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>532</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="B149" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="8" t="s">
-        <v>531</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>532</v>
+      <c r="A149" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="B150" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-      <c r="E150" s="8" t="s">
-        <v>534</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>535</v>
+      <c r="A150" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C150" s="10"/>
+      <c r="D150" s="10"/>
+      <c r="E150" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="7" t="s">
-        <v>536</v>
-      </c>
-      <c r="B151" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="E151" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>538</v>
+      <c r="A151" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="7" t="s">
-        <v>539</v>
-      </c>
-      <c r="B152" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="E152" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>541</v>
+      <c r="A152" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="7" t="s">
-        <v>542</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-      <c r="E153" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>544</v>
+      <c r="A153" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C153" s="10"/>
+      <c r="D153" s="10"/>
+      <c r="E153" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="7" t="s">
-        <v>545</v>
-      </c>
-      <c r="B154" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="E154" s="8" t="s">
-        <v>546</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>547</v>
+      <c r="A154" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="7" t="s">
-        <v>548</v>
-      </c>
-      <c r="B155" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="8" t="s">
-        <v>549</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>550</v>
+      <c r="A155" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="7" t="s">
-        <v>551</v>
-      </c>
-      <c r="B156" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="E156" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>553</v>
+      <c r="A156" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="F156" s="11" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="7" t="s">
-        <v>554</v>
-      </c>
-      <c r="B157" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
-      <c r="E157" s="8" t="s">
-        <v>555</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>556</v>
+      <c r="A157" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
+      <c r="E157" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F157" s="11" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="B158" s="8" t="s">
-        <v>498</v>
-      </c>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="8" t="s">
-        <v>558</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>559</v>
+      <c r="A158" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10"/>
+      <c r="E158" s="9" t="s">
+        <v>561</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="B159" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="C159" s="8" t="n">
+      <c r="A159" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="C159" s="9" t="n">
         <v>121</v>
       </c>
-      <c r="D159" s="8"/>
-      <c r="E159" s="3" t="s">
-        <v>562</v>
+      <c r="D159" s="9"/>
+      <c r="E159" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="G159" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="B160" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
-      <c r="E160" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>565</v>
+      <c r="A160" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C160" s="10"/>
+      <c r="D160" s="10"/>
+      <c r="E160" s="9" t="s">
+        <v>567</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="B161" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
-      <c r="E161" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>568</v>
+      <c r="A161" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C161" s="10"/>
+      <c r="D161" s="10"/>
+      <c r="E161" s="9" t="s">
+        <v>570</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="B162" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="C162" s="8" t="n">
+      <c r="A162" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C162" s="9" t="n">
         <v>111</v>
       </c>
-      <c r="D162" s="8"/>
-      <c r="E162" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="G162" s="1" t="s">
+      <c r="D162" s="9"/>
+      <c r="E162" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C163" s="9" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D163" s="9"/>
+      <c r="E163" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="G163" s="4" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="B163" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C163" s="8" t="n">
-        <v>1711</v>
-      </c>
-      <c r="D163" s="8"/>
-      <c r="E163" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="C164" s="8" t="n">
+        <v>575</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="C164" s="9" t="n">
         <v>3300</v>
       </c>
-      <c r="D164" s="8"/>
-      <c r="E164" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>575</v>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="B165" s="8" t="s">
-        <v>577</v>
-      </c>
-      <c r="C165" s="8" t="n">
+      <c r="A165" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="C165" s="9" t="n">
         <v>8000</v>
       </c>
-      <c r="D165" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="E165" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>580</v>
+      <c r="D165" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="E165" s="9" t="s">
+        <v>582</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="7" t="s">
-        <v>581</v>
-      </c>
-      <c r="B166" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="8" t="s">
-        <v>582</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>583</v>
+      <c r="A166" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="F166" s="11" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="B167" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>586</v>
+      <c r="A167" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="F167" s="11" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="B168" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>589</v>
+      <c r="A168" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
+      <c r="E168" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="F168" s="11" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="B169" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C169" s="8" t="n">
+      <c r="A169" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C169" s="9" t="n">
         <v>1500</v>
       </c>
-      <c r="D169" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="E169" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>109</v>
+      <c r="D169" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="E169" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="F169" s="11" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="C170" s="8" t="n">
+      <c r="A170" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="C170" s="9" t="n">
         <v>2611</v>
       </c>
-      <c r="D170" s="8"/>
-      <c r="E170" s="8" t="s">
-        <v>595</v>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="B171" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="C171" s="8" t="n">
+      <c r="A171" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="C171" s="9" t="n">
         <v>2711</v>
       </c>
-      <c r="D171" s="8"/>
-      <c r="E171" s="8" t="s">
-        <v>598</v>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="B172" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-      <c r="E172" s="8" t="s">
-        <v>600</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>601</v>
+      <c r="A172" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C172" s="10"/>
+      <c r="D172" s="10"/>
+      <c r="E172" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="7" t="s">
-        <v>602</v>
-      </c>
-      <c r="B173" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-      <c r="E173" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="F173" s="3" t="s">
+      <c r="A173" s="8" t="s">
         <v>605</v>
       </c>
+      <c r="B173" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
+      <c r="E173" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="B174" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="C174" s="8" t="n">
+      <c r="A174" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="C174" s="9" t="n">
         <v>3721</v>
       </c>
-      <c r="D174" s="8"/>
-      <c r="E174" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>609</v>
+      <c r="D174" s="9"/>
+      <c r="E174" s="11" t="s">
+        <v>611</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="7" t="s">
-        <v>610</v>
-      </c>
-      <c r="B175" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="C175" s="8" t="n">
+      <c r="A175" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="C175" s="9" t="n">
         <v>6100</v>
       </c>
-      <c r="D175" s="8"/>
-      <c r="E175" s="8" t="s">
-        <v>611</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>612</v>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="F175" s="11" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="C176" s="9" t="n">
+      <c r="A176" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="C176" s="10" t="n">
         <v>8400</v>
       </c>
-      <c r="D176" s="9"/>
-      <c r="E176" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>616</v>
+      <c r="D176" s="10"/>
+      <c r="E176" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="B177" s="8" t="s">
+      <c r="A177" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="B177" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E177" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>619</v>
-      </c>
+      <c r="E177" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="F177" s="11" t="s">
+        <v>622</v>
+      </c>
+      <c r="G177" s="4"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="B178" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C178" s="8" t="n">
+        <v>623</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C178" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>622</v>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="F178" s="11" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>412</v>
-      </c>
-      <c r="C179" s="8" t="n">
+        <v>626</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="C179" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D179" s="8"/>
-      <c r="E179" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="F179" s="3" t="s">
-        <v>414</v>
+      <c r="D179" s="9"/>
+      <c r="E179" s="11" t="s">
+        <v>627</v>
+      </c>
+      <c r="F179" s="11" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="B180" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="C180" s="9"/>
-      <c r="D180" s="9"/>
-      <c r="E180" s="3" t="s">
-        <v>627</v>
-      </c>
-      <c r="F180" s="3" t="s">
+      <c r="A180" s="8" t="s">
         <v>628</v>
       </c>
+      <c r="B180" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C180" s="10"/>
+      <c r="D180" s="10"/>
+      <c r="E180" s="11" t="s">
+        <v>630</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>631</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="7" t="s">
-        <v>629</v>
-      </c>
-      <c r="B181" s="8" t="s">
+      <c r="A181" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B181" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C181" s="9"/>
-      <c r="D181" s="9"/>
-      <c r="E181" s="8" t="s">
-        <v>630</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>631</v>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="F181" s="11" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="7" t="s">
-        <v>632</v>
-      </c>
-      <c r="B182" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="C182" s="8" t="n">
+      <c r="A182" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="C182" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8" t="s">
-        <v>633</v>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="G182" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="B183" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="E183" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>636</v>
+        <v>637</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E183" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="653">
   <si>
     <t>Hash</t>
   </si>
@@ -38,6 +38,27 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>1Password(Agile Keychain)</t>
+  </si>
+  <si>
+    <t>^[0-9]{4}:[a-f0-9]{16}:[a-f0-9]{2080}$</t>
+  </si>
+  <si>
+    <t>1000:9e55bd14cb90f5e1:99a89704bc67d6921ab393ca46ee7973e0d5227938a6d669cdc920ad7ae857eb4163dcccf6770190f80d3478c62904827c59d5c97f2a0f16ea9f3aee6992d921b0244617e309a8283c91a21c524561923658dee0d4d304465bac5f766ef26b02534e44a7d1506088f95f9610dbfaf1ace6cf4368921a28367415e7d76938faf3d7a27750eaf74c1855a671ad7b2e4fdb30734022c37565ec8e30681db367ad8be49ce3927232ccd8e0d8a4e726acf88fa8dedf32c24ba771a3f5eb2aae13180ca4c29e2b7fccec4bc4e4d32eb01c6b12405a5a2b8d3aea44d7745be76bec9068ec2dd13d227b3bdb4962143dfc74496e00e228465b6f214428243b3fca652c3f8661915fcae0a5db919f87f9e9202ae7e0a4080849dc5003d7618585746ec637dd9d17cb97be9f2eb550fd539d51ae4a6d07c63903c83c780bb8520ba6462bae6f1dec54fee0707e82345b39c46befd3eefe0c33e30adb13cafe7dc4f18b53bee60dccf92c80cfae1671f9e3c6b0cf0ed278bfbdbd69ee910130554d8348287c9372e0f437194018355f71b5236114f03b7a58036b85ac8f089b7eaa72ab8997c9e26c40a095014b64d5c3b9221e59f5b9e7dd1d730420875b73a6ad841f68c2004e5622400905000c977edb625d54c6a42cecfc9009bb4489ebb4d1e339e0d014a972364e378441c761aad8c8929f753917b9a1e1a316831cb9d6ba92354a47202b78ab2f42f2c99284c12d3e212ebf8ea8ec683aeb62c0e5d588cca9cc08aac3ead97831bfa1f698dac9f857e8cdd9ec4b15cffb5900f2f951c657f831689ac6199033b13cecf4b29d84fb06f422acd3db566d7ec6b664325c4331ff35963553c26e94af6eb5b36fe79f14bf3a30f4964ded7991ef5d859ebbb0e98c821b21f9620fca9086f9b3b2a7ad8360c4a635c481f1ef4990f7f0ec4fde37723b4639ee633bdb32be6bf31298a4574381d95831d65b3e8e6352b1207a684401a0f3fcff65e0ed1e6ec714c07526896468daeb056cbe49d82b87092e53ac40cfba049983ce8923bed2de773d15a5e87a88041f72c34d8c0436f95368ec73abfdd1d21897f649e1de9e7198e9db342c93b3b8b0d3af6c4867d63fed394674e5b02c92b7698d5457d2cca773abaad69c4a0a36e468a40d14b8bd73fa1d9074c8881158e10e4243045ab254775bda1e7e89a68005d91bb67044ed407f221d1028d034aedcfea3b527725607bd5c3f880557cfc6c2c0bb3361ae131261b8a5ebf3b53521fdd731ec2413c61bc78a1ab7f78057abd1c5459250fba0e0d57c1f4ebd3e1871ce0f5bfd44d2790d946936eef03e14e81f33f5484eec0a76910c253bf2777232be1a3593678f27225b035999d9ffb675685457b48928db1f1be6c3f206ad2efc764f8ba77a38b439f1e28318a1b077fe0c9e36fa6ed0df0f052d9aadd56b1514b5d01a44161fcea20f6326fab1ee3d7f79</t>
+  </si>
+  <si>
+    <t>resource needed</t>
+  </si>
+  <si>
+    <t>1Password(Cloud Keychain)</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{64}:[a-f0-9]{32}:[0-9]{5}:[a-f0-9]{608}$</t>
+  </si>
+  <si>
+    <t>92407e964bb9a368e86bcd52273e3f6b86181ab1204a9ed709bbe97667e7f67c:c1b981dd8e36340daf420badbfe38ca9:40000:991a0942a91889409a70b6622caf779a00ba472617477883394141bd6e23e38d8e2f5a69f5b30aa9dc28ebf6ecedcb679224e29af1123889a947576806536b831cc1d159a6d9135194671719adf86324ce6c6cbc64069c4210e748dde5400f7da738016a6b3c35c843f740008b0282581b52ea91d46a9600bfa8b79270d1ce8e4326f9fc9afa97082096eaf0ce1270eb030f53e98e3654d6fd38a313777b182051d95d582f67675628202dab60f120d4146250fa9ade4d0112aa873b5eb56425380e7b1220f6284ed1fa7d913a595aedfc0159ba2c95719d3c33646372098dc49037018885ed5d79e3479fee47fbe69076ea94852672f04f10e63fe3f53366fd61f7afd41831150cf24a49e837d72d656a1906943117252ab1f3889261ce09c3d832a4d583cfc82a049cee99cf62d4ec</t>
+  </si>
+  <si>
     <t>Adler-32</t>
   </si>
   <si>
@@ -176,9 +197,6 @@
     <t>dRRVnUmUHXOTt9nk</t>
   </si>
   <si>
-    <t>resource needed</t>
-  </si>
-  <si>
     <t>Cisco-IOS(SHA-256)</t>
   </si>
   <si>
@@ -699,6 +717,27 @@
   </si>
   <si>
     <t>http://www.hmailserver.com/forum/viewtopic.php?f=7&amp;t=16658&amp;start=0</t>
+  </si>
+  <si>
+    <t>IKE-PSK MD5</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{256}:[a-f0-9]{256}:[a-f0-9]{16}:[a-f0-9]{16}:[a-f0-9]{320}:[a-f0-9]{16}:[a-f0-9]{40}:[a-f0-9]{40}:[a-f0-9]{32}$</t>
+  </si>
+  <si>
+    <t>e957a6a0f53ce06a56e4d82e96bc925ffa3cf7b79f6500b667edad5a1d7bad4619efa734f75cca9c4222fbb169f71d4240aced349eb7126f35cf94772b4af373ddf9b3f1ab3a9ff8cd2705417dca7e36dd9026bd0d472459cea7ad245ce57e4bf7d36efdea2a782978c6161eae98f01eac1ee05578f8e524a0d7748c5a1ec2de:647c051436ee84b39a514fd5f2da24fd3bdbb245ef3ed05cb362c58916bbb2cb93a93e3ec33da27404b82125cfd354c0114a3d10dfca26fab139f91046f2ad996f6091ac7a729305272696ac1769991b81a30826e24cee586f3f383b5e035820e17d9715db433ac75f204f20153a12cf7ee4fa7d11b2823e424c26cb513eb26b:fb3678377967e4db:708993a01df48348:00000001000000010000009801010004030000240101000080010005800200028003000180040002800b0001000c000400007080030000240201000080010005800200018003000180040002800b0001000c000400007080030000240301000080010001800200028003000180040002800b0001000c000400007080000000240401000080010001800200018003000180040002800b0001000c000400007080:01110000c0a83965:19004c6aa04dba354599f0d6afbc866970d751e4:6074841c25c83a0c1abfa348fee2d133399595f2:19a3428d90eb5045363a58dc33f51941</t>
+  </si>
+  <si>
+    <t>https://hashcat.net/trac/ticket/5</t>
+  </si>
+  <si>
+    <t>IKE-PSK SHA1</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{256}:[a-f0-9]{256}:[a-f0-9]{16}:[a-f0-9]{16}:[a-f0-9]{320}:[a-f0-9]{16}:[a-f0-9]{40}:[a-f0-9]{40}:[a-f0-9]{40}$</t>
+  </si>
+  <si>
+    <t>7a1115b74a1b9d63de62627bdd029aa7a50df83ddbaba88c47d3e51833d21984fb463a2604ba0c82611a11edee7406e1826b2c70410d2797487d1220a4f716d7532fcd73e82b2fd6304f9af5dd1bc0a5dc1eb58bee978f95ffc8b6dc4401d4d2720978f4b0e69ae4dd96e61a1f23a347123aa242f893b33ac74fa234366dc56c:7e599b0168b56608f8a512b68bc7ea47726072ca8e66ecb8792a607f926afc2c3584850773d91644a3186da80414c5c336e07d95b891736f1e88eb05662bf17659781036fa03b869cb554d04689b53b401034e5ea061112066a89dcf8cbe3946e497feb8c5476152c2f8bc0bef4c2a05da51344370682ffb17ec664f8bc07855:419011bd5632fe07:169168a1ac421e4d:00000001000000010000009801010004030000240101000080010005800200028003000180040002800b0001000c000400007080030000240201000080010005800200018003000180040002800b0001000c000400007080030000240301000080010001800200028003000180040002800b0001000c000400007080000000240401000080010001800200018003000180040002800b0001000c000400007080:01110000c0a83965:ee4e517ba0f721798209d04dfcaf965758c4857e:48aada032ae2523815f4ec86758144fa98ad533c:e65f040dad4a628df43f3d1253f821110797a106</t>
   </si>
   <si>
     <t>IP.Board ≥ v2</t>
@@ -2113,10 +2152,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G183"/>
+  <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G71" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A172" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2155,121 +2194,116 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11" t="s">
+      <c r="C2" s="2" t="n">
+        <v>6600</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9" t="n">
-        <v>6300</v>
-      </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="C3" s="2" t="n">
+        <v>8200</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="F4" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="9" t="n">
-        <v>6700</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="9" t="n">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9" t="n">
-        <v>6500</v>
+        <v>6700</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="9" t="n">
-        <v>1600</v>
+        <v>6400</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2279,122 +2313,124 @@
       <c r="B8" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="9" t="n">
+        <v>6500</v>
+      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
         <v>31</v>
       </c>
       <c r="F8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="9" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="F9" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="9" t="n">
         <v>3200</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="F11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="1"/>
-      <c r="G11" s="4" t="s">
+    </row>
+    <row r="12" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="B12" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="9" t="n">
-        <v>2410</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="9" t="s">
         <v>48</v>
       </c>
       <c r="F12" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="9" t="n">
-        <v>500</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="G13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="4" t="s">
+    </row>
+    <row r="14" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
+      <c r="B14" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="n">
+        <v>2410</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C14" s="9" t="n">
-        <v>5700</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
         <v>57</v>
       </c>
@@ -2402,106 +2438,110 @@
         <v>58</v>
       </c>
       <c r="C15" s="9" t="n">
-        <v>2400</v>
-      </c>
-      <c r="D15" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="G15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="C16" s="9" t="n">
-        <v>8100</v>
+        <v>5700</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="C17" s="9" t="n">
+        <v>2400</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="F17" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="11" t="s">
+    </row>
+    <row r="18" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="9" t="n">
+        <v>8100</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F18" s="11" t="s">
+    </row>
+    <row r="19" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="B19" s="13" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>70</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>77</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -2512,113 +2552,111 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8" t="s">
+    <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="11" t="s">
+      <c r="E22" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="11" t="s">
+    </row>
+    <row r="24" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>89</v>
-      </c>
       <c r="B24" s="9" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="B25" s="9" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="B27" s="9" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>102</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
+      <c r="B28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="9" t="n">
-        <v>3100</v>
-      </c>
-      <c r="D28" s="9"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="9" t="s">
         <v>105</v>
       </c>
@@ -2626,314 +2664,316 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
+    <row r="29" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="9" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="F29" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="B30" s="9" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C30" s="9" t="n">
-        <v>800</v>
+        <v>3100</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="C31" s="9" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D31" s="9" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+      <c r="E31" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="F31" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="9" t="s">
+    </row>
+    <row r="32" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="B32" s="9" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+      <c r="C32" s="9" t="n">
+        <v>800</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="F32" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="9" t="s">
+    </row>
+    <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="11" t="s">
+      <c r="B33" s="9" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="F33" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="10" t="n">
+    </row>
+    <row r="34" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="10" t="n">
         <v>8300</v>
       </c>
-      <c r="D33" s="10"/>
-      <c r="E33" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="9" t="n">
+      <c r="D35" s="10"/>
+      <c r="E35" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="9" t="n">
         <v>1100</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="9" t="n">
+      <c r="D36" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C37" s="9" t="n">
         <v>2100</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="10" t="n">
-        <v>2600</v>
-      </c>
-      <c r="D36" s="10"/>
-      <c r="E36" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+      <c r="D37" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="E37" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="10" t="n">
-        <v>4500</v>
-      </c>
-      <c r="D37" s="10"/>
-      <c r="E37" s="9" t="s">
+      <c r="F37" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8" t="s">
+    </row>
+    <row r="38" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C38" s="9" t="n">
+      <c r="C38" s="10" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="10" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C40" s="9" t="n">
         <v>7900</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F39" s="11" t="s">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
+      <c r="F40" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="9" t="s">
+    </row>
+    <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="B41" s="9" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
+      <c r="C41" s="10"/>
+      <c r="D41" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="E41" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="9" t="n">
-        <v>123</v>
-      </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="11" t="s">
+      <c r="F41" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G41" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C42" s="9" t="n">
-        <v>141</v>
-      </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
+      <c r="F42" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="1" t="s">
         <v>163</v>
       </c>
       <c r="C43" s="9" t="n">
-        <v>1441</v>
+        <v>123</v>
       </c>
       <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="11" t="s">
         <v>164</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8" t="s">
         <v>165</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
+      <c r="C44" s="9" t="n">
+        <v>141</v>
+      </c>
+      <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F44" s="11" t="s">
+      <c r="G44" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8" t="s">
+      <c r="B45" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
+      <c r="C45" s="9" t="n">
+        <v>1441</v>
+      </c>
+      <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="11" t="s">
+      <c r="G45" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8" t="s">
+      <c r="B46" s="9" t="s">
         <v>172</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>8</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -2944,12 +2984,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
         <v>175</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -2960,12 +3000,12 @@
         <v>177</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
         <v>178</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -2976,12 +3016,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
         <v>181</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -2992,168 +3032,168 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
         <v>184</v>
       </c>
       <c r="B50" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C50" s="9" t="n">
-        <v>7000</v>
-      </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
+      <c r="F50" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
         <v>187</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="9" t="n">
-        <v>500</v>
-      </c>
-      <c r="D51" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="E51" s="11" t="s">
+      <c r="F51" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
+        <v>191</v>
+      </c>
+      <c r="C52" s="9" t="n">
+        <v>7000</v>
+      </c>
+      <c r="D52" s="9"/>
       <c r="E52" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F52" s="11" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
         <v>193</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="9" t="n">
+        <v>500</v>
+      </c>
+      <c r="D53" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="E53" s="11" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
         <v>196</v>
       </c>
       <c r="B54" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C54" s="9" t="n">
+      <c r="F54" s="11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C56" s="9" t="n">
         <v>6900</v>
-      </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="C55" s="9" t="n">
-        <v>7200</v>
-      </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="9" t="n">
-        <v>5100</v>
       </c>
       <c r="D56" s="9"/>
       <c r="E56" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F56" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="F56" s="3" t="s">
+    </row>
+    <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
+      <c r="C57" s="9" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="3" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
         <v>210</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="C58" s="9" t="n">
+        <v>5100</v>
+      </c>
+      <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
         <v>213</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -3161,15 +3201,15 @@
         <v>214</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>216</v>
+        <v>145</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -3177,15 +3217,15 @@
         <v>217</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -3193,912 +3233,910 @@
         <v>220</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
         <v>221</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C63" s="10" t="n">
+        <v>225</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C65" s="10" t="n">
         <v>1421</v>
       </c>
-      <c r="D63" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="C64" s="9" t="n">
+      <c r="D65" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>5300</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>5400</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C68" s="9" t="n">
         <v>2811</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C65" s="10" t="n">
+      <c r="D68" s="9"/>
+      <c r="E68" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C69" s="10" t="n">
         <v>7300</v>
       </c>
-      <c r="D65" s="10"/>
-      <c r="E65" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C66" s="9" t="n">
+      <c r="D69" s="10"/>
+      <c r="E69" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C70" s="9" t="n">
         <v>4800</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="C68" s="9" t="n">
+      <c r="D70" s="9"/>
+      <c r="E70" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="9" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C72" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C70" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="E70" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="C71" s="9" t="n">
-        <v>7500</v>
-      </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
+      <c r="D72" s="9"/>
+      <c r="E72" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F72" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="G71" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="s">
+    </row>
+    <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B73" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C72" s="9" t="n">
-        <v>6800</v>
-      </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="11" t="s">
+      <c r="C73" s="9" t="s">
         <v>259</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C73" s="9" t="n">
-        <v>1711</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="F73" s="11" t="s">
+      <c r="C74" s="9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D74" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="s">
+      <c r="E74" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B74" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>268</v>
+      <c r="G74" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>142</v>
+        <v>267</v>
       </c>
       <c r="C75" s="9" t="n">
-        <v>190</v>
+        <v>7500</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="F75" s="11" t="s">
+      <c r="B76" s="1" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="8" t="s">
+      <c r="C76" s="9" t="n">
+        <v>6800</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="B76" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" s="9" t="n">
+      <c r="F76" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C77" s="9" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" s="9" t="n">
+        <v>190</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="9" t="n">
         <v>3000</v>
       </c>
-      <c r="D76" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="9" t="s">
+      <c r="D80" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="E80" s="9" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
+      <c r="F80" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="B80" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="9" t="s">
+    </row>
+    <row r="81" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="F80" s="11" t="s">
+      <c r="B81" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="10" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="8" t="s">
+      <c r="D81" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="B81" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="9" t="s">
+      <c r="E81" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="G81" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="8" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="8" t="s">
+      <c r="B82" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B82" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C82" s="9" t="n">
-        <v>900</v>
-      </c>
-      <c r="D82" s="9" t="s">
+      <c r="C82" s="10" t="s">
         <v>295</v>
       </c>
+      <c r="D82" s="10" t="s">
+        <v>296</v>
+      </c>
       <c r="E82" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="F82" s="11" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G82" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
         <v>298</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C83" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="F83" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="E83" s="9" t="s">
+    </row>
+    <row r="84" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F83" s="11" t="s">
+      <c r="B84" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="9" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="8" t="s">
+      <c r="F84" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="B84" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C84" s="9" t="n">
+    </row>
+    <row r="85" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C86" s="9" t="n">
+        <v>900</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="D87" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="9" t="n">
         <v>500</v>
       </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C85" s="9" t="n">
+      <c r="D88" s="9"/>
+      <c r="E88" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C89" s="9" t="n">
         <v>1600</v>
       </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F85" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B86" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" s="9" t="n">
+      <c r="D89" s="9"/>
+      <c r="E89" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C90" s="9" t="n">
         <v>4800</v>
       </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F86" s="11" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="B87" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="F87" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="1"/>
-      <c r="G88" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B90" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="C90" s="9" t="n">
-        <v>131</v>
-      </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="9"/>
+      <c r="E90" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="E90" s="11" t="s">
+      <c r="B91" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="F90" s="11" t="s">
+      <c r="C91" s="10"/>
+      <c r="D91" s="10" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="8" t="s">
+      <c r="E91" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="F91" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="C91" s="9" t="n">
-        <v>132</v>
-      </c>
-      <c r="D91" s="9" t="s">
+    </row>
+    <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="B92" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="F91" s="11" t="s">
+      <c r="C92" s="10"/>
+      <c r="D92" s="10"/>
+      <c r="G92" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="8" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="8" t="s">
+      <c r="B93" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B92" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C92" s="10" t="n">
-        <v>132</v>
-      </c>
-      <c r="D92" s="10"/>
-      <c r="E92" s="1"/>
-      <c r="G92" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="8" t="s">
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="F93" s="11" t="s">
         <v>332</v>
-      </c>
-      <c r="C93" s="9" t="n">
-        <v>1731</v>
-      </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="B94" s="9" t="s">
-        <v>332</v>
-      </c>
       <c r="C94" s="9" t="n">
-        <v>1731</v>
-      </c>
-      <c r="D94" s="9"/>
+        <v>131</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>336</v>
+      </c>
       <c r="F94" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="G94" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C95" s="9" t="n">
-        <v>2811</v>
-      </c>
-      <c r="D95" s="9"/>
+        <v>132</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>340</v>
+      </c>
       <c r="E95" s="11" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F95" s="11" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C96" s="9" t="n">
-        <v>200</v>
-      </c>
-      <c r="D96" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="F96" s="11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="14" t="s">
+      <c r="C96" s="10" t="n">
+        <v>132</v>
+      </c>
+      <c r="D96" s="10"/>
+      <c r="G96" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="8" t="s">
         <v>344</v>
       </c>
       <c r="B97" s="9" t="s">
         <v>345</v>
       </c>
       <c r="C97" s="9" t="n">
-        <v>300</v>
-      </c>
-      <c r="D97" s="9" t="s">
+        <v>1731</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="G97" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="8" t="s">
         <v>347</v>
-      </c>
-      <c r="F97" s="11" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="8" t="s">
-        <v>349</v>
       </c>
       <c r="B98" s="9" t="s">
         <v>345</v>
       </c>
       <c r="C98" s="9" t="n">
+        <v>1731</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="F98" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="C99" s="9" t="n">
+        <v>2811</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C101" s="9" t="n">
         <v>300</v>
       </c>
-      <c r="D98" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E98" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8" t="s">
-        <v>352</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="C99" s="9" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C100" s="9" t="n">
-        <v>5600</v>
-      </c>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="G100" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B101" s="9" t="s">
+      <c r="D101" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C101" s="9" t="n">
-        <v>101</v>
-      </c>
-      <c r="D101" s="9" t="s">
+      <c r="E101" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="F101" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="G101" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="102" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="s">
         <v>362</v>
       </c>
       <c r="B102" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C102" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="E102" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="C102" s="9" t="n">
+      <c r="F102" s="11" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C103" s="9" t="n">
+        <v>5500</v>
+      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C104" s="9" t="n">
+        <v>5600</v>
+      </c>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C105" s="9" t="n">
+        <v>101</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="C106" s="9" t="n">
         <v>111</v>
       </c>
-      <c r="D102" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="G102" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="F103" s="11" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="8" t="s">
-        <v>370</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="C104" s="9" t="n">
+      <c r="D106" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C108" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="D104" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="E104" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="C105" s="9" t="n">
+      <c r="D108" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C109" s="9" t="n">
         <v>112</v>
       </c>
-      <c r="D105" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="E105" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C106" s="9" t="n">
-        <v>3100</v>
-      </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="C107" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C108" s="9" t="n">
-        <v>122</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8" t="s">
+      <c r="D109" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="E109" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C109" s="9" t="n">
-        <v>1722</v>
-      </c>
-      <c r="D109" s="9"/>
-      <c r="E109" s="9" t="s">
+      <c r="F109" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="G109" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="8" t="s">
         <v>391</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>392</v>
+        <v>92</v>
       </c>
       <c r="C110" s="9" t="n">
-        <v>7100</v>
+        <v>3100</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F110" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="G110" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="111" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="8" t="s">
         <v>394</v>
       </c>
       <c r="B111" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
+      <c r="C111" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
         <v>396</v>
       </c>
@@ -4106,198 +4144,202 @@
         <v>397</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
         <v>398</v>
       </c>
       <c r="B112" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C112" s="9" t="n">
+        <v>122</v>
+      </c>
+      <c r="D112" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="11" t="s">
+      <c r="E112" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="F112" s="11" t="s">
+      <c r="G112" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="G112" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="8" t="s">
+      <c r="B113" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="C113" s="9" t="n">
+        <v>1722</v>
+      </c>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="11" t="s">
+      <c r="G113" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="F113" s="11" t="s">
+      <c r="B114" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="G113" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="1" t="s">
+      <c r="C114" s="9" t="n">
+        <v>7100</v>
+      </c>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="G114" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="115" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="11" t="s">
+      <c r="B115" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="F114" s="11" t="s">
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="G114" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8" t="s">
+      <c r="F115" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="B115" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C115" s="9" t="n">
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="F117" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C119" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D115" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="F115" s="11" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="C116" s="9" t="n">
+      <c r="D119" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="120" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="C120" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D116" s="9"/>
-      <c r="E116" s="8" t="s">
-        <v>416</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C117" s="2" t="n">
+      <c r="D120" s="9"/>
+      <c r="E120" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="121" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="C121" s="2" t="n">
         <v>2612</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E117" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8" t="s">
-        <v>423</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="D118" s="9"/>
-      <c r="E118" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="F118" s="11" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C120" s="9" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D120" s="9"/>
-      <c r="E120" s="11" t="s">
+      <c r="D121" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F120" s="11" t="s">
+      <c r="E121" s="15" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8" t="s">
+      <c r="F121" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="B121" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="9" t="s">
+    </row>
+    <row r="122" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="F121" s="11" t="s">
+      <c r="B122" s="9" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8" t="s">
+      <c r="C122" s="9" t="s">
         <v>438</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C122" s="9" t="n">
-        <v>6000</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
@@ -4307,12 +4349,12 @@
         <v>440</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
         <v>441</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
@@ -4323,787 +4365,787 @@
         <v>443</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="s">
         <v>444</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="9" t="s">
+      <c r="C124" s="9" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D124" s="9"/>
+      <c r="E124" s="11" t="s">
         <v>446</v>
       </c>
       <c r="F124" s="11" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="8" t="s">
         <v>448</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>449</v>
+        <v>145</v>
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
       <c r="E125" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="F125" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="F125" s="11" t="s">
+    </row>
+    <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="8" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8" t="s">
+      <c r="B126" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C126" s="9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="B126" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="9" t="s">
+      <c r="F126" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="F126" s="11" t="s">
+    </row>
+    <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="8" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8" t="s">
-        <v>455</v>
-      </c>
       <c r="B127" s="9" t="s">
-        <v>456</v>
+        <v>203</v>
       </c>
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
       <c r="E127" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="128" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="F127" s="11" t="s">
+      <c r="B128" s="9" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8" t="s">
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="F128" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="C128" s="9" t="n">
-        <v>5800</v>
-      </c>
-      <c r="D128" s="9"/>
-      <c r="E128" s="9" t="s">
+    </row>
+    <row r="129" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="8" t="s">
         <v>461</v>
       </c>
-      <c r="F128" s="11" t="s">
+      <c r="B129" s="9" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8" t="s">
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="F129" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="C129" s="9" t="n">
-        <v>7700</v>
-      </c>
-      <c r="D129" s="9" t="s">
+    </row>
+    <row r="130" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="B130" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="9" t="s">
         <v>466</v>
-      </c>
-      <c r="F129" s="11" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="C130" s="9" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="E130" s="11" t="s">
-        <v>471</v>
       </c>
       <c r="F130" s="11" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="8" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
       <c r="E131" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="F131" s="11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C132" s="9" t="n">
+        <v>5800</v>
+      </c>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="F131" s="11" t="s">
+      <c r="F132" s="11" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8" t="s">
+    <row r="133" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="B132" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C132" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D132" s="10" t="s">
+      <c r="B133" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="E132" s="9" t="s">
+      <c r="C133" s="9" t="n">
+        <v>7700</v>
+      </c>
+      <c r="D133" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="F132" s="11" t="s">
+      <c r="E133" s="11" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="8" t="s">
+      <c r="F133" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="B133" s="9" t="s">
+    </row>
+    <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="11" t="s">
+      <c r="B134" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="F133" s="11" t="s">
+      <c r="C134" s="9" t="n">
+        <v>7800</v>
+      </c>
+      <c r="D134" s="9" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8" t="s">
+      <c r="E134" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="B134" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="C134" s="9" t="n">
-        <v>101</v>
-      </c>
-      <c r="D134" s="9"/>
-      <c r="E134" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F134" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="135" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="8" t="s">
         <v>485</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>216</v>
+        <v>486</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
       <c r="E135" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F135" s="11" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="136" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C136" s="10"/>
+        <v>148</v>
+      </c>
+      <c r="C136" s="10" t="n">
+        <v>100</v>
+      </c>
       <c r="D136" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F136" s="11" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="137" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="8" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C137" s="9" t="n">
+        <v>494</v>
+      </c>
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="F137" s="11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="138" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C138" s="9" t="n">
+        <v>101</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C139" s="10"/>
+      <c r="D139" s="10"/>
+      <c r="E139" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="F140" s="11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="141" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C141" s="9" t="n">
         <v>1400</v>
       </c>
-      <c r="D137" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="F137" s="11" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="C138" s="9" t="n">
+      <c r="D141" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="F141" s="11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="142" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C142" s="9" t="n">
         <v>7400</v>
       </c>
-      <c r="D138" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="F138" s="11" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8" t="s">
-        <v>500</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="F139" s="11" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="C140" s="9" t="n">
+      <c r="D142" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="F142" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>516</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="C144" s="9" t="n">
         <v>1700</v>
       </c>
-      <c r="D140" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="F140" s="11" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="C141" s="9" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="F141" s="11" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="142" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="8" t="s">
-        <v>513</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="F142" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="G142" s="4"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8" t="s">
-        <v>516</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="D143" s="10"/>
-      <c r="E143" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="F143" s="11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8" t="s">
+      <c r="D144" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="B144" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
       <c r="E144" s="9" t="s">
         <v>520</v>
       </c>
       <c r="F144" s="11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="145" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
+        <v>523</v>
+      </c>
+      <c r="C145" s="9" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D145" s="9" t="s">
+        <v>115</v>
+      </c>
       <c r="E145" s="9" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F145" s="11" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="8" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
+        <v>225</v>
+      </c>
       <c r="E146" s="9" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F146" s="11" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>528</v>
+      </c>
+      <c r="G146" s="4"/>
+    </row>
+    <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="C147" s="10"/>
+        <v>203</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>530</v>
+      </c>
       <c r="D147" s="10"/>
       <c r="E147" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="F147" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="F147" s="11" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="8" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>449</v>
+        <v>514</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
       <c r="E148" s="9" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F148" s="11" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="8" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>197</v>
+        <v>462</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
       <c r="E149" s="9" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F149" s="11" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="8" t="s">
         <v>536</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>139</v>
+        <v>537</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
       <c r="E150" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F150" s="11" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="8" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>142</v>
+        <v>514</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
       <c r="E151" s="9" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F151" s="11" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="152" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>219</v>
+        <v>462</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
       <c r="E152" s="9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F152" s="11" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="8" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>449</v>
+        <v>203</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
       <c r="E153" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F153" s="11" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="8" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
       <c r="E154" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="8" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
       <c r="E155" s="9" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F155" s="11" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
       <c r="E156" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>197</v>
+        <v>462</v>
       </c>
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
       <c r="E157" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F157" s="11" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="158" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>501</v>
+        <v>145</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
       <c r="E158" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="159" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="8" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="C159" s="9" t="n">
-        <v>121</v>
-      </c>
-      <c r="D159" s="9"/>
-      <c r="E159" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C159" s="10"/>
+      <c r="D159" s="10"/>
+      <c r="E159" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="G159" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F159" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="8" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
       <c r="E160" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
       <c r="E161" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F161" s="11" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C162" s="9" t="n">
-        <v>111</v>
-      </c>
-      <c r="D162" s="9"/>
+        <v>514</v>
+      </c>
+      <c r="C162" s="10"/>
+      <c r="D162" s="10"/>
       <c r="E162" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="G162" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>574</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="163" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="8" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>262</v>
+        <v>577</v>
       </c>
       <c r="C163" s="9" t="n">
-        <v>1711</v>
+        <v>121</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="F163" s="11" t="s">
-        <v>264</v>
+        <v>578</v>
       </c>
       <c r="G163" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="s">
-        <v>575</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="8" t="s">
+        <v>579</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="C164" s="9" t="n">
-        <v>3300</v>
-      </c>
-      <c r="D164" s="9"/>
+        <v>145</v>
+      </c>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
       <c r="E164" s="9" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="F164" s="11" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="8" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="C165" s="9" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>581</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C165" s="10"/>
+      <c r="D165" s="10"/>
       <c r="E165" s="9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F165" s="11" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="C166" s="10"/>
-      <c r="D166" s="10"/>
+        <v>376</v>
+      </c>
+      <c r="C166" s="9" t="n">
+        <v>111</v>
+      </c>
+      <c r="D166" s="9"/>
       <c r="E166" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="F166" s="11" t="s">
-        <v>586</v>
+        <v>378</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C167" s="9" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D167" s="9"/>
+      <c r="E167" s="11" t="s">
         <v>587</v>
       </c>
-      <c r="B167" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="9" t="s">
+      <c r="F167" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F167" s="11" t="s">
+      <c r="B168" s="9" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="8" t="s">
+      <c r="C168" s="9" t="n">
+        <v>3300</v>
+      </c>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="B168" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="9" t="s">
+      <c r="F168" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="F168" s="11" t="s">
+    </row>
+    <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="8" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="8" t="s">
+      <c r="B169" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="B169" s="9" t="s">
-        <v>108</v>
-      </c>
       <c r="C169" s="9" t="n">
-        <v>1500</v>
+        <v>8000</v>
       </c>
       <c r="D169" s="9" t="s">
         <v>594</v>
@@ -5112,244 +5154,312 @@
         <v>595</v>
       </c>
       <c r="F169" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="170" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="B170" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="C170" s="9" t="n">
-        <v>2611</v>
-      </c>
-      <c r="D170" s="9"/>
+      <c r="B170" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
       <c r="E170" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="G170" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F170" s="11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="8" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>600</v>
-      </c>
-      <c r="C171" s="9" t="n">
-        <v>2711</v>
-      </c>
-      <c r="D171" s="9"/>
+        <v>148</v>
+      </c>
+      <c r="C171" s="10"/>
+      <c r="D171" s="10"/>
       <c r="E171" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="G171" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F171" s="11" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="9" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F172" s="11" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>606</v>
-      </c>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C173" s="9" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D173" s="9" t="s">
         <v>607</v>
       </c>
+      <c r="E173" s="9" t="s">
+        <v>608</v>
+      </c>
       <c r="F173" s="11" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="13" t="s">
         <v>610</v>
       </c>
       <c r="C174" s="9" t="n">
-        <v>3721</v>
+        <v>2611</v>
       </c>
       <c r="D174" s="9"/>
-      <c r="E174" s="11" t="s">
+      <c r="E174" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="F174" s="11" t="s">
+      <c r="G174" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="8" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8" t="s">
+      <c r="B175" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="B175" s="9" t="s">
-        <v>449</v>
-      </c>
       <c r="C175" s="9" t="n">
-        <v>6100</v>
+        <v>2711</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="F175" s="11" t="s">
+      <c r="G175" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="8" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8" t="s">
-        <v>616</v>
-      </c>
       <c r="B176" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="C176" s="10" t="n">
-        <v>8400</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="E176" s="9" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F176" s="11" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="B177" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E177" s="9" t="s">
+      <c r="F177" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="F177" s="11" t="s">
+    </row>
+    <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="G177" s="4"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="s">
+      <c r="B178" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="B178" s="9" t="s">
-        <v>245</v>
-      </c>
       <c r="C178" s="9" t="n">
-        <v>400</v>
+        <v>3721</v>
       </c>
       <c r="D178" s="9"/>
-      <c r="E178" s="9" t="s">
+      <c r="E178" s="11" t="s">
         <v>624</v>
       </c>
       <c r="F178" s="11" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="s">
+    <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="8" t="s">
         <v>626</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="C179" s="9" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="F179" s="11" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>630</v>
+      </c>
+      <c r="C180" s="10" t="n">
+        <v>8400</v>
+      </c>
+      <c r="D180" s="10"/>
+      <c r="E180" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="181" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E181" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="F181" s="11" t="s">
+        <v>635</v>
+      </c>
+      <c r="G181" s="4"/>
+    </row>
+    <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C182" s="9" t="n">
         <v>400</v>
-      </c>
-      <c r="D179" s="9"/>
-      <c r="E179" s="11" t="s">
-        <v>627</v>
-      </c>
-      <c r="F179" s="11" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="8" t="s">
-        <v>628</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>629</v>
-      </c>
-      <c r="C180" s="10"/>
-      <c r="D180" s="10"/>
-      <c r="E180" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="F180" s="11" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="8" t="s">
-        <v>632</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="F181" s="11" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="8" t="s">
-        <v>635</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="C182" s="9" t="n">
-        <v>21</v>
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="G182" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>637</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E183" s="9" t="s">
-        <v>638</v>
+        <v>428</v>
+      </c>
+      <c r="C183" s="9" t="n">
+        <v>400</v>
+      </c>
+      <c r="D183" s="9"/>
+      <c r="E183" s="11" t="s">
+        <v>640</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>639</v>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="C184" s="10"/>
+      <c r="D184" s="10"/>
+      <c r="E184" s="11" t="s">
+        <v>643</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="B185" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C185" s="10"/>
+      <c r="D185" s="10"/>
+      <c r="E185" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C186" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D186" s="9"/>
+      <c r="E186" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E187" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="F187" s="11" t="s">
+        <v>652</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="660">
   <si>
     <t>Hash</t>
   </si>
@@ -996,6 +996,9 @@
   </si>
   <si>
     <t>^[:\$][AB][:\$]([a-f0-9]{1,8}[:\$])?[a-f0-9]{32}$/i</t>
+  </si>
+  <si>
+    <t>3711</t>
   </si>
   <si>
     <t>mediawiki</t>
@@ -2168,8 +2171,8 @@
   </sheetPr>
   <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G192" activeCellId="0" sqref="G192"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2264,6 +2267,7 @@
       <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
+      <c r="G4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
@@ -2366,6 +2370,7 @@
       <c r="F9" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="G9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
@@ -2382,6 +2387,7 @@
       <c r="F10" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="G10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
@@ -2402,6 +2408,7 @@
       <c r="F11" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="G11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
@@ -2420,6 +2427,7 @@
       <c r="F12" s="9" t="s">
         <v>49</v>
       </c>
+      <c r="G12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
@@ -2436,6 +2444,7 @@
       <c r="F13" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="G13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
@@ -2454,6 +2463,7 @@
       <c r="F14" s="9" t="s">
         <v>57</v>
       </c>
+      <c r="G14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
@@ -2469,6 +2479,7 @@
       <c r="E15" s="9" t="s">
         <v>60</v>
       </c>
+      <c r="F15" s="0"/>
       <c r="G15" s="3" t="s">
         <v>61</v>
       </c>
@@ -2487,6 +2498,7 @@
       <c r="E16" s="9" t="s">
         <v>64</v>
       </c>
+      <c r="F16" s="0"/>
       <c r="G16" s="3" t="s">
         <v>61</v>
       </c>
@@ -2510,6 +2522,7 @@
       <c r="F17" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="G17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
@@ -2528,6 +2541,7 @@
       <c r="F18" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="G18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
@@ -2541,6 +2555,7 @@
       <c r="E19" s="9" t="s">
         <v>76</v>
       </c>
+      <c r="F19" s="0"/>
       <c r="G19" s="3" t="s">
         <v>61</v>
       </c>
@@ -2560,6 +2575,7 @@
       <c r="F20" s="9" t="s">
         <v>80</v>
       </c>
+      <c r="G20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
@@ -2576,6 +2592,7 @@
       <c r="F21" s="9" t="s">
         <v>83</v>
       </c>
+      <c r="G21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
@@ -2589,6 +2606,7 @@
       <c r="E22" s="2" t="s">
         <v>86</v>
       </c>
+      <c r="F22" s="0"/>
       <c r="G22" s="3" t="s">
         <v>61</v>
       </c>
@@ -2608,6 +2626,7 @@
       <c r="F23" s="9" t="s">
         <v>89</v>
       </c>
+      <c r="G23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
@@ -2624,6 +2643,7 @@
       <c r="F24" s="9" t="s">
         <v>92</v>
       </c>
+      <c r="G24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
@@ -2640,6 +2660,7 @@
       <c r="F25" s="9" t="s">
         <v>96</v>
       </c>
+      <c r="G25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
@@ -2656,6 +2677,7 @@
       <c r="F26" s="9" t="s">
         <v>100</v>
       </c>
+      <c r="G26" s="0"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
@@ -2672,6 +2694,7 @@
       <c r="F27" s="9" t="s">
         <v>104</v>
       </c>
+      <c r="G27" s="0"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
@@ -2688,6 +2711,7 @@
       <c r="F28" s="9" t="s">
         <v>108</v>
       </c>
+      <c r="G28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
@@ -2704,6 +2728,7 @@
       <c r="F29" s="9" t="s">
         <v>108</v>
       </c>
+      <c r="G29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
@@ -2722,6 +2747,7 @@
       <c r="F30" s="9" t="s">
         <v>114</v>
       </c>
+      <c r="G30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
@@ -2742,6 +2768,7 @@
       <c r="F31" s="9" t="s">
         <v>119</v>
       </c>
+      <c r="G31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
@@ -2760,6 +2787,7 @@
       <c r="F32" s="9" t="s">
         <v>123</v>
       </c>
+      <c r="G32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
@@ -2776,6 +2804,7 @@
       <c r="F33" s="9" t="s">
         <v>127</v>
       </c>
+      <c r="G33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
@@ -2792,6 +2821,7 @@
       <c r="F34" s="9" t="s">
         <v>131</v>
       </c>
+      <c r="G34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
@@ -2810,6 +2840,7 @@
       <c r="F35" s="9" t="s">
         <v>135</v>
       </c>
+      <c r="G35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
@@ -2830,6 +2861,7 @@
       <c r="F36" s="9" t="s">
         <v>140</v>
       </c>
+      <c r="G36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
@@ -2850,6 +2882,7 @@
       <c r="F37" s="9" t="s">
         <v>145</v>
       </c>
+      <c r="G37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
@@ -2865,6 +2898,7 @@
       <c r="E38" s="9" t="s">
         <v>148</v>
       </c>
+      <c r="F38" s="0"/>
       <c r="G38" s="3" t="s">
         <v>61</v>
       </c>
@@ -2883,6 +2917,7 @@
       <c r="E39" s="9" t="s">
         <v>151</v>
       </c>
+      <c r="F39" s="0"/>
       <c r="G39" s="3" t="s">
         <v>61</v>
       </c>
@@ -2904,6 +2939,7 @@
       <c r="F40" s="9" t="s">
         <v>155</v>
       </c>
+      <c r="G40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
@@ -2922,6 +2958,7 @@
       <c r="F41" s="9" t="s">
         <v>160</v>
       </c>
+      <c r="G41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
@@ -2938,6 +2975,7 @@
       <c r="F42" s="9" t="s">
         <v>163</v>
       </c>
+      <c r="G42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
@@ -2953,6 +2991,7 @@
       <c r="E43" s="9" t="s">
         <v>166</v>
       </c>
+      <c r="F43" s="0"/>
       <c r="G43" s="3" t="s">
         <v>61</v>
       </c>
@@ -2971,6 +3010,7 @@
       <c r="E44" s="9" t="s">
         <v>169</v>
       </c>
+      <c r="F44" s="0"/>
       <c r="G44" s="3" t="s">
         <v>61</v>
       </c>
@@ -2989,6 +3029,7 @@
       <c r="E45" s="9" t="s">
         <v>172</v>
       </c>
+      <c r="F45" s="0"/>
       <c r="G45" s="3" t="s">
         <v>61</v>
       </c>
@@ -3008,6 +3049,7 @@
       <c r="F46" s="9" t="s">
         <v>176</v>
       </c>
+      <c r="G46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
@@ -3024,6 +3066,7 @@
       <c r="F47" s="9" t="s">
         <v>179</v>
       </c>
+      <c r="G47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
@@ -3040,6 +3083,7 @@
       <c r="F48" s="9" t="s">
         <v>182</v>
       </c>
+      <c r="G48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
@@ -3056,6 +3100,7 @@
       <c r="F49" s="9" t="s">
         <v>185</v>
       </c>
+      <c r="G49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
@@ -3072,6 +3117,7 @@
       <c r="F50" s="9" t="s">
         <v>188</v>
       </c>
+      <c r="G50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
@@ -3088,6 +3134,7 @@
       <c r="F51" s="9" t="s">
         <v>191</v>
       </c>
+      <c r="G51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
@@ -3103,6 +3150,7 @@
       <c r="E52" s="9" t="s">
         <v>194</v>
       </c>
+      <c r="F52" s="0"/>
       <c r="G52" s="3" t="s">
         <v>61</v>
       </c>
@@ -3123,6 +3171,7 @@
       <c r="E53" s="9" t="s">
         <v>197</v>
       </c>
+      <c r="F53" s="0"/>
       <c r="G53" s="3" t="s">
         <v>61</v>
       </c>
@@ -3142,6 +3191,7 @@
       <c r="F54" s="9" t="s">
         <v>200</v>
       </c>
+      <c r="G54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
@@ -3158,6 +3208,7 @@
       <c r="F55" s="9" t="s">
         <v>203</v>
       </c>
+      <c r="G55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
@@ -3176,6 +3227,7 @@
       <c r="F56" s="9" t="s">
         <v>207</v>
       </c>
+      <c r="G56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
@@ -3194,6 +3246,7 @@
       <c r="F57" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="G57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
@@ -3212,6 +3265,7 @@
       <c r="F58" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="G58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
@@ -3228,6 +3282,7 @@
       <c r="F59" s="9" t="s">
         <v>217</v>
       </c>
+      <c r="G59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
@@ -3244,6 +3299,7 @@
       <c r="F60" s="9" t="s">
         <v>220</v>
       </c>
+      <c r="G60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
@@ -3260,6 +3316,7 @@
       <c r="F61" s="9" t="s">
         <v>220</v>
       </c>
+      <c r="G61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
@@ -3276,6 +3333,7 @@
       <c r="F62" s="9" t="s">
         <v>220</v>
       </c>
+      <c r="G62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
@@ -3292,6 +3350,7 @@
       <c r="F63" s="9" t="s">
         <v>220</v>
       </c>
+      <c r="G63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
@@ -3308,6 +3367,7 @@
       <c r="F64" s="9" t="s">
         <v>220</v>
       </c>
+      <c r="G64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
@@ -3328,6 +3388,7 @@
       <c r="F65" s="9" t="s">
         <v>235</v>
       </c>
+      <c r="G65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
@@ -3385,6 +3446,7 @@
       <c r="E68" s="9" t="s">
         <v>245</v>
       </c>
+      <c r="F68" s="0"/>
       <c r="G68" s="3" t="s">
         <v>61</v>
       </c>
@@ -3403,6 +3465,7 @@
       <c r="E69" s="9" t="s">
         <v>248</v>
       </c>
+      <c r="F69" s="0"/>
       <c r="G69" s="3" t="s">
         <v>61</v>
       </c>
@@ -3424,6 +3487,7 @@
       <c r="F70" s="9" t="s">
         <v>252</v>
       </c>
+      <c r="G70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
@@ -3437,6 +3501,7 @@
       <c r="E71" s="9" t="s">
         <v>254</v>
       </c>
+      <c r="F71" s="0"/>
       <c r="G71" s="3" t="s">
         <v>61</v>
       </c>
@@ -3458,6 +3523,7 @@
       <c r="F72" s="9" t="s">
         <v>258</v>
       </c>
+      <c r="G72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
@@ -3476,6 +3542,7 @@
       <c r="F73" s="9" t="s">
         <v>263</v>
       </c>
+      <c r="G73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
@@ -3496,6 +3563,7 @@
       <c r="F74" s="2" t="s">
         <v>268</v>
       </c>
+      <c r="G74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
@@ -3535,6 +3603,7 @@
       <c r="F76" s="9" t="s">
         <v>276</v>
       </c>
+      <c r="G76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
@@ -3572,6 +3641,7 @@
       <c r="F78" s="9" t="s">
         <v>284</v>
       </c>
+      <c r="G78" s="0"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="s">
@@ -3590,6 +3660,7 @@
       <c r="F79" s="9" t="s">
         <v>287</v>
       </c>
+      <c r="G79" s="0"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="s">
@@ -3610,6 +3681,7 @@
       <c r="F80" s="9" t="s">
         <v>291</v>
       </c>
+      <c r="G80" s="0"/>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="s">
@@ -3627,6 +3699,7 @@
       <c r="E81" s="2" t="s">
         <v>295</v>
       </c>
+      <c r="F81" s="0"/>
       <c r="G81" s="3" t="s">
         <v>61</v>
       </c>
@@ -3647,6 +3720,7 @@
       <c r="E82" s="9" t="s">
         <v>300</v>
       </c>
+      <c r="F82" s="0"/>
       <c r="G82" s="3" t="s">
         <v>61</v>
       </c>
@@ -3666,6 +3740,7 @@
       <c r="F83" s="9" t="s">
         <v>303</v>
       </c>
+      <c r="G83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
@@ -3682,6 +3757,7 @@
       <c r="F84" s="9" t="s">
         <v>306</v>
       </c>
+      <c r="G84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="s">
@@ -3698,6 +3774,7 @@
       <c r="F85" s="9" t="s">
         <v>309</v>
       </c>
+      <c r="G85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
@@ -3718,6 +3795,7 @@
       <c r="F86" s="9" t="s">
         <v>313</v>
       </c>
+      <c r="G86" s="0"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
@@ -3738,6 +3816,7 @@
       <c r="F87" s="9" t="s">
         <v>318</v>
       </c>
+      <c r="G87" s="0"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
@@ -3756,6 +3835,7 @@
       <c r="F88" s="9" t="s">
         <v>321</v>
       </c>
+      <c r="G88" s="0"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="s">
@@ -3774,6 +3854,7 @@
       <c r="F89" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="G89" s="0"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="s">
@@ -3792,6 +3873,7 @@
       <c r="F90" s="9" t="s">
         <v>252</v>
       </c>
+      <c r="G90" s="0"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
@@ -3800,161 +3882,173 @@
       <c r="B91" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C91" s="10"/>
+      <c r="C91" s="10" t="s">
+        <v>327</v>
+      </c>
       <c r="D91" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>329</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="G91" s="0"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
       <c r="E92" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>333</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="G92" s="0"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
       <c r="E93" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>337</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="G93" s="0"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C94" s="9" t="n">
         <v>131</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>342</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="G94" s="0"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C95" s="9" t="n">
         <v>132</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>347</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="G95" s="0"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C96" s="10" t="n">
         <v>132</v>
       </c>
       <c r="D96" s="10"/>
+      <c r="E96" s="0"/>
+      <c r="F96" s="0"/>
       <c r="G96" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C97" s="9" t="n">
         <v>1731</v>
       </c>
       <c r="D97" s="9"/>
       <c r="E97" s="9" t="s">
-        <v>351</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="F97" s="0"/>
       <c r="G97" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C98" s="9" t="n">
         <v>1731</v>
       </c>
       <c r="D98" s="9"/>
+      <c r="E98" s="0"/>
       <c r="F98" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C99" s="9" t="n">
         <v>2811</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>358</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="G99" s="0"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="8" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B100" s="9" t="s">
         <v>94</v>
@@ -3963,190 +4057,200 @@
         <v>200</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>362</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="G100" s="0"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="12" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C101" s="9" t="n">
         <v>300</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>367</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="G101" s="0"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C102" s="9" t="n">
         <v>300</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>370</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="G102" s="0"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C103" s="9" t="n">
         <v>5500</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>373</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="F103" s="0"/>
       <c r="G103" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="8" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C104" s="9" t="n">
         <v>5600</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
-        <v>376</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="F104" s="0"/>
       <c r="G104" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C105" s="9" t="n">
         <v>101</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>380</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="F105" s="0"/>
       <c r="G105" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="8" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C106" s="9" t="n">
         <v>111</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>384</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="F106" s="0"/>
       <c r="G106" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
       <c r="E107" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>388</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="G107" s="0"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C108" s="9" t="n">
         <v>1000</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>312</v>
       </c>
+      <c r="F108" s="0"/>
       <c r="G108" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C109" s="9" t="n">
         <v>112</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>396</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="G109" s="0"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="8" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>94</v>
@@ -4156,33 +4260,35 @@
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>399</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="G110" s="0"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="8" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C111" s="9" t="n">
         <v>21</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>403</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="G111" s="0"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B112" s="9" t="s">
         <v>224</v>
@@ -4191,81 +4297,85 @@
         <v>122</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>406</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="F112" s="0"/>
       <c r="G112" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C113" s="9" t="n">
         <v>1722</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
-        <v>409</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="F113" s="0"/>
       <c r="G113" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C114" s="9" t="n">
         <v>7100</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>412</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="F114" s="0"/>
       <c r="G114" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="8" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C115" s="10"/>
       <c r="D115" s="10"/>
       <c r="E115" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>416</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="G115" s="0"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
       <c r="E116" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>11</v>
@@ -4273,18 +4383,18 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
       <c r="E117" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>11</v>
@@ -4292,18 +4402,18 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
       <c r="E118" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>11</v>
@@ -4311,7 +4421,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>260</v>
@@ -4320,74 +4430,78 @@
         <v>400</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>432</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="G119" s="0"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C120" s="9" t="n">
         <v>400</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>436</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="G120" s="0"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>2612</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>441</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="G121" s="0"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C122" s="9" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D122" s="9"/>
       <c r="E122" s="9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>446</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="G122" s="0"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>147</v>
@@ -4395,33 +4509,35 @@
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
       <c r="E123" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>449</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="G123" s="0"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C124" s="9" t="n">
         <v>7600</v>
       </c>
       <c r="D124" s="9"/>
       <c r="E124" s="9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>453</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="G124" s="0"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>147</v>
@@ -4429,15 +4545,16 @@
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
       <c r="E125" s="9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>456</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="G125" s="0"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="8" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>150</v>
@@ -4447,15 +4564,16 @@
       </c>
       <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>459</v>
-      </c>
+        <v>460</v>
+      </c>
+      <c r="G126" s="0"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="8" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>205</v>
@@ -4463,153 +4581,162 @@
       <c r="C127" s="10"/>
       <c r="D127" s="10"/>
       <c r="E127" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>462</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="G127" s="0"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="8" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
       <c r="E128" s="9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>466</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="G128" s="0"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="8" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
       <c r="E129" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>470</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="G129" s="0"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
       <c r="E130" s="9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>473</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="G130" s="0"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="8" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
       <c r="E131" s="9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>477</v>
-      </c>
+        <v>478</v>
+      </c>
+      <c r="G131" s="0"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="8" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C132" s="9" t="n">
         <v>5800</v>
       </c>
       <c r="D132" s="9"/>
       <c r="E132" s="9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>481</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="G132" s="0"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C133" s="9" t="n">
         <v>7700</v>
       </c>
       <c r="D133" s="9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>486</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="G133" s="0"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C134" s="9" t="n">
         <v>7800</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>486</v>
-      </c>
+        <v>487</v>
+      </c>
+      <c r="G134" s="0"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="8" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C135" s="10"/>
       <c r="D135" s="10"/>
       <c r="E135" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>494</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="G135" s="0"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>150</v>
@@ -4618,52 +4745,55 @@
         <v>100</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>498</v>
-      </c>
+        <v>499</v>
+      </c>
+      <c r="G136" s="0"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="8" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="10"/>
       <c r="E137" s="9" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>502</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="G137" s="0"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="8" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C138" s="9" t="n">
         <v>101</v>
       </c>
       <c r="D138" s="9"/>
       <c r="E138" s="9" t="s">
-        <v>380</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="F138" s="0"/>
       <c r="G138" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B139" s="9" t="s">
         <v>224</v>
@@ -4671,33 +4801,35 @@
       <c r="C139" s="10"/>
       <c r="D139" s="10"/>
       <c r="E139" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>506</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="G139" s="0"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>227</v>
       </c>
       <c r="C140" s="10"/>
       <c r="D140" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>510</v>
-      </c>
+        <v>511</v>
+      </c>
+      <c r="G140" s="0"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>205</v>
@@ -4706,21 +4838,22 @@
         <v>1400</v>
       </c>
       <c r="D141" s="9" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>514</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="G141" s="0"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C142" s="9" t="n">
         <v>7400</v>
@@ -4729,56 +4862,59 @@
         <v>117</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>518</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="G142" s="0"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="8" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="10" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>523</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="G143" s="0"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C144" s="9" t="n">
         <v>1700</v>
       </c>
       <c r="D144" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>527</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="G144" s="0"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="8" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C145" s="9" t="n">
         <v>1800</v>
@@ -4787,15 +4923,16 @@
         <v>117</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>531</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="G145" s="0"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>227</v>
@@ -4803,113 +4940,120 @@
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="9" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>534</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="G146" s="0"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>205</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="9" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>534</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="G147" s="0"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="8" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C148" s="10"/>
       <c r="D148" s="10"/>
       <c r="E148" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>534</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="G148" s="0"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
       <c r="E149" s="9" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>534</v>
-      </c>
+        <v>535</v>
+      </c>
+      <c r="G149" s="0"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
       <c r="E150" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>545</v>
-      </c>
+        <v>546</v>
+      </c>
+      <c r="G150" s="0"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
       <c r="E151" s="9" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>548</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="G151" s="0"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
       <c r="E152" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>551</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="G152" s="0"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B153" s="9" t="s">
         <v>205</v>
@@ -4917,15 +5061,16 @@
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
       <c r="E153" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>554</v>
-      </c>
+        <v>555</v>
+      </c>
+      <c r="G153" s="0"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="8" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>147</v>
@@ -4933,15 +5078,16 @@
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
       <c r="E154" s="9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>557</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="G154" s="0"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="8" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>150</v>
@@ -4949,15 +5095,16 @@
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
       <c r="E155" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>560</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="G155" s="0"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="8" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>227</v>
@@ -4965,31 +5112,33 @@
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
       <c r="E156" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>563</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="G156" s="0"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
       <c r="E157" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>566</v>
-      </c>
+        <v>567</v>
+      </c>
+      <c r="G157" s="0"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B158" s="9" t="s">
         <v>147</v>
@@ -4997,15 +5146,16 @@
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
       <c r="E158" s="9" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>569</v>
-      </c>
+        <v>570</v>
+      </c>
+      <c r="G158" s="0"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="8" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>150</v>
@@ -5013,15 +5163,16 @@
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
       <c r="E159" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>572</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="G159" s="0"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="8" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>227</v>
@@ -5029,15 +5180,16 @@
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
       <c r="E160" s="9" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>575</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="G160" s="0"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="8" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>205</v>
@@ -5045,49 +5197,52 @@
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
       <c r="E161" s="9" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>578</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="G161" s="0"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="8" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
       <c r="E162" s="9" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>581</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="G162" s="0"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C163" s="9" t="n">
         <v>121</v>
       </c>
       <c r="D163" s="9"/>
       <c r="E163" s="9" t="s">
-        <v>584</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="F163" s="0"/>
       <c r="G163" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>147</v>
@@ -5095,15 +5250,16 @@
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
       <c r="E164" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>587</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="G164" s="0"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B165" s="9" t="s">
         <v>205</v>
@@ -5111,33 +5267,35 @@
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
       <c r="E165" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>590</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="G165" s="0"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="8" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C166" s="9" t="n">
         <v>111</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9" t="s">
-        <v>384</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="F166" s="0"/>
       <c r="G166" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B167" s="9" t="s">
         <v>278</v>
@@ -5147,7 +5305,7 @@
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F167" s="9" t="s">
         <v>280</v>
@@ -5158,45 +5316,47 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C168" s="9" t="n">
         <v>3300</v>
       </c>
       <c r="D168" s="9"/>
       <c r="E168" s="9" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>597</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="G168" s="0"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="8" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C169" s="9" t="n">
         <v>8000</v>
       </c>
       <c r="D169" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E169" s="9" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>602</v>
-      </c>
+        <v>603</v>
+      </c>
+      <c r="G169" s="0"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B170" s="9" t="s">
         <v>147</v>
@@ -5204,15 +5364,16 @@
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
       <c r="E170" s="9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>605</v>
-      </c>
+        <v>606</v>
+      </c>
+      <c r="G170" s="0"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B171" s="9" t="s">
         <v>150</v>
@@ -5220,15 +5381,16 @@
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
       <c r="E171" s="9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>608</v>
-      </c>
+        <v>609</v>
+      </c>
+      <c r="G171" s="0"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>224</v>
@@ -5236,15 +5398,16 @@
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="9" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>611</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="G172" s="0"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B173" s="9" t="s">
         <v>116</v>
@@ -5253,54 +5416,57 @@
         <v>1500</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E173" s="9" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F173" s="9" t="s">
         <v>119</v>
       </c>
+      <c r="G173" s="0"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C174" s="9" t="n">
         <v>2611</v>
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="9" t="s">
-        <v>617</v>
-      </c>
+        <v>618</v>
+      </c>
+      <c r="F174" s="0"/>
       <c r="G174" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B175" s="9" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C175" s="9" t="n">
         <v>2711</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9" t="s">
-        <v>620</v>
-      </c>
+        <v>621</v>
+      </c>
+      <c r="F175" s="0"/>
       <c r="G175" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>205</v>
@@ -5308,85 +5474,90 @@
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="E176" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>623</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="G176" s="0"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
       <c r="E177" s="9" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>627</v>
-      </c>
+        <v>628</v>
+      </c>
+      <c r="G177" s="0"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="8" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C178" s="9" t="n">
         <v>3721</v>
       </c>
       <c r="D178" s="9"/>
       <c r="E178" s="9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>631</v>
-      </c>
+        <v>632</v>
+      </c>
+      <c r="G178" s="0"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C179" s="9" t="n">
         <v>6100</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>634</v>
-      </c>
+        <v>635</v>
+      </c>
+      <c r="G179" s="0"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C180" s="10" t="n">
         <v>8400</v>
       </c>
       <c r="D180" s="10"/>
       <c r="E180" s="9" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>638</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="G180" s="0"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="8" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>41</v>
@@ -5394,15 +5565,16 @@
       <c r="C181" s="7"/>
       <c r="D181" s="7"/>
       <c r="E181" s="9" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>641</v>
-      </c>
+        <v>642</v>
+      </c>
+      <c r="G181" s="0"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B182" s="9" t="s">
         <v>260</v>
@@ -5412,49 +5584,52 @@
       </c>
       <c r="D182" s="9"/>
       <c r="E182" s="9" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>644</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="G182" s="0"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C183" s="9" t="n">
         <v>400</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>436</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="G183" s="0"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="8" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
       <c r="E184" s="9" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>650</v>
-      </c>
+        <v>651</v>
+      </c>
+      <c r="G184" s="0"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="8" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>16</v>
@@ -5462,42 +5637,44 @@
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
       <c r="E185" s="9" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>653</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="G185" s="0"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C186" s="9" t="n">
         <v>21</v>
       </c>
       <c r="D186" s="9"/>
       <c r="E186" s="9" t="s">
-        <v>655</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="F186" s="0"/>
       <c r="G186" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B187" s="9" t="s">
         <v>147</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -1034,6 +1034,18 @@
     <t>http://dev.bukkit.org/bukkit-plugins/authme-reloaded/</t>
   </si>
   <si>
+    <t>Minecraft(xAuth)</t>
+  </si>
+  <si>
+    <t>^[a-f0-9]{140}$/i</t>
+  </si>
+  <si>
+    <t>cb5ef15b400cef07addb37e00e2cdd6d1b508a2a26f0befcb0f9d8fd03c1d67be1690eba2287c4f76a590f2feae654ce5aee9943a23babb8e56381fe3214a48ad8754a1fd9eb</t>
+  </si>
+  <si>
+    <t>https://github.com/CypherX/xAuth/wiki/Password-Hashing</t>
+  </si>
+  <si>
     <t>MSSQL(2000)</t>
   </si>
   <si>
@@ -1959,18 +1971,6 @@
   </si>
   <si>
     <t>$H$91234567894GGuEJpikxPnFVUioh9e.</t>
-  </si>
-  <si>
-    <t>xAuth</t>
-  </si>
-  <si>
-    <t>^[a-f0-9]{140}$/i</t>
-  </si>
-  <si>
-    <t>cb5ef15b400cef07addb37e00e2cdd6d1b508a2a26f0befcb0f9d8fd03c1d67be1690eba2287c4f76a590f2feae654ce5aee9943a23babb8e56381fe3214a48ad8754a1fd9eb</t>
-  </si>
-  <si>
-    <t>https://github.com/CypherX/xAuth/wiki/Password-Hashing</t>
   </si>
   <si>
     <t>XOR-32</t>
@@ -2171,8 +2171,8 @@
   </sheetPr>
   <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B101" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2252,7 +2252,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -2267,7 +2267,6 @@
       <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
@@ -2353,7 +2352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
@@ -2370,9 +2369,8 @@
       <c r="F9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>36</v>
       </c>
@@ -2387,9 +2385,8 @@
       <c r="F10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8" t="s">
         <v>40</v>
       </c>
@@ -2408,9 +2405,8 @@
       <c r="F11" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
         <v>45</v>
       </c>
@@ -2427,9 +2423,8 @@
       <c r="F12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
@@ -2444,9 +2439,8 @@
       <c r="F13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8" t="s">
         <v>54</v>
       </c>
@@ -2463,9 +2457,8 @@
       <c r="F14" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8" t="s">
         <v>58</v>
       </c>
@@ -2479,12 +2472,11 @@
       <c r="E15" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="0"/>
       <c r="G15" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8" t="s">
         <v>62</v>
       </c>
@@ -2498,12 +2490,11 @@
       <c r="E16" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="0"/>
       <c r="G16" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8" t="s">
         <v>65</v>
       </c>
@@ -2522,9 +2513,8 @@
       <c r="F17" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="0"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8" t="s">
         <v>70</v>
       </c>
@@ -2541,9 +2531,8 @@
       <c r="F18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8" t="s">
         <v>74</v>
       </c>
@@ -2555,12 +2544,11 @@
       <c r="E19" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="0"/>
       <c r="G19" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8" t="s">
         <v>77</v>
       </c>
@@ -2575,9 +2563,8 @@
       <c r="F20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8" t="s">
         <v>81</v>
       </c>
@@ -2592,9 +2579,8 @@
       <c r="F21" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
@@ -2606,12 +2592,11 @@
       <c r="E22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="0"/>
       <c r="G22" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8" t="s">
         <v>87</v>
       </c>
@@ -2626,9 +2611,8 @@
       <c r="F23" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="G23" s="0"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8" t="s">
         <v>90</v>
       </c>
@@ -2643,9 +2627,8 @@
       <c r="F24" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="G24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8" t="s">
         <v>93</v>
       </c>
@@ -2660,9 +2643,8 @@
       <c r="F25" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8" t="s">
         <v>97</v>
       </c>
@@ -2677,9 +2659,8 @@
       <c r="F26" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="G26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8" t="s">
         <v>101</v>
       </c>
@@ -2694,9 +2675,8 @@
       <c r="F27" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="G27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8" t="s">
         <v>105</v>
       </c>
@@ -2711,9 +2691,8 @@
       <c r="F28" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="0"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8" t="s">
         <v>109</v>
       </c>
@@ -2728,9 +2707,8 @@
       <c r="F29" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G29" s="0"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="30" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
         <v>112</v>
       </c>
@@ -2747,9 +2725,8 @@
       <c r="F30" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="G30" s="0"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="31" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="12" t="s">
         <v>115</v>
       </c>
@@ -2768,9 +2745,8 @@
       <c r="F31" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="32" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>120</v>
       </c>
@@ -2787,9 +2763,8 @@
       <c r="F32" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>124</v>
       </c>
@@ -2804,9 +2779,8 @@
       <c r="F33" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="G33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="34" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>128</v>
       </c>
@@ -2821,9 +2795,8 @@
       <c r="F34" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="G34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="35" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>132</v>
       </c>
@@ -2840,9 +2813,8 @@
       <c r="F35" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="G35" s="0"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="36" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
         <v>136</v>
       </c>
@@ -2861,9 +2833,8 @@
       <c r="F36" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="37" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
         <v>141</v>
       </c>
@@ -2882,9 +2853,8 @@
       <c r="F37" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="G37" s="0"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>146</v>
       </c>
@@ -2898,12 +2868,11 @@
       <c r="E38" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="F38" s="0"/>
       <c r="G38" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>149</v>
       </c>
@@ -2917,12 +2886,11 @@
       <c r="E39" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="F39" s="0"/>
       <c r="G39" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
         <v>152</v>
       </c>
@@ -2939,9 +2907,8 @@
       <c r="F40" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="G40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="41" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
         <v>156</v>
       </c>
@@ -2958,9 +2925,8 @@
       <c r="F41" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="42" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
         <v>161</v>
       </c>
@@ -2975,9 +2941,8 @@
       <c r="F42" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="G42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="43" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
         <v>164</v>
       </c>
@@ -2991,12 +2956,11 @@
       <c r="E43" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="F43" s="0"/>
       <c r="G43" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
         <v>167</v>
       </c>
@@ -3010,12 +2974,11 @@
       <c r="E44" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F44" s="0"/>
       <c r="G44" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
         <v>170</v>
       </c>
@@ -3029,12 +2992,11 @@
       <c r="E45" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F45" s="0"/>
       <c r="G45" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>173</v>
       </c>
@@ -3049,9 +3011,8 @@
       <c r="F46" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="G46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="47" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
         <v>177</v>
       </c>
@@ -3066,9 +3027,8 @@
       <c r="F47" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="G47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="48" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
         <v>180</v>
       </c>
@@ -3083,9 +3043,8 @@
       <c r="F48" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="G48" s="0"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="49" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
         <v>183</v>
       </c>
@@ -3100,9 +3059,8 @@
       <c r="F49" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="G49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="50" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
         <v>186</v>
       </c>
@@ -3117,9 +3075,8 @@
       <c r="F50" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="G50" s="0"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
         <v>189</v>
       </c>
@@ -3134,9 +3091,8 @@
       <c r="F51" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="G51" s="0"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
         <v>192</v>
       </c>
@@ -3150,12 +3106,11 @@
       <c r="E52" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="F52" s="0"/>
       <c r="G52" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
         <v>195</v>
       </c>
@@ -3171,12 +3126,11 @@
       <c r="E53" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="F53" s="0"/>
       <c r="G53" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
         <v>198</v>
       </c>
@@ -3191,9 +3145,8 @@
       <c r="F54" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
         <v>201</v>
       </c>
@@ -3208,9 +3161,8 @@
       <c r="F55" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
         <v>204</v>
       </c>
@@ -3227,9 +3179,8 @@
       <c r="F56" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="G56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
         <v>208</v>
       </c>
@@ -3246,9 +3197,8 @@
       <c r="F57" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="G57" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
         <v>212</v>
       </c>
@@ -3265,9 +3215,8 @@
       <c r="F58" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
         <v>215</v>
       </c>
@@ -3282,9 +3231,8 @@
       <c r="F59" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="G59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
         <v>218</v>
       </c>
@@ -3299,9 +3247,8 @@
       <c r="F60" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="G60" s="0"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
         <v>221</v>
       </c>
@@ -3316,9 +3263,8 @@
       <c r="F61" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="G61" s="0"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
         <v>223</v>
       </c>
@@ -3333,9 +3279,8 @@
       <c r="F62" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="G62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="63" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
         <v>226</v>
       </c>
@@ -3350,9 +3295,8 @@
       <c r="F63" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="G63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
         <v>229</v>
       </c>
@@ -3367,9 +3311,8 @@
       <c r="F64" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="G64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>231</v>
       </c>
@@ -3388,7 +3331,6 @@
       <c r="F65" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="G65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
@@ -3432,7 +3374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="12" t="s">
         <v>243</v>
       </c>
@@ -3446,12 +3388,11 @@
       <c r="E68" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="F68" s="0"/>
       <c r="G68" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>246</v>
       </c>
@@ -3465,12 +3406,11 @@
       <c r="E69" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="F69" s="0"/>
       <c r="G69" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8" t="s">
         <v>249</v>
       </c>
@@ -3487,9 +3427,8 @@
       <c r="F70" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="G70" s="0"/>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8" t="s">
         <v>253</v>
       </c>
@@ -3501,12 +3440,11 @@
       <c r="E71" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F71" s="0"/>
       <c r="G71" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8" t="s">
         <v>255</v>
       </c>
@@ -3523,9 +3461,8 @@
       <c r="F72" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="G72" s="0"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8" t="s">
         <v>259</v>
       </c>
@@ -3542,9 +3479,8 @@
       <c r="F73" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="G73" s="0"/>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="74" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8" t="s">
         <v>264</v>
       </c>
@@ -3563,7 +3499,6 @@
       <c r="F74" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
@@ -3586,7 +3521,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
         <v>273</v>
       </c>
@@ -3603,7 +3538,6 @@
       <c r="F76" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="G76" s="0"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="8" t="s">
@@ -3626,7 +3560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="s">
         <v>281</v>
       </c>
@@ -3641,9 +3575,8 @@
       <c r="F78" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="G78" s="0"/>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="79" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="s">
         <v>285</v>
       </c>
@@ -3660,9 +3593,8 @@
       <c r="F79" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G79" s="0"/>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="80" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="s">
         <v>288</v>
       </c>
@@ -3681,9 +3613,8 @@
       <c r="F80" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="G80" s="0"/>
-    </row>
-    <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="81" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="s">
         <v>292</v>
       </c>
@@ -3699,12 +3630,11 @@
       <c r="E81" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="F81" s="0"/>
       <c r="G81" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="8" t="s">
         <v>296</v>
       </c>
@@ -3720,12 +3650,11 @@
       <c r="E82" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="F82" s="0"/>
       <c r="G82" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
         <v>301</v>
       </c>
@@ -3740,9 +3669,8 @@
       <c r="F83" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="G83" s="0"/>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="84" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>304</v>
       </c>
@@ -3757,9 +3685,8 @@
       <c r="F84" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="G84" s="0"/>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="85" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="s">
         <v>307</v>
       </c>
@@ -3774,9 +3701,8 @@
       <c r="F85" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="G85" s="0"/>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="86" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
         <v>310</v>
       </c>
@@ -3795,9 +3721,8 @@
       <c r="F86" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="G86" s="0"/>
-    </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="87" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
         <v>314</v>
       </c>
@@ -3816,9 +3741,8 @@
       <c r="F87" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="G87" s="0"/>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="88" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
         <v>319</v>
       </c>
@@ -3835,9 +3759,8 @@
       <c r="F88" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="G88" s="0"/>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="s">
         <v>322</v>
       </c>
@@ -3854,9 +3777,8 @@
       <c r="F89" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="G89" s="0"/>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="90" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="s">
         <v>324</v>
       </c>
@@ -3873,9 +3795,8 @@
       <c r="F90" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="G90" s="0"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="91" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
         <v>325</v>
       </c>
@@ -3894,9 +3815,8 @@
       <c r="F91" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="G91" s="0"/>
-    </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
         <v>331</v>
       </c>
@@ -3911,9 +3831,8 @@
       <c r="F92" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G92" s="0"/>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
         <v>335</v>
       </c>
@@ -3928,247 +3847,229 @@
       <c r="F93" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="G93" s="0"/>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="s">
         <v>339</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C94" s="9" t="n">
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C95" s="9" t="n">
         <v>131</v>
       </c>
-      <c r="D94" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="G94" s="0"/>
-    </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="8" t="s">
-        <v>344</v>
-      </c>
-      <c r="B95" s="9" t="s">
+      <c r="D95" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="C95" s="9" t="n">
+      <c r="E95" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C96" s="9" t="n">
         <v>132</v>
       </c>
-      <c r="D95" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="G95" s="0"/>
-    </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="8" t="s">
+      <c r="D96" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="C96" s="10" t="n">
+      <c r="C97" s="10" t="n">
         <v>132</v>
       </c>
-      <c r="D96" s="10"/>
-      <c r="E96" s="0"/>
-      <c r="F96" s="0"/>
-      <c r="G96" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="C97" s="9" t="n">
-        <v>1731</v>
-      </c>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="F97" s="0"/>
+      <c r="D97" s="10"/>
       <c r="G97" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="8" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C98" s="9" t="n">
         <v>1731</v>
       </c>
       <c r="D98" s="9"/>
-      <c r="E98" s="0"/>
-      <c r="F98" s="9" t="s">
-        <v>354</v>
+      <c r="E98" s="9" t="s">
+        <v>356</v>
       </c>
       <c r="G98" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>357</v>
-      </c>
       <c r="C99" s="9" t="n">
-        <v>2811</v>
+        <v>1731</v>
       </c>
       <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
+      <c r="F99" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="G99" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="G99" s="0"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="8" t="s">
         <v>360</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>94</v>
+        <v>361</v>
       </c>
       <c r="C100" s="9" t="n">
-        <v>200</v>
-      </c>
-      <c r="D100" s="9" t="s">
-        <v>361</v>
-      </c>
+        <v>2811</v>
+      </c>
+      <c r="D100" s="9"/>
       <c r="E100" s="9" t="s">
         <v>362</v>
       </c>
       <c r="F100" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="G100" s="0"/>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12" t="s">
+    </row>
+    <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="8" t="s">
         <v>364</v>
       </c>
       <c r="B101" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" s="9" t="n">
+        <v>200</v>
+      </c>
+      <c r="D101" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C101" s="9" t="n">
-        <v>300</v>
-      </c>
-      <c r="D101" s="9" t="s">
+      <c r="E101" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="F101" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="F101" s="9" t="s">
+    </row>
+    <row r="102" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="G101" s="0"/>
-    </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="8" t="s">
+      <c r="B102" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>365</v>
       </c>
       <c r="C102" s="9" t="n">
         <v>300</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="E102" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="C103" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="D103" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="F102" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="G102" s="0"/>
-    </row>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="8" t="s">
-        <v>372</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>373</v>
-      </c>
-      <c r="C103" s="9" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="F103" s="0"/>
-      <c r="G103" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F103" s="9" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="104" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="8" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C104" s="9" t="n">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="F104" s="0"/>
+        <v>378</v>
+      </c>
       <c r="G104" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C105" s="9" t="n">
-        <v>101</v>
-      </c>
-      <c r="D105" s="9" t="s">
-        <v>380</v>
-      </c>
+        <v>5600</v>
+      </c>
+      <c r="D105" s="9"/>
       <c r="E105" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="F105" s="0"/>
       <c r="G105" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="8" t="s">
         <v>382</v>
       </c>
@@ -4176,7 +4077,7 @@
         <v>383</v>
       </c>
       <c r="C106" s="9" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="D106" s="9" t="s">
         <v>384</v>
@@ -4184,98 +4085,95 @@
       <c r="E106" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="F106" s="0"/>
       <c r="G106" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="s">
         <v>386</v>
       </c>
       <c r="B107" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
+      <c r="C107" s="9" t="n">
+        <v>111</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>388</v>
+      </c>
       <c r="E107" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="F107" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="G107" s="0"/>
-    </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G107" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="s">
         <v>390</v>
       </c>
       <c r="B108" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="C108" s="9" t="n">
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="C109" s="9" t="n">
         <v>1000</v>
       </c>
-      <c r="D108" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="E108" s="9" t="s">
+      <c r="D109" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="E109" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="F108" s="0"/>
-      <c r="G108" s="3" t="s">
+      <c r="G109" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C109" s="9" t="n">
+    <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="C110" s="9" t="n">
         <v>112</v>
       </c>
-      <c r="D109" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="G109" s="0"/>
-    </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="8" t="s">
-        <v>398</v>
-      </c>
-      <c r="B110" s="9" t="s">
+      <c r="D110" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="111" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C110" s="9" t="n">
+      <c r="C111" s="9" t="n">
         <v>3100</v>
-      </c>
-      <c r="D110" s="9"/>
-      <c r="E110" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="G110" s="0"/>
-    </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C111" s="9" t="n">
-        <v>21</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
@@ -4284,85 +4182,82 @@
       <c r="F111" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="G111" s="0"/>
-    </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="112" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
         <v>405</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="C112" s="9" t="n">
-        <v>122</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>406</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D112" s="9"/>
       <c r="E112" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="F112" s="0"/>
-      <c r="G112" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F112" s="9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>409</v>
+        <v>224</v>
       </c>
       <c r="C113" s="9" t="n">
-        <v>1722</v>
-      </c>
-      <c r="D113" s="9"/>
+        <v>122</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>410</v>
+      </c>
       <c r="E113" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="F113" s="0"/>
+        <v>411</v>
+      </c>
       <c r="G113" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="8" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C114" s="9" t="n">
-        <v>7100</v>
+        <v>1722</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="F114" s="0"/>
+        <v>414</v>
+      </c>
       <c r="G114" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="8" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
+        <v>416</v>
+      </c>
+      <c r="C115" s="9" t="n">
+        <v>7100</v>
+      </c>
+      <c r="D115" s="9"/>
       <c r="E115" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="F115" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="G115" s="0"/>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G115" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="8" t="s">
         <v>418</v>
       </c>
@@ -4377,9 +4272,6 @@
       <c r="F116" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="G116" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="8" t="s">
@@ -4401,7 +4293,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="8" t="s">
         <v>426</v>
       </c>
       <c r="B118" s="9" t="s">
@@ -4420,180 +4312,174 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="1" t="s">
         <v>430</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C119" s="9" t="n">
-        <v>400</v>
-      </c>
-      <c r="D119" s="9" t="s">
         <v>431</v>
       </c>
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
       <c r="E119" s="9" t="s">
         <v>432</v>
       </c>
       <c r="F119" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="G119" s="0"/>
-    </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
+      <c r="G119" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="8" t="s">
         <v>434</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>435</v>
+        <v>260</v>
       </c>
       <c r="C120" s="9" t="n">
         <v>400</v>
       </c>
-      <c r="D120" s="9"/>
+      <c r="D120" s="9" t="s">
+        <v>435</v>
+      </c>
       <c r="E120" s="9" t="s">
         <v>436</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="G120" s="0"/>
-    </row>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="121" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="C121" s="2" t="n">
+      <c r="C121" s="9" t="n">
+        <v>400</v>
+      </c>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="122" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C122" s="2" t="n">
         <v>2612</v>
       </c>
-      <c r="D121" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="G121" s="0"/>
-    </row>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B122" s="9" t="s">
+      <c r="D122" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C122" s="9" t="s">
+      <c r="E122" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9" t="s">
+      <c r="F122" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="F122" s="9" t="s">
+    </row>
+    <row r="123" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="G122" s="0"/>
-    </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8" t="s">
+      <c r="B123" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="C123" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="G123" s="0"/>
-    </row>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>452</v>
-      </c>
-      <c r="C124" s="9" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D124" s="9"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
       <c r="E124" s="9" t="s">
         <v>453</v>
       </c>
       <c r="F124" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="G124" s="0"/>
-    </row>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="8" t="s">
         <v>455</v>
       </c>
       <c r="B125" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="C125" s="9" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="9" t="s">
-        <v>456</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="G125" s="0"/>
-    </row>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="B126" s="9" t="s">
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B127" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C126" s="9" t="n">
+      <c r="C127" s="9" t="n">
         <v>6000</v>
       </c>
-      <c r="D126" s="9"/>
-      <c r="E126" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="F126" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="G126" s="0"/>
-    </row>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="B127" s="9" t="s">
+      <c r="D127" s="9"/>
+      <c r="E127" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="128" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="F127" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="G127" s="0"/>
-    </row>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8" t="s">
-        <v>464</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>465</v>
       </c>
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
@@ -4603,9 +4489,8 @@
       <c r="F128" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="G128" s="0"/>
-    </row>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="129" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="8" t="s">
         <v>468</v>
       </c>
@@ -4620,31 +4505,29 @@
       <c r="F129" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="G129" s="0"/>
-    </row>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="130" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="8" t="s">
         <v>472</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
       <c r="E130" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="131" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>473</v>
-      </c>
-      <c r="F130" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="G130" s="0"/>
-    </row>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>476</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
@@ -4654,28 +4537,24 @@
       <c r="F131" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="G131" s="0"/>
-    </row>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="8" t="s">
         <v>479</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="C132" s="9" t="n">
-        <v>5800</v>
-      </c>
-      <c r="D132" s="9"/>
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
       <c r="E132" s="9" t="s">
         <v>481</v>
       </c>
       <c r="F132" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="G132" s="0"/>
-    </row>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="133" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="8" t="s">
         <v>483</v>
       </c>
@@ -4683,161 +4562,151 @@
         <v>484</v>
       </c>
       <c r="C133" s="9" t="n">
+        <v>5800</v>
+      </c>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="C134" s="9" t="n">
         <v>7700</v>
       </c>
-      <c r="D133" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="G133" s="0"/>
-    </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="8" t="s">
-        <v>488</v>
-      </c>
-      <c r="B134" s="9" t="s">
+      <c r="D134" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="C134" s="9" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D134" s="9" t="s">
+      <c r="E134" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="E134" s="9" t="s">
+      <c r="F134" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="F134" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="G134" s="0"/>
-    </row>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="135" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="8" t="s">
         <v>492</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C135" s="10"/>
-      <c r="D135" s="10"/>
+      <c r="C135" s="9" t="n">
+        <v>7800</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>494</v>
+      </c>
       <c r="E135" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="G135" s="0"/>
-    </row>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="136" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="8" t="s">
         <v>496</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C136" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D136" s="10" t="s">
         <v>497</v>
       </c>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
       <c r="E136" s="9" t="s">
         <v>498</v>
       </c>
       <c r="F136" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="G136" s="0"/>
-    </row>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="137" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="8" t="s">
         <v>500</v>
       </c>
       <c r="B137" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C137" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D137" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
       <c r="E137" s="9" t="s">
         <v>502</v>
       </c>
       <c r="F137" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="G137" s="0"/>
-    </row>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="138" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="8" t="s">
         <v>504</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="C138" s="9" t="n">
+        <v>505</v>
+      </c>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="139" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C139" s="9" t="n">
         <v>101</v>
       </c>
-      <c r="D138" s="9"/>
-      <c r="E138" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="F138" s="0"/>
-      <c r="G138" s="3" t="s">
+      <c r="D139" s="9"/>
+      <c r="E139" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="G139" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="8" t="s">
-        <v>505</v>
-      </c>
-      <c r="B139" s="9" t="s">
+    <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="9" t="s">
-        <v>506</v>
-      </c>
-      <c r="F139" s="9" t="s">
-        <v>507</v>
-      </c>
-      <c r="G139" s="0"/>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="8" t="s">
-        <v>508</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>227</v>
-      </c>
       <c r="C140" s="10"/>
-      <c r="D140" s="10" t="s">
-        <v>509</v>
-      </c>
+      <c r="D140" s="10"/>
       <c r="E140" s="9" t="s">
         <v>510</v>
       </c>
       <c r="F140" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="G140" s="0"/>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="141" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="8" t="s">
         <v>512</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C141" s="9" t="n">
-        <v>1400</v>
-      </c>
-      <c r="D141" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10" t="s">
         <v>513</v>
       </c>
       <c r="E141" s="9" t="s">
@@ -4846,20 +4715,19 @@
       <c r="F141" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="G141" s="0"/>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
+    </row>
+    <row r="142" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="8" t="s">
         <v>516</v>
       </c>
       <c r="B142" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C142" s="9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D142" s="9" t="s">
         <v>517</v>
-      </c>
-      <c r="C142" s="9" t="n">
-        <v>7400</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="E142" s="9" t="s">
         <v>518</v>
@@ -4867,38 +4735,36 @@
       <c r="F142" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="G142" s="0"/>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="8" t="s">
+    </row>
+    <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="s">
         <v>520</v>
       </c>
       <c r="B143" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10" t="s">
+      <c r="C143" s="9" t="n">
+        <v>7400</v>
+      </c>
+      <c r="D143" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E143" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="E143" s="9" t="s">
+      <c r="F143" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="F143" s="9" t="s">
+    </row>
+    <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="G143" s="0"/>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="8" t="s">
+      <c r="B144" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="B144" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="C144" s="9" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D144" s="9" t="s">
+      <c r="C144" s="10"/>
+      <c r="D144" s="10" t="s">
         <v>526</v>
       </c>
       <c r="E144" s="9" t="s">
@@ -4907,20 +4773,19 @@
       <c r="F144" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="G144" s="0"/>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="145" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="8" t="s">
         <v>529</v>
       </c>
       <c r="B145" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="C145" s="9" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D145" s="9" t="s">
         <v>530</v>
-      </c>
-      <c r="C145" s="9" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>117</v>
       </c>
       <c r="E145" s="9" t="s">
         <v>531</v>
@@ -4928,565 +4793,538 @@
       <c r="F145" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="G145" s="0"/>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="8" t="s">
         <v>533</v>
       </c>
       <c r="B146" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="C146" s="9" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>535</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B147" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="9" t="s">
-        <v>534</v>
-      </c>
-      <c r="F146" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="G146" s="0"/>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="8" t="s">
-        <v>536</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="D147" s="10"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
       <c r="E147" s="9" t="s">
         <v>538</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="G147" s="0"/>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="8" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="C148" s="10"/>
+        <v>205</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>541</v>
+      </c>
       <c r="D148" s="10"/>
       <c r="E148" s="9" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="G148" s="0"/>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="8" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
       <c r="E149" s="9" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="G149" s="0"/>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="8" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>544</v>
+        <v>473</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
       <c r="E150" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="G150" s="0"/>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="8" t="s">
         <v>547</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>521</v>
+        <v>548</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
       <c r="E151" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="G151" s="0"/>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="152" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
       <c r="E152" s="9" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>552</v>
-      </c>
-      <c r="G152" s="0"/>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>205</v>
+        <v>473</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
       <c r="E153" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="G153" s="0"/>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="8" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
       <c r="E154" s="9" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>558</v>
-      </c>
-      <c r="G154" s="0"/>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
       <c r="E155" s="9" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>561</v>
-      </c>
-      <c r="G155" s="0"/>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="8" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
       <c r="E156" s="9" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="G156" s="0"/>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>469</v>
+        <v>227</v>
       </c>
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
       <c r="E157" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>567</v>
-      </c>
-      <c r="G157" s="0"/>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="158" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>147</v>
+        <v>473</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
       <c r="E158" s="9" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="G158" s="0"/>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="159" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="8" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
       <c r="E159" s="9" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>573</v>
-      </c>
-      <c r="G159" s="0"/>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="8" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>227</v>
+        <v>150</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
       <c r="E160" s="9" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="G160" s="0"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
       <c r="E161" s="9" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>579</v>
-      </c>
-      <c r="G161" s="0"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="8" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>521</v>
+        <v>205</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
       <c r="E162" s="9" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>582</v>
-      </c>
-      <c r="G162" s="0"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="163" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="8" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="C163" s="9" t="n">
-        <v>121</v>
-      </c>
-      <c r="D163" s="9"/>
+        <v>525</v>
+      </c>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
       <c r="E163" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="F163" s="0"/>
-      <c r="G163" s="3" t="s">
+      <c r="F163" s="9" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="C164" s="9" t="n">
+        <v>121</v>
+      </c>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9" t="s">
+        <v>589</v>
+      </c>
+      <c r="G164" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="B164" s="9" t="s">
+    <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="B165" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="C164" s="10"/>
-      <c r="D164" s="10"/>
-      <c r="E164" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="F164" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="G164" s="0"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>205</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
       <c r="E165" s="9" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="G165" s="0"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="C166" s="9" t="n">
+        <v>205</v>
+      </c>
+      <c r="C166" s="10"/>
+      <c r="D166" s="10"/>
+      <c r="E166" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="C167" s="9" t="n">
         <v>111</v>
-      </c>
-      <c r="D166" s="9"/>
-      <c r="E166" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="F166" s="0"/>
-      <c r="G166" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C167" s="9" t="n">
-        <v>1711</v>
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="F167" s="9" t="s">
-        <v>280</v>
+        <v>389</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="s">
-        <v>595</v>
+      <c r="A168" s="8" t="s">
+        <v>597</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>596</v>
+        <v>278</v>
       </c>
       <c r="C168" s="9" t="n">
-        <v>3300</v>
+        <v>1711</v>
       </c>
       <c r="D168" s="9"/>
       <c r="E168" s="9" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>598</v>
-      </c>
-      <c r="G168" s="0"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="s">
         <v>599</v>
       </c>
       <c r="B169" s="9" t="s">
         <v>600</v>
       </c>
       <c r="C169" s="9" t="n">
+        <v>3300</v>
+      </c>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9" t="s">
+        <v>601</v>
+      </c>
+      <c r="F169" s="9" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="170" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="C170" s="9" t="n">
         <v>8000</v>
       </c>
-      <c r="D169" s="9" t="s">
-        <v>601</v>
-      </c>
-      <c r="E169" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="F169" s="9" t="s">
-        <v>603</v>
-      </c>
-      <c r="G169" s="0"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="B170" s="9" t="s">
+      <c r="D170" s="9" t="s">
+        <v>605</v>
+      </c>
+      <c r="E170" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="F170" s="9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="8" t="s">
+        <v>608</v>
+      </c>
+      <c r="B171" s="9" t="s">
         <v>147</v>
-      </c>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="F170" s="9" t="s">
-        <v>606</v>
-      </c>
-      <c r="G170" s="0"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>150</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
       <c r="E171" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>609</v>
-      </c>
-      <c r="G171" s="0"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="9" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>612</v>
-      </c>
-      <c r="G172" s="0"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="8" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C173" s="9" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D173" s="9" t="s">
-        <v>614</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="C173" s="10"/>
+      <c r="D173" s="10"/>
       <c r="E173" s="9" t="s">
         <v>615</v>
       </c>
       <c r="F173" s="9" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C174" s="9" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D174" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="F174" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="G173" s="0"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8" t="s">
-        <v>616</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>617</v>
-      </c>
-      <c r="C174" s="9" t="n">
+    </row>
+    <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="C175" s="9" t="n">
         <v>2611</v>
-      </c>
-      <c r="D174" s="9"/>
-      <c r="E174" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="F174" s="0"/>
-      <c r="G174" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="C175" s="9" t="n">
-        <v>2711</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="F175" s="0"/>
+        <v>622</v>
+      </c>
       <c r="G175" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="8" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B176" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="C176" s="9" t="n">
+        <v>2711</v>
+      </c>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="B177" s="9" t="s">
         <v>205</v>
-      </c>
-      <c r="C176" s="10"/>
-      <c r="D176" s="10"/>
-      <c r="E176" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="F176" s="9" t="s">
-        <v>624</v>
-      </c>
-      <c r="G176" s="0"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="8" t="s">
-        <v>625</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>626</v>
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
@@ -5496,138 +5334,130 @@
       <c r="F177" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="G177" s="0"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="8" t="s">
         <v>629</v>
       </c>
       <c r="B178" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="C178" s="9" t="n">
-        <v>3721</v>
-      </c>
-      <c r="D178" s="9"/>
+      <c r="C178" s="10"/>
+      <c r="D178" s="10"/>
       <c r="E178" s="9" t="s">
         <v>631</v>
       </c>
       <c r="F178" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="G178" s="0"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="8" t="s">
         <v>633</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>469</v>
+        <v>634</v>
       </c>
       <c r="C179" s="9" t="n">
-        <v>6100</v>
+        <v>3721</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="G179" s="0"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>637</v>
-      </c>
-      <c r="C180" s="10" t="n">
-        <v>8400</v>
-      </c>
-      <c r="D180" s="10"/>
+        <v>473</v>
+      </c>
+      <c r="C180" s="9" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D180" s="9"/>
       <c r="E180" s="9" t="s">
         <v>638</v>
       </c>
       <c r="F180" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="G180" s="0"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="181" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="8" t="s">
         <v>640</v>
       </c>
       <c r="B181" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="C181" s="10" t="n">
+        <v>8400</v>
+      </c>
+      <c r="D181" s="10"/>
+      <c r="E181" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="F181" s="9" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="B182" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C181" s="7"/>
-      <c r="D181" s="7"/>
-      <c r="E181" s="9" t="s">
-        <v>641</v>
-      </c>
-      <c r="F181" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="G181" s="0"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="B182" s="9" t="s">
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="B183" s="9" t="s">
         <v>260</v>
-      </c>
-      <c r="C182" s="9" t="n">
-        <v>400</v>
-      </c>
-      <c r="D182" s="9"/>
-      <c r="E182" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="F182" s="9" t="s">
-        <v>645</v>
-      </c>
-      <c r="G182" s="0"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>435</v>
       </c>
       <c r="C183" s="9" t="n">
         <v>400</v>
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="G183" s="0"/>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="8" t="s">
-        <v>648</v>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>650</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="C184" s="10"/>
-      <c r="D184" s="10"/>
+        <v>439</v>
+      </c>
+      <c r="C184" s="9" t="n">
+        <v>400</v>
+      </c>
+      <c r="D184" s="9"/>
       <c r="E184" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="G184" s="0"/>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="8" t="s">
         <v>652</v>
       </c>
@@ -5642,14 +5472,13 @@
       <c r="F185" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="G185" s="0"/>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="8" t="s">
         <v>655</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C186" s="9" t="n">
         <v>21</v>
@@ -5658,7 +5487,6 @@
       <c r="E186" s="9" t="s">
         <v>656</v>
       </c>
-      <c r="F186" s="0"/>
       <c r="G186" s="3" t="s">
         <v>61</v>
       </c>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="105" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="104" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="661">
   <si>
     <t>Hash</t>
   </si>
@@ -920,22 +920,13 @@
     <t>(Gv0GtxzT8DYnLKAKDNsB)</t>
   </si>
   <si>
-    <t>MaNGOS CMS</t>
-  </si>
-  <si>
-    <t>50ac2984e162dfe1be4d83e68d5c213e39423ba7</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-1%28MaNGOS%29</t>
-  </si>
-  <si>
-    <t>MaNGOS CMS v2</t>
-  </si>
-  <si>
-    <t>f74391f3d0342fba78ff51188eb8e3845ac521b0</t>
-  </si>
-  <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-1%28MaNGOS2%29</t>
+    <t>MangosWeb Enhanced CMS</t>
+  </si>
+  <si>
+    <t>cd3b0e89c86962d1240361a3e7474cd2dc029f87</t>
+  </si>
+  <si>
+    <t>https://code.google.com/p/mangoswebv3/source/browse/core/SDL/class.account.php</t>
   </si>
   <si>
     <t>MD2</t>
@@ -986,7 +977,7 @@
     <t>MD5(APR)</t>
   </si>
   <si>
-    <t>^\$apr1\$.{0,8}\$[a-z0-9\/\.]{22}$/i</t>
+    <t>^\$apr1\$[a-z0-9\/\.]{0,8}\$[a-z0-9\/\.]{22}$/</t>
   </si>
   <si>
     <t>MD5(Chap)</t>
@@ -1319,6 +1310,18 @@
     <t>http://pythonhosted.org/passlib/lib/passlib.hash.pbkdf2_digest.html</t>
   </si>
   <si>
+    <t>PeopleSoft</t>
+  </si>
+  <si>
+    <t>^[a-z0-9+\/]{27}=$</t>
+  </si>
+  <si>
+    <t>zTsOichpYtEkA2Gj50dM0twCn4c=</t>
+  </si>
+  <si>
+    <t>https://hashcat.net/trac/ticket/419</t>
+  </si>
+  <si>
     <t>PHPass' Portable Hash</t>
   </si>
   <si>
@@ -1940,7 +1943,7 @@
     <t>Woltlab Burning Board 3.x</t>
   </si>
   <si>
-    <t>^[a-f0-9]{40}(:[a-f0-9]{40})?$/i</t>
+    <t>^[a-f0-9]{40}:[a-f0-9]{40}$/i</t>
   </si>
   <si>
     <t>2c56d23b44eb122bb176dfa2a1452afaf89f1143:a710463f75bf4568d398db32a53f9803007388a3</t>
@@ -2171,8 +2174,8 @@
   </sheetPr>
   <dimension ref="A1:G187"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B101" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E119" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3654,7 +3657,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="83" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
         <v>301</v>
       </c>
@@ -3663,7 +3666,7 @@
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="13" t="s">
         <v>302</v>
       </c>
       <c r="F83" s="9" t="s">
@@ -3671,11 +3674,11 @@
       </c>
     </row>
     <row r="84" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="8" t="s">
         <v>304</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
@@ -3693,48 +3696,50 @@
       <c r="B85" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
+      <c r="C85" s="9" t="n">
+        <v>900</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>308</v>
+      </c>
       <c r="E85" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="86" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B86" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C86" s="9" t="n">
-        <v>900</v>
+      <c r="C86" s="9" t="s">
+        <v>312</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C87" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>316</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C87" s="9" t="n">
+        <v>500</v>
+      </c>
+      <c r="D87" s="9"/>
       <c r="E87" s="9" t="s">
         <v>317</v>
       </c>
@@ -3747,174 +3752,174 @@
         <v>319</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>59</v>
+        <v>320</v>
       </c>
       <c r="C88" s="9" t="n">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="D88" s="9"/>
       <c r="E88" s="9" t="s">
-        <v>320</v>
+        <v>34</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>321</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>323</v>
+        <v>250</v>
       </c>
       <c r="C89" s="9" t="n">
-        <v>1600</v>
+        <v>4800</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9" t="s">
-        <v>34</v>
+        <v>251</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>35</v>
+        <v>252</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="B90" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C90" s="9" t="n">
-        <v>4800</v>
-      </c>
-      <c r="D90" s="9"/>
+      <c r="D90" s="10" t="s">
+        <v>325</v>
+      </c>
       <c r="E90" s="9" t="s">
-        <v>251</v>
+        <v>326</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>252</v>
+        <v>327</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D91" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="B91" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="2" t="s">
         <v>330</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="B92" s="7" t="s">
         <v>332</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>333</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
-      <c r="E92" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="E92" s="9" t="s">
         <v>334</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
       <c r="E93" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
+        <v>341</v>
+      </c>
+      <c r="C94" s="9" t="n">
+        <v>131</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>342</v>
+      </c>
       <c r="E94" s="9" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C95" s="9" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F95" s="9" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C96" s="9" t="n">
+        <v>346</v>
+      </c>
+      <c r="C96" s="10" t="n">
         <v>132</v>
       </c>
-      <c r="D96" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>352</v>
+      <c r="D96" s="10"/>
+      <c r="G96" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="C97" s="9" t="n">
+        <v>1731</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="B97" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="C97" s="10" t="n">
-        <v>132</v>
-      </c>
-      <c r="D97" s="10"/>
       <c r="G97" s="3" t="s">
         <v>61</v>
       </c>
@@ -3924,17 +3929,17 @@
         <v>354</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C98" s="9" t="n">
         <v>1731</v>
       </c>
       <c r="D98" s="9"/>
-      <c r="E98" s="9" t="s">
+      <c r="F98" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="G98" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3942,69 +3947,71 @@
         <v>357</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C99" s="9" t="n">
-        <v>1731</v>
+        <v>2811</v>
       </c>
       <c r="D99" s="9"/>
+      <c r="E99" s="9" t="s">
+        <v>359</v>
+      </c>
       <c r="F99" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>361</v>
+        <v>94</v>
       </c>
       <c r="C100" s="9" t="n">
-        <v>2811</v>
-      </c>
-      <c r="D100" s="9"/>
+        <v>200</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>362</v>
+      </c>
       <c r="E100" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8" t="s">
-        <v>364</v>
+      <c r="A101" s="12" t="s">
+        <v>365</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>94</v>
+        <v>366</v>
       </c>
       <c r="C101" s="9" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E101" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="102" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>366</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>369</v>
       </c>
       <c r="C102" s="9" t="n">
         <v>300</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E102" s="9" t="s">
         <v>371</v>
@@ -4018,19 +4025,17 @@
         <v>373</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="C103" s="9" t="n">
-        <v>300</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>370</v>
-      </c>
+        <v>5500</v>
+      </c>
+      <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="F103" s="9" t="s">
         <v>375</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4041,7 +4046,7 @@
         <v>377</v>
       </c>
       <c r="C104" s="9" t="n">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
@@ -4059,11 +4064,13 @@
         <v>380</v>
       </c>
       <c r="C105" s="9" t="n">
-        <v>5600</v>
-      </c>
-      <c r="D105" s="9"/>
+        <v>101</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>381</v>
+      </c>
       <c r="E105" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G105" s="3" t="s">
         <v>61</v>
@@ -4071,19 +4078,19 @@
     </row>
     <row r="106" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="8" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C106" s="9" t="n">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="G106" s="3" t="s">
         <v>61</v>
@@ -4091,38 +4098,38 @@
     </row>
     <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="C107" s="9" t="n">
-        <v>111</v>
-      </c>
-      <c r="D107" s="9" t="s">
         <v>388</v>
       </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
       <c r="E107" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>61</v>
+      <c r="F107" s="9" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
+        <v>392</v>
+      </c>
+      <c r="C108" s="9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>393</v>
+      </c>
       <c r="E108" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>393</v>
+        <v>309</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4133,31 +4140,29 @@
         <v>395</v>
       </c>
       <c r="C109" s="9" t="n">
-        <v>1000</v>
+        <v>112</v>
       </c>
       <c r="D109" s="9" t="s">
         <v>396</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>61</v>
+        <v>397</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>398</v>
+        <v>94</v>
       </c>
       <c r="C110" s="9" t="n">
-        <v>112</v>
-      </c>
-      <c r="D110" s="9" t="s">
-        <v>399</v>
-      </c>
+        <v>3100</v>
+      </c>
+      <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
         <v>400</v>
       </c>
@@ -4170,35 +4175,37 @@
         <v>402</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>94</v>
+        <v>403</v>
       </c>
       <c r="C111" s="9" t="n">
-        <v>3100</v>
+        <v>21</v>
       </c>
       <c r="D111" s="9"/>
       <c r="E111" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>406</v>
+        <v>224</v>
       </c>
       <c r="C112" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="D112" s="9"/>
+        <v>122</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>407</v>
+      </c>
       <c r="E112" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="F112" s="9" t="s">
         <v>408</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4206,14 +4213,12 @@
         <v>409</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>224</v>
+        <v>410</v>
       </c>
       <c r="C113" s="9" t="n">
-        <v>122</v>
-      </c>
-      <c r="D113" s="9" t="s">
-        <v>410</v>
-      </c>
+        <v>1722</v>
+      </c>
+      <c r="D113" s="9"/>
       <c r="E113" s="9" t="s">
         <v>411</v>
       </c>
@@ -4229,7 +4234,7 @@
         <v>413</v>
       </c>
       <c r="C114" s="9" t="n">
-        <v>1722</v>
+        <v>7100</v>
       </c>
       <c r="D114" s="9"/>
       <c r="E114" s="9" t="s">
@@ -4246,66 +4251,67 @@
       <c r="B115" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="C115" s="9" t="n">
-        <v>7100</v>
-      </c>
-      <c r="D115" s="9"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
       <c r="E115" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="G115" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F115" s="9" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="8" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
       <c r="E116" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="8" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
       <c r="E117" s="9" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G117" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8" t="s">
-        <v>426</v>
+      <c r="A118" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
       <c r="E118" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>11</v>
@@ -4313,26 +4319,24 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B119" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="9" t="s">
+      <c r="B119" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F119" s="9" t="s">
+      <c r="C119" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="G119" s="3" t="s">
-        <v>11</v>
+      <c r="F119" s="2" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="120" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>260</v>
@@ -4341,74 +4345,74 @@
         <v>400</v>
       </c>
       <c r="D120" s="9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C121" s="9" t="n">
         <v>400</v>
       </c>
       <c r="D121" s="9"/>
       <c r="E121" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>2612</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="123" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C123" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D123" s="9"/>
       <c r="E123" s="9" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>147</v>
@@ -4416,33 +4420,33 @@
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
       <c r="E124" s="9" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C125" s="9" t="n">
         <v>7600</v>
       </c>
       <c r="D125" s="9"/>
       <c r="E125" s="9" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="8" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>147</v>
@@ -4450,15 +4454,15 @@
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
       <c r="E126" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="8" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>150</v>
@@ -4468,15 +4472,15 @@
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="8" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>205</v>
@@ -4484,153 +4488,153 @@
       <c r="C128" s="10"/>
       <c r="D128" s="10"/>
       <c r="E128" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="8" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
       <c r="E129" s="9" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="130" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
       <c r="E130" s="9" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="131" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
       <c r="E131" s="9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="8" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
       <c r="E132" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="133" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="8" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C133" s="9" t="n">
         <v>5800</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C134" s="9" t="n">
         <v>7700</v>
       </c>
       <c r="D134" s="9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="8" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B135" s="9" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C135" s="9" t="n">
         <v>7800</v>
       </c>
       <c r="D135" s="9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
       <c r="E136" s="9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="8" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B137" s="9" t="s">
         <v>150</v>
@@ -4639,44 +4643,44 @@
         <v>100</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E137" s="9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B138" s="9" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
       <c r="E138" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C139" s="9" t="n">
         <v>101</v>
       </c>
       <c r="D139" s="9"/>
       <c r="E139" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>61</v>
@@ -4684,7 +4688,7 @@
     </row>
     <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="8" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B140" s="9" t="s">
         <v>224</v>
@@ -4692,33 +4696,33 @@
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
       <c r="E140" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>227</v>
       </c>
       <c r="C141" s="10"/>
       <c r="D141" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="8" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B142" s="9" t="s">
         <v>205</v>
@@ -4727,21 +4731,21 @@
         <v>1400</v>
       </c>
       <c r="D142" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C143" s="9" t="n">
         <v>7400</v>
@@ -4750,56 +4754,56 @@
         <v>117</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E144" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="8" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C145" s="9" t="n">
         <v>1700</v>
       </c>
       <c r="D145" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="8" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C146" s="9" t="n">
         <v>1800</v>
@@ -4808,15 +4812,15 @@
         <v>117</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="8" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>227</v>
@@ -4824,113 +4828,113 @@
       <c r="C147" s="7"/>
       <c r="D147" s="7"/>
       <c r="E147" s="9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B148" s="9" t="s">
         <v>205</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D148" s="10"/>
       <c r="E148" s="9" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="8" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
       <c r="E149" s="9" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="8" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
       <c r="E150" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="8" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
       <c r="E151" s="9" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="8" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
       <c r="E152" s="9" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="8" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
       <c r="E153" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B154" s="9" t="s">
         <v>205</v>
@@ -4938,15 +4942,15 @@
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
       <c r="E154" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>147</v>
@@ -4954,15 +4958,15 @@
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
       <c r="E155" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="8" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>150</v>
@@ -4970,15 +4974,15 @@
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
       <c r="E156" s="9" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="8" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>227</v>
@@ -4986,31 +4990,31 @@
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
       <c r="E157" s="9" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="158" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
       <c r="E158" s="9" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="159" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B159" s="9" t="s">
         <v>147</v>
@@ -5018,15 +5022,15 @@
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
       <c r="E159" s="9" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B160" s="9" t="s">
         <v>150</v>
@@ -5034,15 +5038,15 @@
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
       <c r="E160" s="9" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B161" s="9" t="s">
         <v>227</v>
@@ -5050,15 +5054,15 @@
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
       <c r="E161" s="9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B162" s="9" t="s">
         <v>205</v>
@@ -5066,41 +5070,41 @@
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
       <c r="E162" s="9" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
       <c r="E163" s="9" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="8" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C164" s="9" t="n">
         <v>121</v>
       </c>
       <c r="D164" s="9"/>
       <c r="E164" s="9" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="G164" s="3" t="s">
         <v>61</v>
@@ -5108,7 +5112,7 @@
     </row>
     <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="8" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B165" s="9" t="s">
         <v>147</v>
@@ -5116,15 +5120,15 @@
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
       <c r="E165" s="9" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="8" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B166" s="9" t="s">
         <v>205</v>
@@ -5132,25 +5136,25 @@
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
       <c r="E166" s="9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="8" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C167" s="9" t="n">
         <v>111</v>
       </c>
       <c r="D167" s="9"/>
       <c r="E167" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="G167" s="3" t="s">
         <v>61</v>
@@ -5158,7 +5162,7 @@
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="8" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B168" s="9" t="s">
         <v>278</v>
@@ -5168,7 +5172,7 @@
       </c>
       <c r="D168" s="9"/>
       <c r="E168" s="9" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F168" s="9" t="s">
         <v>280</v>
@@ -5179,45 +5183,45 @@
     </row>
     <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C169" s="9" t="n">
         <v>3300</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C170" s="9" t="n">
         <v>8000</v>
       </c>
       <c r="D170" s="9" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E170" s="9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B171" s="9" t="s">
         <v>147</v>
@@ -5225,15 +5229,15 @@
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
       <c r="E171" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B172" s="9" t="s">
         <v>150</v>
@@ -5241,15 +5245,15 @@
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="9" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B173" s="9" t="s">
         <v>224</v>
@@ -5257,15 +5261,15 @@
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
       <c r="E173" s="9" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="8" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B174" s="9" t="s">
         <v>116</v>
@@ -5274,10 +5278,10 @@
         <v>1500</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E174" s="9" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="F174" s="9" t="s">
         <v>119</v>
@@ -5285,17 +5289,17 @@
     </row>
     <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="8" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C175" s="9" t="n">
         <v>2611</v>
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="G175" s="3" t="s">
         <v>61</v>
@@ -5303,17 +5307,17 @@
     </row>
     <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C176" s="9" t="n">
         <v>2711</v>
       </c>
       <c r="D176" s="9"/>
       <c r="E176" s="9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G176" s="3" t="s">
         <v>61</v>
@@ -5321,7 +5325,7 @@
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B177" s="9" t="s">
         <v>205</v>
@@ -5329,85 +5333,85 @@
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
       <c r="E177" s="9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
       <c r="E178" s="9" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C179" s="9" t="n">
         <v>3721</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="8" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B180" s="9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C180" s="9" t="n">
         <v>6100</v>
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="8" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C181" s="10" t="n">
         <v>8400</v>
       </c>
       <c r="D181" s="10"/>
       <c r="E181" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B182" s="9" t="s">
         <v>41</v>
@@ -5415,15 +5419,15 @@
       <c r="C182" s="7"/>
       <c r="D182" s="7"/>
       <c r="E182" s="9" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>260</v>
@@ -5433,33 +5437,33 @@
       </c>
       <c r="D183" s="9"/>
       <c r="E183" s="9" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C184" s="9" t="n">
         <v>400</v>
       </c>
       <c r="D184" s="9"/>
       <c r="E184" s="9" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="8" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B185" s="9" t="s">
         <v>16</v>
@@ -5467,25 +5471,25 @@
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
       <c r="E185" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C186" s="9" t="n">
         <v>21</v>
       </c>
       <c r="D186" s="9"/>
       <c r="E186" s="9" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>61</v>
@@ -5493,16 +5497,16 @@
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B187" s="9" t="s">
         <v>147</v>
       </c>
       <c r="E187" s="9" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="681">
   <si>
     <t>Hash</t>
   </si>
@@ -377,22 +377,82 @@
     <t>http://pythonhosted.org/passlib/lib/passlib.hash.des_crypt.html</t>
   </si>
   <si>
-    <t>Django CMS(SHA-1)</t>
-  </si>
-  <si>
-    <t>^sha1\$[a-z0-9\/\.]{1,12}\$[a-f0-9]{40}$/i</t>
+    <t>Django(BCrypt)</t>
+  </si>
+  <si>
+    <t>^bcrypt(\$2[axy]|\$2)\$[0-9]{0,2}?\$[a-z0-9\/\.]{53}$/i</t>
+  </si>
+  <si>
+    <t>bcrypt$2a$05$LhayLxezLhK1LhWvKxCyLOj0j1u.Kj0jZ0pEmm134uzrQlFvQJLF6</t>
+  </si>
+  <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.django_std.html#passlib.hash.django_bcrypt</t>
+  </si>
+  <si>
+    <t>Django(DES Crypt Wrapper)</t>
+  </si>
+  <si>
+    <t>^crypt\$[a-f0-9]{5}\$[a-z0-9.\/]{13}$/i</t>
+  </si>
+  <si>
+    <t>crypt$cd1a4$cdlRbNJGImptk </t>
+  </si>
+  <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.django_std.html#des-crypt-wrapper</t>
+  </si>
+  <si>
+    <t>Django(MD5)</t>
+  </si>
+  <si>
+    <t>^md5\$[a-f0-9]{1,}\$[a-f0-9]{32}$/i</t>
+  </si>
+  <si>
+    <t>md5$be7b1$4e9c5b51bd070727b0ed21956cb68de7</t>
+  </si>
+  <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.django_std.html#passlib.hash.django_salted_md5</t>
+  </si>
+  <si>
+    <t>Django(PBKDF2-HMAC-SHA1)</t>
+  </si>
+  <si>
+    <t>^pbkdf2_sha1\$[0-9]+\$[a-z0-9]{1,}\$[a-z0-9+\/]{27}=$/i</t>
+  </si>
+  <si>
+    <t>pbkdf2_sha1$10000$s1w0UXDd00XB$zTsOichpYtEkA2Gj50dM0twCn4c=</t>
+  </si>
+  <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.django_std.html#passlib.hash.django_pbkdf2_sha1</t>
+  </si>
+  <si>
+    <t>Django(PBKDF2-HMAC-SHA256)</t>
+  </si>
+  <si>
+    <t>^pbkdf2_sha256\$[0-9]+\$[a-z0-9]{1,}\$[a-z0-9+\/]{43}=$/i</t>
+  </si>
+  <si>
+    <t>pbkdf2_sha256$10000$s1w0UXDd00XB$+4ORmyvVWAQvoAEWlDgN34vlaJx1ZTZpa1pCSRey2Yk= </t>
+  </si>
+  <si>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.django_std.html#passlib.hash.django_pbkdf2_sha256</t>
+  </si>
+  <si>
+    <t>Django(SHA-1)</t>
+  </si>
+  <si>
+    <t>^sha1\$[a-f0-9]{1,}\$[a-f0-9]{40}$/i</t>
   </si>
   <si>
     <t>sha1$12345678$6214c0c5e54360fc3986741f8d68b062808ab348</t>
   </si>
   <si>
-    <t>http://wiki.insidepro.com/index.php/SHA-1%28Django%29</t>
-  </si>
-  <si>
-    <t>Django CMS(SHA-256)</t>
-  </si>
-  <si>
-    <t>^sha256\$[a-z0-9\/\.]{1,12}\$[a-f0-9]{64}$/i</t>
+    <t>https://pythonhosted.org/passlib/lib/passlib.hash.django_std.html#passlib.hash.django_salted_sha1</t>
+  </si>
+  <si>
+    <t>Django(SHA-256)</t>
+  </si>
+  <si>
+    <t>^sha256\$[a-f0-9]{1,}\$[a-f0-9]{64}$/i</t>
   </si>
   <si>
     <t>sha256$12345678$9171fc5e7cd440fac61adc27cbebb78ff028a19a1abeaa041807a5ea936fbd94</t>
@@ -401,10 +461,10 @@
     <t>http://wiki.insidepro.com/index.php/SHA-256%28Django%29</t>
   </si>
   <si>
-    <t>Django CMS(SHA-384)</t>
-  </si>
-  <si>
-    <t>^sha384\$[a-z0-9\/\.]{1,12}\$[a-f0-9]{96}$/i</t>
+    <t>Django(SHA-384)</t>
+  </si>
+  <si>
+    <t>^sha384\$[a-f0-9]{1,}\$[a-f0-9]{96}$/i</t>
   </si>
   <si>
     <t>sha384$12345678$fe014d8b5dc1733a9727330fb8b4695f82c7e833382a27c513b258f46f29ababb9d9963ddaa13db306b2bbd1459b95e6</t>
@@ -2172,10 +2232,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G187"/>
+  <dimension ref="A1:G192"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E119" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A1:G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2749,161 +2809,137 @@
         <v>119</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C32" s="9" t="n">
-        <v>800</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="35" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C35" s="10" t="n">
-        <v>8300</v>
-      </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8" t="s">
+    <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C36" s="9" t="n">
-        <v>1100</v>
-      </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F36" s="9" t="s">
+    </row>
+    <row r="37" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="37" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8" t="s">
+      <c r="B37" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="C37" s="9" t="n">
+        <v>800</v>
+      </c>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="9" t="n">
-        <v>2100</v>
-      </c>
-      <c r="D37" s="9" t="s">
+      <c r="F37" s="9" t="s">
         <v>143</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C38" s="10" t="n">
-        <v>2600</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>61</v>
+        <v>146</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="10" t="n">
-        <v>4500</v>
-      </c>
+      <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F39" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C40" s="9" t="n">
-        <v>7900</v>
-      </c>
-      <c r="D40" s="9"/>
+      <c r="C40" s="10" t="n">
+        <v>8300</v>
+      </c>
+      <c r="D40" s="10"/>
       <c r="E40" s="9" t="s">
         <v>154</v>
       </c>
@@ -2918,8 +2954,10 @@
       <c r="B41" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10" t="s">
+      <c r="C41" s="9" t="n">
+        <v>1100</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>158</v>
       </c>
       <c r="E41" s="9" t="s">
@@ -2934,48 +2972,52 @@
         <v>161</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
+        <v>162</v>
+      </c>
+      <c r="C42" s="9" t="n">
+        <v>2100</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>163</v>
+      </c>
       <c r="E42" s="9" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C43" s="9" t="n">
-        <v>123</v>
-      </c>
-      <c r="D43" s="9"/>
+      <c r="A43" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="10" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D43" s="10"/>
       <c r="E43" s="9" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
-        <v>167</v>
+      <c r="A44" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="9" t="n">
-        <v>141</v>
-      </c>
-      <c r="D44" s="9"/>
+        <v>170</v>
+      </c>
+      <c r="C44" s="10" t="n">
+        <v>4500</v>
+      </c>
+      <c r="D44" s="10"/>
       <c r="E44" s="9" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>61</v>
@@ -2983,159 +3025,161 @@
     </row>
     <row r="45" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C45" s="9" t="n">
-        <v>1441</v>
+        <v>7900</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>61</v>
+        <v>174</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
-        <v>173</v>
+      <c r="A46" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
+      <c r="D46" s="10" t="s">
+        <v>178</v>
+      </c>
       <c r="E46" s="9" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="9" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
+        <v>184</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="9" t="n">
+        <v>123</v>
+      </c>
+      <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>182</v>
+        <v>186</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
+        <v>188</v>
+      </c>
+      <c r="C49" s="9" t="n">
+        <v>141</v>
+      </c>
+      <c r="D49" s="9"/>
       <c r="E49" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>185</v>
+        <v>189</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
+        <v>191</v>
+      </c>
+      <c r="C50" s="9" t="n">
+        <v>1441</v>
+      </c>
+      <c r="D50" s="9"/>
       <c r="E50" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>188</v>
+        <v>192</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="s">
-        <v>189</v>
+      <c r="A51" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>94</v>
+        <v>194</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="9" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="C52" s="9" t="n">
-        <v>7000</v>
-      </c>
-      <c r="D52" s="9"/>
+        <v>78</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>61</v>
+        <v>198</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="9" t="n">
-        <v>500</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>196</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
       <c r="E53" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>61</v>
+        <v>201</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>16</v>
@@ -3143,15 +3187,15 @@
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="9" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>16</v>
@@ -3159,351 +3203,347 @@
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="9" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C56" s="9" t="n">
-        <v>6900</v>
-      </c>
-      <c r="D56" s="9"/>
+        <v>94</v>
+      </c>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
       <c r="E56" s="9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F56" s="9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C57" s="9" t="n">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="C58" s="9" t="n">
-        <v>5100</v>
-      </c>
-      <c r="D58" s="9"/>
+        <v>500</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>216</v>
+      </c>
       <c r="E58" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>147</v>
+        <v>16</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="9" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
+        <v>225</v>
+      </c>
+      <c r="C61" s="9" t="n">
+        <v>6900</v>
+      </c>
+      <c r="D61" s="9"/>
       <c r="E61" s="9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+        <v>229</v>
+      </c>
+      <c r="C62" s="9" t="n">
+        <v>7200</v>
+      </c>
+      <c r="D62" s="9"/>
       <c r="E62" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="F62" s="9" t="s">
-        <v>220</v>
+        <v>230</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
+        <v>94</v>
+      </c>
+      <c r="C63" s="9" t="n">
+        <v>5100</v>
+      </c>
+      <c r="D63" s="9"/>
       <c r="E63" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>220</v>
+        <v>233</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="9" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="F64" s="9" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>231</v>
+      <c r="A65" s="8" t="s">
+        <v>238</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C65" s="10" t="n">
-        <v>1421</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>233</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
       <c r="E65" s="9" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C66" s="2" t="n">
-        <v>5300</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="B67" s="2" t="s">
+    </row>
+    <row r="66" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>5400</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="2" t="s">
+      <c r="B66" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>11</v>
+      <c r="F66" s="9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="12" t="s">
-        <v>243</v>
+      <c r="A68" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C68" s="9" t="n">
-        <v>2811</v>
-      </c>
-      <c r="D68" s="9"/>
+        <v>247</v>
+      </c>
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
       <c r="E68" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>61</v>
+        <v>248</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C69" s="10" t="n">
-        <v>7300</v>
-      </c>
+      <c r="A69" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>61</v>
+        <v>250</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="8" t="s">
-        <v>249</v>
+      <c r="A70" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C70" s="9" t="n">
-        <v>4800</v>
-      </c>
-      <c r="D70" s="9"/>
+        <v>252</v>
+      </c>
+      <c r="C70" s="10" t="n">
+        <v>1421</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>253</v>
+      </c>
       <c r="E70" s="9" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>5300</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="B72" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C72" s="9" t="n">
         <v>11</v>
       </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>258</v>
+    </row>
+    <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>5400</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="8" t="s">
-        <v>259</v>
+      <c r="A73" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>261</v>
+        <v>264</v>
+      </c>
+      <c r="C73" s="9" t="n">
+        <v>2811</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="B74" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C74" s="9" t="n">
-        <v>22</v>
-      </c>
-      <c r="D74" s="9" t="s">
+      <c r="A74" s="1" t="s">
         <v>266</v>
       </c>
+      <c r="B74" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C74" s="10" t="n">
+        <v>7300</v>
+      </c>
+      <c r="D74" s="10"/>
       <c r="E74" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="F74" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G74" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8" t="s">
         <v>269</v>
       </c>
@@ -3511,222 +3551,220 @@
         <v>270</v>
       </c>
       <c r="C75" s="9" t="n">
-        <v>7500</v>
+        <v>4800</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C76" s="9" t="n">
-        <v>6800</v>
-      </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9" t="s">
+      <c r="G76" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="B77" s="9" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>278</v>
-      </c>
       <c r="C77" s="9" t="n">
-        <v>1711</v>
+        <v>11</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>11</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C78" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="D78" s="9"/>
+      <c r="E78" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="9" t="s">
+      <c r="F78" s="9" t="s">
         <v>283</v>
-      </c>
-      <c r="F78" s="9" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="79" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B79" s="9" t="s">
-        <v>150</v>
-      </c>
       <c r="C79" s="9" t="n">
-        <v>190</v>
-      </c>
-      <c r="D79" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>286</v>
+      </c>
       <c r="E79" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="F79" s="9" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="80" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F79" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>147</v>
+        <v>290</v>
       </c>
       <c r="C80" s="9" t="n">
-        <v>3000</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>289</v>
-      </c>
+        <v>7500</v>
+      </c>
+      <c r="D80" s="9"/>
       <c r="E80" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="F80" s="9" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="81" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F80" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C81" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="B81" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="C81" s="9" t="n">
+        <v>6800</v>
+      </c>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F81" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="8" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="C82" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="C82" s="9" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="F82" s="9" t="s">
         <v>300</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
         <v>301</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>150</v>
+        <v>302</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
-      <c r="E83" s="13" t="s">
-        <v>302</v>
+      <c r="E83" s="9" t="s">
+        <v>303</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
+        <v>170</v>
+      </c>
+      <c r="C84" s="9" t="n">
+        <v>190</v>
+      </c>
+      <c r="D84" s="9"/>
       <c r="E84" s="9" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="85" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C85" s="9" t="n">
-        <v>900</v>
+        <v>3000</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="86" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="D86" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C86" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="D86" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="E86" s="2" t="s">
         <v>315</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="87" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3734,399 +3772,397 @@
         <v>316</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C87" s="9" t="n">
-        <v>500</v>
-      </c>
-      <c r="D87" s="9"/>
+        <v>317</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>319</v>
+      </c>
       <c r="E87" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="88" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>320</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="C88" s="9" t="n">
-        <v>1600</v>
-      </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9" t="s">
-        <v>34</v>
+        <v>170</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="13" t="s">
+        <v>322</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>35</v>
+        <v>323</v>
       </c>
     </row>
     <row r="89" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="8" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="C89" s="9" t="n">
-        <v>4800</v>
-      </c>
-      <c r="D89" s="9"/>
+        <v>167</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
       <c r="E89" s="9" t="s">
-        <v>251</v>
+        <v>325</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="8" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>325</v>
+        <v>167</v>
+      </c>
+      <c r="C90" s="9" t="n">
+        <v>900</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>328</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="91" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="F91" s="2" t="s">
         <v>331</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="C92" s="9" t="n">
+        <v>500</v>
+      </c>
+      <c r="D92" s="9"/>
       <c r="E92" s="9" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F92" s="9" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="93" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="8" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
+        <v>340</v>
+      </c>
+      <c r="C93" s="9" t="n">
+        <v>1600</v>
+      </c>
+      <c r="D93" s="9"/>
       <c r="E93" s="9" t="s">
-        <v>338</v>
+        <v>34</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>339</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>341</v>
+        <v>270</v>
       </c>
       <c r="C94" s="9" t="n">
-        <v>131</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>342</v>
-      </c>
+        <v>4800</v>
+      </c>
+      <c r="D94" s="9"/>
       <c r="E94" s="9" t="s">
-        <v>343</v>
+        <v>271</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>344</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="D95" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="E95" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="C95" s="9" t="n">
-        <v>132</v>
-      </c>
-      <c r="D95" s="9" t="s">
+      <c r="F95" s="9" t="s">
         <v>347</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="96" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="B96" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C96" s="10" t="n">
-        <v>132</v>
-      </c>
-      <c r="D96" s="10"/>
-      <c r="G96" s="3" t="s">
-        <v>61</v>
+      <c r="F96" s="2" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C97" s="9" t="n">
-        <v>1731</v>
-      </c>
-      <c r="D97" s="9"/>
+        <v>353</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
       <c r="E97" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>61</v>
+        <v>354</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C98" s="9" t="n">
-        <v>1731</v>
-      </c>
-      <c r="D98" s="9"/>
+        <v>357</v>
+      </c>
+      <c r="C98" s="10"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="9" t="s">
+        <v>358</v>
+      </c>
       <c r="F98" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="8" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="C99" s="9" t="n">
-        <v>2811</v>
-      </c>
-      <c r="D99" s="9"/>
+        <v>131</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>362</v>
+      </c>
       <c r="E99" s="9" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="8" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>94</v>
+        <v>366</v>
       </c>
       <c r="C100" s="9" t="n">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="12" t="s">
-        <v>365</v>
+      <c r="A101" s="8" t="s">
+        <v>370</v>
       </c>
       <c r="B101" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C101" s="9" t="n">
-        <v>300</v>
-      </c>
-      <c r="D101" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>369</v>
+      <c r="C101" s="10" t="n">
+        <v>132</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="G101" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C102" s="9" t="n">
-        <v>300</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>367</v>
-      </c>
+        <v>1731</v>
+      </c>
+      <c r="D102" s="9"/>
       <c r="E102" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="103" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C103" s="9" t="n">
-        <v>5500</v>
+        <v>1731</v>
       </c>
       <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
+      <c r="F103" s="9" t="s">
         <v>375</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>61</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C104" s="9" t="n">
-        <v>5600</v>
+        <v>2811</v>
       </c>
       <c r="D104" s="9"/>
       <c r="E104" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>61</v>
+        <v>379</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>380</v>
+        <v>94</v>
       </c>
       <c r="C105" s="9" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>61</v>
+        <v>383</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="8" t="s">
-        <v>383</v>
+      <c r="A106" s="12" t="s">
+        <v>385</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C106" s="9" t="n">
-        <v>111</v>
+        <v>300</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>61</v>
+        <v>388</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="C107" s="9" t="n">
+        <v>300</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="B107" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
       <c r="E107" s="9" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C108" s="9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D108" s="9" t="s">
-        <v>393</v>
-      </c>
+        <v>5500</v>
+      </c>
+      <c r="D108" s="9"/>
       <c r="E108" s="9" t="s">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="G108" s="3" t="s">
         <v>61</v>
@@ -4134,22 +4170,20 @@
     </row>
     <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="8" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C109" s="9" t="n">
-        <v>112</v>
-      </c>
-      <c r="D109" s="9" t="s">
-        <v>396</v>
-      </c>
+        <v>5600</v>
+      </c>
+      <c r="D109" s="9"/>
       <c r="E109" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F109" s="9" t="s">
         <v>398</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4157,70 +4191,72 @@
         <v>399</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>94</v>
+        <v>400</v>
       </c>
       <c r="C110" s="9" t="n">
-        <v>3100</v>
-      </c>
-      <c r="D110" s="9"/>
+        <v>101</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>401</v>
+      </c>
       <c r="E110" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="111" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="8" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C111" s="9" t="n">
-        <v>21</v>
-      </c>
-      <c r="D111" s="9"/>
+        <v>111</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>405</v>
+      </c>
       <c r="E111" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="112" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C112" s="9" t="n">
-        <v>122</v>
-      </c>
-      <c r="D112" s="9" t="s">
-        <v>407</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
       <c r="E112" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>61</v>
+        <v>409</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="8" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C113" s="9" t="n">
-        <v>1722</v>
-      </c>
-      <c r="D113" s="9"/>
+        <v>1000</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>413</v>
+      </c>
       <c r="E113" s="9" t="s">
-        <v>411</v>
+        <v>329</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>61</v>
@@ -4228,110 +4264,114 @@
     </row>
     <row r="114" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="8" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C114" s="9" t="n">
-        <v>7100</v>
-      </c>
-      <c r="D114" s="9"/>
+        <v>112</v>
+      </c>
+      <c r="D114" s="9" t="s">
+        <v>416</v>
+      </c>
       <c r="E114" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>61</v>
+        <v>417</v>
+      </c>
+      <c r="F114" s="9" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="115" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="8" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
+        <v>94</v>
+      </c>
+      <c r="C115" s="9" t="n">
+        <v>3100</v>
+      </c>
+      <c r="D115" s="9"/>
       <c r="E115" s="9" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="8" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
+        <v>423</v>
+      </c>
+      <c r="C116" s="9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="117" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="8" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
+        <v>244</v>
+      </c>
+      <c r="C117" s="9" t="n">
+        <v>122</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>427</v>
+      </c>
       <c r="E117" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
-        <v>427</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="8" t="s">
+        <v>429</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
+        <v>430</v>
+      </c>
+      <c r="C118" s="9" t="n">
+        <v>1722</v>
+      </c>
+      <c r="D118" s="9"/>
       <c r="E118" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="B119" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="119" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="C119" s="2" t="n">
-        <v>133</v>
-      </c>
-      <c r="E119" s="2" t="s">
+      <c r="B119" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="C119" s="9" t="n">
+        <v>7100</v>
+      </c>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9" t="s">
         <v>434</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="120" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,14 +4379,10 @@
         <v>435</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C120" s="9" t="n">
-        <v>400</v>
-      </c>
-      <c r="D120" s="9" t="s">
         <v>436</v>
       </c>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
       <c r="E120" s="9" t="s">
         <v>437</v>
       </c>
@@ -4354,105 +4390,111 @@
         <v>438</v>
       </c>
     </row>
-    <row r="121" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="8" t="s">
         <v>439</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="C121" s="9" t="n">
-        <v>400</v>
-      </c>
-      <c r="D121" s="9"/>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
       <c r="E121" s="9" t="s">
         <v>441</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="122" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="1" t="s">
+      <c r="G121" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C122" s="2" t="n">
-        <v>2612</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="E122" s="2" t="s">
+      <c r="F122" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="F122" s="9" t="s">
+      <c r="G122" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="123" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8" t="s">
+      <c r="B123" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="C123" s="10"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="C123" s="9" t="s">
+      <c r="F123" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="D123" s="9"/>
-      <c r="E123" s="9" t="s">
+      <c r="G123" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="B124" s="2" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8" t="s">
+      <c r="C124" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B124" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="9" t="s">
+      <c r="F124" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C125" s="9" t="n">
+        <v>400</v>
+      </c>
+      <c r="D125" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="E125" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C125" s="9" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D125" s="9"/>
-      <c r="E125" s="9" t="s">
+      <c r="F125" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="F125" s="9" t="s">
+    </row>
+    <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8" t="s">
+      <c r="B126" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="B126" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
+      <c r="C126" s="9" t="n">
+        <v>400</v>
+      </c>
+      <c r="D126" s="9"/>
       <c r="E126" s="9" t="s">
         <v>461</v>
       </c>
@@ -4461,134 +4503,136 @@
       </c>
     </row>
     <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B127" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C127" s="9" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D127" s="9"/>
-      <c r="E127" s="9" t="s">
+      <c r="B127" s="2" t="s">
         <v>464</v>
       </c>
+      <c r="C127" s="2" t="n">
+        <v>2612</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>466</v>
+      </c>
       <c r="F127" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="8" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
+        <v>469</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="D128" s="9"/>
       <c r="E128" s="9" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="8" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>470</v>
+        <v>167</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
       <c r="E129" s="9" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
     </row>
     <row r="130" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="8" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
+        <v>477</v>
+      </c>
+      <c r="C130" s="9" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D130" s="9"/>
       <c r="E130" s="9" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="131" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="8" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>474</v>
+        <v>167</v>
       </c>
       <c r="C131" s="10"/>
       <c r="D131" s="10"/>
       <c r="E131" s="9" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="8" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
+        <v>170</v>
+      </c>
+      <c r="C132" s="9" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D132" s="9"/>
       <c r="E132" s="9" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="C133" s="9" t="n">
-        <v>5800</v>
-      </c>
-      <c r="D133" s="9"/>
+        <v>225</v>
+      </c>
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
       <c r="E133" s="9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>489</v>
-      </c>
-      <c r="C134" s="9" t="n">
-        <v>7700</v>
-      </c>
-      <c r="D134" s="9" t="s">
         <v>490</v>
       </c>
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
       <c r="E134" s="9" t="s">
         <v>491</v>
       </c>
@@ -4603,17 +4647,13 @@
       <c r="B135" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="C135" s="9" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D135" s="9" t="s">
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="E135" s="9" t="s">
+      <c r="F135" s="9" t="s">
         <v>496</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4621,82 +4661,86 @@
         <v>497</v>
       </c>
       <c r="B136" s="9" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
       <c r="E136" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="F136" s="9" t="s">
         <v>499</v>
-      </c>
-      <c r="F136" s="9" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="B137" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="B137" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C137" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D137" s="10" t="s">
+      <c r="C137" s="10"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="E137" s="9" t="s">
+      <c r="F137" s="9" t="s">
         <v>503</v>
-      </c>
-      <c r="F137" s="9" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="C138" s="9" t="n">
+        <v>5800</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="9" t="s">
+      <c r="F138" s="9" t="s">
         <v>507</v>
-      </c>
-      <c r="F138" s="9" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="B139" s="9" t="s">
-        <v>380</v>
-      </c>
       <c r="C139" s="9" t="n">
-        <v>101</v>
-      </c>
-      <c r="D139" s="9"/>
+        <v>7700</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>510</v>
+      </c>
       <c r="E139" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>61</v>
+        <v>511</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="8" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
+        <v>514</v>
+      </c>
+      <c r="C140" s="9" t="n">
+        <v>7800</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>515</v>
+      </c>
       <c r="E140" s="9" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="F140" s="9" t="s">
         <v>512</v>
@@ -4704,78 +4748,72 @@
     </row>
     <row r="141" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="8" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>227</v>
+        <v>518</v>
       </c>
       <c r="C141" s="10"/>
-      <c r="D141" s="10" t="s">
-        <v>514</v>
-      </c>
+      <c r="D141" s="10"/>
       <c r="E141" s="9" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="8" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C142" s="9" t="n">
-        <v>1400</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>518</v>
+        <v>170</v>
+      </c>
+      <c r="C142" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D142" s="10" t="s">
+        <v>522</v>
       </c>
       <c r="E142" s="9" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
-        <v>521</v>
+      <c r="A143" s="8" t="s">
+        <v>525</v>
       </c>
       <c r="B143" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="C143" s="9" t="n">
-        <v>7400</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>117</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="C143" s="10"/>
+      <c r="D143" s="10"/>
       <c r="E143" s="9" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="8" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B144" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10" t="s">
-        <v>527</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="C144" s="9" t="n">
+        <v>101</v>
+      </c>
+      <c r="D144" s="9"/>
       <c r="E144" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="F144" s="9" t="s">
-        <v>529</v>
+        <v>402</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4783,50 +4821,48 @@
         <v>530</v>
       </c>
       <c r="B145" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="C145" s="9" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D145" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C145" s="10"/>
+      <c r="D145" s="10"/>
+      <c r="E145" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="F145" s="9" t="s">
         <v>532</v>
-      </c>
-      <c r="F145" s="9" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="E146" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="C146" s="9" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E146" s="9" t="s">
+      <c r="F146" s="9" t="s">
         <v>536</v>
-      </c>
-      <c r="F146" s="9" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C147" s="9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="D147" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="B147" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
       <c r="E147" s="9" t="s">
         <v>539</v>
       </c>
@@ -4835,114 +4871,128 @@
       </c>
     </row>
     <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="1" t="s">
         <v>541</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="C148" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="D148" s="10"/>
+      <c r="C148" s="9" t="n">
+        <v>7400</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="E148" s="9" t="s">
         <v>543</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B149" s="9" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="C149" s="10"/>
-      <c r="D149" s="10"/>
+      <c r="D149" s="10" t="s">
+        <v>547</v>
+      </c>
       <c r="E149" s="9" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="8" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
+        <v>494</v>
+      </c>
+      <c r="C150" s="9" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>551</v>
+      </c>
       <c r="E150" s="9" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="8" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B151" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
+        <v>555</v>
+      </c>
+      <c r="C151" s="9" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D151" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="E151" s="9" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="8" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B152" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="C152" s="10"/>
-      <c r="D152" s="10"/>
+        <v>247</v>
+      </c>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
       <c r="E152" s="9" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="8" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="C153" s="10"/>
+        <v>225</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>562</v>
+      </c>
       <c r="D153" s="10"/>
       <c r="E153" s="9" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="8" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>205</v>
+        <v>546</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
       <c r="E154" s="9" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="F154" s="9" t="s">
         <v>560</v>
@@ -4950,563 +5000,643 @@
     </row>
     <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="8" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>147</v>
+        <v>494</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
       <c r="E155" s="9" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="8" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>150</v>
+        <v>569</v>
       </c>
       <c r="C156" s="10"/>
       <c r="D156" s="10"/>
       <c r="E156" s="9" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="8" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>227</v>
+        <v>546</v>
       </c>
       <c r="C157" s="10"/>
       <c r="D157" s="10"/>
       <c r="E157" s="9" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="158" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
       <c r="E158" s="9" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
     <row r="159" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="8" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
       <c r="E159" s="9" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
     </row>
     <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="8" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
       <c r="E160" s="9" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="8" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
       <c r="E161" s="9" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="8" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
       <c r="E162" s="9" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="8" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="B163" s="9" t="s">
-        <v>526</v>
+        <v>494</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
       <c r="E163" s="9" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="8" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>589</v>
-      </c>
-      <c r="C164" s="9" t="n">
-        <v>121</v>
-      </c>
-      <c r="D164" s="9"/>
+        <v>167</v>
+      </c>
+      <c r="C164" s="10"/>
+      <c r="D164" s="10"/>
       <c r="E164" s="9" t="s">
-        <v>590</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>61</v>
+        <v>594</v>
+      </c>
+      <c r="F164" s="9" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="8" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
       <c r="E165" s="9" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="8" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B166" s="9" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
       <c r="E166" s="9" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="8" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="C167" s="9" t="n">
-        <v>111</v>
-      </c>
-      <c r="D167" s="9"/>
+        <v>225</v>
+      </c>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
       <c r="E167" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>603</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="8" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C168" s="9" t="n">
-        <v>1711</v>
-      </c>
-      <c r="D168" s="9"/>
+        <v>546</v>
+      </c>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10"/>
       <c r="E168" s="9" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>11</v>
+        <v>607</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="s">
-        <v>600</v>
+      <c r="A169" s="8" t="s">
+        <v>608</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="C169" s="9" t="n">
-        <v>3300</v>
+        <v>121</v>
       </c>
       <c r="D169" s="9"/>
       <c r="E169" s="9" t="s">
-        <v>602</v>
-      </c>
-      <c r="F169" s="9" t="s">
-        <v>603</v>
+        <v>610</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="8" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>605</v>
-      </c>
-      <c r="C170" s="9" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D170" s="9" t="s">
-        <v>606</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10"/>
       <c r="E170" s="9" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="8" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B171" s="9" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
       <c r="E171" s="9" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="8" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
+        <v>404</v>
+      </c>
+      <c r="C172" s="9" t="n">
+        <v>111</v>
+      </c>
+      <c r="D172" s="9"/>
       <c r="E172" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="F172" s="9" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>406</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="8" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B173" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
+        <v>298</v>
+      </c>
+      <c r="C173" s="9" t="n">
+        <v>1711</v>
+      </c>
+      <c r="D173" s="9"/>
       <c r="E173" s="9" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>617</v>
+        <v>300</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="8" t="s">
-        <v>618</v>
+      <c r="A174" s="1" t="s">
+        <v>620</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>116</v>
+        <v>621</v>
       </c>
       <c r="C174" s="9" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D174" s="9" t="s">
-        <v>619</v>
-      </c>
+        <v>3300</v>
+      </c>
+      <c r="D174" s="9"/>
       <c r="E174" s="9" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>119</v>
+        <v>623</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>622</v>
+        <v>624</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>625</v>
       </c>
       <c r="C175" s="9" t="n">
-        <v>2611</v>
-      </c>
-      <c r="D175" s="9"/>
+        <v>8000</v>
+      </c>
+      <c r="D175" s="9" t="s">
+        <v>626</v>
+      </c>
       <c r="E175" s="9" t="s">
-        <v>623</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>61</v>
+        <v>627</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="8" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="B176" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="C176" s="9" t="n">
-        <v>2711</v>
-      </c>
-      <c r="D176" s="9"/>
+        <v>167</v>
+      </c>
+      <c r="C176" s="10"/>
+      <c r="D176" s="10"/>
       <c r="E176" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>61</v>
+        <v>630</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="8" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B177" s="9" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
       <c r="E177" s="9" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="8" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>631</v>
+        <v>244</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="10"/>
       <c r="E178" s="9" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="8" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B179" s="9" t="s">
-        <v>635</v>
+        <v>116</v>
       </c>
       <c r="C179" s="9" t="n">
-        <v>3721</v>
-      </c>
-      <c r="D179" s="9"/>
+        <v>1500</v>
+      </c>
+      <c r="D179" s="9" t="s">
+        <v>639</v>
+      </c>
       <c r="E179" s="9" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>637</v>
+        <v>119</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>474</v>
+        <v>641</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>642</v>
       </c>
       <c r="C180" s="9" t="n">
-        <v>6100</v>
+        <v>2611</v>
       </c>
       <c r="D180" s="9"/>
       <c r="E180" s="9" t="s">
-        <v>639</v>
-      </c>
-      <c r="F180" s="9" t="s">
-        <v>640</v>
+        <v>643</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="8" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B181" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="C181" s="10" t="n">
-        <v>8400</v>
-      </c>
-      <c r="D181" s="10"/>
+        <v>645</v>
+      </c>
+      <c r="C181" s="9" t="n">
+        <v>2711</v>
+      </c>
+      <c r="D181" s="9"/>
       <c r="E181" s="9" t="s">
-        <v>643</v>
-      </c>
-      <c r="F181" s="9" t="s">
-        <v>644</v>
+        <v>646</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="8" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B182" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C182" s="7"/>
-      <c r="D182" s="7"/>
+        <v>225</v>
+      </c>
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
       <c r="E182" s="9" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="s">
-        <v>648</v>
+      <c r="A183" s="8" t="s">
+        <v>650</v>
       </c>
       <c r="B183" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C183" s="9" t="n">
-        <v>400</v>
-      </c>
-      <c r="D183" s="9"/>
+        <v>651</v>
+      </c>
+      <c r="C183" s="10"/>
+      <c r="D183" s="10"/>
       <c r="E183" s="9" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="s">
-        <v>651</v>
+      <c r="A184" s="8" t="s">
+        <v>654</v>
       </c>
       <c r="B184" s="9" t="s">
-        <v>440</v>
+        <v>655</v>
       </c>
       <c r="C184" s="9" t="n">
-        <v>400</v>
+        <v>3721</v>
       </c>
       <c r="D184" s="9"/>
       <c r="E184" s="9" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>442</v>
+        <v>657</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="8" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="B185" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C185" s="10"/>
-      <c r="D185" s="10"/>
+        <v>494</v>
+      </c>
+      <c r="C185" s="9" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D185" s="9"/>
       <c r="E185" s="9" t="s">
-        <v>654</v>
+        <v>659</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="8" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="B186" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="C186" s="9" t="n">
+        <v>662</v>
+      </c>
+      <c r="C186" s="10" t="n">
+        <v>8400</v>
+      </c>
+      <c r="D186" s="10"/>
+      <c r="E186" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="F186" s="9" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="F187" s="9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="188" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C188" s="9" t="n">
+        <v>400</v>
+      </c>
+      <c r="D188" s="9"/>
+      <c r="E188" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="F188" s="9" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="C189" s="9" t="n">
+        <v>400</v>
+      </c>
+      <c r="D189" s="9"/>
+      <c r="E189" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="F189" s="9" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="B190" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="9" t="s">
+        <v>674</v>
+      </c>
+      <c r="F190" s="9" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="191" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C191" s="9" t="n">
         <v>21</v>
       </c>
-      <c r="D186" s="9"/>
-      <c r="E186" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="G186" s="3" t="s">
+      <c r="D191" s="9"/>
+      <c r="E191" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="G191" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E187" s="9" t="s">
-        <v>659</v>
-      </c>
-      <c r="F187" s="9" t="s">
-        <v>660</v>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E192" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="F192" s="9" t="s">
+        <v>680</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="689">
   <si>
     <t>Hash</t>
   </si>
@@ -911,13 +911,13 @@
     <t>LDAP(SSHA-512)</t>
   </si>
   <si>
-    <t>^{SSHA512}[a-z0-9\/+]{96}={0,2}$/i</t>
-  </si>
-  <si>
-    <t>{SSHA512}SCMmLlStPIxVtJc8Y6REiGTMsgSEFF7xVQFoYZYg39H0nEeDuK/fWxxNZCdSYlRgJK3U3q0lYTka3Nre2CjXzeNUjbvHabYP</t>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/6713521/how-to-securely-generate-ssha256-or-ssha512-hashes-in-php</t>
+    <t>^{SSHA512}[a-z0-9\/+]{96}$/i</t>
+  </si>
+  <si>
+    <t>{SSHA512}o8bAqSzcKPV7wQZ53dNMGsKaNHbMMBameRMBgMMyQa77MzWiohPszhBouNd6J8fEuUkdf1G1aoPUk8b16ywMBTGAEVAmTXZE</t>
+  </si>
+  <si>
+    <t>http://www.openwall.com/lists/john-users/2013/02/09/5</t>
   </si>
   <si>
     <t>Lineage II C4</t>
@@ -1217,7 +1217,7 @@
     <t>Netscape LDAP SHA</t>
   </si>
   <si>
-    <t>^{SHA}[a-z0-9\/+=]{28}$/i</t>
+    <t>^{SHA}[a-z0-9\/+]{27}=$</t>
   </si>
   <si>
     <t>nsldap</t>
@@ -1229,13 +1229,13 @@
     <t>Netscape LDAP SSHA</t>
   </si>
   <si>
-    <t>^{SSHA}[a-z0-9\/+=]{40}$/i</t>
+    <t>^{SSHA}[a-z0-9\/+]{38}==$</t>
   </si>
   <si>
     <t>ssha</t>
   </si>
   <si>
-    <t>{SSHA}AZKja92fbuuB9SpRlHqaoXxbTc43Mzc2MDM1Ng==</t>
+    <t>{SSHA}LTVdoLa0oBVS6cFo++7TQ0165sDWsurD5h+KoQ==</t>
   </si>
   <si>
     <t>NTHash(FreeBSD Variant)</t>
@@ -1349,7 +1349,7 @@
     <t>PBKDF2(Cryptacular)</t>
   </si>
   <si>
-    <t>^\$p5k2\$[0-9]+\$[a-z0-9\/+=-]+\$[a-z0-9\/+=-]{28}$/i</t>
+    <t>^\$p5k2\$[0-9]+\$[a-z0-9\/+=-]+\$[a-z0-9\/+-]{27}=$/i</t>
   </si>
   <si>
     <t>$p5k2$2710$oX9ZZOcNgYoAsYL-8bqxKg==$AU2JLf2rNxWoZxWxRCluY0u6h6c=</t>
@@ -1895,10 +1895,10 @@
     <t>SSHA-1(Base64)</t>
   </si>
   <si>
+    <t>^{SSHA}[a-z0-9\/+]{38}==$/i</t>
+  </si>
+  <si>
     <t>SSHA-512(Base64)</t>
-  </si>
-  <si>
-    <t>{SSHA512}ALtwKGBdRgD+U0fPAy31C28RyKYx7+a8kmfksccsOeLknLHv2DBXYI7TDnTolQMBuPkWDISgZr2cHfnNPFjGZTEyNDU4OTkw</t>
   </si>
   <si>
     <t>Sun MD5 Crypt</t>
@@ -2258,8 +2258,8 @@
   </sheetPr>
   <dimension ref="A1:G194"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B176" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E189" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A141" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A146" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3713,9 +3713,6 @@
       <c r="F82" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="83" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="s">
@@ -4443,9 +4440,6 @@
       <c r="F122" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="G122" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
@@ -4462,9 +4456,6 @@
       <c r="F123" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="G123" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
@@ -4481,9 +4472,6 @@
       <c r="F124" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="G124" s="3" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
@@ -5329,7 +5317,7 @@
         <v>625</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>404</v>
+        <v>626</v>
       </c>
       <c r="C174" s="9" t="n">
         <v>111</v>
@@ -5344,7 +5332,7 @@
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>298</v>
@@ -5354,13 +5342,10 @@
       </c>
       <c r="D175" s="9"/>
       <c r="E175" s="9" t="s">
-        <v>627</v>
+        <v>299</v>
       </c>
       <c r="F175" s="9" t="s">
         <v>300</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="700">
   <si>
     <t>Hash</t>
   </si>
@@ -194,7 +194,7 @@
     <t>Cisco-IOS(MD5)</t>
   </si>
   <si>
-    <t>^\$1\$[a-z0-9\/.]{0,8}\$[a-z0-9\/.]{22}$/i</t>
+    <t>^\$1\$[a-z0-9\/.]{0,8}\$[a-z0-9\/.]{22}(:.*)?$/i</t>
   </si>
   <si>
     <t>dRRVnUmUHXOTt9nk</t>
@@ -989,7 +989,7 @@
     <t>^\([a-z0-9\/+]{49}\)$/i</t>
   </si>
   <si>
-    <t>(H7b36MY73EvYe15ugumPD2p0mC30mCJ0mC30mChXS0YQeAAmy) </t>
+    <t>(H7b36MY73EvYe15ugumPD2p0mC30mCJ0mC30mChXS0YQeAAmy)</t>
   </si>
   <si>
     <t>https://hashcat.net/forum/thread-3550-post-20316.html</t>
@@ -1052,9 +1052,6 @@
     <t>MD5(APR)</t>
   </si>
   <si>
-    <t>^\$apr1\$[a-z0-9\/.]{0,8}\$[a-z0-9\/.]{22}$/</t>
-  </si>
-  <si>
     <t>MD5(Chap)</t>
   </si>
   <si>
@@ -1625,7 +1622,7 @@
     <t>^SCRYPT:[0-9]{5}:[0-9]{1}:[0-9]{1}:[a-z0-9\/+]{14}==:[a-z0-9\/+]{43}=$/i</t>
   </si>
   <si>
-    <t>SCRYPT:16384:8:1:NTc3NDM2MjM4Ng==:H20uniAjyGNxmqBHRGi3kZBZjHInup43hf4wMWT65WU= </t>
+    <t>SCRYPT:16384:8:1:NTc3NDM2MjM4Ng==:H20uniAjyGNxmqBHRGi3kZBZjHInup43hf4wMWT65WU=</t>
   </si>
   <si>
     <t>SHA-1</t>
@@ -2294,8 +2291,8 @@
   </sheetPr>
   <dimension ref="A1:G197"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A160" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B90" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B92" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3850,7 +3847,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>322</v>
       </c>
@@ -3962,7 +3959,7 @@
         <v>344</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>345</v>
+        <v>33</v>
       </c>
       <c r="C94" s="9" t="n">
         <v>1600</v>
@@ -3977,7 +3974,7 @@
     </row>
     <row r="95" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B95" s="9" t="s">
         <v>271</v>
@@ -3995,118 +3992,118 @@
     </row>
     <row r="96" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="C96" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="D96" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="D96" s="10" t="s">
+      <c r="E96" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="F96" s="9" t="s">
         <v>351</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="97" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B97" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="B97" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
       <c r="E97" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="98" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>358</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
       <c r="E98" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="F98" s="9" t="s">
         <v>359</v>
-      </c>
-      <c r="F98" s="9" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="99" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>361</v>
-      </c>
-      <c r="B99" s="9" t="s">
-        <v>362</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
       <c r="E99" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F99" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="100" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>365</v>
-      </c>
-      <c r="B100" s="9" t="s">
-        <v>366</v>
       </c>
       <c r="C100" s="9" t="n">
         <v>131</v>
       </c>
       <c r="D100" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E100" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="F100" s="9" t="s">
         <v>368</v>
-      </c>
-      <c r="F100" s="9" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="101" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>370</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>371</v>
       </c>
       <c r="C101" s="9" t="n">
         <v>132</v>
       </c>
       <c r="D101" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="E101" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="F101" s="9" t="s">
         <v>373</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="102" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C102" s="10" t="n">
         <v>132</v>
@@ -4118,17 +4115,17 @@
     </row>
     <row r="103" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>376</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>377</v>
       </c>
       <c r="C103" s="9" t="n">
         <v>1731</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>61</v>
@@ -4136,43 +4133,43 @@
     </row>
     <row r="104" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C104" s="9" t="n">
         <v>1731</v>
       </c>
       <c r="D104" s="9"/>
       <c r="F104" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="G104" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="105" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>382</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>383</v>
       </c>
       <c r="C105" s="9" t="n">
         <v>2811</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="F105" s="9" t="s">
         <v>384</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="106" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B106" s="9" t="s">
         <v>94</v>
@@ -4181,68 +4178,68 @@
         <v>200</v>
       </c>
       <c r="D106" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E106" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="F106" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="107" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B107" s="9" t="s">
         <v>390</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>391</v>
       </c>
       <c r="C107" s="9" t="n">
         <v>300</v>
       </c>
       <c r="D107" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="E107" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="F107" s="9" t="s">
         <v>393</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="108" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C108" s="9" t="n">
         <v>300</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E108" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="F108" s="9" t="s">
         <v>396</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="109" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>398</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>399</v>
       </c>
       <c r="C109" s="9" t="n">
         <v>5500</v>
       </c>
       <c r="D109" s="9"/>
       <c r="E109" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G109" s="3" t="s">
         <v>61</v>
@@ -4250,17 +4247,17 @@
     </row>
     <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>401</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>402</v>
       </c>
       <c r="C110" s="9" t="n">
         <v>5600</v>
       </c>
       <c r="D110" s="9"/>
       <c r="E110" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G110" s="3" t="s">
         <v>61</v>
@@ -4268,19 +4265,19 @@
     </row>
     <row r="111" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>404</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>405</v>
       </c>
       <c r="C111" s="9" t="n">
         <v>101</v>
       </c>
       <c r="D111" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>406</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>407</v>
       </c>
       <c r="G111" s="3" t="s">
         <v>61</v>
@@ -4288,19 +4285,19 @@
     </row>
     <row r="112" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>408</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>409</v>
       </c>
       <c r="C112" s="9" t="n">
         <v>111</v>
       </c>
       <c r="D112" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="E112" s="9" t="s">
         <v>410</v>
-      </c>
-      <c r="E112" s="9" t="s">
-        <v>411</v>
       </c>
       <c r="G112" s="3" t="s">
         <v>61</v>
@@ -4308,32 +4305,32 @@
     </row>
     <row r="113" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>412</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>413</v>
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
       <c r="E113" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="F113" s="9" t="s">
         <v>414</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="114" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>416</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>417</v>
       </c>
       <c r="C114" s="9" t="n">
         <v>1000</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>334</v>
@@ -4344,27 +4341,27 @@
     </row>
     <row r="115" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="B115" s="9" t="s">
         <v>419</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>420</v>
       </c>
       <c r="C115" s="9" t="n">
         <v>112</v>
       </c>
       <c r="D115" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E115" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="F115" s="9" t="s">
         <v>422</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="116" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>94</v>
@@ -4374,33 +4371,33 @@
       </c>
       <c r="D116" s="9"/>
       <c r="E116" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="F116" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="F116" s="9" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="117" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>427</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>428</v>
       </c>
       <c r="C117" s="9" t="n">
         <v>21</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="F117" s="9" t="s">
         <v>429</v>
-      </c>
-      <c r="F117" s="9" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="118" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>245</v>
@@ -4409,10 +4406,10 @@
         <v>122</v>
       </c>
       <c r="D118" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="E118" s="9" t="s">
         <v>432</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>433</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>61</v>
@@ -4420,17 +4417,17 @@
     </row>
     <row r="119" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>434</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>435</v>
       </c>
       <c r="C119" s="9" t="n">
         <v>1722</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>61</v>
@@ -4438,17 +4435,17 @@
     </row>
     <row r="120" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>437</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>438</v>
       </c>
       <c r="C120" s="9" t="n">
         <v>7100</v>
       </c>
       <c r="D120" s="9"/>
       <c r="E120" s="9" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G120" s="3" t="s">
         <v>61</v>
@@ -4456,102 +4453,102 @@
     </row>
     <row r="121" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B121" s="9" t="s">
         <v>440</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>441</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="10"/>
       <c r="E121" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="F121" s="9" t="s">
         <v>442</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="E122" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="E122" s="13" t="s">
+      <c r="F122" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="123" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>448</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>449</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
       <c r="E123" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="F123" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>452</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>453</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="10"/>
       <c r="E124" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="F124" s="9" t="s">
         <v>454</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>456</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>457</v>
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
       <c r="E125" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="F125" s="9" t="s">
         <v>458</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="C126" s="2" t="n">
         <v>133</v>
       </c>
       <c r="E126" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="F126" s="2" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="8" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>281</v>
@@ -4560,88 +4557,88 @@
         <v>400</v>
       </c>
       <c r="D127" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="E127" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="F127" s="9" t="s">
         <v>466</v>
-      </c>
-      <c r="F127" s="9" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>468</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>469</v>
       </c>
       <c r="C128" s="9" t="n">
         <v>400</v>
       </c>
       <c r="D128" s="9"/>
       <c r="E128" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="F128" s="9" t="s">
         <v>470</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>472</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>473</v>
       </c>
       <c r="C129" s="2" t="n">
         <v>2612</v>
       </c>
       <c r="D129" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E129" s="2" t="s">
+      <c r="F129" s="9" t="s">
         <v>475</v>
-      </c>
-      <c r="F129" s="9" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="130" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="E130" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="E130" s="13" t="s">
+      <c r="F130" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="F130" s="2" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="131" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="C131" s="9" t="s">
         <v>482</v>
-      </c>
-      <c r="C131" s="9" t="s">
-        <v>483</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="F131" s="9" t="s">
         <v>484</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="8" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B132" s="9" t="s">
         <v>167</v>
@@ -4649,33 +4646,33 @@
       <c r="C132" s="10"/>
       <c r="D132" s="10"/>
       <c r="E132" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="F132" s="9" t="s">
         <v>487</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="133" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="B133" s="9" t="s">
         <v>489</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>490</v>
       </c>
       <c r="C133" s="9" t="n">
         <v>7600</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="F133" s="9" t="s">
         <v>491</v>
-      </c>
-      <c r="F133" s="9" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="8" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B134" s="9" t="s">
         <v>167</v>
@@ -4683,15 +4680,15 @@
       <c r="C134" s="10"/>
       <c r="D134" s="10"/>
       <c r="E134" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="F134" s="9" t="s">
         <v>494</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B135" s="9" t="s">
         <v>170</v>
@@ -4701,15 +4698,15 @@
       </c>
       <c r="D135" s="9"/>
       <c r="E135" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="F135" s="9" t="s">
         <v>497</v>
-      </c>
-      <c r="F135" s="9" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B136" s="9" t="s">
         <v>226</v>
@@ -4717,170 +4714,170 @@
       <c r="C136" s="10"/>
       <c r="D136" s="10"/>
       <c r="E136" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="F136" s="9" t="s">
         <v>500</v>
-      </c>
-      <c r="F136" s="9" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B137" s="9" t="s">
         <v>502</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>503</v>
       </c>
       <c r="C137" s="10"/>
       <c r="D137" s="10"/>
       <c r="E137" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="F137" s="9" t="s">
         <v>504</v>
-      </c>
-      <c r="F137" s="9" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>506</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>507</v>
       </c>
       <c r="C138" s="10"/>
       <c r="D138" s="10"/>
       <c r="E138" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="F138" s="9" t="s">
         <v>508</v>
-      </c>
-      <c r="F138" s="9" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C139" s="10"/>
       <c r="D139" s="10"/>
       <c r="E139" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="F139" s="9" t="s">
         <v>511</v>
-      </c>
-      <c r="F139" s="9" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>513</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>514</v>
       </c>
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
       <c r="E140" s="9" t="s">
+        <v>514</v>
+      </c>
+      <c r="F140" s="9" t="s">
         <v>515</v>
-      </c>
-      <c r="F140" s="9" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>517</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>518</v>
       </c>
       <c r="C141" s="9" t="n">
         <v>5800</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="F141" s="9" t="s">
         <v>519</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B142" s="9" t="s">
         <v>521</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>522</v>
       </c>
       <c r="C142" s="9" t="n">
         <v>7700</v>
       </c>
       <c r="D142" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="E142" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="E142" s="9" t="s">
+      <c r="F142" s="9" t="s">
         <v>524</v>
-      </c>
-      <c r="F142" s="9" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="B143" s="9" t="s">
         <v>526</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>527</v>
       </c>
       <c r="C143" s="9" t="n">
         <v>7800</v>
       </c>
       <c r="D143" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="E143" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="E143" s="9" t="s">
-        <v>529</v>
-      </c>
       <c r="F143" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="B144" s="9" t="s">
         <v>530</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>531</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
       <c r="E144" s="9" t="s">
+        <v>531</v>
+      </c>
+      <c r="F144" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F144" s="9" t="s">
+    </row>
+    <row r="145" s="1" customFormat="true" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
+      <c r="B145" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="C145" s="2" t="n">
         <v>8900</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B146" s="9" t="s">
         <v>170</v>
@@ -4889,44 +4886,44 @@
         <v>100</v>
       </c>
       <c r="D146" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="E146" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="E146" s="9" t="s">
+      <c r="F146" s="9" t="s">
         <v>539</v>
-      </c>
-      <c r="F146" s="9" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B147" s="9" t="s">
         <v>541</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>542</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
       <c r="E147" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="F147" s="9" t="s">
         <v>543</v>
-      </c>
-      <c r="F147" s="9" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B148" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C148" s="9" t="n">
         <v>101</v>
       </c>
       <c r="D148" s="9"/>
       <c r="E148" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G148" s="3" t="s">
         <v>61</v>
@@ -4934,7 +4931,7 @@
     </row>
     <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B149" s="9" t="s">
         <v>245</v>
@@ -4942,33 +4939,33 @@
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
       <c r="E149" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="F149" s="9" t="s">
         <v>547</v>
-      </c>
-      <c r="F149" s="9" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B150" s="9" t="s">
         <v>248</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="E150" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="E150" s="9" t="s">
+      <c r="F150" s="9" t="s">
         <v>551</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B151" s="9" t="s">
         <v>226</v>
@@ -4977,21 +4974,21 @@
         <v>1400</v>
       </c>
       <c r="D151" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="E151" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="E151" s="9" t="s">
+      <c r="F151" s="9" t="s">
         <v>555</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B152" s="9" t="s">
         <v>557</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>558</v>
       </c>
       <c r="C152" s="9" t="n">
         <v>7400</v>
@@ -5000,56 +4997,56 @@
         <v>117</v>
       </c>
       <c r="E152" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="F152" s="9" t="s">
         <v>559</v>
-      </c>
-      <c r="F152" s="9" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B153" s="9" t="s">
         <v>561</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>562</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="E153" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="E153" s="9" t="s">
+      <c r="F153" s="9" t="s">
         <v>564</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B154" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C154" s="9" t="n">
         <v>1700</v>
       </c>
       <c r="D154" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="E154" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="E154" s="9" t="s">
+      <c r="F154" s="9" t="s">
         <v>568</v>
-      </c>
-      <c r="F154" s="9" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="B155" s="9" t="s">
         <v>570</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>571</v>
       </c>
       <c r="C155" s="9" t="n">
         <v>1800</v>
@@ -5058,15 +5055,15 @@
         <v>117</v>
       </c>
       <c r="E155" s="9" t="s">
+        <v>571</v>
+      </c>
+      <c r="F155" s="9" t="s">
         <v>572</v>
-      </c>
-      <c r="F155" s="9" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B156" s="9" t="s">
         <v>248</v>
@@ -5074,113 +5071,113 @@
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="F156" s="9" t="s">
         <v>575</v>
-      </c>
-      <c r="F156" s="9" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B157" s="9" t="s">
         <v>226</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D157" s="10"/>
       <c r="E157" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="158" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B158" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="10"/>
       <c r="E158" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="159" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
       <c r="E159" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="B160" s="9" t="s">
         <v>584</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>585</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
       <c r="E160" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="F160" s="9" t="s">
         <v>586</v>
-      </c>
-      <c r="F160" s="9" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
       <c r="E161" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="F161" s="9" t="s">
         <v>589</v>
-      </c>
-      <c r="F161" s="9" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B162" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
       <c r="E162" s="9" t="s">
+        <v>591</v>
+      </c>
+      <c r="F162" s="9" t="s">
         <v>592</v>
-      </c>
-      <c r="F162" s="9" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B163" s="9" t="s">
         <v>226</v>
@@ -5188,15 +5185,15 @@
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
       <c r="E163" s="9" t="s">
+        <v>594</v>
+      </c>
+      <c r="F163" s="9" t="s">
         <v>595</v>
-      </c>
-      <c r="F163" s="9" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B164" s="9" t="s">
         <v>167</v>
@@ -5204,15 +5201,15 @@
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
       <c r="E164" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="F164" s="9" t="s">
         <v>598</v>
-      </c>
-      <c r="F164" s="9" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B165" s="9" t="s">
         <v>170</v>
@@ -5220,15 +5217,15 @@
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
       <c r="E165" s="9" t="s">
+        <v>600</v>
+      </c>
+      <c r="F165" s="9" t="s">
         <v>601</v>
-      </c>
-      <c r="F165" s="9" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B166" s="9" t="s">
         <v>248</v>
@@ -5236,31 +5233,31 @@
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
       <c r="E166" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="F166" s="9" t="s">
         <v>604</v>
-      </c>
-      <c r="F166" s="9" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B167" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
       <c r="E167" s="9" t="s">
+        <v>606</v>
+      </c>
+      <c r="F167" s="9" t="s">
         <v>607</v>
-      </c>
-      <c r="F167" s="9" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B168" s="9" t="s">
         <v>167</v>
@@ -5268,15 +5265,15 @@
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
       <c r="E168" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="F168" s="9" t="s">
         <v>610</v>
-      </c>
-      <c r="F168" s="9" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B169" s="9" t="s">
         <v>170</v>
@@ -5284,15 +5281,15 @@
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
       <c r="E169" s="9" t="s">
+        <v>612</v>
+      </c>
+      <c r="F169" s="9" t="s">
         <v>613</v>
-      </c>
-      <c r="F169" s="9" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B170" s="9" t="s">
         <v>248</v>
@@ -5300,15 +5297,15 @@
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
       <c r="E170" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="F170" s="9" t="s">
         <v>616</v>
-      </c>
-      <c r="F170" s="9" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="8" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B171" s="9" t="s">
         <v>226</v>
@@ -5316,58 +5313,58 @@
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
       <c r="E171" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="F171" s="9" t="s">
         <v>619</v>
-      </c>
-      <c r="F171" s="9" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B172" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="9" t="s">
+        <v>621</v>
+      </c>
+      <c r="F172" s="9" t="s">
         <v>622</v>
-      </c>
-      <c r="F172" s="9" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>624</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>625</v>
       </c>
       <c r="C173" s="2" t="n">
         <v>23</v>
       </c>
       <c r="E173" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="F173" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="F173" s="2" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="B174" s="9" t="s">
         <v>628</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>629</v>
       </c>
       <c r="C174" s="9" t="n">
         <v>121</v>
       </c>
       <c r="D174" s="9"/>
       <c r="E174" s="9" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G174" s="3" t="s">
         <v>61</v>
@@ -5375,7 +5372,7 @@
     </row>
     <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B175" s="9" t="s">
         <v>167</v>
@@ -5383,15 +5380,15 @@
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
       <c r="E175" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="F175" s="9" t="s">
         <v>632</v>
-      </c>
-      <c r="F175" s="9" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B176" s="9" t="s">
         <v>226</v>
@@ -5399,25 +5396,25 @@
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="E176" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="F176" s="9" t="s">
         <v>635</v>
-      </c>
-      <c r="F176" s="9" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="B177" s="9" t="s">
         <v>637</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>638</v>
       </c>
       <c r="C177" s="9" t="n">
         <v>111</v>
       </c>
       <c r="D177" s="9"/>
       <c r="E177" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G177" s="3" t="s">
         <v>61</v>
@@ -5425,7 +5422,7 @@
     </row>
     <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B178" s="9" t="s">
         <v>299</v>
@@ -5443,45 +5440,45 @@
     </row>
     <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="B179" s="9" t="s">
         <v>640</v>
-      </c>
-      <c r="B179" s="9" t="s">
-        <v>641</v>
       </c>
       <c r="C179" s="9" t="n">
         <v>3300</v>
       </c>
       <c r="D179" s="9"/>
       <c r="E179" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="F179" s="9" t="s">
         <v>642</v>
-      </c>
-      <c r="F179" s="9" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="B180" s="9" t="s">
         <v>644</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>645</v>
       </c>
       <c r="C180" s="9" t="n">
         <v>8000</v>
       </c>
       <c r="D180" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="E180" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="E180" s="9" t="s">
+      <c r="F180" s="9" t="s">
         <v>647</v>
-      </c>
-      <c r="F180" s="9" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B181" s="9" t="s">
         <v>167</v>
@@ -5489,15 +5486,15 @@
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
       <c r="E181" s="9" t="s">
+        <v>649</v>
+      </c>
+      <c r="F181" s="9" t="s">
         <v>650</v>
-      </c>
-      <c r="F181" s="9" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B182" s="9" t="s">
         <v>170</v>
@@ -5505,15 +5502,15 @@
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
       <c r="E182" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="F182" s="9" t="s">
         <v>653</v>
-      </c>
-      <c r="F182" s="9" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B183" s="9" t="s">
         <v>245</v>
@@ -5521,15 +5518,15 @@
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
       <c r="E183" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="F183" s="9" t="s">
         <v>656</v>
-      </c>
-      <c r="F183" s="9" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B184" s="9" t="s">
         <v>116</v>
@@ -5538,10 +5535,10 @@
         <v>1500</v>
       </c>
       <c r="D184" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="E184" s="9" t="s">
         <v>659</v>
-      </c>
-      <c r="E184" s="9" t="s">
-        <v>660</v>
       </c>
       <c r="F184" s="9" t="s">
         <v>119</v>
@@ -5549,17 +5546,17 @@
     </row>
     <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="B185" s="7" t="s">
         <v>661</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>662</v>
       </c>
       <c r="C185" s="9" t="n">
         <v>2611</v>
       </c>
       <c r="D185" s="9"/>
       <c r="E185" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G185" s="3" t="s">
         <v>61</v>
@@ -5567,17 +5564,17 @@
     </row>
     <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="B186" s="9" t="s">
         <v>664</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>665</v>
       </c>
       <c r="C186" s="9" t="n">
         <v>2711</v>
       </c>
       <c r="D186" s="9"/>
       <c r="E186" s="9" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G186" s="3" t="s">
         <v>61</v>
@@ -5585,7 +5582,7 @@
     </row>
     <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B187" s="9" t="s">
         <v>226</v>
@@ -5593,85 +5590,85 @@
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
       <c r="E187" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="F187" s="9" t="s">
         <v>668</v>
-      </c>
-      <c r="F187" s="9" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="B188" s="9" t="s">
         <v>670</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>671</v>
       </c>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
       <c r="E188" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="F188" s="9" t="s">
         <v>672</v>
-      </c>
-      <c r="F188" s="9" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="B189" s="9" t="s">
         <v>674</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>675</v>
       </c>
       <c r="C189" s="9" t="n">
         <v>3721</v>
       </c>
       <c r="D189" s="9"/>
       <c r="E189" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="F189" s="9" t="s">
         <v>676</v>
-      </c>
-      <c r="F189" s="9" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B190" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C190" s="9" t="n">
         <v>6100</v>
       </c>
       <c r="D190" s="9"/>
       <c r="E190" s="9" t="s">
+        <v>678</v>
+      </c>
+      <c r="F190" s="9" t="s">
         <v>679</v>
-      </c>
-      <c r="F190" s="9" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="B191" s="9" t="s">
         <v>681</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>682</v>
       </c>
       <c r="C191" s="10" t="n">
         <v>8400</v>
       </c>
       <c r="D191" s="10"/>
       <c r="E191" s="9" t="s">
+        <v>682</v>
+      </c>
+      <c r="F191" s="9" t="s">
         <v>683</v>
-      </c>
-      <c r="F191" s="9" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B192" s="9" t="s">
         <v>41</v>
@@ -5679,15 +5676,15 @@
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
       <c r="E192" s="9" t="s">
+        <v>685</v>
+      </c>
+      <c r="F192" s="9" t="s">
         <v>686</v>
-      </c>
-      <c r="F192" s="9" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B193" s="9" t="s">
         <v>281</v>
@@ -5697,33 +5694,33 @@
       </c>
       <c r="D193" s="9"/>
       <c r="E193" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="F193" s="9" t="s">
         <v>689</v>
-      </c>
-      <c r="F193" s="9" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B194" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C194" s="9" t="n">
         <v>400</v>
       </c>
       <c r="D194" s="9"/>
       <c r="E194" s="9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="195" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B195" s="9" t="s">
         <v>16</v>
@@ -5731,25 +5728,25 @@
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
       <c r="E195" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="F195" s="9" t="s">
         <v>694</v>
-      </c>
-      <c r="F195" s="9" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B196" s="9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C196" s="9" t="n">
         <v>21</v>
       </c>
       <c r="D196" s="9"/>
       <c r="E196" s="9" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G196" s="3" t="s">
         <v>61</v>
@@ -5757,16 +5754,16 @@
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B197" s="9" t="s">
         <v>167</v>
       </c>
       <c r="E197" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="F197" s="9" t="s">
         <v>699</v>
-      </c>
-      <c r="F197" s="9" t="s">
-        <v>700</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="714">
   <si>
     <t>Hash</t>
   </si>
@@ -1313,7 +1313,16 @@
     <t>^\$office\$\*2010\*[0-9]{6}\*[0-9]{3}\*[0-9]{2}\*[a-z0-9]{32}\*[a-z0-9]{32}\*[a-z0-9]{64}$/i</t>
   </si>
   <si>
-    <t>$office$*2010*100000*128*16*77233201017277788267221014757262*b2d0ca4854ba19cf95a2647d5eee906c*e30cbbb189575cafb6f142a90c2622fa9e78d293c5b0c001517b3f5b82993557 </t>
+    <t>$office$*2010*100000*128*16*77233201017277788267221014757262*b2d0ca4854ba19cf95a2647d5eee906c*e30cbbb189575cafb6f142a90c2622fa9e78d293c5b0c001517b3f5b82993557</t>
+  </si>
+  <si>
+    <t>Office 2013</t>
+  </si>
+  <si>
+    <t>^\$office\$\*2013\*[0-9]{6}\*[0-9]{3}\*[0-9]{2}\*[a-z0-9]{32}\*[a-z0-9]{32}\*[a-z0-9]{64}$/i</t>
+  </si>
+  <si>
+    <t>$office$*2013*100000*256*16*7dd611d7eb4c899f74816d1dec817b3b*948dc0b2c2c6c32f14b5995a543ad037*0b7ee0e48e935f937192a59de48a7d561ef2691d5c8a3ba87ec2d04402a94895</t>
   </si>
   <si>
     <t>Oracle 11g/12c</t>
@@ -2243,7 +2252,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2253,10 +2262,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2280,6 +2285,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2290,10 +2299,6 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2309,7 +2314,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2330,10 +2335,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B119" activeCellId="0" sqref="1:1048576"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A152" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B120" activeCellId="0" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2342,32 +2347,32 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="65.8673469387755"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="17.2091836734694"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.6479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="98.3112244897959"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="98.3112244897959"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="46.1224489795918"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="14.5255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="14.5255102040816"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="1" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2381,14 +2386,14 @@
       <c r="C2" s="2" t="n">
         <v>6600</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2402,14 +2407,14 @@
       <c r="C3" s="2" t="n">
         <v>8200</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2417,15 +2422,15 @@
       <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2433,20 +2438,20 @@
       <c r="A5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="8" t="n">
         <v>6300</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2454,20 +2459,20 @@
       <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="8" t="n">
         <v>6700</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2475,20 +2480,20 @@
       <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="8" t="n">
         <v>6400</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2496,20 +2501,20 @@
       <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="8" t="n">
         <v>6500</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2517,17 +2522,17 @@
       <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="8" t="n">
         <v>5800</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="8" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2535,17 +2540,17 @@
       <c r="A10" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="8" t="n">
         <v>1600</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2553,15 +2558,15 @@
       <c r="A11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="8" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2569,19 +2574,19 @@
       <c r="A12" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="8" t="n">
         <v>3200</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2589,17 +2594,17 @@
       <c r="A13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2613,10 +2618,10 @@
       <c r="C14" s="2" t="n">
         <v>9200</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2630,10 +2635,10 @@
       <c r="C15" s="2" t="n">
         <v>9300</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2646,7 +2651,7 @@
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="8" t="s">
         <v>63</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -2660,14 +2665,14 @@
       <c r="B17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="3" t="n">
+      <c r="C17" s="8" t="n">
         <v>2410</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2675,17 +2680,17 @@
       <c r="A18" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="3" t="n">
+      <c r="C18" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="12" t="s">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2693,17 +2698,17 @@
       <c r="A19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="3" t="n">
+      <c r="C19" s="8" t="n">
         <v>5700</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2711,19 +2716,19 @@
       <c r="A20" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="3" t="n">
+      <c r="C20" s="8" t="n">
         <v>2400</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2731,17 +2736,17 @@
       <c r="A21" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="3" t="n">
+      <c r="C21" s="8" t="n">
         <v>8100</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="8" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2754,10 +2759,10 @@
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2765,15 +2770,15 @@
       <c r="A23" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="8" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2781,15 +2786,15 @@
       <c r="A24" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="8" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2797,15 +2802,15 @@
       <c r="A25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="8" t="s">
         <v>95</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2813,15 +2818,15 @@
       <c r="A26" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="8" t="s">
         <v>99</v>
       </c>
     </row>
@@ -2829,15 +2834,15 @@
       <c r="A27" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2845,15 +2850,15 @@
       <c r="A28" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="8" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2861,15 +2866,15 @@
       <c r="A29" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="8" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="8" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2877,15 +2882,15 @@
       <c r="A30" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="8" t="s">
         <v>112</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="8" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2893,15 +2898,15 @@
       <c r="A31" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="8" t="s">
         <v>116</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="8" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2909,15 +2914,15 @@
       <c r="A32" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="8" t="s">
         <v>120</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="8" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2925,37 +2930,37 @@
       <c r="A33" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="3" t="n">
+      <c r="C33" s="8" t="n">
         <v>3100</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C34" s="3" t="n">
+      <c r="C34" s="8" t="n">
         <v>1500</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="8" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2966,7 +2971,7 @@
       <c r="B35" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="8" t="s">
         <v>132</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -2980,7 +2985,7 @@
       <c r="B36" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="8" t="s">
         <v>136</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -2994,7 +2999,7 @@
       <c r="B37" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="8" t="s">
         <v>140</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -3008,7 +3013,7 @@
       <c r="B38" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="8" t="s">
         <v>144</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -3022,7 +3027,7 @@
       <c r="B39" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="8" t="s">
         <v>148</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -3033,17 +3038,17 @@
       <c r="A40" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C40" s="3" t="n">
+      <c r="C40" s="8" t="n">
         <v>800</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3" t="s">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="8" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3051,15 +3056,15 @@
       <c r="A41" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="8" t="s">
         <v>155</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="8" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3067,15 +3072,15 @@
       <c r="A42" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="8" t="s">
         <v>159</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="8" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3083,17 +3088,17 @@
       <c r="A43" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="8" t="s">
         <v>163</v>
       </c>
       <c r="C43" s="10" t="n">
         <v>8300</v>
       </c>
       <c r="D43" s="10"/>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="8" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3101,19 +3106,19 @@
       <c r="A44" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C44" s="3" t="n">
+      <c r="C44" s="8" t="n">
         <v>1100</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="E44" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="8" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3121,19 +3126,19 @@
       <c r="A45" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C45" s="3" t="n">
+      <c r="C45" s="8" t="n">
         <v>2100</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="8" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3141,17 +3146,17 @@
       <c r="A46" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="8" t="s">
         <v>177</v>
       </c>
       <c r="C46" s="10" t="n">
         <v>2600</v>
       </c>
       <c r="D46" s="10"/>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="G46" s="4" t="s">
+      <c r="G46" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3159,17 +3164,17 @@
       <c r="A47" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C47" s="10" t="n">
         <v>4500</v>
       </c>
       <c r="D47" s="10"/>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="G47" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3177,17 +3182,17 @@
       <c r="A48" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C48" s="3" t="n">
+      <c r="C48" s="8" t="n">
         <v>7900</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3" t="s">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3195,17 +3200,17 @@
       <c r="A49" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="8" t="s">
         <v>187</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="8" t="s">
         <v>190</v>
       </c>
     </row>
@@ -3213,15 +3218,15 @@
       <c r="A50" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="8" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3232,14 +3237,14 @@
       <c r="B51" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C51" s="3" t="n">
+      <c r="C51" s="8" t="n">
         <v>123</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="G51" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3247,20 +3252,20 @@
       <c r="A52" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="3" t="n">
+      <c r="C52" s="8" t="n">
         <v>141</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3" t="s">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8" t="s">
         <v>199</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G52" s="4" t="s">
+      <c r="G52" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3268,20 +3273,20 @@
       <c r="A53" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C53" s="3" t="n">
+      <c r="C53" s="8" t="n">
         <v>1441</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3" t="s">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8" t="s">
         <v>203</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G53" s="4" t="s">
+      <c r="G53" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3289,15 +3294,15 @@
       <c r="A54" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="8" t="s">
         <v>205</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="8" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3305,15 +3310,15 @@
       <c r="A55" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="8" t="s">
         <v>88</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="8" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3321,15 +3326,15 @@
       <c r="A56" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="8" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3337,15 +3342,15 @@
       <c r="A57" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="8" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3353,15 +3358,15 @@
       <c r="A58" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="8" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3369,15 +3374,15 @@
       <c r="A59" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="8" t="s">
         <v>104</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
-      <c r="E59" s="3" t="s">
+      <c r="E59" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="8" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3385,17 +3390,17 @@
       <c r="A60" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C60" s="3" t="n">
+      <c r="C60" s="8" t="n">
         <v>7000</v>
       </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3" t="s">
+      <c r="D60" s="8"/>
+      <c r="E60" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G60" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3403,19 +3408,19 @@
       <c r="A61" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="3" t="n">
+      <c r="C61" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G61" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3423,15 +3428,15 @@
       <c r="A62" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="8" t="s">
         <v>230</v>
       </c>
     </row>
@@ -3439,15 +3444,15 @@
       <c r="A63" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
-      <c r="E63" s="3" t="s">
+      <c r="E63" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="8" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3455,17 +3460,17 @@
       <c r="A64" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C64" s="3" t="n">
+      <c r="C64" s="8" t="n">
         <v>6900</v>
       </c>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3" t="s">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="8" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3473,14 +3478,14 @@
       <c r="A65" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C65" s="3" t="n">
+      <c r="C65" s="8" t="n">
         <v>7200</v>
       </c>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3" t="s">
+      <c r="D65" s="8"/>
+      <c r="E65" s="8" t="s">
         <v>240</v>
       </c>
       <c r="F65" s="2" t="s">
@@ -3491,14 +3496,14 @@
       <c r="A66" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C66" s="3" t="n">
+      <c r="C66" s="8" t="n">
         <v>5100</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3" t="s">
+      <c r="D66" s="8"/>
+      <c r="E66" s="8" t="s">
         <v>243</v>
       </c>
       <c r="F66" s="2" t="s">
@@ -3509,15 +3514,15 @@
       <c r="A67" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
-      <c r="E67" s="3" t="s">
+      <c r="E67" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="8" t="s">
         <v>247</v>
       </c>
     </row>
@@ -3525,15 +3530,15 @@
       <c r="A68" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="8" t="s">
         <v>177</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="8" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3541,15 +3546,15 @@
       <c r="A69" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="8" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3557,15 +3562,15 @@
       <c r="A70" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="8" t="s">
         <v>254</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="8" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3573,15 +3578,15 @@
       <c r="A71" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="8" t="s">
         <v>257</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
-      <c r="E71" s="3" t="s">
+      <c r="E71" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="8" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3589,15 +3594,15 @@
       <c r="A72" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="8" t="s">
         <v>250</v>
       </c>
     </row>
@@ -3605,7 +3610,7 @@
       <c r="A73" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="8" t="s">
         <v>262</v>
       </c>
       <c r="C73" s="10" t="n">
@@ -3614,15 +3619,15 @@
       <c r="D73" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="E73" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="8" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="13" t="s">
         <v>266</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -3631,19 +3636,19 @@
       <c r="C74" s="2" t="n">
         <v>5300</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="3" t="s">
+      <c r="D74" s="7"/>
+      <c r="E74" s="8" t="s">
         <v>268</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="G74" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="13" t="s">
         <v>270</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -3652,32 +3657,32 @@
       <c r="C75" s="2" t="n">
         <v>5400</v>
       </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="3" t="s">
+      <c r="D75" s="7"/>
+      <c r="E75" s="8" t="s">
         <v>272</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="G75" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="76" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C76" s="3" t="n">
+      <c r="C76" s="8" t="n">
         <v>2811</v>
       </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3" t="s">
+      <c r="D76" s="8"/>
+      <c r="E76" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="G76" s="4" t="s">
+      <c r="G76" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3692,10 +3697,10 @@
         <v>7300</v>
       </c>
       <c r="D77" s="10"/>
-      <c r="E77" s="3" t="s">
+      <c r="E77" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="G77" s="4" t="s">
+      <c r="G77" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3703,17 +3708,17 @@
       <c r="A78" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C78" s="3" t="n">
+      <c r="C78" s="8" t="n">
         <v>4800</v>
       </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3" t="s">
+      <c r="D78" s="8"/>
+      <c r="E78" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="8" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3721,15 +3726,15 @@
       <c r="A79" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
-      <c r="E79" s="3" t="s">
+      <c r="E79" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="G79" s="4" t="s">
+      <c r="G79" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3737,17 +3742,17 @@
       <c r="A80" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="C80" s="3" t="n">
+      <c r="C80" s="8" t="n">
         <v>11</v>
       </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3" t="s">
+      <c r="D80" s="8"/>
+      <c r="E80" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="8" t="s">
         <v>288</v>
       </c>
     </row>
@@ -3755,17 +3760,17 @@
       <c r="A81" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3" t="s">
+      <c r="D81" s="8"/>
+      <c r="E81" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="8" t="s">
         <v>293</v>
       </c>
     </row>
@@ -3773,16 +3778,16 @@
       <c r="A82" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C82" s="3" t="n">
+      <c r="C82" s="8" t="n">
         <v>22</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="8" t="s">
         <v>297</v>
       </c>
       <c r="F82" s="2" t="s">
@@ -3793,20 +3798,20 @@
       <c r="A83" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C83" s="3" t="n">
+      <c r="C83" s="8" t="n">
         <v>7500</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3" t="s">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8" t="s">
         <v>301</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="G83" s="4" t="s">
+      <c r="G83" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3817,14 +3822,14 @@
       <c r="B84" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C84" s="3" t="n">
+      <c r="C84" s="8" t="n">
         <v>6800</v>
       </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3" t="s">
+      <c r="D84" s="8"/>
+      <c r="E84" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="8" t="s">
         <v>306</v>
       </c>
     </row>
@@ -3832,17 +3837,17 @@
       <c r="A85" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C85" s="3" t="n">
+      <c r="C85" s="8" t="n">
         <v>1711</v>
       </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3" t="s">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="8" t="s">
         <v>310</v>
       </c>
     </row>
@@ -3850,15 +3855,15 @@
       <c r="A86" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="8" t="s">
         <v>312</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="8" t="s">
         <v>314</v>
       </c>
     </row>
@@ -3866,17 +3871,17 @@
       <c r="A87" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C87" s="3" t="n">
+      <c r="C87" s="8" t="n">
         <v>190</v>
       </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3" t="s">
+      <c r="D87" s="8"/>
+      <c r="E87" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="8" t="s">
         <v>317</v>
       </c>
     </row>
@@ -3884,19 +3889,19 @@
       <c r="A88" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="3" t="n">
+      <c r="C88" s="8" t="n">
         <v>3000</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="8" t="s">
         <v>321</v>
       </c>
     </row>
@@ -3904,19 +3909,19 @@
       <c r="A89" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="8" t="s">
         <v>177</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D89" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E89" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="G89" s="4" t="s">
+      <c r="G89" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3924,7 +3929,7 @@
       <c r="A90" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="8" t="s">
         <v>327</v>
       </c>
       <c r="C90" s="10" t="s">
@@ -3933,10 +3938,10 @@
       <c r="D90" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="G90" s="4" t="s">
+      <c r="G90" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3950,7 +3955,7 @@
       <c r="C91" s="2" t="n">
         <v>9100</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E91" s="8" t="s">
         <v>333</v>
       </c>
       <c r="F91" s="2" t="s">
@@ -3961,15 +3966,15 @@
       <c r="A92" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="8" t="s">
         <v>180</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
-      <c r="E92" s="12" t="s">
+      <c r="E92" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="8" t="s">
         <v>337</v>
       </c>
     </row>
@@ -3977,15 +3982,15 @@
       <c r="A93" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="8" t="s">
         <v>177</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F93" s="8" t="s">
         <v>340</v>
       </c>
     </row>
@@ -3993,19 +3998,19 @@
       <c r="A94" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C94" s="3" t="n">
+      <c r="C94" s="8" t="n">
         <v>900</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="8" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4013,19 +4018,19 @@
       <c r="A95" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="E95" s="3" t="s">
+      <c r="E95" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F95" s="8" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4033,17 +4038,17 @@
       <c r="A96" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C96" s="3" t="n">
+      <c r="C96" s="8" t="n">
         <v>500</v>
       </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3" t="s">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" s="8" t="s">
         <v>352</v>
       </c>
     </row>
@@ -4051,17 +4056,17 @@
       <c r="A97" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C97" s="3" t="n">
+      <c r="C97" s="8" t="n">
         <v>1600</v>
       </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3" t="s">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F97" s="3" t="s">
+      <c r="F97" s="8" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4069,17 +4074,17 @@
       <c r="A98" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C98" s="3" t="n">
+      <c r="C98" s="8" t="n">
         <v>4800</v>
       </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3" t="s">
+      <c r="D98" s="8"/>
+      <c r="E98" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="F98" s="3" t="s">
+      <c r="F98" s="8" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4087,7 +4092,7 @@
       <c r="A99" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="8" t="s">
         <v>356</v>
       </c>
       <c r="C99" s="10" t="s">
@@ -4096,10 +4101,10 @@
       <c r="D99" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="E99" s="3" t="s">
+      <c r="E99" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="F99" s="3" t="s">
+      <c r="F99" s="8" t="s">
         <v>360</v>
       </c>
     </row>
@@ -4112,7 +4117,7 @@
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
-      <c r="E100" s="3" t="s">
+      <c r="E100" s="8" t="s">
         <v>363</v>
       </c>
       <c r="F100" s="2" t="s">
@@ -4123,15 +4128,15 @@
       <c r="A101" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="8" t="s">
         <v>366</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
-      <c r="E101" s="3" t="s">
+      <c r="E101" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="F101" s="3" t="s">
+      <c r="F101" s="8" t="s">
         <v>368</v>
       </c>
     </row>
@@ -4139,15 +4144,15 @@
       <c r="A102" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="8" t="s">
         <v>370</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
-      <c r="E102" s="3" t="s">
+      <c r="E102" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="F102" s="3" t="s">
+      <c r="F102" s="8" t="s">
         <v>372</v>
       </c>
     </row>
@@ -4155,19 +4160,19 @@
       <c r="A103" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C103" s="3" t="n">
+      <c r="C103" s="8" t="n">
         <v>131</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="E103" s="3" t="s">
+      <c r="E103" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="F103" s="3" t="s">
+      <c r="F103" s="8" t="s">
         <v>377</v>
       </c>
     </row>
@@ -4175,19 +4180,19 @@
       <c r="A104" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C104" s="3" t="n">
+      <c r="C104" s="8" t="n">
         <v>132</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F104" s="8" t="s">
         <v>382</v>
       </c>
     </row>
@@ -4195,15 +4200,15 @@
       <c r="A105" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="8" t="s">
         <v>379</v>
       </c>
       <c r="C105" s="10" t="n">
         <v>132</v>
       </c>
       <c r="D105" s="10"/>
-      <c r="E105" s="12"/>
-      <c r="G105" s="4" t="s">
+      <c r="E105" s="8"/>
+      <c r="G105" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4211,17 +4216,17 @@
       <c r="A106" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="C106" s="3" t="n">
+      <c r="C106" s="8" t="n">
         <v>1731</v>
       </c>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3" t="s">
+      <c r="D106" s="8"/>
+      <c r="E106" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="G106" s="4" t="s">
+      <c r="G106" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4229,18 +4234,18 @@
       <c r="A107" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="C107" s="3" t="n">
+      <c r="C107" s="8" t="n">
         <v>1731</v>
       </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="3" t="s">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="G107" s="4" t="s">
+      <c r="G107" s="3" t="s">
         <v>389</v>
       </c>
     </row>
@@ -4248,17 +4253,17 @@
       <c r="A108" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C108" s="3" t="n">
+      <c r="C108" s="8" t="n">
         <v>2811</v>
       </c>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3" t="s">
+      <c r="D108" s="8"/>
+      <c r="E108" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F108" s="8" t="s">
         <v>393</v>
       </c>
     </row>
@@ -4266,39 +4271,39 @@
       <c r="A109" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C109" s="3" t="n">
+      <c r="C109" s="8" t="n">
         <v>200</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F109" s="8" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="110" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C110" s="3" t="n">
+      <c r="C110" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="E110" s="3" t="s">
+      <c r="E110" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="F110" s="3" t="s">
+      <c r="F110" s="8" t="s">
         <v>402</v>
       </c>
     </row>
@@ -4306,19 +4311,19 @@
       <c r="A111" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="C111" s="3" t="n">
+      <c r="C111" s="8" t="n">
         <v>300</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="E111" s="3" t="s">
+      <c r="E111" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="F111" s="3" t="s">
+      <c r="F111" s="8" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4326,17 +4331,17 @@
       <c r="A112" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="C112" s="3" t="n">
+      <c r="C112" s="8" t="n">
         <v>5500</v>
       </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3" t="s">
+      <c r="D112" s="8"/>
+      <c r="E112" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="G112" s="4" t="s">
+      <c r="G112" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4344,17 +4349,17 @@
       <c r="A113" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C113" s="3" t="n">
+      <c r="C113" s="8" t="n">
         <v>5600</v>
       </c>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3" t="s">
+      <c r="D113" s="8"/>
+      <c r="E113" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="G113" s="4" t="s">
+      <c r="G113" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4362,19 +4367,19 @@
       <c r="A114" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C114" s="3" t="n">
+      <c r="C114" s="8" t="n">
         <v>101</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="G114" s="4" t="s">
+      <c r="G114" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4382,19 +4387,19 @@
       <c r="A115" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="C115" s="3" t="n">
+      <c r="C115" s="8" t="n">
         <v>111</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="E115" s="3" t="s">
+      <c r="E115" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="G115" s="4" t="s">
+      <c r="G115" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4402,15 +4407,15 @@
       <c r="A116" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="8" t="s">
         <v>421</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
-      <c r="E116" s="3" t="s">
+      <c r="E116" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="F116" s="3" t="s">
+      <c r="F116" s="8" t="s">
         <v>423</v>
       </c>
     </row>
@@ -4418,19 +4423,19 @@
       <c r="A117" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="C117" s="3" t="n">
+      <c r="C117" s="8" t="n">
         <v>1000</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="E117" s="3" t="s">
+      <c r="E117" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="G117" s="4" t="s">
+      <c r="G117" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4444,14 +4449,14 @@
       <c r="C118" s="2" t="n">
         <v>9400</v>
       </c>
-      <c r="E118" s="12" t="s">
+      <c r="E118" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="G118" s="4" t="s">
+      <c r="G118" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>430</v>
       </c>
@@ -4461,48 +4466,47 @@
       <c r="C119" s="2" t="n">
         <v>9500</v>
       </c>
-      <c r="E119" s="16" t="s">
+      <c r="E119" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="G119" s="4" t="s">
+      <c r="G119" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="120" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9" t="s">
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="C120" s="3" t="n">
-        <v>112</v>
-      </c>
-      <c r="D120" s="3" t="s">
+      <c r="C120" s="2" t="n">
+        <v>9600</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>437</v>
+      <c r="G120" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C121" s="8" t="n">
+        <v>112</v>
+      </c>
+      <c r="D121" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="B121" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C121" s="3" t="n">
-        <v>3100</v>
-      </c>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3" t="s">
+      <c r="E121" s="8" t="s">
         <v>439</v>
       </c>
-      <c r="F121" s="3" t="s">
+      <c r="F121" s="8" t="s">
         <v>440</v>
       </c>
     </row>
@@ -4510,55 +4514,55 @@
       <c r="A122" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C122" s="8" t="n">
+        <v>3100</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="C122" s="3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3" t="s">
+      <c r="F122" s="8" t="s">
         <v>443</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="123" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="B123" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C123" s="3" t="n">
-        <v>122</v>
-      </c>
-      <c r="D123" s="3" t="s">
+      <c r="C123" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D123" s="8"/>
+      <c r="E123" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="F123" s="8" t="s">
         <v>447</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C124" s="8" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="C124" s="3" t="n">
-        <v>1722</v>
-      </c>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="G124" s="4" t="s">
+      <c r="G124" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4566,17 +4570,17 @@
       <c r="A125" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="C125" s="3" t="n">
-        <v>7100</v>
-      </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3" t="s">
+      <c r="C125" s="8" t="n">
+        <v>1722</v>
+      </c>
+      <c r="D125" s="8"/>
+      <c r="E125" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="G125" s="4" t="s">
+      <c r="G125" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4584,200 +4588,202 @@
       <c r="A126" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="3" t="s">
+      <c r="C126" s="8" t="n">
+        <v>7100</v>
+      </c>
+      <c r="D126" s="8"/>
+      <c r="E126" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="F126" s="3" t="s">
-        <v>457</v>
+      <c r="G126" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B127" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="E127" s="12" t="s">
+      <c r="F127" s="8" t="s">
         <v>460</v>
-      </c>
-      <c r="F127" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="E128" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="3" t="s">
+      <c r="F128" s="2" t="s">
         <v>464</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B129" s="8" t="s">
         <v>466</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>467</v>
       </c>
       <c r="C129" s="10"/>
       <c r="D129" s="10"/>
-      <c r="E129" s="3" t="s">
+      <c r="E129" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="F129" s="8" t="s">
         <v>468</v>
       </c>
-      <c r="F129" s="3" t="s">
+    </row>
+    <row r="130" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="9" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="130" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
+      <c r="B130" s="8" t="s">
         <v>470</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>471</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
-      <c r="E130" s="3" t="s">
+      <c r="E130" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="F130" s="8" t="s">
         <v>472</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="131" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B131" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
+      <c r="E131" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="C131" s="2" t="n">
+      <c r="F131" s="8" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="C132" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="E131" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="F131" s="2" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="132" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="B132" s="3" t="s">
+      <c r="E132" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="133" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B133" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="C132" s="3" t="n">
+      <c r="C133" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="D132" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="133" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
+      <c r="D133" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="E133" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="C133" s="3" t="n">
-        <v>400</v>
-      </c>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3" t="s">
+      <c r="F133" s="8" t="s">
         <v>484</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B134" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="C134" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="C134" s="2" t="n">
-        <v>2612</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="F134" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>2612</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="E135" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="E135" s="12" t="s">
+      <c r="F135" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="F135" s="2" t="s">
+    </row>
+    <row r="136" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="136" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="9" t="s">
+      <c r="B136" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="E136" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="F136" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>500</v>
       </c>
-      <c r="B137" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C137" s="10"/>
-      <c r="D137" s="10"/>
-      <c r="E137" s="3" t="s">
+      <c r="D137" s="8"/>
+      <c r="E137" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="F137" s="8" t="s">
         <v>502</v>
       </c>
     </row>
@@ -4785,33 +4791,33 @@
       <c r="A138" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="C138" s="3" t="n">
-        <v>7600</v>
-      </c>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3" t="s">
+      <c r="F138" s="8" t="s">
         <v>505</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B139" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="B139" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C139" s="10"/>
-      <c r="D139" s="10"/>
-      <c r="E139" s="3" t="s">
+      <c r="C139" s="8" t="n">
+        <v>7600</v>
+      </c>
+      <c r="D139" s="8"/>
+      <c r="E139" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="F139" s="3" t="s">
+      <c r="F139" s="8" t="s">
         <v>509</v>
       </c>
     </row>
@@ -4819,17 +4825,15 @@
       <c r="A140" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="B140" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C140" s="3" t="n">
-        <v>6000</v>
-      </c>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3" t="s">
+      <c r="B140" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="F140" s="3" t="s">
+      <c r="F140" s="8" t="s">
         <v>512</v>
       </c>
     </row>
@@ -4837,15 +4841,17 @@
       <c r="A141" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="3" t="s">
+      <c r="B141" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C141" s="8" t="n">
+        <v>6000</v>
+      </c>
+      <c r="D141" s="8"/>
+      <c r="E141" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="F141" s="8" t="s">
         <v>515</v>
       </c>
     </row>
@@ -4853,47 +4859,47 @@
       <c r="A142" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>517</v>
+      <c r="B142" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
-      <c r="E142" s="3" t="s">
+      <c r="E142" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="F142" s="8" t="s">
         <v>518</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="B143" s="8" t="s">
         <v>520</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>521</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
-      <c r="E143" s="3" t="s">
+      <c r="E143" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="F143" s="8" t="s">
         <v>522</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B144" s="8" t="s">
         <v>524</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>521</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
-      <c r="E144" s="3" t="s">
+      <c r="E144" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="F144" s="3" t="s">
+      <c r="F144" s="8" t="s">
         <v>526</v>
       </c>
     </row>
@@ -4901,290 +4907,290 @@
       <c r="A145" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>528</v>
+      <c r="B145" s="8" t="s">
+        <v>524</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
-      <c r="E145" s="3" t="s">
+      <c r="E145" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="F145" s="8" t="s">
         <v>529</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="9" t="s">
+        <v>530</v>
+      </c>
+      <c r="B146" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="C146" s="3" t="n">
-        <v>7700</v>
-      </c>
-      <c r="D146" s="3" t="s">
+      <c r="F146" s="8" t="s">
         <v>533</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="C147" s="8" t="n">
+        <v>7700</v>
+      </c>
+      <c r="D147" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="E147" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="C147" s="3" t="n">
-        <v>7800</v>
-      </c>
-      <c r="D147" s="3" t="s">
+      <c r="F147" s="8" t="s">
         <v>538</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="B148" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="C148" s="8" t="n">
+        <v>7800</v>
+      </c>
+      <c r="D148" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="C148" s="10"/>
-      <c r="D148" s="10"/>
-      <c r="E148" s="3" t="s">
+      <c r="E148" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="F148" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="9" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="s">
+      <c r="B149" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="C149" s="10"/>
+      <c r="D149" s="10"/>
+      <c r="E149" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="C149" s="2" t="n">
+      <c r="F149" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C150" s="2" t="n">
         <v>8900</v>
       </c>
-      <c r="E149" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="G149" s="4" t="s">
+      <c r="E150" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="G150" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C150" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="D150" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="C151" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="D151" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="E151" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="3" t="s">
+      <c r="F151" s="8" t="s">
         <v>553</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B152" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="B152" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C152" s="3" t="n">
-        <v>101</v>
-      </c>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>57</v>
+      <c r="C152" s="10"/>
+      <c r="D152" s="10"/>
+      <c r="E152" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="F153" s="3" t="s">
         <v>558</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="C153" s="8" t="n">
+        <v>101</v>
+      </c>
+      <c r="D153" s="8"/>
+      <c r="E153" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="B154" s="3" t="s">
-        <v>257</v>
+      <c r="B154" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="C154" s="10"/>
-      <c r="D154" s="10" t="s">
+      <c r="D154" s="10"/>
+      <c r="E154" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="E154" s="3" t="s">
+      <c r="F154" s="8" t="s">
         <v>561</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="9" t="s">
+        <v>562</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="E155" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="9" t="s">
+        <v>566</v>
+      </c>
+      <c r="B156" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="C155" s="3" t="n">
+      <c r="C156" s="8" t="n">
         <v>1400</v>
       </c>
-      <c r="D155" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="s">
+      <c r="D156" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="E156" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="C156" s="3" t="n">
+      <c r="F156" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C157" s="8" t="n">
         <v>7400</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D157" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E156" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="9" t="s">
-        <v>571</v>
-      </c>
-      <c r="B157" s="3" t="s">
+      <c r="E157" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10" t="s">
+      <c r="F157" s="8" t="s">
         <v>573</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="158" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C158" s="10"/>
+      <c r="D158" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="B158" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C158" s="3" t="n">
-        <v>1700</v>
-      </c>
-      <c r="D158" s="3" t="s">
+      <c r="E158" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="E158" s="3" t="s">
+      <c r="F158" s="8" t="s">
         <v>578</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="159" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C159" s="8" t="n">
+        <v>1700</v>
+      </c>
+      <c r="D159" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="E159" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="C159" s="3" t="n">
-        <v>1800</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E159" s="3" t="s">
+      <c r="F159" s="8" t="s">
         <v>582</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="B160" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="B160" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
-      <c r="E160" s="3" t="s">
+      <c r="C160" s="8" t="n">
+        <v>1800</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E160" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="F160" s="3" t="s">
+      <c r="F160" s="8" t="s">
         <v>586</v>
       </c>
     </row>
@@ -5192,81 +5198,81 @@
       <c r="A161" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C161" s="10" t="s">
+      <c r="B161" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="8" t="s">
         <v>588</v>
       </c>
-      <c r="D161" s="10"/>
-      <c r="E161" s="3" t="s">
+      <c r="F161" s="8" t="s">
         <v>589</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="C162" s="10"/>
+      <c r="B162" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>591</v>
+      </c>
       <c r="D162" s="10"/>
-      <c r="E162" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>586</v>
+      <c r="E162" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>521</v>
+        <v>593</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>575</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
-      <c r="E163" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>586</v>
+      <c r="E163" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="s">
-        <v>594</v>
-      </c>
-      <c r="B164" s="3" t="s">
         <v>595</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>524</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="F164" s="3" t="s">
-        <v>597</v>
+      <c r="F164" s="8" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="B165" s="8" t="s">
         <v>598</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
-      <c r="E165" s="3" t="s">
+      <c r="E165" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="F165" s="3" t="s">
+      <c r="F165" s="8" t="s">
         <v>600</v>
       </c>
     </row>
@@ -5274,15 +5280,15 @@
       <c r="A166" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="B166" s="3" t="s">
-        <v>521</v>
+      <c r="B166" s="8" t="s">
+        <v>575</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
-      <c r="E166" s="3" t="s">
+      <c r="E166" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="F166" s="3" t="s">
+      <c r="F166" s="8" t="s">
         <v>603</v>
       </c>
     </row>
@@ -5290,15 +5296,15 @@
       <c r="A167" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="B167" s="3" t="s">
-        <v>235</v>
+      <c r="B167" s="8" t="s">
+        <v>524</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
-      <c r="E167" s="3" t="s">
+      <c r="E167" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="F167" s="3" t="s">
+      <c r="F167" s="8" t="s">
         <v>606</v>
       </c>
     </row>
@@ -5306,15 +5312,15 @@
       <c r="A168" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="B168" s="3" t="s">
-        <v>177</v>
+      <c r="B168" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
-      <c r="E168" s="3" t="s">
+      <c r="E168" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="F168" s="3" t="s">
+      <c r="F168" s="8" t="s">
         <v>609</v>
       </c>
     </row>
@@ -5322,15 +5328,15 @@
       <c r="A169" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="B169" s="3" t="s">
-        <v>180</v>
+      <c r="B169" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
-      <c r="E169" s="3" t="s">
+      <c r="E169" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="F169" s="3" t="s">
+      <c r="F169" s="8" t="s">
         <v>612</v>
       </c>
     </row>
@@ -5338,15 +5344,15 @@
       <c r="A170" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="B170" s="3" t="s">
-        <v>257</v>
+      <c r="B170" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
-      <c r="E170" s="3" t="s">
+      <c r="E170" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="F170" s="3" t="s">
+      <c r="F170" s="8" t="s">
         <v>615</v>
       </c>
     </row>
@@ -5354,15 +5360,15 @@
       <c r="A171" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="B171" s="3" t="s">
-        <v>521</v>
+      <c r="B171" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
-      <c r="E171" s="3" t="s">
+      <c r="E171" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="F171" s="3" t="s">
+      <c r="F171" s="8" t="s">
         <v>618</v>
       </c>
     </row>
@@ -5370,15 +5376,15 @@
       <c r="A172" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="B172" s="3" t="s">
-        <v>177</v>
+      <c r="B172" s="8" t="s">
+        <v>524</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
-      <c r="E172" s="3" t="s">
+      <c r="E172" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="F172" s="8" t="s">
         <v>621</v>
       </c>
     </row>
@@ -5386,15 +5392,15 @@
       <c r="A173" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="B173" s="3" t="s">
-        <v>180</v>
+      <c r="B173" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
-      <c r="E173" s="3" t="s">
+      <c r="E173" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="F173" s="3" t="s">
+      <c r="F173" s="8" t="s">
         <v>624</v>
       </c>
     </row>
@@ -5402,15 +5408,15 @@
       <c r="A174" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="B174" s="3" t="s">
-        <v>257</v>
+      <c r="B174" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
-      <c r="E174" s="3" t="s">
+      <c r="E174" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="F174" s="3" t="s">
+      <c r="F174" s="8" t="s">
         <v>627</v>
       </c>
     </row>
@@ -5418,15 +5424,15 @@
       <c r="A175" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="B175" s="3" t="s">
-        <v>235</v>
+      <c r="B175" s="8" t="s">
+        <v>257</v>
       </c>
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
-      <c r="E175" s="3" t="s">
+      <c r="E175" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="F175" s="3" t="s">
+      <c r="F175" s="8" t="s">
         <v>630</v>
       </c>
     </row>
@@ -5434,82 +5440,82 @@
       <c r="A176" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="B176" s="3" t="s">
-        <v>572</v>
+      <c r="B176" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
-      <c r="E176" s="3" t="s">
+      <c r="E176" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="F176" s="3" t="s">
+      <c r="F176" s="8" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="s">
+      <c r="A177" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C177" s="10"/>
+      <c r="D177" s="10"/>
+      <c r="E177" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="C177" s="2" t="n">
+      <c r="F177" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="C178" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="E177" s="3" t="s">
-        <v>636</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="B178" s="3" t="s">
+      <c r="E178" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="C178" s="3" t="n">
-        <v>121</v>
-      </c>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3" t="s">
+      <c r="F178" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="G178" s="4" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="B179" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C179" s="10"/>
-      <c r="D179" s="10"/>
-      <c r="E179" s="3" t="s">
+      <c r="B179" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="F179" s="3" t="s">
+      <c r="C179" s="8" t="n">
+        <v>121</v>
+      </c>
+      <c r="D179" s="8"/>
+      <c r="E179" s="8" t="s">
         <v>643</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="B180" s="3" t="s">
-        <v>235</v>
+      <c r="B180" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
-      <c r="E180" s="3" t="s">
+      <c r="E180" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="F180" s="3" t="s">
+      <c r="F180" s="8" t="s">
         <v>646</v>
       </c>
     </row>
@@ -5517,89 +5523,89 @@
       <c r="A181" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C181" s="10"/>
+      <c r="D181" s="10"/>
+      <c r="E181" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="C181" s="3" t="n">
-        <v>111</v>
-      </c>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>57</v>
+      <c r="F181" s="8" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="9" t="s">
-        <v>649</v>
-      </c>
-      <c r="B182" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="C182" s="8" t="n">
+        <v>111</v>
+      </c>
+      <c r="D182" s="8"/>
+      <c r="E182" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="B183" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C182" s="3" t="n">
+      <c r="C183" s="8" t="n">
         <v>1711</v>
       </c>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3" t="s">
+      <c r="D183" s="8"/>
+      <c r="E183" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="F182" s="3" t="s">
+      <c r="F183" s="8" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>651</v>
-      </c>
-      <c r="C183" s="3" t="n">
+    <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="C184" s="8" t="n">
         <v>3300</v>
       </c>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="F183" s="3" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="9" t="s">
-        <v>654</v>
-      </c>
-      <c r="B184" s="3" t="s">
+      <c r="D184" s="8"/>
+      <c r="E184" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="C184" s="3" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D184" s="3" t="s">
+      <c r="F184" s="8" t="s">
         <v>656</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>657</v>
-      </c>
-      <c r="F184" s="3" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="C185" s="8" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D185" s="8" t="s">
         <v>659</v>
       </c>
-      <c r="B185" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="C185" s="10"/>
-      <c r="D185" s="10"/>
-      <c r="E185" s="3" t="s">
+      <c r="E185" s="8" t="s">
         <v>660</v>
       </c>
-      <c r="F185" s="3" t="s">
+      <c r="F185" s="8" t="s">
         <v>661</v>
       </c>
     </row>
@@ -5607,15 +5613,15 @@
       <c r="A186" s="9" t="s">
         <v>662</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>180</v>
+      <c r="B186" s="8" t="s">
+        <v>177</v>
       </c>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
-      <c r="E186" s="3" t="s">
+      <c r="E186" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="F186" s="3" t="s">
+      <c r="F186" s="8" t="s">
         <v>664</v>
       </c>
     </row>
@@ -5623,15 +5629,15 @@
       <c r="A187" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>254</v>
+      <c r="B187" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
-      <c r="E187" s="3" t="s">
+      <c r="E187" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="F187" s="3" t="s">
+      <c r="F187" s="8" t="s">
         <v>667</v>
       </c>
     </row>
@@ -5639,55 +5645,53 @@
       <c r="A188" s="9" t="s">
         <v>668</v>
       </c>
-      <c r="B188" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C188" s="3" t="n">
-        <v>1500</v>
-      </c>
-      <c r="D188" s="3" t="s">
+      <c r="B188" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="F188" s="8" t="s">
         <v>670</v>
-      </c>
-      <c r="F188" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C189" s="8" t="n">
+        <v>1500</v>
+      </c>
+      <c r="D189" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="C189" s="3" t="n">
-        <v>2611</v>
-      </c>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3" t="s">
+      <c r="E189" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="G189" s="4" t="s">
-        <v>57</v>
+      <c r="F189" s="8" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="9" t="s">
         <v>674</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="C190" s="3" t="n">
-        <v>2711</v>
-      </c>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3" t="s">
+      <c r="C190" s="8" t="n">
+        <v>2611</v>
+      </c>
+      <c r="D190" s="8"/>
+      <c r="E190" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="G190" s="4" t="s">
+      <c r="G190" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -5695,67 +5699,67 @@
       <c r="A191" s="9" t="s">
         <v>677</v>
       </c>
-      <c r="B191" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
-      <c r="E191" s="3" t="s">
+      <c r="B191" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="F191" s="3" t="s">
+      <c r="C191" s="8" t="n">
+        <v>2711</v>
+      </c>
+      <c r="D191" s="8"/>
+      <c r="E191" s="8" t="s">
         <v>679</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="9" t="s">
         <v>680</v>
       </c>
-      <c r="B192" s="3" t="s">
-        <v>681</v>
+      <c r="B192" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
-      <c r="E192" s="3" t="s">
+      <c r="E192" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="F192" s="8" t="s">
         <v>682</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="9" t="s">
+        <v>683</v>
+      </c>
+      <c r="B193" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="C193" s="10"/>
+      <c r="D193" s="10"/>
+      <c r="E193" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="C193" s="3" t="n">
-        <v>3721</v>
-      </c>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3" t="s">
+      <c r="F193" s="8" t="s">
         <v>686</v>
-      </c>
-      <c r="F193" s="3" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="B194" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="B194" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="C194" s="3" t="n">
-        <v>6100</v>
-      </c>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3" t="s">
+      <c r="C194" s="8" t="n">
+        <v>3721</v>
+      </c>
+      <c r="D194" s="8"/>
+      <c r="E194" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="F194" s="3" t="s">
+      <c r="F194" s="8" t="s">
         <v>690</v>
       </c>
     </row>
@@ -5763,51 +5767,51 @@
       <c r="A195" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="C195" s="8" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D195" s="8"/>
+      <c r="E195" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="C195" s="10" t="n">
-        <v>8400</v>
-      </c>
-      <c r="D195" s="10"/>
-      <c r="E195" s="3" t="s">
+      <c r="F195" s="8" t="s">
         <v>693</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="B196" s="8" t="s">
         <v>695</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="C196" s="10" t="n">
+        <v>8400</v>
+      </c>
+      <c r="D196" s="10"/>
+      <c r="E196" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="197" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="B197" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="F196" s="3" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="197" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C197" s="3" t="n">
-        <v>400</v>
-      </c>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3" t="s">
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="F197" s="3" t="s">
+      <c r="F197" s="8" t="s">
         <v>700</v>
       </c>
     </row>
@@ -5815,66 +5819,84 @@
       <c r="A198" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="B198" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="C198" s="3" t="n">
+      <c r="B198" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="C198" s="8" t="n">
         <v>400</v>
       </c>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3" t="s">
+      <c r="D198" s="8"/>
+      <c r="E198" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="F198" s="3" t="s">
-        <v>485</v>
+      <c r="F198" s="8" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="9" t="s">
-        <v>703</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C199" s="10"/>
-      <c r="D199" s="10"/>
-      <c r="E199" s="3" t="s">
+      <c r="A199" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="F199" s="3" t="s">
+      <c r="B199" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="C199" s="8" t="n">
+        <v>400</v>
+      </c>
+      <c r="D199" s="8"/>
+      <c r="E199" s="8" t="s">
         <v>705</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="9" t="s">
         <v>706</v>
       </c>
-      <c r="B200" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="C200" s="3" t="n">
+      <c r="B200" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="201" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="9" t="s">
+        <v>709</v>
+      </c>
+      <c r="B201" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C201" s="8" t="n">
         <v>21</v>
       </c>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="G200" s="4" t="s">
+      <c r="D201" s="8"/>
+      <c r="E201" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="G201" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="s">
-        <v>708</v>
-      </c>
-      <c r="B201" s="3" t="s">
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="B202" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E201" s="3" t="s">
-        <v>709</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>710</v>
+      <c r="E202" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>713</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="715">
   <si>
     <t>Hash</t>
   </si>
@@ -1527,6 +1527,9 @@
   </si>
   <si>
     <t>RAdmin v2.x</t>
+  </si>
+  <si>
+    <t>9900</t>
   </si>
   <si>
     <t>6d0bb00954ceb7fbee436bb55a8397a9</t>
@@ -2337,8 +2340,8 @@
   </sheetPr>
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A152" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B120" activeCellId="0" sqref="B120"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C138" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -4473,7 +4476,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>433</v>
       </c>
@@ -4794,36 +4797,38 @@
       <c r="B138" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="C138" s="10"/>
+      <c r="C138" s="10" t="s">
+        <v>504</v>
+      </c>
       <c r="D138" s="10"/>
       <c r="E138" s="8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="9" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C139" s="8" t="n">
         <v>7600</v>
       </c>
       <c r="D139" s="8"/>
       <c r="E139" s="8" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="9" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B140" s="8" t="s">
         <v>177</v>
@@ -4831,15 +4836,15 @@
       <c r="C140" s="10"/>
       <c r="D140" s="10"/>
       <c r="E140" s="8" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="9" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B141" s="8" t="s">
         <v>180</v>
@@ -4849,15 +4854,15 @@
       </c>
       <c r="D141" s="8"/>
       <c r="E141" s="8" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="9" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B142" s="8" t="s">
         <v>235</v>
@@ -4865,144 +4870,144 @@
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
       <c r="E142" s="8" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="9" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
       <c r="E143" s="8" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="9" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C144" s="10"/>
       <c r="D144" s="10"/>
       <c r="E144" s="8" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
       <c r="E145" s="8" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F145" s="8" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
       <c r="E146" s="8" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C147" s="8" t="n">
         <v>7700</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E147" s="8" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="9" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C148" s="8" t="n">
         <v>7800</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E148" s="8" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="9" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
       <c r="E149" s="8" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C150" s="2" t="n">
         <v>8900</v>
       </c>
       <c r="E150" s="8" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="G150" s="3" t="s">
         <v>11</v>
@@ -5010,7 +5015,7 @@
     </row>
     <row r="151" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="9" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B151" s="8" t="s">
         <v>180</v>
@@ -5019,34 +5024,34 @@
         <v>100</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E151" s="8" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="9" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
       <c r="E152" s="8" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B153" s="8" t="s">
         <v>413</v>
@@ -5064,7 +5069,7 @@
     </row>
     <row r="154" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B154" s="8" t="s">
         <v>254</v>
@@ -5072,33 +5077,33 @@
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
       <c r="E154" s="8" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F154" s="8" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="9" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B155" s="8" t="s">
         <v>257</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E155" s="8" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="156" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="9" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B156" s="8" t="s">
         <v>235</v>
@@ -5107,21 +5112,21 @@
         <v>1400</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="E156" s="8" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C157" s="8" t="n">
         <v>7400</v>
@@ -5130,56 +5135,56 @@
         <v>127</v>
       </c>
       <c r="E157" s="8" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="158" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="9" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E158" s="8" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="159" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="9" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C159" s="8" t="n">
         <v>1700</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E159" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="160" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C160" s="8" t="n">
         <v>1800</v>
@@ -5188,15 +5193,15 @@
         <v>127</v>
       </c>
       <c r="E160" s="8" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="9" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B161" s="8" t="s">
         <v>257</v>
@@ -5204,113 +5209,113 @@
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="8" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="9" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B162" s="8" t="s">
         <v>235</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D162" s="10"/>
       <c r="E162" s="8" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
       <c r="E163" s="8" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
       <c r="E164" s="8" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B165" s="8" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
       <c r="E165" s="8" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F165" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="166" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="9" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
       <c r="E166" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="9" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
       <c r="E167" s="8" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B168" s="8" t="s">
         <v>235</v>
@@ -5318,15 +5323,15 @@
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
       <c r="E168" s="8" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="9" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B169" s="8" t="s">
         <v>177</v>
@@ -5334,15 +5339,15 @@
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
       <c r="E169" s="8" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B170" s="8" t="s">
         <v>180</v>
@@ -5350,15 +5355,15 @@
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
       <c r="E170" s="8" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="9" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B171" s="8" t="s">
         <v>257</v>
@@ -5366,31 +5371,31 @@
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
       <c r="E171" s="8" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="9" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
       <c r="E172" s="8" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B173" s="8" t="s">
         <v>177</v>
@@ -5398,15 +5403,15 @@
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
       <c r="E173" s="8" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="9" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B174" s="8" t="s">
         <v>180</v>
@@ -5414,15 +5419,15 @@
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
       <c r="E174" s="8" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="9" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B175" s="8" t="s">
         <v>257</v>
@@ -5430,15 +5435,15 @@
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
       <c r="E175" s="8" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="9" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B176" s="8" t="s">
         <v>235</v>
@@ -5446,58 +5451,58 @@
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
       <c r="E176" s="8" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
       <c r="E177" s="8" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C178" s="2" t="n">
         <v>23</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="9" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C179" s="8" t="n">
         <v>121</v>
       </c>
       <c r="D179" s="8"/>
       <c r="E179" s="8" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G179" s="3" t="s">
         <v>57</v>
@@ -5505,7 +5510,7 @@
     </row>
     <row r="180" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B180" s="8" t="s">
         <v>177</v>
@@ -5513,15 +5518,15 @@
       <c r="C180" s="10"/>
       <c r="D180" s="10"/>
       <c r="E180" s="8" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B181" s="8" t="s">
         <v>235</v>
@@ -5529,18 +5534,18 @@
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
       <c r="E181" s="8" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C182" s="8" t="n">
         <v>111</v>
@@ -5555,7 +5560,7 @@
     </row>
     <row r="183" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="9" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B183" s="8" t="s">
         <v>308</v>
@@ -5573,45 +5578,45 @@
     </row>
     <row r="184" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C184" s="8" t="n">
         <v>3300</v>
       </c>
       <c r="D184" s="8"/>
       <c r="E184" s="8" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C185" s="8" t="n">
         <v>8000</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E185" s="8" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F185" s="8" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="186" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="9" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B186" s="8" t="s">
         <v>177</v>
@@ -5619,15 +5624,15 @@
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
       <c r="E186" s="8" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="9" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B187" s="8" t="s">
         <v>180</v>
@@ -5635,15 +5640,15 @@
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
       <c r="E187" s="8" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="9" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B188" s="8" t="s">
         <v>254</v>
@@ -5651,15 +5656,15 @@
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
       <c r="E188" s="8" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="9" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B189" s="8" t="s">
         <v>126</v>
@@ -5668,10 +5673,10 @@
         <v>1500</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E189" s="8" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F189" s="8" t="s">
         <v>129</v>
@@ -5679,17 +5684,17 @@
     </row>
     <row r="190" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C190" s="8" t="n">
         <v>2611</v>
       </c>
       <c r="D190" s="8"/>
       <c r="E190" s="8" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="G190" s="3" t="s">
         <v>57</v>
@@ -5697,17 +5702,17 @@
     </row>
     <row r="191" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="9" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C191" s="8" t="n">
         <v>2711</v>
       </c>
       <c r="D191" s="8"/>
       <c r="E191" s="8" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G191" s="3" t="s">
         <v>57</v>
@@ -5715,7 +5720,7 @@
     </row>
     <row r="192" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="9" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B192" s="8" t="s">
         <v>235</v>
@@ -5723,85 +5728,85 @@
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
       <c r="E192" s="8" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="9" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
       <c r="E193" s="8" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F193" s="8" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="9" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C194" s="8" t="n">
         <v>3721</v>
       </c>
       <c r="D194" s="8"/>
       <c r="E194" s="8" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="F194" s="8" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="195" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="9" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C195" s="8" t="n">
         <v>6100</v>
       </c>
       <c r="D195" s="8"/>
       <c r="E195" s="8" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="9" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C196" s="10" t="n">
         <v>8400</v>
       </c>
       <c r="D196" s="10"/>
       <c r="E196" s="8" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="197" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B197" s="8" t="s">
         <v>45</v>
@@ -5809,15 +5814,15 @@
       <c r="C197" s="7"/>
       <c r="D197" s="7"/>
       <c r="E197" s="8" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="198" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B198" s="8" t="s">
         <v>290</v>
@@ -5827,15 +5832,15 @@
       </c>
       <c r="D198" s="8"/>
       <c r="E198" s="8" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B199" s="8" t="s">
         <v>486</v>
@@ -5845,7 +5850,7 @@
       </c>
       <c r="D199" s="8"/>
       <c r="E199" s="8" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F199" s="8" t="s">
         <v>488</v>
@@ -5853,7 +5858,7 @@
     </row>
     <row r="200" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="9" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B200" s="8" t="s">
         <v>16</v>
@@ -5861,15 +5866,15 @@
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
       <c r="E200" s="8" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="9" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B201" s="8" t="s">
         <v>445</v>
@@ -5879,7 +5884,7 @@
       </c>
       <c r="D201" s="8"/>
       <c r="E201" s="8" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G201" s="3" t="s">
         <v>57</v>
@@ -5887,16 +5892,16 @@
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B202" s="8" t="s">
         <v>177</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>

--- a/hashinfo.xlsx
+++ b/hashinfo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="718">
   <si>
     <t>Hash</t>
   </si>
@@ -113,6 +113,18 @@
     <t>{ssha512}06$otYx2eSXx.OkEY4F$71vDkRp8S0GNO96tgcvKDz7y8YYEenW8/mltpQsHuiueaHxSEMl1LMzQZTGQt7w.NLWoyb0WKZZfLuVtFIK...</t>
   </si>
   <si>
+    <t>Android FDE ≤ 4.3</t>
+  </si>
+  <si>
+    <t>^\$fde\$[0-9]{2}\$[a-f0-9]{32}\$[0-9]{2}\$[a-f0-9]{32}\$[a-f0-9]{3072}$</t>
+  </si>
+  <si>
+    <t>$fde$16$ca56e82e7b5a9c2fc1e3b5a7d671c2f9$16$7c124af19ac913be0fc137b75a34b20d$eac806ae7277c8d48243d52a8644fa57a817317bd3457f94dca727964cbc27c88296954f289597a9de3314a4e9d9f28dce70cf9ce3e1c3c0c6fc041687a0ad3cb333d4449bc9da8fcc7d5f85948a7ac3bc6d34f505e9d0d91da4396e35840bde3465ad11c5086c89ee6db68d65e47a2e5413f272caa01e02224e5ff3dc3bed3953a702e85e964e562e62f5c97a2df6c47547bfb5aeeb329ff8f9c9666724d399043fe970c8b282b45e93d008333f